--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -123,7 +123,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -205,6 +205,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -351,7 +358,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,7 +652,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S16" activeCellId="0" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="R13" activeCellId="0" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +720,7 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="16"/>
       <c r="G2" s="17" t="str">
-        <f aca="true">IF(H2="", IF(J2="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N2)),IF(J2="", "", INDIRECT("N" &amp; ROW() - 1) - N2))</f>
+        <f aca="false">IF(H2="", IF(J2="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N2)),IF(J2="", "", INDIRECT("N" &amp; ROW() - 1) - N2))</f>
         <v/>
       </c>
       <c r="H2" s="18" t="str">
@@ -752,7 +759,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="17" t="str">
-        <f aca="true">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
+        <f aca="false">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
       <c r="H3" s="18" t="str">
@@ -785,7 +792,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G4" s="17" t="str">
-        <f aca="true">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
+        <f aca="false">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
       <c r="H4" s="18" t="str">
@@ -824,7 +831,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G5" s="17" t="str">
-        <f aca="true">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
+        <f aca="false">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
       <c r="H5" s="18" t="str">
@@ -857,7 +864,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="17" t="str">
-        <f aca="true">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
+        <f aca="false">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
       <c r="H6" s="18" t="str">
@@ -884,7 +891,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G7" s="17" t="str">
-        <f aca="true">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
+        <f aca="false">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
       <c r="H7" s="18" t="str">
@@ -911,7 +918,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G8" s="17" t="str">
-        <f aca="true">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
+        <f aca="false">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
       <c r="H8" s="18" t="str">
@@ -938,7 +945,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G9" s="17" t="str">
-        <f aca="true">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
+        <f aca="false">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
       <c r="H9" s="18" t="str">
@@ -965,7 +972,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G10" s="17" t="str">
-        <f aca="true">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
+        <f aca="false">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
       <c r="H10" s="18" t="str">
@@ -992,7 +999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G11" s="17" t="str">
-        <f aca="true">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
+        <f aca="false">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
       <c r="H11" s="18" t="str">
@@ -1019,7 +1026,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="17" t="str">
-        <f aca="true">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
+        <f aca="false">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
       <c r="H12" s="18" t="str">
@@ -1046,7 +1053,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G13" s="17" t="str">
-        <f aca="true">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
+        <f aca="false">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
       <c r="H13" s="18" t="str">
@@ -1073,7 +1080,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G14" s="17" t="str">
-        <f aca="true">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
+        <f aca="false">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
       <c r="H14" s="18" t="str">
@@ -1100,7 +1107,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="17" t="str">
-        <f aca="true">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
+        <f aca="false">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
       <c r="H15" s="18" t="str">
@@ -1127,7 +1134,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G16" s="17" t="str">
-        <f aca="true">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
+        <f aca="false">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
       <c r="H16" s="18" t="str">
@@ -1154,7 +1161,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G17" s="17" t="str">
-        <f aca="true">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
+        <f aca="false">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
       <c r="H17" s="18" t="str">
@@ -1181,7 +1188,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G18" s="17" t="str">
-        <f aca="true">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
+        <f aca="false">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
       <c r="H18" s="18" t="str">
@@ -1208,7 +1215,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G19" s="17" t="str">
-        <f aca="true">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
+        <f aca="false">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
       <c r="H19" s="18" t="str">
@@ -1235,7 +1242,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G20" s="17" t="str">
-        <f aca="true">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
+        <f aca="false">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
       <c r="H20" s="18" t="str">
@@ -1262,7 +1269,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G21" s="17" t="str">
-        <f aca="true">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
+        <f aca="false">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
       <c r="H21" s="18" t="str">
@@ -1289,7 +1296,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="17" t="str">
-        <f aca="true">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
+        <f aca="false">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
       <c r="H22" s="18" t="str">
@@ -1316,7 +1323,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="17" t="str">
-        <f aca="true">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
+        <f aca="false">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
       <c r="H23" s="18" t="str">
@@ -1343,7 +1350,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G24" s="17" t="str">
-        <f aca="true">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
+        <f aca="false">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
       <c r="H24" s="18" t="str">
@@ -1370,7 +1377,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G25" s="17" t="str">
-        <f aca="true">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
+        <f aca="false">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
       <c r="H25" s="18" t="str">
@@ -1397,7 +1404,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G26" s="17" t="str">
-        <f aca="true">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
+        <f aca="false">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
       <c r="H26" s="18" t="str">
@@ -1424,7 +1431,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G27" s="17" t="str">
-        <f aca="true">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
+        <f aca="false">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
       <c r="H27" s="18" t="str">
@@ -1451,7 +1458,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G28" s="17" t="str">
-        <f aca="true">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
+        <f aca="false">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
       <c r="H28" s="18" t="str">
@@ -1478,7 +1485,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G29" s="17" t="str">
-        <f aca="true">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
+        <f aca="false">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
       <c r="H29" s="18" t="str">
@@ -1505,7 +1512,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G30" s="17" t="str">
-        <f aca="true">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
+        <f aca="false">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
       <c r="H30" s="18" t="str">
@@ -1532,7 +1539,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G31" s="17" t="str">
-        <f aca="true">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
+        <f aca="false">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
       <c r="H31" s="18" t="str">
@@ -1559,7 +1566,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G32" s="17" t="str">
-        <f aca="true">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
+        <f aca="false">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
       <c r="H32" s="18" t="str">
@@ -1586,7 +1593,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G33" s="17" t="str">
-        <f aca="true">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
+        <f aca="false">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
       <c r="H33" s="18" t="str">
@@ -1613,7 +1620,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G34" s="17" t="str">
-        <f aca="true">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
+        <f aca="false">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
       <c r="H34" s="18" t="str">
@@ -1640,7 +1647,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G35" s="17" t="str">
-        <f aca="true">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
+        <f aca="false">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
       <c r="H35" s="18" t="str">
@@ -1667,7 +1674,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="17" t="str">
-        <f aca="true">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
+        <f aca="false">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
       <c r="H36" s="18" t="str">
@@ -1694,7 +1701,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G37" s="17" t="str">
-        <f aca="true">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
+        <f aca="false">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
       <c r="H37" s="18" t="str">
@@ -1721,7 +1728,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G38" s="17" t="str">
-        <f aca="true">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
+        <f aca="false">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
       <c r="H38" s="18" t="str">
@@ -1748,7 +1755,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="17" t="str">
-        <f aca="true">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
+        <f aca="false">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
       <c r="H39" s="18" t="str">
@@ -1775,7 +1782,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G40" s="17" t="str">
-        <f aca="true">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
+        <f aca="false">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
       <c r="H40" s="18" t="str">
@@ -1802,7 +1809,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G41" s="17" t="str">
-        <f aca="true">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
+        <f aca="false">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
       <c r="H41" s="18" t="str">
@@ -1829,7 +1836,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G42" s="17" t="str">
-        <f aca="true">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
+        <f aca="false">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
       <c r="H42" s="18" t="str">
@@ -1856,7 +1863,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G43" s="17" t="str">
-        <f aca="true">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
+        <f aca="false">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
       <c r="H43" s="18" t="str">
@@ -1883,7 +1890,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G44" s="17" t="str">
-        <f aca="true">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
+        <f aca="false">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
       <c r="H44" s="18" t="str">
@@ -1910,7 +1917,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="17" t="str">
-        <f aca="true">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
+        <f aca="false">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
       <c r="H45" s="18" t="str">
@@ -1937,7 +1944,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="17" t="str">
-        <f aca="true">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
+        <f aca="false">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
       <c r="H46" s="18" t="str">
@@ -1964,7 +1971,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="17" t="str">
-        <f aca="true">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
+        <f aca="false">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
       <c r="H47" s="18" t="str">
@@ -1991,7 +1998,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="17" t="str">
-        <f aca="true">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
+        <f aca="false">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
       <c r="H48" s="18" t="str">
@@ -2018,7 +2025,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G49" s="17" t="str">
-        <f aca="true">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
+        <f aca="false">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
       <c r="H49" s="18" t="str">
@@ -2045,7 +2052,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G50" s="17" t="str">
-        <f aca="true">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
+        <f aca="false">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
       <c r="H50" s="18" t="str">
@@ -2072,7 +2079,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G51" s="17" t="str">
-        <f aca="true">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
+        <f aca="false">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
       <c r="H51" s="18" t="str">
@@ -2099,7 +2106,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G52" s="17" t="str">
-        <f aca="true">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
+        <f aca="false">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
       <c r="H52" s="18" t="str">
@@ -2126,7 +2133,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G53" s="17" t="str">
-        <f aca="true">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
+        <f aca="false">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
       <c r="H53" s="18" t="str">
@@ -2153,7 +2160,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G54" s="17" t="str">
-        <f aca="true">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
+        <f aca="false">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
       <c r="H54" s="18" t="str">
@@ -2180,7 +2187,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G55" s="17" t="str">
-        <f aca="true">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
+        <f aca="false">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
       <c r="H55" s="18" t="str">
@@ -2207,7 +2214,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G56" s="17" t="str">
-        <f aca="true">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
+        <f aca="false">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
       <c r="H56" s="18" t="str">
@@ -2234,7 +2241,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G57" s="17" t="str">
-        <f aca="true">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
+        <f aca="false">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
       <c r="H57" s="18" t="str">
@@ -2261,7 +2268,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G58" s="17" t="str">
-        <f aca="true">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
+        <f aca="false">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
       <c r="H58" s="18" t="str">
@@ -2288,7 +2295,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G59" s="17" t="str">
-        <f aca="true">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
+        <f aca="false">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
       <c r="H59" s="18" t="str">
@@ -2315,7 +2322,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G60" s="17" t="str">
-        <f aca="true">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
+        <f aca="false">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
       <c r="H60" s="18" t="str">
@@ -2342,7 +2349,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G61" s="17" t="str">
-        <f aca="true">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
+        <f aca="false">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
       <c r="H61" s="18" t="str">
@@ -2369,7 +2376,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G62" s="17" t="str">
-        <f aca="true">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
+        <f aca="false">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
       <c r="H62" s="18" t="str">
@@ -2396,7 +2403,7 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G63" s="17" t="str">
-        <f aca="true">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
+        <f aca="false">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
       <c r="H63" s="18" t="str">
@@ -2423,7 +2430,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G64" s="17" t="str">
-        <f aca="true">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
+        <f aca="false">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
       <c r="H64" s="18" t="str">
@@ -2450,7 +2457,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G65" s="17" t="str">
-        <f aca="true">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
+        <f aca="false">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
       <c r="H65" s="18" t="str">
@@ -2477,7 +2484,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G66" s="17" t="str">
-        <f aca="true">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
+        <f aca="false">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
       <c r="H66" s="18" t="str">
@@ -2504,7 +2511,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="17" t="str">
-        <f aca="true">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
+        <f aca="false">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
       <c r="H67" s="18" t="str">
@@ -2531,7 +2538,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G68" s="17" t="str">
-        <f aca="true">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
+        <f aca="false">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
       <c r="H68" s="18" t="str">
@@ -2558,7 +2565,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="17" t="str">
-        <f aca="true">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
+        <f aca="false">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
       <c r="H69" s="18" t="str">
@@ -2585,7 +2592,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="17" t="str">
-        <f aca="true">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
+        <f aca="false">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
       <c r="H70" s="18" t="str">
@@ -2612,7 +2619,7 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G71" s="17" t="str">
-        <f aca="true">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
+        <f aca="false">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
       <c r="H71" s="18" t="str">
@@ -2639,7 +2646,7 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G72" s="17" t="str">
-        <f aca="true">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
+        <f aca="false">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
       <c r="H72" s="18" t="str">
@@ -2666,7 +2673,7 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G73" s="17" t="str">
-        <f aca="true">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
+        <f aca="false">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
       <c r="H73" s="18" t="str">
@@ -2693,7 +2700,7 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G74" s="17" t="str">
-        <f aca="true">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
+        <f aca="false">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
       <c r="H74" s="18" t="str">
@@ -2720,7 +2727,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G75" s="17" t="str">
-        <f aca="true">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
+        <f aca="false">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
       <c r="H75" s="18" t="str">
@@ -2747,7 +2754,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G76" s="17" t="str">
-        <f aca="true">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
+        <f aca="false">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
       <c r="H76" s="18" t="str">
@@ -2774,7 +2781,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G77" s="17" t="str">
-        <f aca="true">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
+        <f aca="false">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
       <c r="H77" s="18" t="str">
@@ -2801,7 +2808,7 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G78" s="17" t="str">
-        <f aca="true">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
+        <f aca="false">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
       <c r="H78" s="18" t="str">
@@ -2828,7 +2835,7 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G79" s="17" t="str">
-        <f aca="true">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
+        <f aca="false">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
       <c r="H79" s="18" t="str">
@@ -2855,7 +2862,7 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G80" s="17" t="str">
-        <f aca="true">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
+        <f aca="false">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
       <c r="H80" s="18" t="str">
@@ -2882,7 +2889,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G81" s="17" t="str">
-        <f aca="true">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
+        <f aca="false">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
       <c r="H81" s="18" t="str">
@@ -2909,7 +2916,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G82" s="17" t="str">
-        <f aca="true">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
+        <f aca="false">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
       <c r="H82" s="18" t="str">
@@ -2936,7 +2943,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G83" s="17" t="str">
-        <f aca="true">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
+        <f aca="false">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
       <c r="H83" s="18" t="str">
@@ -2963,7 +2970,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G84" s="17" t="str">
-        <f aca="true">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
+        <f aca="false">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
       <c r="H84" s="18" t="str">
@@ -2990,7 +2997,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G85" s="17" t="str">
-        <f aca="true">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
+        <f aca="false">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
       <c r="H85" s="18" t="str">
@@ -3017,7 +3024,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G86" s="17" t="str">
-        <f aca="true">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
+        <f aca="false">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
       <c r="H86" s="18" t="str">
@@ -3044,7 +3051,7 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G87" s="17" t="str">
-        <f aca="true">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
+        <f aca="false">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
       <c r="H87" s="18" t="str">
@@ -3071,7 +3078,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G88" s="17" t="str">
-        <f aca="true">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
+        <f aca="false">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
       <c r="H88" s="18" t="str">
@@ -3098,7 +3105,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G89" s="17" t="str">
-        <f aca="true">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
+        <f aca="false">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
       <c r="H89" s="18" t="str">
@@ -3125,7 +3132,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G90" s="17" t="str">
-        <f aca="true">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
+        <f aca="false">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
       <c r="H90" s="18" t="str">
@@ -3152,7 +3159,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G91" s="17" t="str">
-        <f aca="true">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
+        <f aca="false">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
       <c r="H91" s="18" t="str">
@@ -3179,7 +3186,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G92" s="17" t="str">
-        <f aca="true">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
+        <f aca="false">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
       <c r="H92" s="18" t="str">
@@ -3206,7 +3213,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G93" s="17" t="str">
-        <f aca="true">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
+        <f aca="false">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
       <c r="H93" s="18" t="str">
@@ -3233,7 +3240,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G94" s="17" t="str">
-        <f aca="true">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
+        <f aca="false">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
       <c r="H94" s="18" t="str">
@@ -3260,7 +3267,7 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G95" s="17" t="str">
-        <f aca="true">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
+        <f aca="false">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
       <c r="H95" s="18" t="str">
@@ -3287,7 +3294,7 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G96" s="17" t="str">
-        <f aca="true">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
+        <f aca="false">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
       <c r="H96" s="18" t="str">
@@ -3314,7 +3321,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G97" s="17" t="str">
-        <f aca="true">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
+        <f aca="false">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
       <c r="H97" s="18" t="str">
@@ -3341,7 +3348,7 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G98" s="17" t="str">
-        <f aca="true">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
+        <f aca="false">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
       <c r="H98" s="18" t="str">
@@ -3368,7 +3375,7 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G99" s="17" t="str">
-        <f aca="true">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
+        <f aca="false">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
       <c r="H99" s="18" t="str">
@@ -3395,7 +3402,7 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G100" s="17" t="str">
-        <f aca="true">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
+        <f aca="false">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
       <c r="H100" s="18" t="str">
@@ -3422,7 +3429,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G101" s="17" t="str">
-        <f aca="true">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
+        <f aca="false">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
       <c r="H101" s="18" t="str">
@@ -3449,7 +3456,7 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G102" s="17" t="str">
-        <f aca="true">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
+        <f aca="false">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
       <c r="H102" s="18" t="str">
@@ -3476,7 +3483,7 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G103" s="17" t="str">
-        <f aca="true">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
+        <f aca="false">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
       <c r="H103" s="18" t="str">
@@ -3503,7 +3510,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G104" s="17" t="str">
-        <f aca="true">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
+        <f aca="false">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
       <c r="H104" s="18" t="str">
@@ -3530,7 +3537,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G105" s="17" t="str">
-        <f aca="true">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
+        <f aca="false">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
       <c r="H105" s="18" t="str">
@@ -3557,7 +3564,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G106" s="17" t="str">
-        <f aca="true">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
+        <f aca="false">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
       <c r="H106" s="18" t="str">
@@ -3584,7 +3591,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G107" s="17" t="str">
-        <f aca="true">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
+        <f aca="false">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
       <c r="H107" s="18" t="str">
@@ -3611,7 +3618,7 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G108" s="17" t="str">
-        <f aca="true">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
+        <f aca="false">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
       <c r="H108" s="18" t="str">
@@ -3638,7 +3645,7 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G109" s="17" t="str">
-        <f aca="true">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
+        <f aca="false">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
       <c r="H109" s="18" t="str">
@@ -3665,7 +3672,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G110" s="17" t="str">
-        <f aca="true">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
+        <f aca="false">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
       <c r="H110" s="18" t="str">
@@ -3692,7 +3699,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G111" s="17" t="str">
-        <f aca="true">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
+        <f aca="false">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
       <c r="H111" s="18" t="str">
@@ -3719,7 +3726,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G112" s="17" t="str">
-        <f aca="true">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
+        <f aca="false">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
       <c r="H112" s="18" t="str">
@@ -3746,7 +3753,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G113" s="17" t="str">
-        <f aca="true">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
+        <f aca="false">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
       <c r="H113" s="18" t="str">
@@ -3773,7 +3780,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G114" s="17" t="str">
-        <f aca="true">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
+        <f aca="false">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
       <c r="H114" s="18" t="str">
@@ -3800,7 +3807,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="17" t="str">
-        <f aca="true">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
+        <f aca="false">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
       <c r="H115" s="18" t="str">
@@ -3827,7 +3834,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G116" s="17" t="str">
-        <f aca="true">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
+        <f aca="false">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
       <c r="H116" s="18" t="str">
@@ -3854,7 +3861,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G117" s="17" t="str">
-        <f aca="true">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
+        <f aca="false">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
       <c r="H117" s="18" t="str">
@@ -3881,7 +3888,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G118" s="17" t="str">
-        <f aca="true">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
+        <f aca="false">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
       <c r="H118" s="18" t="str">
@@ -3908,7 +3915,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G119" s="17" t="str">
-        <f aca="true">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
+        <f aca="false">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
       <c r="H119" s="18" t="str">
@@ -3935,7 +3942,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G120" s="17" t="str">
-        <f aca="true">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
+        <f aca="false">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
       <c r="H120" s="18" t="str">
@@ -3962,7 +3969,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G121" s="17" t="str">
-        <f aca="true">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
+        <f aca="false">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
       <c r="H121" s="18" t="str">
@@ -3989,7 +3996,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G122" s="17" t="str">
-        <f aca="true">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
+        <f aca="false">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
       <c r="H122" s="18" t="str">
@@ -4025,10 +4032,10 @@
   </mergeCells>
   <conditionalFormatting sqref="B2:B122">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B2&lt;&gt;#REF!</formula>
+      <formula>$B2&lt;&gt;#ref!</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B2&lt;&gt;#REF!</formula>
+      <formula>$B2&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -92,7 +92,16 @@
     <t xml:space="preserve">Суммарный вес сыворотки</t>
   </si>
   <si>
-    <t xml:space="preserve">Вес варки</t>
+    <t xml:space="preserve">Вес на выходе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общий объем сыворотки, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Используется, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не использовано, кг</t>
   </si>
   <si>
     <t xml:space="preserve">Разделитель</t>
@@ -102,15 +111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Разделитель int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общий объем сыворотки, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Используется, кг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не использовано, кг</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,29 +206,16 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBCC"/>
-        <bgColor rgb="FFEBF1DE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -237,7 +224,28 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -269,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,24 +322,56 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -350,18 +390,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -371,7 +399,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -386,26 +414,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF7A19A"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left style="hair"/>
-        <right style="hair"/>
-        <top style="hair"/>
-        <bottom style="hair"/>
-        <diagonal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -451,28 +459,33 @@
         <name val="Calibri"/>
         <charset val="1"/>
         <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFCC0000"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
+          <bgColor rgb="FFF7A19A"/>
         </patternFill>
       </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -482,7 +495,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFBCC"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -503,7 +516,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF7A19A"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF65C295"/>
       <rgbColor rgb="FF99CC00"/>
@@ -645,14 +658,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W122"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="16" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R13" activeCellId="0" sqref="R13"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -672,101 +683,101 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="3.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="17" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="11" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="21" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+    <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="S1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="T1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="16"/>
-      <c r="G2" s="17" t="str">
-        <f aca="false">IF(H2="", IF(J2="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N2)),IF(J2="", "", INDIRECT("N" &amp; ROW() - 1) - N2))</f>
-        <v/>
-      </c>
-      <c r="H2" s="18" t="str">
-        <f aca="true">IF(J2 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="K2" s="0" t="n">
-        <f aca="true">IF(J2 = "-", -INDIRECT("C" &amp; ROW() - 1),F2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <f aca="true">IF(J2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K2)))), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <f aca="false">IF(J2="-",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <f aca="true">IF(L2 = 0, INDIRECT("N" &amp; ROW() - 1), L2)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="20" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21" t="s">
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="21"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="17" t="str">
+      <c r="N2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22" t="n">
+        <f aca="false">SUM(H3:H129)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="23" t="n">
+        <f aca="false">R2-S2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="24"/>
+      <c r="G3" s="25" t="str">
         <f aca="false">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="18" t="str">
-        <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I3" s="19"/>
+      <c r="H3" s="26" t="str">
+        <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="27"/>
       <c r="K3" s="0" t="n">
         <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
         <v>0</v>
@@ -783,23 +794,17 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="17" t="str">
+      <c r="G4" s="25" t="str">
         <f aca="false">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
-      <c r="H4" s="18" t="str">
-        <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I4" s="19"/>
+      <c r="H4" s="26" t="str">
+        <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I4" s="27"/>
       <c r="K4" s="0" t="n">
         <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1),F4)</f>
         <v>0</v>
@@ -816,29 +821,17 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22" t="n">
-        <f aca="false">SUM(H2:H128)</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22" t="n">
-        <f aca="false">R4-T4</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="22"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="17" t="str">
+      <c r="G5" s="25" t="str">
         <f aca="false">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="18" t="str">
-        <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="19"/>
+      <c r="H5" s="26" t="str">
+        <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I5" s="27"/>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1),F5)</f>
         <v>0</v>
@@ -855,23 +848,17 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="17" t="str">
+      <c r="G6" s="25" t="str">
         <f aca="false">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
-      <c r="H6" s="18" t="str">
-        <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="19"/>
+      <c r="H6" s="26" t="str">
+        <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="27"/>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1),F6)</f>
         <v>0</v>
@@ -890,15 +877,15 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="25" t="str">
         <f aca="false">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="18" t="str">
-        <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I7" s="19"/>
+      <c r="H7" s="26" t="str">
+        <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I7" s="27"/>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1),F7)</f>
         <v>0</v>
@@ -917,15 +904,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="25" t="str">
         <f aca="false">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="18" t="str">
-        <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I8" s="19"/>
+      <c r="H8" s="26" t="str">
+        <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I8" s="27"/>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1),F8)</f>
         <v>0</v>
@@ -944,15 +931,15 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="25" t="str">
         <f aca="false">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
-      <c r="H9" s="18" t="str">
-        <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I9" s="19"/>
+      <c r="H9" s="26" t="str">
+        <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="27"/>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1),F9)</f>
         <v>0</v>
@@ -971,15 +958,15 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="17" t="str">
+      <c r="G10" s="25" t="str">
         <f aca="false">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="18" t="str">
-        <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I10" s="19"/>
+      <c r="H10" s="26" t="str">
+        <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="27"/>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1),F10)</f>
         <v>0</v>
@@ -998,15 +985,15 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="25" t="str">
         <f aca="false">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
-      <c r="H11" s="18" t="str">
-        <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I11" s="19"/>
+      <c r="H11" s="26" t="str">
+        <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="27"/>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1),F11)</f>
         <v>0</v>
@@ -1025,15 +1012,15 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="17" t="str">
+      <c r="G12" s="25" t="str">
         <f aca="false">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="18" t="str">
-        <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I12" s="19"/>
+      <c r="H12" s="26" t="str">
+        <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I12" s="27"/>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1),F12)</f>
         <v>0</v>
@@ -1052,15 +1039,15 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="17" t="str">
+      <c r="G13" s="25" t="str">
         <f aca="false">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
-      <c r="H13" s="18" t="str">
-        <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="19"/>
+      <c r="H13" s="26" t="str">
+        <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I13" s="27"/>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1),F13)</f>
         <v>0</v>
@@ -1079,15 +1066,15 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="17" t="str">
+      <c r="G14" s="25" t="str">
         <f aca="false">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="18" t="str">
-        <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="H14" s="26" t="str">
+        <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I14" s="27"/>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1),F14)</f>
         <v>0</v>
@@ -1106,15 +1093,15 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="17" t="str">
+      <c r="G15" s="25" t="str">
         <f aca="false">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
-      <c r="H15" s="18" t="str">
-        <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="19"/>
+      <c r="H15" s="26" t="str">
+        <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I15" s="27"/>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1),F15)</f>
         <v>0</v>
@@ -1133,15 +1120,15 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="17" t="str">
+      <c r="G16" s="25" t="str">
         <f aca="false">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="18" t="str">
-        <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="19"/>
+      <c r="H16" s="26" t="str">
+        <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I16" s="27"/>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1),F16)</f>
         <v>0</v>
@@ -1160,15 +1147,15 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="17" t="str">
+      <c r="G17" s="25" t="str">
         <f aca="false">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
-      <c r="H17" s="18" t="str">
-        <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I17" s="19"/>
+      <c r="H17" s="26" t="str">
+        <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="27"/>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1),F17)</f>
         <v>0</v>
@@ -1187,15 +1174,15 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="17" t="str">
+      <c r="G18" s="25" t="str">
         <f aca="false">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
-      <c r="H18" s="18" t="str">
-        <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="19"/>
+      <c r="H18" s="26" t="str">
+        <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="27"/>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1),F18)</f>
         <v>0</v>
@@ -1214,15 +1201,15 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="17" t="str">
+      <c r="G19" s="25" t="str">
         <f aca="false">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H19" s="18" t="str">
-        <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="19"/>
+      <c r="H19" s="26" t="str">
+        <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="27"/>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1),F19)</f>
         <v>0</v>
@@ -1241,15 +1228,15 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="17" t="str">
+      <c r="G20" s="25" t="str">
         <f aca="false">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
-      <c r="H20" s="18" t="str">
-        <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="19"/>
+      <c r="H20" s="26" t="str">
+        <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="27"/>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
         <v>0</v>
@@ -1268,15 +1255,15 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="17" t="str">
+      <c r="G21" s="25" t="str">
         <f aca="false">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H21" s="18" t="str">
-        <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="19"/>
+      <c r="H21" s="26" t="str">
+        <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I21" s="27"/>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),F21)</f>
         <v>0</v>
@@ -1295,15 +1282,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="17" t="str">
+      <c r="G22" s="25" t="str">
         <f aca="false">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
-      <c r="H22" s="18" t="str">
-        <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="19"/>
+      <c r="H22" s="26" t="str">
+        <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="27"/>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1),F22)</f>
         <v>0</v>
@@ -1322,15 +1309,15 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="17" t="str">
+      <c r="G23" s="25" t="str">
         <f aca="false">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
-      <c r="H23" s="18" t="str">
-        <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="19"/>
+      <c r="H23" s="26" t="str">
+        <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I23" s="27"/>
       <c r="K23" s="0" t="n">
         <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),F23)</f>
         <v>0</v>
@@ -1349,15 +1336,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="17" t="str">
+      <c r="G24" s="25" t="str">
         <f aca="false">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="18" t="str">
-        <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="19"/>
+      <c r="H24" s="26" t="str">
+        <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I24" s="27"/>
       <c r="K24" s="0" t="n">
         <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1),F24)</f>
         <v>0</v>
@@ -1376,15 +1363,15 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="17" t="str">
+      <c r="G25" s="25" t="str">
         <f aca="false">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="H25" s="18" t="str">
-        <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="19"/>
+      <c r="H25" s="26" t="str">
+        <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I25" s="27"/>
       <c r="K25" s="0" t="n">
         <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),F25)</f>
         <v>0</v>
@@ -1403,15 +1390,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="17" t="str">
+      <c r="G26" s="25" t="str">
         <f aca="false">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="18" t="str">
-        <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="19"/>
+      <c r="H26" s="26" t="str">
+        <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="27"/>
       <c r="K26" s="0" t="n">
         <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
         <v>0</v>
@@ -1430,15 +1417,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="17" t="str">
+      <c r="G27" s="25" t="str">
         <f aca="false">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="H27" s="18" t="str">
-        <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="19"/>
+      <c r="H27" s="26" t="str">
+        <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="27"/>
       <c r="K27" s="0" t="n">
         <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1),F27)</f>
         <v>0</v>
@@ -1457,15 +1444,15 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="17" t="str">
+      <c r="G28" s="25" t="str">
         <f aca="false">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="18" t="str">
-        <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="19"/>
+      <c r="H28" s="26" t="str">
+        <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I28" s="27"/>
       <c r="K28" s="0" t="n">
         <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1),F28)</f>
         <v>0</v>
@@ -1484,15 +1471,15 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="17" t="str">
+      <c r="G29" s="25" t="str">
         <f aca="false">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="H29" s="18" t="str">
-        <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="19"/>
+      <c r="H29" s="26" t="str">
+        <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="27"/>
       <c r="K29" s="0" t="n">
         <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
         <v>0</v>
@@ -1511,15 +1498,15 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="17" t="str">
+      <c r="G30" s="25" t="str">
         <f aca="false">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="18" t="str">
-        <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="19"/>
+      <c r="H30" s="26" t="str">
+        <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="27"/>
       <c r="K30" s="0" t="n">
         <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1),F30)</f>
         <v>0</v>
@@ -1538,15 +1525,15 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="17" t="str">
+      <c r="G31" s="25" t="str">
         <f aca="false">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="H31" s="18" t="str">
-        <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="19"/>
+      <c r="H31" s="26" t="str">
+        <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I31" s="27"/>
       <c r="K31" s="0" t="n">
         <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1),F31)</f>
         <v>0</v>
@@ -1565,15 +1552,15 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="17" t="str">
+      <c r="G32" s="25" t="str">
         <f aca="false">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="18" t="str">
-        <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="19"/>
+      <c r="H32" s="26" t="str">
+        <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I32" s="27"/>
       <c r="K32" s="0" t="n">
         <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1),F32)</f>
         <v>0</v>
@@ -1592,15 +1579,15 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="17" t="str">
+      <c r="G33" s="25" t="str">
         <f aca="false">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="H33" s="18" t="str">
-        <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I33" s="19"/>
+      <c r="H33" s="26" t="str">
+        <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="27"/>
       <c r="K33" s="0" t="n">
         <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),F33)</f>
         <v>0</v>
@@ -1619,15 +1606,15 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="17" t="str">
+      <c r="G34" s="25" t="str">
         <f aca="false">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="18" t="str">
-        <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I34" s="19"/>
+      <c r="H34" s="26" t="str">
+        <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="27"/>
       <c r="K34" s="0" t="n">
         <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1),F34)</f>
         <v>0</v>
@@ -1646,15 +1633,15 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="17" t="str">
+      <c r="G35" s="25" t="str">
         <f aca="false">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="H35" s="18" t="str">
-        <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I35" s="19"/>
+      <c r="H35" s="26" t="str">
+        <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I35" s="27"/>
       <c r="K35" s="0" t="n">
         <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
         <v>0</v>
@@ -1673,15 +1660,15 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="17" t="str">
+      <c r="G36" s="25" t="str">
         <f aca="false">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="18" t="str">
-        <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="19"/>
+      <c r="H36" s="26" t="str">
+        <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="27"/>
       <c r="K36" s="0" t="n">
         <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1),F36)</f>
         <v>0</v>
@@ -1700,15 +1687,15 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="17" t="str">
+      <c r="G37" s="25" t="str">
         <f aca="false">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
-      <c r="H37" s="18" t="str">
-        <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="19"/>
+      <c r="H37" s="26" t="str">
+        <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="27"/>
       <c r="K37" s="0" t="n">
         <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1),F37)</f>
         <v>0</v>
@@ -1727,15 +1714,15 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="17" t="str">
+      <c r="G38" s="25" t="str">
         <f aca="false">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="18" t="str">
-        <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="19"/>
+      <c r="H38" s="26" t="str">
+        <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I38" s="27"/>
       <c r="K38" s="0" t="n">
         <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1),F38)</f>
         <v>0</v>
@@ -1754,15 +1741,15 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="17" t="str">
+      <c r="G39" s="25" t="str">
         <f aca="false">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
-      <c r="H39" s="18" t="str">
-        <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="19"/>
+      <c r="H39" s="26" t="str">
+        <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I39" s="27"/>
       <c r="K39" s="0" t="n">
         <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1),F39)</f>
         <v>0</v>
@@ -1781,15 +1768,15 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="17" t="str">
+      <c r="G40" s="25" t="str">
         <f aca="false">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="18" t="str">
-        <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I40" s="19"/>
+      <c r="H40" s="26" t="str">
+        <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="27"/>
       <c r="K40" s="0" t="n">
         <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1),F40)</f>
         <v>0</v>
@@ -1808,15 +1795,15 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="17" t="str">
+      <c r="G41" s="25" t="str">
         <f aca="false">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
-      <c r="H41" s="18" t="str">
-        <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I41" s="19"/>
+      <c r="H41" s="26" t="str">
+        <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I41" s="27"/>
       <c r="K41" s="0" t="n">
         <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),F41)</f>
         <v>0</v>
@@ -1835,15 +1822,15 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="17" t="str">
+      <c r="G42" s="25" t="str">
         <f aca="false">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="18" t="str">
-        <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I42" s="19"/>
+      <c r="H42" s="26" t="str">
+        <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I42" s="27"/>
       <c r="K42" s="0" t="n">
         <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1),F42)</f>
         <v>0</v>
@@ -1862,15 +1849,15 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="17" t="str">
+      <c r="G43" s="25" t="str">
         <f aca="false">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
-      <c r="H43" s="18" t="str">
-        <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I43" s="19"/>
+      <c r="H43" s="26" t="str">
+        <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I43" s="27"/>
       <c r="K43" s="0" t="n">
         <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1),F43)</f>
         <v>0</v>
@@ -1889,15 +1876,15 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="17" t="str">
+      <c r="G44" s="25" t="str">
         <f aca="false">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="18" t="str">
-        <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I44" s="19"/>
+      <c r="H44" s="26" t="str">
+        <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="27"/>
       <c r="K44" s="0" t="n">
         <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1),F44)</f>
         <v>0</v>
@@ -1916,15 +1903,15 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="17" t="str">
+      <c r="G45" s="25" t="str">
         <f aca="false">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="18" t="str">
-        <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I45" s="19"/>
+      <c r="H45" s="26" t="str">
+        <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I45" s="27"/>
       <c r="K45" s="0" t="n">
         <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1),F45)</f>
         <v>0</v>
@@ -1943,15 +1930,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="17" t="str">
+      <c r="G46" s="25" t="str">
         <f aca="false">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
-      <c r="H46" s="18" t="str">
-        <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I46" s="19"/>
+      <c r="H46" s="26" t="str">
+        <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I46" s="27"/>
       <c r="K46" s="0" t="n">
         <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1),F46)</f>
         <v>0</v>
@@ -1970,15 +1957,15 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="17" t="str">
+      <c r="G47" s="25" t="str">
         <f aca="false">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="18" t="str">
-        <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I47" s="19"/>
+      <c r="H47" s="26" t="str">
+        <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="27"/>
       <c r="K47" s="0" t="n">
         <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1),F47)</f>
         <v>0</v>
@@ -1997,15 +1984,15 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="17" t="str">
+      <c r="G48" s="25" t="str">
         <f aca="false">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
-      <c r="H48" s="18" t="str">
-        <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I48" s="19"/>
+      <c r="H48" s="26" t="str">
+        <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="27"/>
       <c r="K48" s="0" t="n">
         <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1),F48)</f>
         <v>0</v>
@@ -2024,15 +2011,15 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="17" t="str">
+      <c r="G49" s="25" t="str">
         <f aca="false">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="18" t="str">
-        <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I49" s="19"/>
+      <c r="H49" s="26" t="str">
+        <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I49" s="27"/>
       <c r="K49" s="0" t="n">
         <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1),F49)</f>
         <v>0</v>
@@ -2051,15 +2038,15 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="17" t="str">
+      <c r="G50" s="25" t="str">
         <f aca="false">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="18" t="str">
-        <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I50" s="19"/>
+      <c r="H50" s="26" t="str">
+        <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="27"/>
       <c r="K50" s="0" t="n">
         <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1),F50)</f>
         <v>0</v>
@@ -2078,15 +2065,15 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="17" t="str">
+      <c r="G51" s="25" t="str">
         <f aca="false">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
-      <c r="H51" s="18" t="str">
-        <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I51" s="19"/>
+      <c r="H51" s="26" t="str">
+        <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="27"/>
       <c r="K51" s="0" t="n">
         <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1),F51)</f>
         <v>0</v>
@@ -2105,15 +2092,15 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="17" t="str">
+      <c r="G52" s="25" t="str">
         <f aca="false">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="18" t="str">
-        <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I52" s="19"/>
+      <c r="H52" s="26" t="str">
+        <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I52" s="27"/>
       <c r="K52" s="0" t="n">
         <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1),F52)</f>
         <v>0</v>
@@ -2132,15 +2119,15 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="17" t="str">
+      <c r="G53" s="25" t="str">
         <f aca="false">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="18" t="str">
-        <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I53" s="19"/>
+      <c r="H53" s="26" t="str">
+        <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I53" s="27"/>
       <c r="K53" s="0" t="n">
         <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1),F53)</f>
         <v>0</v>
@@ -2159,15 +2146,15 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="17" t="str">
+      <c r="G54" s="25" t="str">
         <f aca="false">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="18" t="str">
-        <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I54" s="19"/>
+      <c r="H54" s="26" t="str">
+        <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I54" s="27"/>
       <c r="K54" s="0" t="n">
         <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1),F54)</f>
         <v>0</v>
@@ -2186,15 +2173,15 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="17" t="str">
+      <c r="G55" s="25" t="str">
         <f aca="false">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="18" t="str">
-        <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I55" s="19"/>
+      <c r="H55" s="26" t="str">
+        <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="27"/>
       <c r="K55" s="0" t="n">
         <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1),F55)</f>
         <v>0</v>
@@ -2213,15 +2200,15 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="17" t="str">
+      <c r="G56" s="25" t="str">
         <f aca="false">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="18" t="str">
-        <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I56" s="19"/>
+      <c r="H56" s="26" t="str">
+        <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I56" s="27"/>
       <c r="K56" s="0" t="n">
         <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1),F56)</f>
         <v>0</v>
@@ -2240,15 +2227,15 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="17" t="str">
+      <c r="G57" s="25" t="str">
         <f aca="false">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="18" t="str">
-        <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I57" s="19"/>
+      <c r="H57" s="26" t="str">
+        <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I57" s="27"/>
       <c r="K57" s="0" t="n">
         <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
         <v>0</v>
@@ -2267,15 +2254,15 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="17" t="str">
+      <c r="G58" s="25" t="str">
         <f aca="false">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="18" t="str">
-        <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I58" s="19"/>
+      <c r="H58" s="26" t="str">
+        <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I58" s="27"/>
       <c r="K58" s="0" t="n">
         <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1),F58)</f>
         <v>0</v>
@@ -2294,15 +2281,15 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="17" t="str">
+      <c r="G59" s="25" t="str">
         <f aca="false">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="18" t="str">
-        <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I59" s="19"/>
+      <c r="H59" s="26" t="str">
+        <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="27"/>
       <c r="K59" s="0" t="n">
         <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1),F59)</f>
         <v>0</v>
@@ -2321,15 +2308,15 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="17" t="str">
+      <c r="G60" s="25" t="str">
         <f aca="false">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="18" t="str">
-        <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I60" s="19"/>
+      <c r="H60" s="26" t="str">
+        <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I60" s="27"/>
       <c r="K60" s="0" t="n">
         <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1),F60)</f>
         <v>0</v>
@@ -2348,15 +2335,15 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="17" t="str">
+      <c r="G61" s="25" t="str">
         <f aca="false">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="18" t="str">
-        <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I61" s="19"/>
+      <c r="H61" s="26" t="str">
+        <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I61" s="27"/>
       <c r="K61" s="0" t="n">
         <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
         <v>0</v>
@@ -2375,15 +2362,15 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="17" t="str">
+      <c r="G62" s="25" t="str">
         <f aca="false">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="18" t="str">
-        <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I62" s="19"/>
+      <c r="H62" s="26" t="str">
+        <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I62" s="27"/>
       <c r="K62" s="0" t="n">
         <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1),F62)</f>
         <v>0</v>
@@ -2402,15 +2389,15 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="17" t="str">
+      <c r="G63" s="25" t="str">
         <f aca="false">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="18" t="str">
-        <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I63" s="19"/>
+      <c r="H63" s="26" t="str">
+        <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="27"/>
       <c r="K63" s="0" t="n">
         <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1),F63)</f>
         <v>0</v>
@@ -2429,15 +2416,15 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="17" t="str">
+      <c r="G64" s="25" t="str">
         <f aca="false">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="18" t="str">
-        <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I64" s="19"/>
+      <c r="H64" s="26" t="str">
+        <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I64" s="27"/>
       <c r="K64" s="0" t="n">
         <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1),F64)</f>
         <v>0</v>
@@ -2456,15 +2443,15 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="17" t="str">
+      <c r="G65" s="25" t="str">
         <f aca="false">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="18" t="str">
-        <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I65" s="19"/>
+      <c r="H65" s="26" t="str">
+        <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I65" s="27"/>
       <c r="K65" s="0" t="n">
         <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1),F65)</f>
         <v>0</v>
@@ -2483,15 +2470,15 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="17" t="str">
+      <c r="G66" s="25" t="str">
         <f aca="false">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="18" t="str">
-        <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I66" s="19"/>
+      <c r="H66" s="26" t="str">
+        <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I66" s="27"/>
       <c r="K66" s="0" t="n">
         <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1),F66)</f>
         <v>0</v>
@@ -2510,15 +2497,15 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="17" t="str">
+      <c r="G67" s="25" t="str">
         <f aca="false">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="18" t="str">
-        <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I67" s="19"/>
+      <c r="H67" s="26" t="str">
+        <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I67" s="27"/>
       <c r="K67" s="0" t="n">
         <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
         <v>0</v>
@@ -2537,15 +2524,15 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="17" t="str">
+      <c r="G68" s="25" t="str">
         <f aca="false">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="18" t="str">
-        <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I68" s="19"/>
+      <c r="H68" s="26" t="str">
+        <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I68" s="27"/>
       <c r="K68" s="0" t="n">
         <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1),F68)</f>
         <v>0</v>
@@ -2564,15 +2551,15 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="17" t="str">
+      <c r="G69" s="25" t="str">
         <f aca="false">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="18" t="str">
-        <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I69" s="19"/>
+      <c r="H69" s="26" t="str">
+        <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I69" s="27"/>
       <c r="K69" s="0" t="n">
         <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1),F69)</f>
         <v>0</v>
@@ -2591,15 +2578,15 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="17" t="str">
+      <c r="G70" s="25" t="str">
         <f aca="false">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="18" t="str">
-        <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I70" s="19"/>
+      <c r="H70" s="26" t="str">
+        <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I70" s="27"/>
       <c r="K70" s="0" t="n">
         <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1),F70)</f>
         <v>0</v>
@@ -2618,15 +2605,15 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="17" t="str">
+      <c r="G71" s="25" t="str">
         <f aca="false">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="18" t="str">
-        <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I71" s="19"/>
+      <c r="H71" s="26" t="str">
+        <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="27"/>
       <c r="K71" s="0" t="n">
         <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1),F71)</f>
         <v>0</v>
@@ -2645,15 +2632,15 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="17" t="str">
+      <c r="G72" s="25" t="str">
         <f aca="false">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="18" t="str">
-        <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I72" s="19"/>
+      <c r="H72" s="26" t="str">
+        <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="27"/>
       <c r="K72" s="0" t="n">
         <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1),F72)</f>
         <v>0</v>
@@ -2672,15 +2659,15 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="17" t="str">
+      <c r="G73" s="25" t="str">
         <f aca="false">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="18" t="str">
-        <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I73" s="19"/>
+      <c r="H73" s="26" t="str">
+        <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I73" s="27"/>
       <c r="K73" s="0" t="n">
         <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),F73)</f>
         <v>0</v>
@@ -2699,21 +2686,21 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G74" s="17" t="str">
+      <c r="G74" s="25" t="str">
         <f aca="false">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="18" t="str">
-        <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I74" s="19"/>
+      <c r="H74" s="26" t="str">
+        <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I74" s="27"/>
       <c r="K74" s="0" t="n">
         <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1),F74)</f>
         <v>0</v>
       </c>
       <c r="L74" s="0" t="n">
-        <f aca="true">IF(J74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K74)))),0)</f>
+        <f aca="true">IF(J74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K74)))), 0)</f>
         <v>0</v>
       </c>
       <c r="M74" s="0" t="n">
@@ -2726,15 +2713,15 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="17" t="str">
+      <c r="G75" s="25" t="str">
         <f aca="false">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="18" t="str">
-        <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I75" s="19"/>
+      <c r="H75" s="26" t="str">
+        <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I75" s="27"/>
       <c r="K75" s="0" t="n">
         <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1),F75)</f>
         <v>0</v>
@@ -2753,15 +2740,15 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="17" t="str">
+      <c r="G76" s="25" t="str">
         <f aca="false">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="18" t="str">
-        <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I76" s="19"/>
+      <c r="H76" s="26" t="str">
+        <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I76" s="27"/>
       <c r="K76" s="0" t="n">
         <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1),F76)</f>
         <v>0</v>
@@ -2780,15 +2767,15 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="17" t="str">
+      <c r="G77" s="25" t="str">
         <f aca="false">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="18" t="str">
-        <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I77" s="19"/>
+      <c r="H77" s="26" t="str">
+        <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I77" s="27"/>
       <c r="K77" s="0" t="n">
         <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1),F77)</f>
         <v>0</v>
@@ -2807,15 +2794,15 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="17" t="str">
+      <c r="G78" s="25" t="str">
         <f aca="false">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="18" t="str">
-        <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I78" s="19"/>
+      <c r="H78" s="26" t="str">
+        <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I78" s="27"/>
       <c r="K78" s="0" t="n">
         <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1),F78)</f>
         <v>0</v>
@@ -2834,15 +2821,15 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="17" t="str">
+      <c r="G79" s="25" t="str">
         <f aca="false">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="18" t="str">
-        <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I79" s="19"/>
+      <c r="H79" s="26" t="str">
+        <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I79" s="27"/>
       <c r="K79" s="0" t="n">
         <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1),F79)</f>
         <v>0</v>
@@ -2861,15 +2848,15 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G80" s="17" t="str">
+      <c r="G80" s="25" t="str">
         <f aca="false">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="18" t="str">
-        <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I80" s="19"/>
+      <c r="H80" s="26" t="str">
+        <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I80" s="27"/>
       <c r="K80" s="0" t="n">
         <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1),F80)</f>
         <v>0</v>
@@ -2888,15 +2875,15 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G81" s="17" t="str">
+      <c r="G81" s="25" t="str">
         <f aca="false">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="18" t="str">
-        <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I81" s="19"/>
+      <c r="H81" s="26" t="str">
+        <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I81" s="27"/>
       <c r="K81" s="0" t="n">
         <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1),F81)</f>
         <v>0</v>
@@ -2915,15 +2902,15 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G82" s="17" t="str">
+      <c r="G82" s="25" t="str">
         <f aca="false">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="18" t="str">
-        <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I82" s="19"/>
+      <c r="H82" s="26" t="str">
+        <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I82" s="27"/>
       <c r="K82" s="0" t="n">
         <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1),F82)</f>
         <v>0</v>
@@ -2942,15 +2929,15 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G83" s="17" t="str">
+      <c r="G83" s="25" t="str">
         <f aca="false">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="18" t="str">
-        <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I83" s="19"/>
+      <c r="H83" s="26" t="str">
+        <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I83" s="27"/>
       <c r="K83" s="0" t="n">
         <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1),F83)</f>
         <v>0</v>
@@ -2969,15 +2956,15 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G84" s="17" t="str">
+      <c r="G84" s="25" t="str">
         <f aca="false">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="18" t="str">
-        <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I84" s="19"/>
+      <c r="H84" s="26" t="str">
+        <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I84" s="27"/>
       <c r="K84" s="0" t="n">
         <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1),F84)</f>
         <v>0</v>
@@ -2996,15 +2983,15 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G85" s="17" t="str">
+      <c r="G85" s="25" t="str">
         <f aca="false">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="18" t="str">
-        <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I85" s="19"/>
+      <c r="H85" s="26" t="str">
+        <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I85" s="27"/>
       <c r="K85" s="0" t="n">
         <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1),F85)</f>
         <v>0</v>
@@ -3023,15 +3010,15 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G86" s="17" t="str">
+      <c r="G86" s="25" t="str">
         <f aca="false">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="18" t="str">
-        <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I86" s="19"/>
+      <c r="H86" s="26" t="str">
+        <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I86" s="27"/>
       <c r="K86" s="0" t="n">
         <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1),F86)</f>
         <v>0</v>
@@ -3050,15 +3037,15 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="17" t="str">
+      <c r="G87" s="25" t="str">
         <f aca="false">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="18" t="str">
-        <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I87" s="19"/>
+      <c r="H87" s="26" t="str">
+        <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I87" s="27"/>
       <c r="K87" s="0" t="n">
         <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1),F87)</f>
         <v>0</v>
@@ -3077,15 +3064,15 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G88" s="17" t="str">
+      <c r="G88" s="25" t="str">
         <f aca="false">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="18" t="str">
-        <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I88" s="19"/>
+      <c r="H88" s="26" t="str">
+        <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I88" s="27"/>
       <c r="K88" s="0" t="n">
         <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1),F88)</f>
         <v>0</v>
@@ -3104,15 +3091,15 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G89" s="17" t="str">
+      <c r="G89" s="25" t="str">
         <f aca="false">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="18" t="str">
-        <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I89" s="19"/>
+      <c r="H89" s="26" t="str">
+        <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I89" s="27"/>
       <c r="K89" s="0" t="n">
         <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
         <v>0</v>
@@ -3131,15 +3118,15 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G90" s="17" t="str">
+      <c r="G90" s="25" t="str">
         <f aca="false">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="18" t="str">
-        <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I90" s="19"/>
+      <c r="H90" s="26" t="str">
+        <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I90" s="27"/>
       <c r="K90" s="0" t="n">
         <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1),F90)</f>
         <v>0</v>
@@ -3158,15 +3145,15 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G91" s="17" t="str">
+      <c r="G91" s="25" t="str">
         <f aca="false">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="18" t="str">
-        <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I91" s="19"/>
+      <c r="H91" s="26" t="str">
+        <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I91" s="27"/>
       <c r="K91" s="0" t="n">
         <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1),F91)</f>
         <v>0</v>
@@ -3185,15 +3172,15 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G92" s="17" t="str">
+      <c r="G92" s="25" t="str">
         <f aca="false">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="18" t="str">
-        <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I92" s="19"/>
+      <c r="H92" s="26" t="str">
+        <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I92" s="27"/>
       <c r="K92" s="0" t="n">
         <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1),F92)</f>
         <v>0</v>
@@ -3212,15 +3199,15 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G93" s="17" t="str">
+      <c r="G93" s="25" t="str">
         <f aca="false">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="18" t="str">
-        <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I93" s="19"/>
+      <c r="H93" s="26" t="str">
+        <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I93" s="27"/>
       <c r="K93" s="0" t="n">
         <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
         <v>0</v>
@@ -3239,15 +3226,15 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G94" s="17" t="str">
+      <c r="G94" s="25" t="str">
         <f aca="false">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="18" t="str">
-        <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I94" s="19"/>
+      <c r="H94" s="26" t="str">
+        <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I94" s="27"/>
       <c r="K94" s="0" t="n">
         <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1),F94)</f>
         <v>0</v>
@@ -3266,15 +3253,15 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G95" s="17" t="str">
+      <c r="G95" s="25" t="str">
         <f aca="false">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="18" t="str">
-        <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I95" s="19"/>
+      <c r="H95" s="26" t="str">
+        <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I95" s="27"/>
       <c r="K95" s="0" t="n">
         <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1),F95)</f>
         <v>0</v>
@@ -3293,15 +3280,15 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G96" s="17" t="str">
+      <c r="G96" s="25" t="str">
         <f aca="false">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="18" t="str">
-        <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I96" s="19"/>
+      <c r="H96" s="26" t="str">
+        <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I96" s="27"/>
       <c r="K96" s="0" t="n">
         <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1),F96)</f>
         <v>0</v>
@@ -3320,15 +3307,15 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G97" s="17" t="str">
+      <c r="G97" s="25" t="str">
         <f aca="false">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="18" t="str">
-        <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I97" s="19"/>
+      <c r="H97" s="26" t="str">
+        <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I97" s="27"/>
       <c r="K97" s="0" t="n">
         <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1),F97)</f>
         <v>0</v>
@@ -3347,15 +3334,15 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G98" s="17" t="str">
+      <c r="G98" s="25" t="str">
         <f aca="false">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="18" t="str">
-        <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I98" s="19"/>
+      <c r="H98" s="26" t="str">
+        <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I98" s="27"/>
       <c r="K98" s="0" t="n">
         <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1),F98)</f>
         <v>0</v>
@@ -3374,15 +3361,15 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G99" s="17" t="str">
+      <c r="G99" s="25" t="str">
         <f aca="false">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="18" t="str">
-        <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I99" s="19"/>
+      <c r="H99" s="26" t="str">
+        <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I99" s="27"/>
       <c r="K99" s="0" t="n">
         <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
         <v>0</v>
@@ -3401,21 +3388,21 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G100" s="17" t="str">
+      <c r="G100" s="25" t="str">
         <f aca="false">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="18" t="str">
-        <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I100" s="19"/>
+      <c r="H100" s="26" t="str">
+        <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I100" s="27"/>
       <c r="K100" s="0" t="n">
         <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1),F100)</f>
         <v>0</v>
       </c>
       <c r="L100" s="0" t="n">
-        <f aca="true">IF(J100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K100)))), 0)</f>
+        <f aca="true">IF(J100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(K100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(K100)))),0)</f>
         <v>0</v>
       </c>
       <c r="M100" s="0" t="n">
@@ -3428,15 +3415,15 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G101" s="17" t="str">
+      <c r="G101" s="25" t="str">
         <f aca="false">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="18" t="str">
-        <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I101" s="19"/>
+      <c r="H101" s="26" t="str">
+        <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I101" s="27"/>
       <c r="K101" s="0" t="n">
         <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1),F101)</f>
         <v>0</v>
@@ -3455,15 +3442,15 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G102" s="17" t="str">
+      <c r="G102" s="25" t="str">
         <f aca="false">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="18" t="str">
-        <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I102" s="19"/>
+      <c r="H102" s="26" t="str">
+        <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I102" s="27"/>
       <c r="K102" s="0" t="n">
         <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1),F102)</f>
         <v>0</v>
@@ -3482,15 +3469,15 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G103" s="17" t="str">
+      <c r="G103" s="25" t="str">
         <f aca="false">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="18" t="str">
-        <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I103" s="19"/>
+      <c r="H103" s="26" t="str">
+        <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I103" s="27"/>
       <c r="K103" s="0" t="n">
         <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1),F103)</f>
         <v>0</v>
@@ -3509,15 +3496,15 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G104" s="17" t="str">
+      <c r="G104" s="25" t="str">
         <f aca="false">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="18" t="str">
-        <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I104" s="19"/>
+      <c r="H104" s="26" t="str">
+        <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I104" s="27"/>
       <c r="K104" s="0" t="n">
         <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1),F104)</f>
         <v>0</v>
@@ -3536,15 +3523,15 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G105" s="17" t="str">
+      <c r="G105" s="25" t="str">
         <f aca="false">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="18" t="str">
-        <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I105" s="19"/>
+      <c r="H105" s="26" t="str">
+        <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I105" s="27"/>
       <c r="K105" s="0" t="n">
         <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),F105)</f>
         <v>0</v>
@@ -3563,15 +3550,15 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G106" s="17" t="str">
+      <c r="G106" s="25" t="str">
         <f aca="false">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="18" t="str">
-        <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I106" s="19"/>
+      <c r="H106" s="26" t="str">
+        <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I106" s="27"/>
       <c r="K106" s="0" t="n">
         <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1),F106)</f>
         <v>0</v>
@@ -3590,15 +3577,15 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G107" s="17" t="str">
+      <c r="G107" s="25" t="str">
         <f aca="false">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="18" t="str">
-        <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I107" s="19"/>
+      <c r="H107" s="26" t="str">
+        <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I107" s="27"/>
       <c r="K107" s="0" t="n">
         <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1),F107)</f>
         <v>0</v>
@@ -3617,15 +3604,15 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G108" s="17" t="str">
+      <c r="G108" s="25" t="str">
         <f aca="false">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="18" t="str">
-        <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I108" s="19"/>
+      <c r="H108" s="26" t="str">
+        <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I108" s="27"/>
       <c r="K108" s="0" t="n">
         <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1),F108)</f>
         <v>0</v>
@@ -3644,15 +3631,15 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G109" s="17" t="str">
+      <c r="G109" s="25" t="str">
         <f aca="false">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="18" t="str">
-        <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I109" s="19"/>
+      <c r="H109" s="26" t="str">
+        <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I109" s="27"/>
       <c r="K109" s="0" t="n">
         <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1),F109)</f>
         <v>0</v>
@@ -3671,15 +3658,15 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G110" s="17" t="str">
+      <c r="G110" s="25" t="str">
         <f aca="false">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="18" t="str">
-        <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I110" s="19"/>
+      <c r="H110" s="26" t="str">
+        <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I110" s="27"/>
       <c r="K110" s="0" t="n">
         <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1),F110)</f>
         <v>0</v>
@@ -3698,15 +3685,15 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G111" s="17" t="str">
+      <c r="G111" s="25" t="str">
         <f aca="false">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="18" t="str">
-        <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I111" s="19"/>
+      <c r="H111" s="26" t="str">
+        <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I111" s="27"/>
       <c r="K111" s="0" t="n">
         <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1),F111)</f>
         <v>0</v>
@@ -3725,15 +3712,15 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="17" t="str">
+      <c r="G112" s="25" t="str">
         <f aca="false">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="18" t="str">
-        <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I112" s="19"/>
+      <c r="H112" s="26" t="str">
+        <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I112" s="27"/>
       <c r="K112" s="0" t="n">
         <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1),F112)</f>
         <v>0</v>
@@ -3752,15 +3739,15 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G113" s="17" t="str">
+      <c r="G113" s="25" t="str">
         <f aca="false">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="18" t="str">
-        <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I113" s="19"/>
+      <c r="H113" s="26" t="str">
+        <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I113" s="27"/>
       <c r="K113" s="0" t="n">
         <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1),F113)</f>
         <v>0</v>
@@ -3779,15 +3766,15 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="17" t="str">
+      <c r="G114" s="25" t="str">
         <f aca="false">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="18" t="str">
-        <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I114" s="19"/>
+      <c r="H114" s="26" t="str">
+        <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I114" s="27"/>
       <c r="K114" s="0" t="n">
         <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1),F114)</f>
         <v>0</v>
@@ -3806,15 +3793,15 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="17" t="str">
+      <c r="G115" s="25" t="str">
         <f aca="false">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="18" t="str">
-        <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I115" s="19"/>
+      <c r="H115" s="26" t="str">
+        <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I115" s="27"/>
       <c r="K115" s="0" t="n">
         <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1),F115)</f>
         <v>0</v>
@@ -3833,15 +3820,15 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="17" t="str">
+      <c r="G116" s="25" t="str">
         <f aca="false">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="18" t="str">
-        <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I116" s="19"/>
+      <c r="H116" s="26" t="str">
+        <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I116" s="27"/>
       <c r="K116" s="0" t="n">
         <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1),F116)</f>
         <v>0</v>
@@ -3860,15 +3847,15 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="17" t="str">
+      <c r="G117" s="25" t="str">
         <f aca="false">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="18" t="str">
-        <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I117" s="19"/>
+      <c r="H117" s="26" t="str">
+        <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I117" s="27"/>
       <c r="K117" s="0" t="n">
         <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1),F117)</f>
         <v>0</v>
@@ -3887,15 +3874,15 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="17" t="str">
+      <c r="G118" s="25" t="str">
         <f aca="false">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="18" t="str">
-        <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I118" s="19"/>
+      <c r="H118" s="26" t="str">
+        <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I118" s="27"/>
       <c r="K118" s="0" t="n">
         <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1),F118)</f>
         <v>0</v>
@@ -3914,15 +3901,15 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G119" s="17" t="str">
+      <c r="G119" s="25" t="str">
         <f aca="false">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="18" t="str">
-        <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I119" s="19"/>
+      <c r="H119" s="26" t="str">
+        <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I119" s="27"/>
       <c r="K119" s="0" t="n">
         <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1),F119)</f>
         <v>0</v>
@@ -3941,15 +3928,15 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G120" s="17" t="str">
+      <c r="G120" s="25" t="str">
         <f aca="false">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="18" t="str">
-        <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I120" s="19"/>
+      <c r="H120" s="26" t="str">
+        <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I120" s="27"/>
       <c r="K120" s="0" t="n">
         <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1),F120)</f>
         <v>0</v>
@@ -3968,15 +3955,15 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="17" t="str">
+      <c r="G121" s="25" t="str">
         <f aca="false">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="18" t="str">
-        <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I121" s="19"/>
+      <c r="H121" s="26" t="str">
+        <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I121" s="27"/>
       <c r="K121" s="0" t="n">
         <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1),F121)</f>
         <v>0</v>
@@ -3995,15 +3982,15 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="17" t="str">
+      <c r="G122" s="25" t="str">
         <f aca="false">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="18" t="str">
-        <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1650,"")</f>
-        <v/>
-      </c>
-      <c r="I122" s="19"/>
+      <c r="H122" s="26" t="str">
+        <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I122" s="27"/>
       <c r="K122" s="0" t="n">
         <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1),F122)</f>
         <v>0</v>
@@ -4021,56 +4008,459 @@
         <v>0</v>
       </c>
     </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="25" t="str">
+        <f aca="false">IF(H123="", IF(J123="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N123)),IF(J123="", "", INDIRECT("N" &amp; ROW() - 1) - N123))</f>
+        <v/>
+      </c>
+      <c r="H123" s="26" t="str">
+        <f aca="true">IF(J123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+      <c r="I123" s="27"/>
+      <c r="K123" s="0" t="n">
+        <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1),F123)</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <f aca="true">IF(J123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(K123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(K123)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <f aca="false">IF(J123="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="0" t="n">
+        <f aca="true">IF(L123 = 0, INDIRECT("N" &amp; ROW() - 1), L123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H124" s="26" t="str">
+        <f aca="true">IF(J124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H125" s="26" t="str">
+        <f aca="true">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="26" t="str">
+        <f aca="true">IF(J126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H127" s="26" t="str">
+        <f aca="true">IF(J127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H128" s="26" t="str">
+        <f aca="true">IF(J128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="26" t="str">
+        <f aca="true">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H130" s="26" t="str">
+        <f aca="true">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H131" s="26" t="str">
+        <f aca="true">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H132" s="26" t="str">
+        <f aca="true">IF(J132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H133" s="26" t="str">
+        <f aca="true">IF(J133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H134" s="26" t="str">
+        <f aca="true">IF(J134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="26" t="str">
+        <f aca="true">IF(J135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H136" s="26" t="str">
+        <f aca="true">IF(J136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H137" s="26" t="str">
+        <f aca="true">IF(J137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H138" s="26" t="str">
+        <f aca="true">IF(J138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H139" s="26" t="str">
+        <f aca="true">IF(J139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H140" s="26" t="str">
+        <f aca="true">IF(J140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="26" t="str">
+        <f aca="true">IF(J141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H142" s="26" t="str">
+        <f aca="true">IF(J142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H143" s="26" t="str">
+        <f aca="true">IF(J143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H144" s="26" t="str">
+        <f aca="true">IF(J144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H145" s="26" t="str">
+        <f aca="true">IF(J145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H146" s="26" t="str">
+        <f aca="true">IF(J146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H147" s="26" t="str">
+        <f aca="true">IF(J147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H148" s="26" t="str">
+        <f aca="true">IF(J148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H149" s="26" t="str">
+        <f aca="true">IF(J149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="26" t="str">
+        <f aca="true">IF(J150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H151" s="26" t="str">
+        <f aca="true">IF(J151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H152" s="26" t="str">
+        <f aca="true">IF(J152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H153" s="26" t="str">
+        <f aca="true">IF(J153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H154" s="26" t="str">
+        <f aca="true">IF(J154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="26" t="str">
+        <f aca="true">IF(J155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H156" s="26" t="str">
+        <f aca="true">IF(J156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H157" s="26" t="str">
+        <f aca="true">IF(J157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H158" s="26" t="str">
+        <f aca="true">IF(J158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H159" s="26" t="str">
+        <f aca="true">IF(J159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="26" t="str">
+        <f aca="true">IF(J160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H161" s="26" t="str">
+        <f aca="true">IF(J161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H162" s="26" t="str">
+        <f aca="true">IF(J162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H163" s="26" t="str">
+        <f aca="true">IF(J163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H164" s="26" t="str">
+        <f aca="true">IF(J164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H165" s="26" t="str">
+        <f aca="true">IF(J165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="T4:U5"/>
-    <mergeCell ref="V4:W5"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:B122">
+  <conditionalFormatting sqref="B7:B123 B3:B5">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B2&lt;&gt;#ref!</formula>
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B2&lt;&gt;#ref!</formula>
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
+  <conditionalFormatting sqref="G7:G1048576 G3:G5">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>SUMIF(G2:G122,"&gt;0")-SUMIF(G2:G122,"&lt;0") &gt; 1</formula>
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>IF(I1="",0, G1)  &lt; - 0.05* IF(I1="",0,I1)</formula>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B6&lt;&gt;#ref!</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(IF(I1="",0, G1)  &gt;= - 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(IF(I1="",0, G1)  &lt;= 0.05* IF(I1="",0,I1), IF(I1="",0, G1) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>IF(I1="",0,G1)  &gt; 0.05* IF(I1="",0,I1)</formula>
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B6&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>100</formula>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>-100</formula>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B123" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E59" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E60" type="list">
       <formula1>SKU!$A$1:$A$137</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Нормативные остатки, кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Номер варки</t>
+    <t xml:space="preserve">Номер группы варок</t>
   </si>
   <si>
     <t xml:space="preserve">Выход с варки, кг</t>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">Вес на выходе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество варок</t>
   </si>
   <si>
     <t xml:space="preserve">Общий объем сыворотки, кг</t>
@@ -123,7 +126,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,6 +189,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -215,17 +225,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -322,12 +325,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -346,7 +349,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,8 +365,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -370,11 +377,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,11 +385,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -663,7 +666,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -723,15 +726,17 @@
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
-      <c r="Q1" s="17"/>
+      <c r="Q1" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="R1" s="18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -745,13 +750,13 @@
       <c r="H2" s="14"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="16" t="n">
         <v>0</v>
@@ -759,7 +764,7 @@
       <c r="Q2" s="17"/>
       <c r="R2" s="21"/>
       <c r="S2" s="22" t="n">
-        <f aca="false">SUM(H3:H129)</f>
+        <f aca="false">SUMPRODUCT(H3:H122, Q3:Q122)</f>
         <v>0</v>
       </c>
       <c r="T2" s="23" t="n">
@@ -4308,18 +4313,18 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G1048576 G3:G5">
+  <conditionalFormatting sqref="G124:G1048576">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+      <formula>IF(I124="",0, G124)  &lt; - 0.05* IF(I124="",0,I124)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+      <formula>AND(IF(I124="",0, G124)  &gt;= - 0.05* IF(I124="",0,I124), IF(I124="",0, G124) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+      <formula>AND(IF(I124="",0, G124)  &lt;= 0.05* IF(I124="",0,I124), IF(I124="",0, G124) &gt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
+      <formula>IF(I124="",0,G124)  &gt; 0.05* IF(I124="",0,I124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
@@ -4330,129 +4335,185 @@
       <formula>$B6&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G123">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I5="",0, G5)  &lt; - 0.05* IF(I5="",0,I5)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I5="",0, G5)  &gt;= - 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I5="",0, G5)  &lt;= 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I5="",0,G5)  &gt; 0.05* IF(I5="",0,I5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G123 G4:G5">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
+  <conditionalFormatting sqref="G3:G4">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">Номер группы варок</t>
   </si>
   <si>
-    <t xml:space="preserve">Выход с варки, кг</t>
+    <t xml:space="preserve">Выход с одной варки, кг</t>
   </si>
   <si>
-    <t xml:space="preserve">Количество ванн</t>
+    <t xml:space="preserve">Количество ванн в одной варке</t>
   </si>
   <si>
     <t xml:space="preserve">SKU</t>
@@ -89,10 +89,13 @@
     <t xml:space="preserve">Остатки</t>
   </si>
   <si>
-    <t xml:space="preserve">Суммарный вес сыворотки</t>
+    <t xml:space="preserve">Суммарный вес  сыворотки в одной варке</t>
   </si>
   <si>
-    <t xml:space="preserve">Вес на выходе</t>
+    <t xml:space="preserve">Вес на выходе одной варки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество ванн</t>
   </si>
   <si>
     <t xml:space="preserve">Количество варок</t>
@@ -120,13 +123,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -196,25 +198,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,7 +268,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,10 +309,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,10 +322,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -385,12 +365,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -661,12 +641,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T165"/>
+  <dimension ref="A1:U326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -678,111 +658,129 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="9" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="3.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="11" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="21" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="Q1" s="17" t="s">
+      <c r="J1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="Q1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="U1" s="18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22" t="n">
-        <f aca="false">SUMPRODUCT(H3:H122, Q3:Q122)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="23" t="n">
-        <f aca="false">R2-S2</f>
+      <c r="M2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="20" t="n">
+        <f aca="false">SUMPRODUCT(H3:H122, R3:R122)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="21" t="n">
+        <f aca="false">S2-T2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24"/>
-      <c r="G3" s="25" t="str">
+      <c r="B3" s="22" t="str">
+        <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C3" s="22" t="str">
+        <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D3" s="22" t="str">
+        <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G3" s="23" t="str">
         <f aca="false">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="26" t="str">
+      <c r="H3" s="24" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="24" t="str">
+        <f aca="true">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K3" s="0" t="n">
         <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
         <v>0</v>
@@ -799,17 +797,36 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
+      <c r="R3" s="25" t="str">
+        <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="25" t="str">
+      <c r="B4" s="22" t="str">
+        <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C4" s="22" t="str">
+        <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D4" s="22" t="str">
+        <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G4" s="23" t="str">
         <f aca="false">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
-      <c r="H4" s="26" t="str">
+      <c r="H4" s="24" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="24" t="str">
+        <f aca="true">IF(J4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K4" s="0" t="n">
         <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1),F4)</f>
         <v>0</v>
@@ -826,17 +843,36 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
+      <c r="R4" s="25" t="str">
+        <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="25" t="str">
+      <c r="B5" s="22" t="str">
+        <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C5" s="22" t="str">
+        <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D5" s="22" t="str">
+        <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G5" s="23" t="str">
         <f aca="false">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="24" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="24" t="str">
+        <f aca="true">IF(J5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1),F5)</f>
         <v>0</v>
@@ -853,17 +889,36 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
+      <c r="R5" s="25" t="str">
+        <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="25" t="str">
+      <c r="B6" s="22" t="str">
+        <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C6" s="22" t="str">
+        <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D6" s="22" t="str">
+        <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G6" s="23" t="str">
         <f aca="false">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
-      <c r="H6" s="26" t="str">
+      <c r="H6" s="24" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="24" t="str">
+        <f aca="true">IF(J6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1),F6)</f>
         <v>0</v>
@@ -880,17 +935,36 @@
         <f aca="true">IF(L6 = 0, INDIRECT("N" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
+      <c r="R6" s="25" t="str">
+        <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="25" t="str">
+      <c r="B7" s="22" t="str">
+        <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D7" s="22" t="str">
+        <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G7" s="23" t="str">
         <f aca="false">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="26" t="str">
+      <c r="H7" s="24" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I7" s="27"/>
+      <c r="I7" s="24" t="str">
+        <f aca="true">IF(J7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1),F7)</f>
         <v>0</v>
@@ -907,17 +981,36 @@
         <f aca="true">IF(L7 = 0, INDIRECT("N" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
+      <c r="R7" s="25" t="str">
+        <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="25" t="str">
+      <c r="B8" s="22" t="str">
+        <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D8" s="22" t="str">
+        <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G8" s="23" t="str">
         <f aca="false">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="24" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I8" s="27"/>
+      <c r="I8" s="24" t="str">
+        <f aca="true">IF(J8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1),F8)</f>
         <v>0</v>
@@ -934,17 +1027,36 @@
         <f aca="true">IF(L8 = 0, INDIRECT("N" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
+      <c r="R8" s="25" t="str">
+        <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="25" t="str">
+      <c r="B9" s="22" t="str">
+        <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D9" s="22" t="str">
+        <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="str">
         <f aca="false">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
-      <c r="H9" s="26" t="str">
+      <c r="H9" s="24" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="24" t="str">
+        <f aca="true">IF(J9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1),F9)</f>
         <v>0</v>
@@ -961,17 +1073,36 @@
         <f aca="true">IF(L9 = 0, INDIRECT("N" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
+      <c r="R9" s="25" t="str">
+        <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G10" s="25" t="str">
+      <c r="B10" s="22" t="str">
+        <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D10" s="22" t="str">
+        <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="str">
         <f aca="false">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="26" t="str">
+      <c r="H10" s="24" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="24" t="str">
+        <f aca="true">IF(J10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1),F10)</f>
         <v>0</v>
@@ -988,17 +1119,36 @@
         <f aca="true">IF(L10 = 0, INDIRECT("N" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
+      <c r="R10" s="25" t="str">
+        <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="25" t="str">
+      <c r="B11" s="22" t="str">
+        <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D11" s="22" t="str">
+        <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="str">
         <f aca="false">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H11" s="24" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="24" t="str">
+        <f aca="true">IF(J11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1),F11)</f>
         <v>0</v>
@@ -1015,17 +1165,36 @@
         <f aca="true">IF(L11 = 0, INDIRECT("N" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
+      <c r="R11" s="25" t="str">
+        <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="25" t="str">
+      <c r="B12" s="22" t="str">
+        <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D12" s="22" t="str">
+        <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="str">
         <f aca="false">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="26" t="str">
+      <c r="H12" s="24" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="24" t="str">
+        <f aca="true">IF(J12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1),F12)</f>
         <v>0</v>
@@ -1042,17 +1211,36 @@
         <f aca="true">IF(L12 = 0, INDIRECT("N" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
+      <c r="R12" s="25" t="str">
+        <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="25" t="str">
+      <c r="B13" s="22" t="str">
+        <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D13" s="22" t="str">
+        <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="str">
         <f aca="false">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
-      <c r="H13" s="26" t="str">
+      <c r="H13" s="24" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I13" s="27"/>
+      <c r="I13" s="24" t="str">
+        <f aca="true">IF(J13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1),F13)</f>
         <v>0</v>
@@ -1069,17 +1257,36 @@
         <f aca="true">IF(L13 = 0, INDIRECT("N" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
+      <c r="R13" s="25" t="str">
+        <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="25" t="str">
+      <c r="B14" s="22" t="str">
+        <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="str">
         <f aca="false">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="26" t="str">
+      <c r="H14" s="24" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I14" s="27"/>
+      <c r="I14" s="24" t="str">
+        <f aca="true">IF(J14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1),F14)</f>
         <v>0</v>
@@ -1096,17 +1303,36 @@
         <f aca="true">IF(L14 = 0, INDIRECT("N" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
+      <c r="R14" s="25" t="str">
+        <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G15" s="25" t="str">
+      <c r="B15" s="22" t="str">
+        <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D15" s="22" t="str">
+        <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="str">
         <f aca="false">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
-      <c r="H15" s="26" t="str">
+      <c r="H15" s="24" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I15" s="27"/>
+      <c r="I15" s="24" t="str">
+        <f aca="true">IF(J15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1),F15)</f>
         <v>0</v>
@@ -1123,17 +1349,36 @@
         <f aca="true">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
+      <c r="R15" s="25" t="str">
+        <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G16" s="25" t="str">
+      <c r="B16" s="22" t="str">
+        <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D16" s="22" t="str">
+        <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="str">
         <f aca="false">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="26" t="str">
+      <c r="H16" s="24" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I16" s="27"/>
+      <c r="I16" s="24" t="str">
+        <f aca="true">IF(J16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1),F16)</f>
         <v>0</v>
@@ -1150,17 +1395,36 @@
         <f aca="true">IF(L16 = 0, INDIRECT("N" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
+      <c r="R16" s="25" t="str">
+        <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G17" s="25" t="str">
+      <c r="B17" s="22" t="str">
+        <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D17" s="22" t="str">
+        <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G17" s="23" t="str">
         <f aca="false">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
-      <c r="H17" s="26" t="str">
+      <c r="H17" s="24" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="24" t="str">
+        <f aca="true">IF(J17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1),F17)</f>
         <v>0</v>
@@ -1177,17 +1441,36 @@
         <f aca="true">IF(L17 = 0, INDIRECT("N" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
+      <c r="R17" s="25" t="str">
+        <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G18" s="25" t="str">
+      <c r="B18" s="22" t="str">
+        <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G18" s="23" t="str">
         <f aca="false">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
-      <c r="H18" s="26" t="str">
+      <c r="H18" s="24" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I18" s="27"/>
+      <c r="I18" s="24" t="str">
+        <f aca="true">IF(J18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1),F18)</f>
         <v>0</v>
@@ -1204,17 +1487,36 @@
         <f aca="true">IF(L18 = 0, INDIRECT("N" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
+      <c r="R18" s="25" t="str">
+        <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="25" t="str">
+      <c r="B19" s="22" t="str">
+        <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G19" s="23" t="str">
         <f aca="false">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H19" s="26" t="str">
+      <c r="H19" s="24" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I19" s="27"/>
+      <c r="I19" s="24" t="str">
+        <f aca="true">IF(J19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1),F19)</f>
         <v>0</v>
@@ -1231,17 +1533,36 @@
         <f aca="true">IF(L19 = 0, INDIRECT("N" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
+      <c r="R19" s="25" t="str">
+        <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="25" t="str">
+      <c r="B20" s="22" t="str">
+        <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G20" s="23" t="str">
         <f aca="false">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H20" s="24" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="24" t="str">
+        <f aca="true">IF(J20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
         <v>0</v>
@@ -1258,17 +1579,36 @@
         <f aca="true">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
+      <c r="R20" s="25" t="str">
+        <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="25" t="str">
+      <c r="B21" s="22" t="str">
+        <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G21" s="23" t="str">
         <f aca="false">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H21" s="26" t="str">
+      <c r="H21" s="24" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I21" s="27"/>
+      <c r="I21" s="24" t="str">
+        <f aca="true">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),F21)</f>
         <v>0</v>
@@ -1285,17 +1625,36 @@
         <f aca="true">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
+      <c r="R21" s="25" t="str">
+        <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="25" t="str">
+      <c r="B22" s="22" t="str">
+        <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D22" s="22" t="str">
+        <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G22" s="23" t="str">
         <f aca="false">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
-      <c r="H22" s="26" t="str">
+      <c r="H22" s="24" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I22" s="27"/>
+      <c r="I22" s="24" t="str">
+        <f aca="true">IF(J22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1),F22)</f>
         <v>0</v>
@@ -1312,17 +1671,36 @@
         <f aca="true">IF(L22 = 0, INDIRECT("N" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
+      <c r="R22" s="25" t="str">
+        <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="25" t="str">
+      <c r="B23" s="22" t="str">
+        <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D23" s="22" t="str">
+        <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G23" s="23" t="str">
         <f aca="false">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
-      <c r="H23" s="26" t="str">
+      <c r="H23" s="24" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I23" s="27"/>
+      <c r="I23" s="24" t="str">
+        <f aca="true">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K23" s="0" t="n">
         <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),F23)</f>
         <v>0</v>
@@ -1339,17 +1717,36 @@
         <f aca="true">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
+      <c r="R23" s="25" t="str">
+        <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="25" t="str">
+      <c r="B24" s="22" t="str">
+        <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C24" s="22" t="str">
+        <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D24" s="22" t="str">
+        <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G24" s="23" t="str">
         <f aca="false">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="26" t="str">
+      <c r="H24" s="24" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="24" t="str">
+        <f aca="true">IF(J24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K24" s="0" t="n">
         <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1),F24)</f>
         <v>0</v>
@@ -1366,17 +1763,36 @@
         <f aca="true">IF(L24 = 0, INDIRECT("N" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
+      <c r="R24" s="25" t="str">
+        <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="25" t="str">
+      <c r="B25" s="22" t="str">
+        <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D25" s="22" t="str">
+        <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G25" s="23" t="str">
         <f aca="false">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="H25" s="26" t="str">
+      <c r="H25" s="24" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I25" s="27"/>
+      <c r="I25" s="24" t="str">
+        <f aca="true">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K25" s="0" t="n">
         <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),F25)</f>
         <v>0</v>
@@ -1393,17 +1809,36 @@
         <f aca="true">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
+      <c r="R25" s="25" t="str">
+        <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="25" t="str">
+      <c r="B26" s="22" t="str">
+        <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C26" s="22" t="str">
+        <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D26" s="22" t="str">
+        <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G26" s="23" t="str">
         <f aca="false">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="26" t="str">
+      <c r="H26" s="24" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I26" s="27"/>
+      <c r="I26" s="24" t="str">
+        <f aca="true">IF(J26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K26" s="0" t="n">
         <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
         <v>0</v>
@@ -1420,17 +1855,36 @@
         <f aca="true">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
+      <c r="R26" s="25" t="str">
+        <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="25" t="str">
+      <c r="B27" s="22" t="str">
+        <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C27" s="22" t="str">
+        <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D27" s="22" t="str">
+        <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G27" s="23" t="str">
         <f aca="false">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="H27" s="26" t="str">
+      <c r="H27" s="24" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I27" s="27"/>
+      <c r="I27" s="24" t="str">
+        <f aca="true">IF(J27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K27" s="0" t="n">
         <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1),F27)</f>
         <v>0</v>
@@ -1447,17 +1901,36 @@
         <f aca="true">IF(L27 = 0, INDIRECT("N" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
+      <c r="R27" s="25" t="str">
+        <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="25" t="str">
+      <c r="B28" s="22" t="str">
+        <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C28" s="22" t="str">
+        <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D28" s="22" t="str">
+        <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G28" s="23" t="str">
         <f aca="false">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="26" t="str">
+      <c r="H28" s="24" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I28" s="27"/>
+      <c r="I28" s="24" t="str">
+        <f aca="true">IF(J28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K28" s="0" t="n">
         <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1),F28)</f>
         <v>0</v>
@@ -1474,17 +1947,36 @@
         <f aca="true">IF(L28 = 0, INDIRECT("N" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
+      <c r="R28" s="25" t="str">
+        <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="25" t="str">
+      <c r="B29" s="22" t="str">
+        <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D29" s="22" t="str">
+        <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G29" s="23" t="str">
         <f aca="false">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="H29" s="26" t="str">
+      <c r="H29" s="24" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="24" t="str">
+        <f aca="true">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K29" s="0" t="n">
         <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
         <v>0</v>
@@ -1501,17 +1993,36 @@
         <f aca="true">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
+      <c r="R29" s="25" t="str">
+        <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="25" t="str">
+      <c r="B30" s="22" t="str">
+        <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C30" s="22" t="str">
+        <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D30" s="22" t="str">
+        <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G30" s="23" t="str">
         <f aca="false">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="26" t="str">
+      <c r="H30" s="24" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I30" s="27"/>
+      <c r="I30" s="24" t="str">
+        <f aca="true">IF(J30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K30" s="0" t="n">
         <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1),F30)</f>
         <v>0</v>
@@ -1528,17 +2039,36 @@
         <f aca="true">IF(L30 = 0, INDIRECT("N" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
+      <c r="R30" s="25" t="str">
+        <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="25" t="str">
+      <c r="B31" s="22" t="str">
+        <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C31" s="22" t="str">
+        <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D31" s="22" t="str">
+        <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G31" s="23" t="str">
         <f aca="false">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="H31" s="26" t="str">
+      <c r="H31" s="24" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="24" t="str">
+        <f aca="true">IF(J31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K31" s="0" t="n">
         <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1),F31)</f>
         <v>0</v>
@@ -1555,17 +2085,36 @@
         <f aca="true">IF(L31 = 0, INDIRECT("N" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
+      <c r="R31" s="25" t="str">
+        <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G32" s="25" t="str">
+      <c r="B32" s="22" t="str">
+        <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C32" s="22" t="str">
+        <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D32" s="22" t="str">
+        <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G32" s="23" t="str">
         <f aca="false">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="26" t="str">
+      <c r="H32" s="24" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="24" t="str">
+        <f aca="true">IF(J32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K32" s="0" t="n">
         <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1),F32)</f>
         <v>0</v>
@@ -1582,17 +2131,36 @@
         <f aca="true">IF(L32 = 0, INDIRECT("N" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
+      <c r="R32" s="25" t="str">
+        <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G33" s="25" t="str">
+      <c r="B33" s="22" t="str">
+        <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D33" s="22" t="str">
+        <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G33" s="23" t="str">
         <f aca="false">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="H33" s="26" t="str">
+      <c r="H33" s="24" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I33" s="27"/>
+      <c r="I33" s="24" t="str">
+        <f aca="true">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K33" s="0" t="n">
         <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),F33)</f>
         <v>0</v>
@@ -1609,17 +2177,36 @@
         <f aca="true">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
+      <c r="R33" s="25" t="str">
+        <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G34" s="25" t="str">
+      <c r="B34" s="22" t="str">
+        <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C34" s="22" t="str">
+        <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D34" s="22" t="str">
+        <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G34" s="23" t="str">
         <f aca="false">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="26" t="str">
+      <c r="H34" s="24" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I34" s="27"/>
+      <c r="I34" s="24" t="str">
+        <f aca="true">IF(J34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K34" s="0" t="n">
         <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1),F34)</f>
         <v>0</v>
@@ -1636,17 +2223,36 @@
         <f aca="true">IF(L34 = 0, INDIRECT("N" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
+      <c r="R34" s="25" t="str">
+        <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="25" t="str">
+      <c r="B35" s="22" t="str">
+        <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C35" s="22" t="str">
+        <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D35" s="22" t="str">
+        <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G35" s="23" t="str">
         <f aca="false">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="H35" s="26" t="str">
+      <c r="H35" s="24" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I35" s="27"/>
+      <c r="I35" s="24" t="str">
+        <f aca="true">IF(J35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K35" s="0" t="n">
         <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
         <v>0</v>
@@ -1663,17 +2269,36 @@
         <f aca="true">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
+      <c r="R35" s="25" t="str">
+        <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="25" t="str">
+      <c r="B36" s="22" t="str">
+        <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C36" s="22" t="str">
+        <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D36" s="22" t="str">
+        <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G36" s="23" t="str">
         <f aca="false">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="26" t="str">
+      <c r="H36" s="24" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I36" s="27"/>
+      <c r="I36" s="24" t="str">
+        <f aca="true">IF(J36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K36" s="0" t="n">
         <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1),F36)</f>
         <v>0</v>
@@ -1690,17 +2315,36 @@
         <f aca="true">IF(L36 = 0, INDIRECT("N" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
+      <c r="R36" s="25" t="str">
+        <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="25" t="str">
+      <c r="B37" s="22" t="str">
+        <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C37" s="22" t="str">
+        <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D37" s="22" t="str">
+        <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G37" s="23" t="str">
         <f aca="false">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
-      <c r="H37" s="26" t="str">
+      <c r="H37" s="24" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I37" s="27"/>
+      <c r="I37" s="24" t="str">
+        <f aca="true">IF(J37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K37" s="0" t="n">
         <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1),F37)</f>
         <v>0</v>
@@ -1717,17 +2361,36 @@
         <f aca="true">IF(L37 = 0, INDIRECT("N" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
+      <c r="R37" s="25" t="str">
+        <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="25" t="str">
+      <c r="B38" s="22" t="str">
+        <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C38" s="22" t="str">
+        <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D38" s="22" t="str">
+        <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G38" s="23" t="str">
         <f aca="false">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="26" t="str">
+      <c r="H38" s="24" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I38" s="27"/>
+      <c r="I38" s="24" t="str">
+        <f aca="true">IF(J38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K38" s="0" t="n">
         <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1),F38)</f>
         <v>0</v>
@@ -1744,17 +2407,36 @@
         <f aca="true">IF(L38 = 0, INDIRECT("N" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
+      <c r="R38" s="25" t="str">
+        <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="25" t="str">
+      <c r="B39" s="22" t="str">
+        <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C39" s="22" t="str">
+        <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D39" s="22" t="str">
+        <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G39" s="23" t="str">
         <f aca="false">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
-      <c r="H39" s="26" t="str">
+      <c r="H39" s="24" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I39" s="27"/>
+      <c r="I39" s="24" t="str">
+        <f aca="true">IF(J39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K39" s="0" t="n">
         <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1),F39)</f>
         <v>0</v>
@@ -1771,17 +2453,36 @@
         <f aca="true">IF(L39 = 0, INDIRECT("N" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
+      <c r="R39" s="25" t="str">
+        <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G40" s="25" t="str">
+      <c r="B40" s="22" t="str">
+        <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C40" s="22" t="str">
+        <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D40" s="22" t="str">
+        <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G40" s="23" t="str">
         <f aca="false">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="26" t="str">
+      <c r="H40" s="24" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I40" s="27"/>
+      <c r="I40" s="24" t="str">
+        <f aca="true">IF(J40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K40" s="0" t="n">
         <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1),F40)</f>
         <v>0</v>
@@ -1798,17 +2499,36 @@
         <f aca="true">IF(L40 = 0, INDIRECT("N" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
+      <c r="R40" s="25" t="str">
+        <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G41" s="25" t="str">
+      <c r="B41" s="22" t="str">
+        <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C41" s="22" t="str">
+        <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D41" s="22" t="str">
+        <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G41" s="23" t="str">
         <f aca="false">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
-      <c r="H41" s="26" t="str">
+      <c r="H41" s="24" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I41" s="27"/>
+      <c r="I41" s="24" t="str">
+        <f aca="true">IF(J41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K41" s="0" t="n">
         <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),F41)</f>
         <v>0</v>
@@ -1825,17 +2545,36 @@
         <f aca="true">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
+      <c r="R41" s="25" t="str">
+        <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G42" s="25" t="str">
+      <c r="B42" s="22" t="str">
+        <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C42" s="22" t="str">
+        <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D42" s="22" t="str">
+        <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G42" s="23" t="str">
         <f aca="false">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="26" t="str">
+      <c r="H42" s="24" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I42" s="27"/>
+      <c r="I42" s="24" t="str">
+        <f aca="true">IF(J42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K42" s="0" t="n">
         <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1),F42)</f>
         <v>0</v>
@@ -1852,17 +2591,36 @@
         <f aca="true">IF(L42 = 0, INDIRECT("N" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
+      <c r="R42" s="25" t="str">
+        <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="25" t="str">
+      <c r="B43" s="22" t="str">
+        <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C43" s="22" t="str">
+        <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D43" s="22" t="str">
+        <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G43" s="23" t="str">
         <f aca="false">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
-      <c r="H43" s="26" t="str">
+      <c r="H43" s="24" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I43" s="27"/>
+      <c r="I43" s="24" t="str">
+        <f aca="true">IF(J43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K43" s="0" t="n">
         <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1),F43)</f>
         <v>0</v>
@@ -1879,17 +2637,36 @@
         <f aca="true">IF(L43 = 0, INDIRECT("N" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
+      <c r="R43" s="25" t="str">
+        <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G44" s="25" t="str">
+      <c r="B44" s="22" t="str">
+        <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C44" s="22" t="str">
+        <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D44" s="22" t="str">
+        <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G44" s="23" t="str">
         <f aca="false">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="26" t="str">
+      <c r="H44" s="24" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I44" s="27"/>
+      <c r="I44" s="24" t="str">
+        <f aca="true">IF(J44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K44" s="0" t="n">
         <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1),F44)</f>
         <v>0</v>
@@ -1906,17 +2683,36 @@
         <f aca="true">IF(L44 = 0, INDIRECT("N" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
+      <c r="R44" s="25" t="str">
+        <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G45" s="25" t="str">
+      <c r="B45" s="22" t="str">
+        <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C45" s="22" t="str">
+        <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D45" s="22" t="str">
+        <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G45" s="23" t="str">
         <f aca="false">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="26" t="str">
+      <c r="H45" s="24" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I45" s="27"/>
+      <c r="I45" s="24" t="str">
+        <f aca="true">IF(J45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K45" s="0" t="n">
         <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1),F45)</f>
         <v>0</v>
@@ -1933,17 +2729,36 @@
         <f aca="true">IF(L45 = 0, INDIRECT("N" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
+      <c r="R45" s="25" t="str">
+        <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="25" t="str">
+      <c r="B46" s="22" t="str">
+        <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C46" s="22" t="str">
+        <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D46" s="22" t="str">
+        <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G46" s="23" t="str">
         <f aca="false">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
-      <c r="H46" s="26" t="str">
+      <c r="H46" s="24" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I46" s="27"/>
+      <c r="I46" s="24" t="str">
+        <f aca="true">IF(J46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K46" s="0" t="n">
         <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1),F46)</f>
         <v>0</v>
@@ -1960,17 +2775,36 @@
         <f aca="true">IF(L46 = 0, INDIRECT("N" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
+      <c r="R46" s="25" t="str">
+        <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="25" t="str">
+      <c r="B47" s="22" t="str">
+        <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C47" s="22" t="str">
+        <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D47" s="22" t="str">
+        <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G47" s="23" t="str">
         <f aca="false">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="26" t="str">
+      <c r="H47" s="24" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I47" s="27"/>
+      <c r="I47" s="24" t="str">
+        <f aca="true">IF(J47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K47" s="0" t="n">
         <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1),F47)</f>
         <v>0</v>
@@ -1987,17 +2821,36 @@
         <f aca="true">IF(L47 = 0, INDIRECT("N" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
+      <c r="R47" s="25" t="str">
+        <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="25" t="str">
+      <c r="B48" s="22" t="str">
+        <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C48" s="22" t="str">
+        <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D48" s="22" t="str">
+        <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G48" s="23" t="str">
         <f aca="false">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
-      <c r="H48" s="26" t="str">
+      <c r="H48" s="24" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I48" s="27"/>
+      <c r="I48" s="24" t="str">
+        <f aca="true">IF(J48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K48" s="0" t="n">
         <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1),F48)</f>
         <v>0</v>
@@ -2014,17 +2867,36 @@
         <f aca="true">IF(L48 = 0, INDIRECT("N" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
+      <c r="R48" s="25" t="str">
+        <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="25" t="str">
+      <c r="B49" s="22" t="str">
+        <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C49" s="22" t="str">
+        <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D49" s="22" t="str">
+        <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G49" s="23" t="str">
         <f aca="false">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="26" t="str">
+      <c r="H49" s="24" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I49" s="27"/>
+      <c r="I49" s="24" t="str">
+        <f aca="true">IF(J49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K49" s="0" t="n">
         <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1),F49)</f>
         <v>0</v>
@@ -2041,17 +2913,36 @@
         <f aca="true">IF(L49 = 0, INDIRECT("N" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
+      <c r="R49" s="25" t="str">
+        <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="25" t="str">
+      <c r="B50" s="22" t="str">
+        <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C50" s="22" t="str">
+        <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D50" s="22" t="str">
+        <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G50" s="23" t="str">
         <f aca="false">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="26" t="str">
+      <c r="H50" s="24" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I50" s="27"/>
+      <c r="I50" s="24" t="str">
+        <f aca="true">IF(J50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K50" s="0" t="n">
         <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1),F50)</f>
         <v>0</v>
@@ -2068,17 +2959,36 @@
         <f aca="true">IF(L50 = 0, INDIRECT("N" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
+      <c r="R50" s="25" t="str">
+        <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="25" t="str">
+      <c r="B51" s="22" t="str">
+        <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C51" s="22" t="str">
+        <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D51" s="22" t="str">
+        <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G51" s="23" t="str">
         <f aca="false">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
-      <c r="H51" s="26" t="str">
+      <c r="H51" s="24" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I51" s="27"/>
+      <c r="I51" s="24" t="str">
+        <f aca="true">IF(J51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K51" s="0" t="n">
         <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1),F51)</f>
         <v>0</v>
@@ -2095,17 +3005,36 @@
         <f aca="true">IF(L51 = 0, INDIRECT("N" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
+      <c r="R51" s="25" t="str">
+        <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="25" t="str">
+      <c r="B52" s="22" t="str">
+        <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C52" s="22" t="str">
+        <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D52" s="22" t="str">
+        <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G52" s="23" t="str">
         <f aca="false">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="26" t="str">
+      <c r="H52" s="24" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I52" s="27"/>
+      <c r="I52" s="24" t="str">
+        <f aca="true">IF(J52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K52" s="0" t="n">
         <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1),F52)</f>
         <v>0</v>
@@ -2122,17 +3051,36 @@
         <f aca="true">IF(L52 = 0, INDIRECT("N" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
+      <c r="R52" s="25" t="str">
+        <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G53" s="25" t="str">
+      <c r="B53" s="22" t="str">
+        <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C53" s="22" t="str">
+        <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D53" s="22" t="str">
+        <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G53" s="23" t="str">
         <f aca="false">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="26" t="str">
+      <c r="H53" s="24" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="24" t="str">
+        <f aca="true">IF(J53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K53" s="0" t="n">
         <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1),F53)</f>
         <v>0</v>
@@ -2149,17 +3097,36 @@
         <f aca="true">IF(L53 = 0, INDIRECT("N" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
+      <c r="R53" s="25" t="str">
+        <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G54" s="25" t="str">
+      <c r="B54" s="22" t="str">
+        <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C54" s="22" t="str">
+        <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D54" s="22" t="str">
+        <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G54" s="23" t="str">
         <f aca="false">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="26" t="str">
+      <c r="H54" s="24" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I54" s="27"/>
+      <c r="I54" s="24" t="str">
+        <f aca="true">IF(J54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K54" s="0" t="n">
         <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1),F54)</f>
         <v>0</v>
@@ -2176,17 +3143,36 @@
         <f aca="true">IF(L54 = 0, INDIRECT("N" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
+      <c r="R54" s="25" t="str">
+        <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G55" s="25" t="str">
+      <c r="B55" s="22" t="str">
+        <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C55" s="22" t="str">
+        <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D55" s="22" t="str">
+        <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G55" s="23" t="str">
         <f aca="false">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="26" t="str">
+      <c r="H55" s="24" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I55" s="27"/>
+      <c r="I55" s="24" t="str">
+        <f aca="true">IF(J55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K55" s="0" t="n">
         <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1),F55)</f>
         <v>0</v>
@@ -2203,17 +3189,36 @@
         <f aca="true">IF(L55 = 0, INDIRECT("N" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
+      <c r="R55" s="25" t="str">
+        <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G56" s="25" t="str">
+      <c r="B56" s="22" t="str">
+        <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C56" s="22" t="str">
+        <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D56" s="22" t="str">
+        <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G56" s="23" t="str">
         <f aca="false">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="26" t="str">
+      <c r="H56" s="24" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I56" s="27"/>
+      <c r="I56" s="24" t="str">
+        <f aca="true">IF(J56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K56" s="0" t="n">
         <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1),F56)</f>
         <v>0</v>
@@ -2230,17 +3235,36 @@
         <f aca="true">IF(L56 = 0, INDIRECT("N" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
+      <c r="R56" s="25" t="str">
+        <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G57" s="25" t="str">
+      <c r="B57" s="22" t="str">
+        <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C57" s="22" t="str">
+        <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D57" s="22" t="str">
+        <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G57" s="23" t="str">
         <f aca="false">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="26" t="str">
+      <c r="H57" s="24" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I57" s="27"/>
+      <c r="I57" s="24" t="str">
+        <f aca="true">IF(J57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K57" s="0" t="n">
         <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
         <v>0</v>
@@ -2257,17 +3281,36 @@
         <f aca="true">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
+      <c r="R57" s="25" t="str">
+        <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G58" s="25" t="str">
+      <c r="B58" s="22" t="str">
+        <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C58" s="22" t="str">
+        <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D58" s="22" t="str">
+        <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G58" s="23" t="str">
         <f aca="false">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="26" t="str">
+      <c r="H58" s="24" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I58" s="27"/>
+      <c r="I58" s="24" t="str">
+        <f aca="true">IF(J58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K58" s="0" t="n">
         <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1),F58)</f>
         <v>0</v>
@@ -2284,17 +3327,36 @@
         <f aca="true">IF(L58 = 0, INDIRECT("N" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
+      <c r="R58" s="25" t="str">
+        <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G59" s="25" t="str">
+      <c r="B59" s="22" t="str">
+        <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C59" s="22" t="str">
+        <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D59" s="22" t="str">
+        <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G59" s="23" t="str">
         <f aca="false">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="26" t="str">
+      <c r="H59" s="24" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I59" s="27"/>
+      <c r="I59" s="24" t="str">
+        <f aca="true">IF(J59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K59" s="0" t="n">
         <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1),F59)</f>
         <v>0</v>
@@ -2311,17 +3373,36 @@
         <f aca="true">IF(L59 = 0, INDIRECT("N" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
+      <c r="R59" s="25" t="str">
+        <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="25" t="str">
+      <c r="B60" s="22" t="str">
+        <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C60" s="22" t="str">
+        <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D60" s="22" t="str">
+        <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G60" s="23" t="str">
         <f aca="false">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="26" t="str">
+      <c r="H60" s="24" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I60" s="27"/>
+      <c r="I60" s="24" t="str">
+        <f aca="true">IF(J60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K60" s="0" t="n">
         <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1),F60)</f>
         <v>0</v>
@@ -2338,17 +3419,36 @@
         <f aca="true">IF(L60 = 0, INDIRECT("N" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
+      <c r="R60" s="25" t="str">
+        <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="25" t="str">
+      <c r="B61" s="22" t="str">
+        <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C61" s="22" t="str">
+        <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D61" s="22" t="str">
+        <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G61" s="23" t="str">
         <f aca="false">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="26" t="str">
+      <c r="H61" s="24" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I61" s="27"/>
+      <c r="I61" s="24" t="str">
+        <f aca="true">IF(J61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K61" s="0" t="n">
         <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
         <v>0</v>
@@ -2365,17 +3465,36 @@
         <f aca="true">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
+      <c r="R61" s="25" t="str">
+        <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G62" s="25" t="str">
+      <c r="B62" s="22" t="str">
+        <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C62" s="22" t="str">
+        <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D62" s="22" t="str">
+        <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G62" s="23" t="str">
         <f aca="false">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="26" t="str">
+      <c r="H62" s="24" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I62" s="27"/>
+      <c r="I62" s="24" t="str">
+        <f aca="true">IF(J62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K62" s="0" t="n">
         <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1),F62)</f>
         <v>0</v>
@@ -2392,17 +3511,36 @@
         <f aca="true">IF(L62 = 0, INDIRECT("N" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
+      <c r="R62" s="25" t="str">
+        <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G63" s="25" t="str">
+      <c r="B63" s="22" t="str">
+        <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C63" s="22" t="str">
+        <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D63" s="22" t="str">
+        <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G63" s="23" t="str">
         <f aca="false">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="26" t="str">
+      <c r="H63" s="24" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I63" s="27"/>
+      <c r="I63" s="24" t="str">
+        <f aca="true">IF(J63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K63" s="0" t="n">
         <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1),F63)</f>
         <v>0</v>
@@ -2419,17 +3557,36 @@
         <f aca="true">IF(L63 = 0, INDIRECT("N" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
+      <c r="R63" s="25" t="str">
+        <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="25" t="str">
+      <c r="B64" s="22" t="str">
+        <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C64" s="22" t="str">
+        <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D64" s="22" t="str">
+        <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G64" s="23" t="str">
         <f aca="false">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="26" t="str">
+      <c r="H64" s="24" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I64" s="27"/>
+      <c r="I64" s="24" t="str">
+        <f aca="true">IF(J64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K64" s="0" t="n">
         <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1),F64)</f>
         <v>0</v>
@@ -2446,17 +3603,36 @@
         <f aca="true">IF(L64 = 0, INDIRECT("N" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
+      <c r="R64" s="25" t="str">
+        <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="25" t="str">
+      <c r="B65" s="22" t="str">
+        <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C65" s="22" t="str">
+        <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D65" s="22" t="str">
+        <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G65" s="23" t="str">
         <f aca="false">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="26" t="str">
+      <c r="H65" s="24" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I65" s="27"/>
+      <c r="I65" s="24" t="str">
+        <f aca="true">IF(J65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K65" s="0" t="n">
         <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1),F65)</f>
         <v>0</v>
@@ -2473,17 +3649,36 @@
         <f aca="true">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
+      <c r="R65" s="25" t="str">
+        <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="25" t="str">
+      <c r="B66" s="22" t="str">
+        <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C66" s="22" t="str">
+        <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D66" s="22" t="str">
+        <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G66" s="23" t="str">
         <f aca="false">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="26" t="str">
+      <c r="H66" s="24" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I66" s="27"/>
+      <c r="I66" s="24" t="str">
+        <f aca="true">IF(J66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K66" s="0" t="n">
         <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1),F66)</f>
         <v>0</v>
@@ -2500,17 +3695,36 @@
         <f aca="true">IF(L66 = 0, INDIRECT("N" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
+      <c r="R66" s="25" t="str">
+        <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="25" t="str">
+      <c r="B67" s="22" t="str">
+        <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C67" s="22" t="str">
+        <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D67" s="22" t="str">
+        <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G67" s="23" t="str">
         <f aca="false">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="26" t="str">
+      <c r="H67" s="24" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I67" s="27"/>
+      <c r="I67" s="24" t="str">
+        <f aca="true">IF(J67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K67" s="0" t="n">
         <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
         <v>0</v>
@@ -2527,17 +3741,36 @@
         <f aca="true">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
+      <c r="R67" s="25" t="str">
+        <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="25" t="str">
+      <c r="B68" s="22" t="str">
+        <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C68" s="22" t="str">
+        <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D68" s="22" t="str">
+        <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G68" s="23" t="str">
         <f aca="false">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="26" t="str">
+      <c r="H68" s="24" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I68" s="27"/>
+      <c r="I68" s="24" t="str">
+        <f aca="true">IF(J68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K68" s="0" t="n">
         <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1),F68)</f>
         <v>0</v>
@@ -2554,17 +3787,36 @@
         <f aca="true">IF(L68 = 0, INDIRECT("N" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
+      <c r="R68" s="25" t="str">
+        <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="25" t="str">
+      <c r="B69" s="22" t="str">
+        <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C69" s="22" t="str">
+        <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D69" s="22" t="str">
+        <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G69" s="23" t="str">
         <f aca="false">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="26" t="str">
+      <c r="H69" s="24" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I69" s="27"/>
+      <c r="I69" s="24" t="str">
+        <f aca="true">IF(J69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K69" s="0" t="n">
         <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1),F69)</f>
         <v>0</v>
@@ -2581,17 +3833,36 @@
         <f aca="true">IF(L69 = 0, INDIRECT("N" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
+      <c r="R69" s="25" t="str">
+        <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="25" t="str">
+      <c r="B70" s="22" t="str">
+        <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C70" s="22" t="str">
+        <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D70" s="22" t="str">
+        <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G70" s="23" t="str">
         <f aca="false">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="26" t="str">
+      <c r="H70" s="24" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I70" s="27"/>
+      <c r="I70" s="24" t="str">
+        <f aca="true">IF(J70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K70" s="0" t="n">
         <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1),F70)</f>
         <v>0</v>
@@ -2608,17 +3879,36 @@
         <f aca="true">IF(L70 = 0, INDIRECT("N" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
+      <c r="R70" s="25" t="str">
+        <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="25" t="str">
+      <c r="B71" s="22" t="str">
+        <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C71" s="22" t="str">
+        <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D71" s="22" t="str">
+        <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G71" s="23" t="str">
         <f aca="false">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="26" t="str">
+      <c r="H71" s="24" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I71" s="27"/>
+      <c r="I71" s="24" t="str">
+        <f aca="true">IF(J71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K71" s="0" t="n">
         <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1),F71)</f>
         <v>0</v>
@@ -2635,17 +3925,36 @@
         <f aca="true">IF(L71 = 0, INDIRECT("N" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
+      <c r="R71" s="25" t="str">
+        <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="25" t="str">
+      <c r="B72" s="22" t="str">
+        <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C72" s="22" t="str">
+        <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D72" s="22" t="str">
+        <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G72" s="23" t="str">
         <f aca="false">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="26" t="str">
+      <c r="H72" s="24" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I72" s="27"/>
+      <c r="I72" s="24" t="str">
+        <f aca="true">IF(J72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K72" s="0" t="n">
         <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1),F72)</f>
         <v>0</v>
@@ -2662,17 +3971,36 @@
         <f aca="true">IF(L72 = 0, INDIRECT("N" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
+      <c r="R72" s="25" t="str">
+        <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="25" t="str">
+      <c r="B73" s="22" t="str">
+        <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C73" s="22" t="str">
+        <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D73" s="22" t="str">
+        <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G73" s="23" t="str">
         <f aca="false">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="26" t="str">
+      <c r="H73" s="24" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I73" s="27"/>
+      <c r="I73" s="24" t="str">
+        <f aca="true">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K73" s="0" t="n">
         <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),F73)</f>
         <v>0</v>
@@ -2689,17 +4017,36 @@
         <f aca="true">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
+      <c r="R73" s="25" t="str">
+        <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G74" s="25" t="str">
+      <c r="B74" s="22" t="str">
+        <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C74" s="22" t="str">
+        <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D74" s="22" t="str">
+        <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G74" s="23" t="str">
         <f aca="false">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="26" t="str">
+      <c r="H74" s="24" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I74" s="27"/>
+      <c r="I74" s="24" t="str">
+        <f aca="true">IF(J74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K74" s="0" t="n">
         <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1),F74)</f>
         <v>0</v>
@@ -2716,17 +4063,36 @@
         <f aca="true">IF(L74 = 0, INDIRECT("N" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
+      <c r="R74" s="25" t="str">
+        <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G75" s="25" t="str">
+      <c r="B75" s="22" t="str">
+        <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C75" s="22" t="str">
+        <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D75" s="22" t="str">
+        <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G75" s="23" t="str">
         <f aca="false">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="26" t="str">
+      <c r="H75" s="24" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I75" s="27"/>
+      <c r="I75" s="24" t="str">
+        <f aca="true">IF(J75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K75" s="0" t="n">
         <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1),F75)</f>
         <v>0</v>
@@ -2743,17 +4109,36 @@
         <f aca="true">IF(L75 = 0, INDIRECT("N" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
+      <c r="R75" s="25" t="str">
+        <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="25" t="str">
+      <c r="B76" s="22" t="str">
+        <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C76" s="22" t="str">
+        <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D76" s="22" t="str">
+        <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G76" s="23" t="str">
         <f aca="false">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="26" t="str">
+      <c r="H76" s="24" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I76" s="27"/>
+      <c r="I76" s="24" t="str">
+        <f aca="true">IF(J76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K76" s="0" t="n">
         <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1),F76)</f>
         <v>0</v>
@@ -2770,17 +4155,36 @@
         <f aca="true">IF(L76 = 0, INDIRECT("N" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
+      <c r="R76" s="25" t="str">
+        <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G77" s="25" t="str">
+      <c r="B77" s="22" t="str">
+        <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C77" s="22" t="str">
+        <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D77" s="22" t="str">
+        <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G77" s="23" t="str">
         <f aca="false">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="26" t="str">
+      <c r="H77" s="24" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I77" s="27"/>
+      <c r="I77" s="24" t="str">
+        <f aca="true">IF(J77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K77" s="0" t="n">
         <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1),F77)</f>
         <v>0</v>
@@ -2797,17 +4201,36 @@
         <f aca="true">IF(L77 = 0, INDIRECT("N" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
+      <c r="R77" s="25" t="str">
+        <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G78" s="25" t="str">
+      <c r="B78" s="22" t="str">
+        <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C78" s="22" t="str">
+        <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D78" s="22" t="str">
+        <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G78" s="23" t="str">
         <f aca="false">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="26" t="str">
+      <c r="H78" s="24" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I78" s="27"/>
+      <c r="I78" s="24" t="str">
+        <f aca="true">IF(J78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K78" s="0" t="n">
         <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1),F78)</f>
         <v>0</v>
@@ -2824,17 +4247,36 @@
         <f aca="true">IF(L78 = 0, INDIRECT("N" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
+      <c r="R78" s="25" t="str">
+        <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="25" t="str">
+      <c r="B79" s="22" t="str">
+        <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C79" s="22" t="str">
+        <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D79" s="22" t="str">
+        <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G79" s="23" t="str">
         <f aca="false">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="26" t="str">
+      <c r="H79" s="24" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I79" s="27"/>
+      <c r="I79" s="24" t="str">
+        <f aca="true">IF(J79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K79" s="0" t="n">
         <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1),F79)</f>
         <v>0</v>
@@ -2851,17 +4293,36 @@
         <f aca="true">IF(L79 = 0, INDIRECT("N" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
+      <c r="R79" s="25" t="str">
+        <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G80" s="25" t="str">
+      <c r="B80" s="22" t="str">
+        <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C80" s="22" t="str">
+        <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D80" s="22" t="str">
+        <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G80" s="23" t="str">
         <f aca="false">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="26" t="str">
+      <c r="H80" s="24" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I80" s="27"/>
+      <c r="I80" s="24" t="str">
+        <f aca="true">IF(J80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K80" s="0" t="n">
         <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1),F80)</f>
         <v>0</v>
@@ -2878,17 +4339,36 @@
         <f aca="true">IF(L80 = 0, INDIRECT("N" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
+      <c r="R80" s="25" t="str">
+        <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G81" s="25" t="str">
+      <c r="B81" s="22" t="str">
+        <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C81" s="22" t="str">
+        <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D81" s="22" t="str">
+        <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G81" s="23" t="str">
         <f aca="false">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="26" t="str">
+      <c r="H81" s="24" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I81" s="27"/>
+      <c r="I81" s="24" t="str">
+        <f aca="true">IF(J81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K81" s="0" t="n">
         <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1),F81)</f>
         <v>0</v>
@@ -2905,17 +4385,36 @@
         <f aca="true">IF(L81 = 0, INDIRECT("N" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
+      <c r="R81" s="25" t="str">
+        <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G82" s="25" t="str">
+      <c r="B82" s="22" t="str">
+        <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C82" s="22" t="str">
+        <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D82" s="22" t="str">
+        <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G82" s="23" t="str">
         <f aca="false">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="26" t="str">
+      <c r="H82" s="24" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I82" s="27"/>
+      <c r="I82" s="24" t="str">
+        <f aca="true">IF(J82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K82" s="0" t="n">
         <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1),F82)</f>
         <v>0</v>
@@ -2932,17 +4431,36 @@
         <f aca="true">IF(L82 = 0, INDIRECT("N" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
+      <c r="R82" s="25" t="str">
+        <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G83" s="25" t="str">
+      <c r="B83" s="22" t="str">
+        <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C83" s="22" t="str">
+        <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D83" s="22" t="str">
+        <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G83" s="23" t="str">
         <f aca="false">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="26" t="str">
+      <c r="H83" s="24" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I83" s="27"/>
+      <c r="I83" s="24" t="str">
+        <f aca="true">IF(J83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K83" s="0" t="n">
         <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1),F83)</f>
         <v>0</v>
@@ -2959,17 +4477,36 @@
         <f aca="true">IF(L83 = 0, INDIRECT("N" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
+      <c r="R83" s="25" t="str">
+        <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G84" s="25" t="str">
+      <c r="B84" s="22" t="str">
+        <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C84" s="22" t="str">
+        <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D84" s="22" t="str">
+        <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G84" s="23" t="str">
         <f aca="false">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="26" t="str">
+      <c r="H84" s="24" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I84" s="27"/>
+      <c r="I84" s="24" t="str">
+        <f aca="true">IF(J84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K84" s="0" t="n">
         <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1),F84)</f>
         <v>0</v>
@@ -2986,17 +4523,36 @@
         <f aca="true">IF(L84 = 0, INDIRECT("N" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
+      <c r="R84" s="25" t="str">
+        <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G85" s="25" t="str">
+      <c r="B85" s="22" t="str">
+        <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C85" s="22" t="str">
+        <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D85" s="22" t="str">
+        <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G85" s="23" t="str">
         <f aca="false">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="26" t="str">
+      <c r="H85" s="24" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I85" s="27"/>
+      <c r="I85" s="24" t="str">
+        <f aca="true">IF(J85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K85" s="0" t="n">
         <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1),F85)</f>
         <v>0</v>
@@ -3013,17 +4569,36 @@
         <f aca="true">IF(L85 = 0, INDIRECT("N" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
+      <c r="R85" s="25" t="str">
+        <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G86" s="25" t="str">
+      <c r="B86" s="22" t="str">
+        <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C86" s="22" t="str">
+        <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D86" s="22" t="str">
+        <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G86" s="23" t="str">
         <f aca="false">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="26" t="str">
+      <c r="H86" s="24" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I86" s="27"/>
+      <c r="I86" s="24" t="str">
+        <f aca="true">IF(J86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K86" s="0" t="n">
         <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1),F86)</f>
         <v>0</v>
@@ -3040,17 +4615,36 @@
         <f aca="true">IF(L86 = 0, INDIRECT("N" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
+      <c r="R86" s="25" t="str">
+        <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G87" s="25" t="str">
+      <c r="B87" s="22" t="str">
+        <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C87" s="22" t="str">
+        <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D87" s="22" t="str">
+        <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G87" s="23" t="str">
         <f aca="false">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="26" t="str">
+      <c r="H87" s="24" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I87" s="27"/>
+      <c r="I87" s="24" t="str">
+        <f aca="true">IF(J87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K87" s="0" t="n">
         <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1),F87)</f>
         <v>0</v>
@@ -3067,17 +4661,36 @@
         <f aca="true">IF(L87 = 0, INDIRECT("N" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
+      <c r="R87" s="25" t="str">
+        <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G88" s="25" t="str">
+      <c r="B88" s="22" t="str">
+        <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C88" s="22" t="str">
+        <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D88" s="22" t="str">
+        <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G88" s="23" t="str">
         <f aca="false">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="26" t="str">
+      <c r="H88" s="24" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I88" s="27"/>
+      <c r="I88" s="24" t="str">
+        <f aca="true">IF(J88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K88" s="0" t="n">
         <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1),F88)</f>
         <v>0</v>
@@ -3094,17 +4707,36 @@
         <f aca="true">IF(L88 = 0, INDIRECT("N" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
+      <c r="R88" s="25" t="str">
+        <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G89" s="25" t="str">
+      <c r="B89" s="22" t="str">
+        <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C89" s="22" t="str">
+        <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D89" s="22" t="str">
+        <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G89" s="23" t="str">
         <f aca="false">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="26" t="str">
+      <c r="H89" s="24" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I89" s="27"/>
+      <c r="I89" s="24" t="str">
+        <f aca="true">IF(J89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K89" s="0" t="n">
         <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
         <v>0</v>
@@ -3121,17 +4753,36 @@
         <f aca="true">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
+      <c r="R89" s="25" t="str">
+        <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G90" s="25" t="str">
+      <c r="B90" s="22" t="str">
+        <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C90" s="22" t="str">
+        <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D90" s="22" t="str">
+        <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G90" s="23" t="str">
         <f aca="false">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="26" t="str">
+      <c r="H90" s="24" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I90" s="27"/>
+      <c r="I90" s="24" t="str">
+        <f aca="true">IF(J90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K90" s="0" t="n">
         <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1),F90)</f>
         <v>0</v>
@@ -3148,17 +4799,36 @@
         <f aca="true">IF(L90 = 0, INDIRECT("N" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
+      <c r="R90" s="25" t="str">
+        <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G91" s="25" t="str">
+      <c r="B91" s="22" t="str">
+        <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C91" s="22" t="str">
+        <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D91" s="22" t="str">
+        <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G91" s="23" t="str">
         <f aca="false">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="26" t="str">
+      <c r="H91" s="24" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I91" s="27"/>
+      <c r="I91" s="24" t="str">
+        <f aca="true">IF(J91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K91" s="0" t="n">
         <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1),F91)</f>
         <v>0</v>
@@ -3175,17 +4845,36 @@
         <f aca="true">IF(L91 = 0, INDIRECT("N" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
+      <c r="R91" s="25" t="str">
+        <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G92" s="25" t="str">
+      <c r="B92" s="22" t="str">
+        <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C92" s="22" t="str">
+        <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D92" s="22" t="str">
+        <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G92" s="23" t="str">
         <f aca="false">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="26" t="str">
+      <c r="H92" s="24" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I92" s="27"/>
+      <c r="I92" s="24" t="str">
+        <f aca="true">IF(J92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K92" s="0" t="n">
         <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1),F92)</f>
         <v>0</v>
@@ -3202,17 +4891,36 @@
         <f aca="true">IF(L92 = 0, INDIRECT("N" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
+      <c r="R92" s="25" t="str">
+        <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G93" s="25" t="str">
+      <c r="B93" s="22" t="str">
+        <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C93" s="22" t="str">
+        <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D93" s="22" t="str">
+        <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G93" s="23" t="str">
         <f aca="false">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="26" t="str">
+      <c r="H93" s="24" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I93" s="27"/>
+      <c r="I93" s="24" t="str">
+        <f aca="true">IF(J93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K93" s="0" t="n">
         <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
         <v>0</v>
@@ -3229,17 +4937,36 @@
         <f aca="true">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
+      <c r="R93" s="25" t="str">
+        <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G94" s="25" t="str">
+      <c r="B94" s="22" t="str">
+        <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C94" s="22" t="str">
+        <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D94" s="22" t="str">
+        <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G94" s="23" t="str">
         <f aca="false">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="26" t="str">
+      <c r="H94" s="24" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I94" s="27"/>
+      <c r="I94" s="24" t="str">
+        <f aca="true">IF(J94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K94" s="0" t="n">
         <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1),F94)</f>
         <v>0</v>
@@ -3256,17 +4983,36 @@
         <f aca="true">IF(L94 = 0, INDIRECT("N" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
+      <c r="R94" s="25" t="str">
+        <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G95" s="25" t="str">
+      <c r="B95" s="22" t="str">
+        <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C95" s="22" t="str">
+        <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D95" s="22" t="str">
+        <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G95" s="23" t="str">
         <f aca="false">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="26" t="str">
+      <c r="H95" s="24" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I95" s="27"/>
+      <c r="I95" s="24" t="str">
+        <f aca="true">IF(J95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K95" s="0" t="n">
         <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1),F95)</f>
         <v>0</v>
@@ -3283,17 +5029,36 @@
         <f aca="true">IF(L95 = 0, INDIRECT("N" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
+      <c r="R95" s="25" t="str">
+        <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G96" s="25" t="str">
+      <c r="B96" s="22" t="str">
+        <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C96" s="22" t="str">
+        <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D96" s="22" t="str">
+        <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G96" s="23" t="str">
         <f aca="false">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="26" t="str">
+      <c r="H96" s="24" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I96" s="27"/>
+      <c r="I96" s="24" t="str">
+        <f aca="true">IF(J96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K96" s="0" t="n">
         <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1),F96)</f>
         <v>0</v>
@@ -3310,17 +5075,36 @@
         <f aca="true">IF(L96 = 0, INDIRECT("N" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
+      <c r="R96" s="25" t="str">
+        <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G97" s="25" t="str">
+      <c r="B97" s="22" t="str">
+        <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C97" s="22" t="str">
+        <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D97" s="22" t="str">
+        <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G97" s="23" t="str">
         <f aca="false">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="26" t="str">
+      <c r="H97" s="24" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I97" s="27"/>
+      <c r="I97" s="24" t="str">
+        <f aca="true">IF(J97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K97" s="0" t="n">
         <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1),F97)</f>
         <v>0</v>
@@ -3337,17 +5121,36 @@
         <f aca="true">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
+      <c r="R97" s="25" t="str">
+        <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G98" s="25" t="str">
+      <c r="B98" s="22" t="str">
+        <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C98" s="22" t="str">
+        <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D98" s="22" t="str">
+        <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G98" s="23" t="str">
         <f aca="false">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="26" t="str">
+      <c r="H98" s="24" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I98" s="27"/>
+      <c r="I98" s="24" t="str">
+        <f aca="true">IF(J98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K98" s="0" t="n">
         <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1),F98)</f>
         <v>0</v>
@@ -3364,17 +5167,36 @@
         <f aca="true">IF(L98 = 0, INDIRECT("N" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
+      <c r="R98" s="25" t="str">
+        <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G99" s="25" t="str">
+      <c r="B99" s="22" t="str">
+        <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C99" s="22" t="str">
+        <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D99" s="22" t="str">
+        <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G99" s="23" t="str">
         <f aca="false">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="26" t="str">
+      <c r="H99" s="24" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I99" s="27"/>
+      <c r="I99" s="24" t="str">
+        <f aca="true">IF(J99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K99" s="0" t="n">
         <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
         <v>0</v>
@@ -3391,17 +5213,36 @@
         <f aca="true">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
+      <c r="R99" s="25" t="str">
+        <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G100" s="25" t="str">
+      <c r="B100" s="22" t="str">
+        <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C100" s="22" t="str">
+        <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D100" s="22" t="str">
+        <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G100" s="23" t="str">
         <f aca="false">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="26" t="str">
+      <c r="H100" s="24" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I100" s="27"/>
+      <c r="I100" s="24" t="str">
+        <f aca="true">IF(J100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K100" s="0" t="n">
         <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1),F100)</f>
         <v>0</v>
@@ -3418,17 +5259,36 @@
         <f aca="true">IF(L100 = 0, INDIRECT("N" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
+      <c r="R100" s="25" t="str">
+        <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G101" s="25" t="str">
+      <c r="B101" s="22" t="str">
+        <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C101" s="22" t="str">
+        <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D101" s="22" t="str">
+        <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G101" s="23" t="str">
         <f aca="false">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="26" t="str">
+      <c r="H101" s="24" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I101" s="27"/>
+      <c r="I101" s="24" t="str">
+        <f aca="true">IF(J101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K101" s="0" t="n">
         <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1),F101)</f>
         <v>0</v>
@@ -3445,17 +5305,36 @@
         <f aca="true">IF(L101 = 0, INDIRECT("N" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
+      <c r="R101" s="25" t="str">
+        <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G102" s="25" t="str">
+      <c r="B102" s="22" t="str">
+        <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C102" s="22" t="str">
+        <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D102" s="22" t="str">
+        <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G102" s="23" t="str">
         <f aca="false">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="26" t="str">
+      <c r="H102" s="24" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I102" s="27"/>
+      <c r="I102" s="24" t="str">
+        <f aca="true">IF(J102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K102" s="0" t="n">
         <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1),F102)</f>
         <v>0</v>
@@ -3472,17 +5351,36 @@
         <f aca="true">IF(L102 = 0, INDIRECT("N" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
+      <c r="R102" s="25" t="str">
+        <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G103" s="25" t="str">
+      <c r="B103" s="22" t="str">
+        <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C103" s="22" t="str">
+        <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D103" s="22" t="str">
+        <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G103" s="23" t="str">
         <f aca="false">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="26" t="str">
+      <c r="H103" s="24" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I103" s="27"/>
+      <c r="I103" s="24" t="str">
+        <f aca="true">IF(J103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K103" s="0" t="n">
         <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1),F103)</f>
         <v>0</v>
@@ -3499,17 +5397,36 @@
         <f aca="true">IF(L103 = 0, INDIRECT("N" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
+      <c r="R103" s="25" t="str">
+        <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G104" s="25" t="str">
+      <c r="B104" s="22" t="str">
+        <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C104" s="22" t="str">
+        <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D104" s="22" t="str">
+        <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G104" s="23" t="str">
         <f aca="false">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="26" t="str">
+      <c r="H104" s="24" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I104" s="27"/>
+      <c r="I104" s="24" t="str">
+        <f aca="true">IF(J104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K104" s="0" t="n">
         <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1),F104)</f>
         <v>0</v>
@@ -3526,17 +5443,36 @@
         <f aca="true">IF(L104 = 0, INDIRECT("N" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
+      <c r="R104" s="25" t="str">
+        <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G105" s="25" t="str">
+      <c r="B105" s="22" t="str">
+        <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C105" s="22" t="str">
+        <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D105" s="22" t="str">
+        <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G105" s="23" t="str">
         <f aca="false">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="26" t="str">
+      <c r="H105" s="24" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I105" s="27"/>
+      <c r="I105" s="24" t="str">
+        <f aca="true">IF(J105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K105" s="0" t="n">
         <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),F105)</f>
         <v>0</v>
@@ -3553,17 +5489,36 @@
         <f aca="true">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
+      <c r="R105" s="25" t="str">
+        <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G106" s="25" t="str">
+      <c r="B106" s="22" t="str">
+        <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C106" s="22" t="str">
+        <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D106" s="22" t="str">
+        <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G106" s="23" t="str">
         <f aca="false">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="26" t="str">
+      <c r="H106" s="24" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I106" s="27"/>
+      <c r="I106" s="24" t="str">
+        <f aca="true">IF(J106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K106" s="0" t="n">
         <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1),F106)</f>
         <v>0</v>
@@ -3580,17 +5535,36 @@
         <f aca="true">IF(L106 = 0, INDIRECT("N" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
+      <c r="R106" s="25" t="str">
+        <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G107" s="25" t="str">
+      <c r="B107" s="22" t="str">
+        <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C107" s="22" t="str">
+        <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D107" s="22" t="str">
+        <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G107" s="23" t="str">
         <f aca="false">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="26" t="str">
+      <c r="H107" s="24" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I107" s="27"/>
+      <c r="I107" s="24" t="str">
+        <f aca="true">IF(J107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K107" s="0" t="n">
         <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1),F107)</f>
         <v>0</v>
@@ -3607,17 +5581,36 @@
         <f aca="true">IF(L107 = 0, INDIRECT("N" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
+      <c r="R107" s="25" t="str">
+        <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G108" s="25" t="str">
+      <c r="B108" s="22" t="str">
+        <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C108" s="22" t="str">
+        <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D108" s="22" t="str">
+        <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G108" s="23" t="str">
         <f aca="false">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="26" t="str">
+      <c r="H108" s="24" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I108" s="27"/>
+      <c r="I108" s="24" t="str">
+        <f aca="true">IF(J108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K108" s="0" t="n">
         <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1),F108)</f>
         <v>0</v>
@@ -3634,17 +5627,36 @@
         <f aca="true">IF(L108 = 0, INDIRECT("N" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
+      <c r="R108" s="25" t="str">
+        <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G109" s="25" t="str">
+      <c r="B109" s="22" t="str">
+        <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C109" s="22" t="str">
+        <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D109" s="22" t="str">
+        <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G109" s="23" t="str">
         <f aca="false">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="26" t="str">
+      <c r="H109" s="24" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I109" s="27"/>
+      <c r="I109" s="24" t="str">
+        <f aca="true">IF(J109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K109" s="0" t="n">
         <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1),F109)</f>
         <v>0</v>
@@ -3661,17 +5673,36 @@
         <f aca="true">IF(L109 = 0, INDIRECT("N" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
+      <c r="R109" s="25" t="str">
+        <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G110" s="25" t="str">
+      <c r="B110" s="22" t="str">
+        <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C110" s="22" t="str">
+        <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D110" s="22" t="str">
+        <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G110" s="23" t="str">
         <f aca="false">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="26" t="str">
+      <c r="H110" s="24" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I110" s="27"/>
+      <c r="I110" s="24" t="str">
+        <f aca="true">IF(J110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K110" s="0" t="n">
         <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1),F110)</f>
         <v>0</v>
@@ -3688,17 +5719,36 @@
         <f aca="true">IF(L110 = 0, INDIRECT("N" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
+      <c r="R110" s="25" t="str">
+        <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G111" s="25" t="str">
+      <c r="B111" s="22" t="str">
+        <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C111" s="22" t="str">
+        <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D111" s="22" t="str">
+        <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G111" s="23" t="str">
         <f aca="false">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="26" t="str">
+      <c r="H111" s="24" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I111" s="27"/>
+      <c r="I111" s="24" t="str">
+        <f aca="true">IF(J111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K111" s="0" t="n">
         <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1),F111)</f>
         <v>0</v>
@@ -3715,17 +5765,36 @@
         <f aca="true">IF(L111 = 0, INDIRECT("N" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
+      <c r="R111" s="25" t="str">
+        <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="25" t="str">
+      <c r="B112" s="22" t="str">
+        <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C112" s="22" t="str">
+        <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D112" s="22" t="str">
+        <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G112" s="23" t="str">
         <f aca="false">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="26" t="str">
+      <c r="H112" s="24" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I112" s="27"/>
+      <c r="I112" s="24" t="str">
+        <f aca="true">IF(J112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K112" s="0" t="n">
         <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1),F112)</f>
         <v>0</v>
@@ -3742,17 +5811,36 @@
         <f aca="true">IF(L112 = 0, INDIRECT("N" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
+      <c r="R112" s="25" t="str">
+        <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G113" s="25" t="str">
+      <c r="B113" s="22" t="str">
+        <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C113" s="22" t="str">
+        <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D113" s="22" t="str">
+        <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G113" s="23" t="str">
         <f aca="false">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="26" t="str">
+      <c r="H113" s="24" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I113" s="27"/>
+      <c r="I113" s="24" t="str">
+        <f aca="true">IF(J113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K113" s="0" t="n">
         <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1),F113)</f>
         <v>0</v>
@@ -3769,17 +5857,36 @@
         <f aca="true">IF(L113 = 0, INDIRECT("N" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
+      <c r="R113" s="25" t="str">
+        <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="25" t="str">
+      <c r="B114" s="22" t="str">
+        <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C114" s="22" t="str">
+        <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D114" s="22" t="str">
+        <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G114" s="23" t="str">
         <f aca="false">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="26" t="str">
+      <c r="H114" s="24" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I114" s="27"/>
+      <c r="I114" s="24" t="str">
+        <f aca="true">IF(J114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K114" s="0" t="n">
         <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1),F114)</f>
         <v>0</v>
@@ -3796,17 +5903,36 @@
         <f aca="true">IF(L114 = 0, INDIRECT("N" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
+      <c r="R114" s="25" t="str">
+        <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="25" t="str">
+      <c r="B115" s="22" t="str">
+        <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C115" s="22" t="str">
+        <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D115" s="22" t="str">
+        <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G115" s="23" t="str">
         <f aca="false">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="26" t="str">
+      <c r="H115" s="24" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I115" s="27"/>
+      <c r="I115" s="24" t="str">
+        <f aca="true">IF(J115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K115" s="0" t="n">
         <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1),F115)</f>
         <v>0</v>
@@ -3823,17 +5949,36 @@
         <f aca="true">IF(L115 = 0, INDIRECT("N" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
+      <c r="R115" s="25" t="str">
+        <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="25" t="str">
+      <c r="B116" s="22" t="str">
+        <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C116" s="22" t="str">
+        <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D116" s="22" t="str">
+        <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G116" s="23" t="str">
         <f aca="false">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="26" t="str">
+      <c r="H116" s="24" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I116" s="27"/>
+      <c r="I116" s="24" t="str">
+        <f aca="true">IF(J116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K116" s="0" t="n">
         <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1),F116)</f>
         <v>0</v>
@@ -3850,17 +5995,36 @@
         <f aca="true">IF(L116 = 0, INDIRECT("N" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
+      <c r="R116" s="25" t="str">
+        <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="25" t="str">
+      <c r="B117" s="22" t="str">
+        <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C117" s="22" t="str">
+        <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D117" s="22" t="str">
+        <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G117" s="23" t="str">
         <f aca="false">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="26" t="str">
+      <c r="H117" s="24" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I117" s="27"/>
+      <c r="I117" s="24" t="str">
+        <f aca="true">IF(J117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K117" s="0" t="n">
         <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1),F117)</f>
         <v>0</v>
@@ -3877,17 +6041,36 @@
         <f aca="true">IF(L117 = 0, INDIRECT("N" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
+      <c r="R117" s="25" t="str">
+        <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="25" t="str">
+      <c r="B118" s="22" t="str">
+        <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C118" s="22" t="str">
+        <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D118" s="22" t="str">
+        <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G118" s="23" t="str">
         <f aca="false">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="26" t="str">
+      <c r="H118" s="24" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I118" s="27"/>
+      <c r="I118" s="24" t="str">
+        <f aca="true">IF(J118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K118" s="0" t="n">
         <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1),F118)</f>
         <v>0</v>
@@ -3904,17 +6087,36 @@
         <f aca="true">IF(L118 = 0, INDIRECT("N" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
+      <c r="R118" s="25" t="str">
+        <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G119" s="25" t="str">
+      <c r="B119" s="22" t="str">
+        <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C119" s="22" t="str">
+        <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D119" s="22" t="str">
+        <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G119" s="23" t="str">
         <f aca="false">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="26" t="str">
+      <c r="H119" s="24" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I119" s="27"/>
+      <c r="I119" s="24" t="str">
+        <f aca="true">IF(J119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K119" s="0" t="n">
         <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1),F119)</f>
         <v>0</v>
@@ -3931,17 +6133,36 @@
         <f aca="true">IF(L119 = 0, INDIRECT("N" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
+      <c r="R119" s="25" t="str">
+        <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G120" s="25" t="str">
+      <c r="B120" s="22" t="str">
+        <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C120" s="22" t="str">
+        <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D120" s="22" t="str">
+        <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G120" s="23" t="str">
         <f aca="false">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="26" t="str">
+      <c r="H120" s="24" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I120" s="27"/>
+      <c r="I120" s="24" t="str">
+        <f aca="true">IF(J120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K120" s="0" t="n">
         <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1),F120)</f>
         <v>0</v>
@@ -3958,17 +6179,36 @@
         <f aca="true">IF(L120 = 0, INDIRECT("N" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
+      <c r="R120" s="25" t="str">
+        <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="25" t="str">
+      <c r="B121" s="22" t="str">
+        <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C121" s="22" t="str">
+        <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D121" s="22" t="str">
+        <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G121" s="23" t="str">
         <f aca="false">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="26" t="str">
+      <c r="H121" s="24" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I121" s="27"/>
+      <c r="I121" s="24" t="str">
+        <f aca="true">IF(J121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K121" s="0" t="n">
         <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1),F121)</f>
         <v>0</v>
@@ -3985,17 +6225,36 @@
         <f aca="true">IF(L121 = 0, INDIRECT("N" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
+      <c r="R121" s="25" t="str">
+        <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="25" t="str">
+      <c r="B122" s="22" t="str">
+        <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C122" s="22" t="str">
+        <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D122" s="22" t="str">
+        <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G122" s="23" t="str">
         <f aca="false">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="26" t="str">
+      <c r="H122" s="24" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I122" s="27"/>
+      <c r="I122" s="24" t="str">
+        <f aca="true">IF(J122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K122" s="0" t="n">
         <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1),F122)</f>
         <v>0</v>
@@ -4012,17 +6271,33 @@
         <f aca="true">IF(L122 = 0, INDIRECT("N" &amp; ROW() - 1), L122)</f>
         <v>0</v>
       </c>
+      <c r="R122" s="25" t="str">
+        <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G123" s="25" t="str">
+      <c r="B123" s="22"/>
+      <c r="C123" s="22" t="str">
+        <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D123" s="22" t="str">
+        <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="G123" s="23" t="str">
         <f aca="false">IF(H123="", IF(J123="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N123)),IF(J123="", "", INDIRECT("N" &amp; ROW() - 1) - N123))</f>
         <v/>
       </c>
-      <c r="H123" s="26" t="str">
+      <c r="H123" s="24" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I123" s="27"/>
+      <c r="I123" s="24" t="str">
+        <f aca="true">IF(J123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
       <c r="K123" s="0" t="n">
         <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1),F123)</f>
         <v>0</v>
@@ -4039,261 +6314,2416 @@
         <f aca="true">IF(L123 = 0, INDIRECT("N" &amp; ROW() - 1), L123)</f>
         <v>0</v>
       </c>
+      <c r="R123" s="25" t="str">
+        <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H124" s="26" t="str">
+      <c r="B124" s="22"/>
+      <c r="C124" s="22" t="str">
+        <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D124" s="22" t="str">
+        <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H124" s="24" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I124" s="24" t="str">
+        <f aca="true">IF(J124 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R124" s="25" t="str">
+        <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H125" s="26" t="str">
+      <c r="B125" s="22"/>
+      <c r="C125" s="22" t="str">
+        <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D125" s="22" t="str">
+        <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H125" s="24" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I125" s="24" t="str">
+        <f aca="true">IF(J125 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R125" s="25" t="str">
+        <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H126" s="26" t="str">
+      <c r="B126" s="22"/>
+      <c r="C126" s="22" t="str">
+        <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D126" s="22" t="str">
+        <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H126" s="24" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I126" s="24" t="str">
+        <f aca="true">IF(J126 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R126" s="25" t="str">
+        <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H127" s="26" t="str">
+      <c r="B127" s="22"/>
+      <c r="C127" s="22" t="str">
+        <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D127" s="22" t="str">
+        <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H127" s="24" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I127" s="24" t="str">
+        <f aca="true">IF(J127 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R127" s="25" t="str">
+        <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H128" s="26" t="str">
+      <c r="B128" s="22"/>
+      <c r="C128" s="22" t="str">
+        <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D128" s="22" t="str">
+        <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H128" s="24" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I128" s="24" t="str">
+        <f aca="true">IF(J128 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R128" s="25" t="str">
+        <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H129" s="26" t="str">
+      <c r="B129" s="22"/>
+      <c r="C129" s="22" t="str">
+        <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D129" s="22" t="str">
+        <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H129" s="24" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I129" s="24" t="str">
+        <f aca="true">IF(J129 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R129" s="25" t="str">
+        <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H130" s="26" t="str">
+      <c r="B130" s="22"/>
+      <c r="C130" s="22" t="str">
+        <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D130" s="22" t="str">
+        <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H130" s="24" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I130" s="24" t="str">
+        <f aca="true">IF(J130 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R130" s="25" t="str">
+        <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H131" s="26" t="str">
+      <c r="B131" s="22"/>
+      <c r="C131" s="22" t="str">
+        <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D131" s="22" t="str">
+        <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H131" s="24" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I131" s="24" t="str">
+        <f aca="true">IF(J131 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R131" s="25" t="str">
+        <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H132" s="26" t="str">
+      <c r="B132" s="22"/>
+      <c r="C132" s="22" t="str">
+        <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D132" s="22" t="str">
+        <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H132" s="24" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I132" s="24" t="str">
+        <f aca="true">IF(J132 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R132" s="25" t="str">
+        <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H133" s="26" t="str">
+      <c r="B133" s="22"/>
+      <c r="C133" s="22" t="str">
+        <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D133" s="22" t="str">
+        <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H133" s="24" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I133" s="24" t="str">
+        <f aca="true">IF(J133 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R133" s="25" t="str">
+        <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H134" s="26" t="str">
+      <c r="B134" s="22"/>
+      <c r="C134" s="22" t="str">
+        <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D134" s="22" t="str">
+        <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$D$150,4,0))</f>
+        <v/>
+      </c>
+      <c r="H134" s="24" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I134" s="24" t="str">
+        <f aca="true">IF(J134 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R134" s="25" t="str">
+        <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H135" s="26" t="str">
+      <c r="B135" s="22"/>
+      <c r="C135" s="22" t="str">
+        <f aca="false">IF(E135="","",VLOOKUP(E135,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D135" s="22"/>
+      <c r="H135" s="24" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I135" s="24" t="str">
+        <f aca="true">IF(J135 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R135" s="25" t="str">
+        <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H136" s="26" t="str">
+      <c r="B136" s="22"/>
+      <c r="C136" s="22" t="str">
+        <f aca="false">IF(E136="","",VLOOKUP(E136,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D136" s="22"/>
+      <c r="H136" s="24" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I136" s="24" t="str">
+        <f aca="true">IF(J136 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R136" s="25" t="str">
+        <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H137" s="26" t="str">
+      <c r="B137" s="22"/>
+      <c r="C137" s="22" t="str">
+        <f aca="false">IF(E137="","",VLOOKUP(E137,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D137" s="22"/>
+      <c r="H137" s="24" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I137" s="24" t="str">
+        <f aca="true">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R137" s="25" t="str">
+        <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H138" s="26" t="str">
+      <c r="B138" s="22"/>
+      <c r="C138" s="22" t="str">
+        <f aca="false">IF(E138="","",VLOOKUP(E138,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D138" s="22"/>
+      <c r="H138" s="24" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I138" s="24" t="str">
+        <f aca="true">IF(J138 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R138" s="25" t="str">
+        <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H139" s="26" t="str">
+      <c r="B139" s="22"/>
+      <c r="C139" s="22" t="str">
+        <f aca="false">IF(E139="","",VLOOKUP(E139,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D139" s="22"/>
+      <c r="H139" s="24" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I139" s="24" t="str">
+        <f aca="true">IF(J139 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R139" s="25" t="str">
+        <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H140" s="26" t="str">
+      <c r="B140" s="22"/>
+      <c r="C140" s="22" t="str">
+        <f aca="false">IF(E140="","",VLOOKUP(E140,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D140" s="22"/>
+      <c r="H140" s="24" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I140" s="24" t="str">
+        <f aca="true">IF(J140 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R140" s="25" t="str">
+        <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H141" s="26" t="str">
+      <c r="B141" s="22"/>
+      <c r="C141" s="22" t="str">
+        <f aca="false">IF(E141="","",VLOOKUP(E141,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D141" s="22"/>
+      <c r="H141" s="24" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I141" s="24" t="str">
+        <f aca="true">IF(J141 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R141" s="25" t="str">
+        <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H142" s="26" t="str">
+      <c r="B142" s="22"/>
+      <c r="C142" s="22" t="str">
+        <f aca="false">IF(E142="","",VLOOKUP(E142,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="H142" s="24" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I142" s="24" t="str">
+        <f aca="true">IF(J142 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R142" s="25" t="str">
+        <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H143" s="26" t="str">
+      <c r="B143" s="22"/>
+      <c r="C143" s="22" t="str">
+        <f aca="false">IF(E143="","",VLOOKUP(E143,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D143" s="22"/>
+      <c r="H143" s="24" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I143" s="24" t="str">
+        <f aca="true">IF(J143 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R143" s="25" t="str">
+        <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H144" s="26" t="str">
+      <c r="B144" s="22"/>
+      <c r="C144" s="22" t="str">
+        <f aca="false">IF(E144="","",VLOOKUP(E144,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D144" s="22"/>
+      <c r="H144" s="24" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I144" s="24" t="str">
+        <f aca="true">IF(J144 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R144" s="25" t="str">
+        <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H145" s="26" t="str">
+      <c r="B145" s="22"/>
+      <c r="C145" s="22" t="str">
+        <f aca="false">IF(E145="","",VLOOKUP(E145,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D145" s="22"/>
+      <c r="H145" s="24" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I145" s="24" t="str">
+        <f aca="true">IF(J145 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R145" s="25" t="str">
+        <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H146" s="26" t="str">
+      <c r="B146" s="22"/>
+      <c r="C146" s="22" t="str">
+        <f aca="false">IF(E146="","",VLOOKUP(E146,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D146" s="22"/>
+      <c r="H146" s="24" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I146" s="24" t="str">
+        <f aca="true">IF(J146 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R146" s="25" t="str">
+        <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H147" s="26" t="str">
+      <c r="B147" s="22"/>
+      <c r="C147" s="22" t="str">
+        <f aca="false">IF(E147="","",VLOOKUP(E147,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D147" s="22"/>
+      <c r="H147" s="24" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I147" s="24" t="str">
+        <f aca="true">IF(J147 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R147" s="25" t="str">
+        <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H148" s="26" t="str">
+      <c r="B148" s="22"/>
+      <c r="C148" s="22" t="str">
+        <f aca="false">IF(E148="","",VLOOKUP(E148,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D148" s="22"/>
+      <c r="H148" s="24" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I148" s="24" t="str">
+        <f aca="true">IF(J148 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R148" s="25" t="str">
+        <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H149" s="26" t="str">
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="str">
+        <f aca="false">IF(E149="","",VLOOKUP(E149,SKU!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="D149" s="22"/>
+      <c r="H149" s="24" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I149" s="24" t="str">
+        <f aca="true">IF(J149 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R149" s="25" t="str">
+        <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H150" s="26" t="str">
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+      <c r="H150" s="24" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I150" s="24" t="str">
+        <f aca="true">IF(J150 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R150" s="25" t="str">
+        <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H151" s="26" t="str">
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+      <c r="H151" s="24" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I151" s="24" t="str">
+        <f aca="true">IF(J151 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R151" s="25" t="str">
+        <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H152" s="26" t="str">
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+      <c r="H152" s="24" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I152" s="24" t="str">
+        <f aca="true">IF(J152 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R152" s="25" t="str">
+        <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H153" s="26" t="str">
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+      <c r="H153" s="24" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I153" s="24" t="str">
+        <f aca="true">IF(J153 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R153" s="25" t="str">
+        <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H154" s="26" t="str">
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+      <c r="H154" s="24" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I154" s="24" t="str">
+        <f aca="true">IF(J154 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R154" s="25" t="str">
+        <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H155" s="26" t="str">
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+      <c r="H155" s="24" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I155" s="24" t="str">
+        <f aca="true">IF(J155 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R155" s="25" t="str">
+        <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H156" s="26" t="str">
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+      <c r="H156" s="24" t="str">
         <f aca="true">IF(J156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I156" s="24" t="str">
+        <f aca="true">IF(J156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R156" s="25" t="str">
+        <f aca="true">IF(Q156 = "", "", Q156 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H157" s="26" t="str">
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+      <c r="H157" s="24" t="str">
         <f aca="true">IF(J157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I157" s="24" t="str">
+        <f aca="true">IF(J157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R157" s="25" t="str">
+        <f aca="true">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H158" s="26" t="str">
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+      <c r="H158" s="24" t="str">
         <f aca="true">IF(J158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I158" s="24" t="str">
+        <f aca="true">IF(J158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R158" s="25" t="str">
+        <f aca="true">IF(Q158 = "", "", Q158 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H159" s="26" t="str">
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="H159" s="24" t="str">
         <f aca="true">IF(J159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I159" s="24" t="str">
+        <f aca="true">IF(J159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R159" s="25" t="str">
+        <f aca="true">IF(Q159 = "", "", Q159 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H160" s="26" t="str">
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+      <c r="H160" s="24" t="str">
         <f aca="true">IF(J160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I160" s="24" t="str">
+        <f aca="true">IF(J160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R160" s="25" t="str">
+        <f aca="true">IF(Q160 = "", "", Q160 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H161" s="26" t="str">
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+      <c r="H161" s="24" t="str">
         <f aca="true">IF(J161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I161" s="24" t="str">
+        <f aca="true">IF(J161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R161" s="25" t="str">
+        <f aca="true">IF(Q161 = "", "", Q161 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H162" s="26" t="str">
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+      <c r="H162" s="24" t="str">
         <f aca="true">IF(J162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I162" s="24" t="str">
+        <f aca="true">IF(J162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R162" s="25" t="str">
+        <f aca="true">IF(Q162 = "", "", Q162 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H163" s="26" t="str">
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+      <c r="H163" s="24" t="str">
         <f aca="true">IF(J163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I163" s="24" t="str">
+        <f aca="true">IF(J163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R163" s="25" t="str">
+        <f aca="true">IF(Q163 = "", "", Q163 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H164" s="26" t="str">
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+      <c r="H164" s="24" t="str">
         <f aca="true">IF(J164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I164" s="24" t="str">
+        <f aca="true">IF(J164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R164" s="25" t="str">
+        <f aca="true">IF(Q164 = "", "", Q164 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H165" s="26" t="str">
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="H165" s="24" t="str">
         <f aca="true">IF(J165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
+      <c r="I165" s="24" t="str">
+        <f aca="true">IF(J165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R165" s="25" t="str">
+        <f aca="true">IF(Q165 = "", "", Q165 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="I166" s="24" t="str">
+        <f aca="true">IF(J166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R166" s="25" t="str">
+        <f aca="true">IF(Q166 = "", "", Q166 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+      <c r="I167" s="24" t="str">
+        <f aca="true">IF(J167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R167" s="25" t="str">
+        <f aca="true">IF(Q167 = "", "", Q167 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+      <c r="I168" s="24" t="str">
+        <f aca="true">IF(J168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R168" s="25" t="str">
+        <f aca="true">IF(Q168 = "", "", Q168 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+      <c r="I169" s="24" t="str">
+        <f aca="true">IF(J169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R169" s="25" t="str">
+        <f aca="true">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+      <c r="I170" s="24" t="str">
+        <f aca="true">IF(J170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R170" s="25" t="str">
+        <f aca="true">IF(Q170 = "", "", Q170 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+      <c r="I171" s="24" t="str">
+        <f aca="true">IF(J171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R171" s="25" t="str">
+        <f aca="true">IF(Q171 = "", "", Q171 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+      <c r="I172" s="24" t="str">
+        <f aca="true">IF(J172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R172" s="25" t="str">
+        <f aca="true">IF(Q172 = "", "", Q172 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+      <c r="I173" s="24" t="str">
+        <f aca="true">IF(J173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R173" s="25" t="str">
+        <f aca="true">IF(Q173 = "", "", Q173 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+      <c r="I174" s="24" t="str">
+        <f aca="true">IF(J174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R174" s="25" t="str">
+        <f aca="true">IF(Q174 = "", "", Q174 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+      <c r="I175" s="24" t="str">
+        <f aca="true">IF(J175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R175" s="25" t="str">
+        <f aca="true">IF(Q175 = "", "", Q175 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+      <c r="I176" s="24" t="str">
+        <f aca="true">IF(J176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R176" s="25" t="str">
+        <f aca="true">IF(Q176 = "", "", Q176 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+      <c r="I177" s="24" t="str">
+        <f aca="true">IF(J177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R177" s="25" t="str">
+        <f aca="true">IF(Q177 = "", "", Q177 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+      <c r="I178" s="24" t="str">
+        <f aca="true">IF(J178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R178" s="25" t="str">
+        <f aca="true">IF(Q178 = "", "", Q178 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+      <c r="I179" s="24" t="str">
+        <f aca="true">IF(J179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R179" s="25" t="str">
+        <f aca="true">IF(Q179 = "", "", Q179 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+      <c r="I180" s="24" t="str">
+        <f aca="true">IF(J180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R180" s="25" t="str">
+        <f aca="true">IF(Q180 = "", "", Q180 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+      <c r="I181" s="24" t="str">
+        <f aca="true">IF(J181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R181" s="25" t="str">
+        <f aca="true">IF(Q181 = "", "", Q181 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+      <c r="I182" s="24" t="str">
+        <f aca="true">IF(J182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R182" s="25" t="str">
+        <f aca="true">IF(Q182 = "", "", Q182 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="I183" s="24" t="str">
+        <f aca="true">IF(J183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R183" s="25" t="str">
+        <f aca="true">IF(Q183 = "", "", Q183 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="I184" s="24" t="str">
+        <f aca="true">IF(J184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R184" s="25" t="str">
+        <f aca="true">IF(Q184 = "", "", Q184 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+      <c r="I185" s="24" t="str">
+        <f aca="true">IF(J185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R185" s="25"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+      <c r="I186" s="24" t="str">
+        <f aca="true">IF(J186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R186" s="25"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+      <c r="I187" s="24" t="str">
+        <f aca="true">IF(J187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R187" s="25"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+      <c r="I188" s="24" t="str">
+        <f aca="true">IF(J188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R188" s="25"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+      <c r="I189" s="24" t="str">
+        <f aca="true">IF(J189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R189" s="25"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+      <c r="I190" s="24" t="str">
+        <f aca="true">IF(J190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R190" s="25"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+      <c r="I191" s="24" t="str">
+        <f aca="true">IF(J191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R191" s="25"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+      <c r="I192" s="24" t="str">
+        <f aca="true">IF(J192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R192" s="25"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+      <c r="I193" s="24" t="str">
+        <f aca="true">IF(J193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R193" s="25"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+      <c r="I194" s="24" t="str">
+        <f aca="true">IF(J194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R194" s="25"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+      <c r="I195" s="24" t="str">
+        <f aca="true">IF(J195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R195" s="25"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+      <c r="I196" s="24" t="str">
+        <f aca="true">IF(J196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R196" s="25"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+      <c r="I197" s="24" t="str">
+        <f aca="true">IF(J197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R197" s="25"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+      <c r="I198" s="24" t="str">
+        <f aca="true">IF(J198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R198" s="25"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+      <c r="I199" s="24" t="str">
+        <f aca="true">IF(J199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R199" s="25"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+      <c r="I200" s="24" t="str">
+        <f aca="true">IF(J200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R200" s="25"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+      <c r="I201" s="24" t="str">
+        <f aca="true">IF(J201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R201" s="25"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="I202" s="24" t="str">
+        <f aca="true">IF(J202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R202" s="25"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+      <c r="I203" s="24" t="str">
+        <f aca="true">IF(J203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R203" s="25"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+      <c r="I204" s="24" t="str">
+        <f aca="true">IF(J204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R204" s="25"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="22"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+      <c r="I205" s="24" t="str">
+        <f aca="true">IF(J205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R205" s="25"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+      <c r="I206" s="24" t="str">
+        <f aca="true">IF(J206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R206" s="25"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+      <c r="I207" s="24" t="str">
+        <f aca="true">IF(J207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R207" s="25"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+      <c r="I208" s="24" t="str">
+        <f aca="true">IF(J208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R208" s="25"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+      <c r="I209" s="24" t="str">
+        <f aca="true">IF(J209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R209" s="25"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+      <c r="I210" s="24" t="str">
+        <f aca="true">IF(J210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R210" s="25"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+      <c r="I211" s="24" t="str">
+        <f aca="true">IF(J211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R211" s="25"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+      <c r="I212" s="24" t="str">
+        <f aca="true">IF(J212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R212" s="25"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+      <c r="I213" s="24" t="str">
+        <f aca="true">IF(J213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R213" s="25"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+      <c r="I214" s="24" t="str">
+        <f aca="true">IF(J214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R214" s="25"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+      <c r="I215" s="24" t="str">
+        <f aca="true">IF(J215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R215" s="25"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+      <c r="I216" s="24" t="str">
+        <f aca="true">IF(J216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R216" s="25"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+      <c r="I217" s="24" t="str">
+        <f aca="true">IF(J217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R217" s="25"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+      <c r="I218" s="24" t="str">
+        <f aca="true">IF(J218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R218" s="25"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+      <c r="I219" s="24" t="str">
+        <f aca="true">IF(J219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R219" s="25"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+      <c r="I220" s="24" t="str">
+        <f aca="true">IF(J220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R220" s="25"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+      <c r="I221" s="24" t="str">
+        <f aca="true">IF(J221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R221" s="25"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="22"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+      <c r="I222" s="24" t="str">
+        <f aca="true">IF(J222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R222" s="25"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+      <c r="I223" s="24" t="str">
+        <f aca="true">IF(J223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R223" s="25"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+      <c r="I224" s="24" t="str">
+        <f aca="true">IF(J224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R224" s="25"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="22"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+      <c r="I225" s="24" t="str">
+        <f aca="true">IF(J225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R225" s="25"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="22"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+      <c r="I226" s="24" t="str">
+        <f aca="true">IF(J226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R226" s="25"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+      <c r="I227" s="24" t="str">
+        <f aca="true">IF(J227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R227" s="25"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+      <c r="I228" s="24" t="str">
+        <f aca="true">IF(J228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R228" s="25"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+      <c r="I229" s="24" t="str">
+        <f aca="true">IF(J229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R229" s="25"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+      <c r="I230" s="24" t="str">
+        <f aca="true">IF(J230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R230" s="25"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+      <c r="I231" s="24" t="str">
+        <f aca="true">IF(J231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R231" s="25"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+      <c r="I232" s="24" t="str">
+        <f aca="true">IF(J232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R232" s="25"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+      <c r="I233" s="24" t="str">
+        <f aca="true">IF(J233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R233" s="25"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+      <c r="I234" s="24" t="str">
+        <f aca="true">IF(J234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R234" s="25"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="22"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+      <c r="I235" s="24" t="str">
+        <f aca="true">IF(J235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R235" s="25"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="22"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+      <c r="I236" s="24" t="str">
+        <f aca="true">IF(J236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R236" s="25"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+      <c r="I237" s="24" t="str">
+        <f aca="true">IF(J237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R237" s="25"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+      <c r="I238" s="24" t="str">
+        <f aca="true">IF(J238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R238" s="25"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
+      <c r="I239" s="24" t="str">
+        <f aca="true">IF(J239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R239" s="25"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+      <c r="I240" s="24" t="str">
+        <f aca="true">IF(J240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R240" s="25"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+      <c r="I241" s="24" t="str">
+        <f aca="true">IF(J241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R241" s="25"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
+      <c r="I242" s="24" t="str">
+        <f aca="true">IF(J242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R242" s="25"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+      <c r="I243" s="24" t="str">
+        <f aca="true">IF(J243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R243" s="25"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="22"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
+      <c r="I244" s="24" t="str">
+        <f aca="true">IF(J244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R244" s="25"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="22"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
+      <c r="I245" s="24" t="str">
+        <f aca="true">IF(J245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R245" s="25"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="22"/>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+      <c r="I246" s="24" t="str">
+        <f aca="true">IF(J246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R246" s="25"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="22"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
+      <c r="I247" s="24" t="str">
+        <f aca="true">IF(J247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R247" s="25"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="22"/>
+      <c r="C248" s="22"/>
+      <c r="D248" s="22"/>
+      <c r="I248" s="24" t="str">
+        <f aca="true">IF(J248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R248" s="25"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="22"/>
+      <c r="C249" s="22"/>
+      <c r="D249" s="22"/>
+      <c r="I249" s="24" t="str">
+        <f aca="true">IF(J249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R249" s="25"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="22"/>
+      <c r="C250" s="22"/>
+      <c r="D250" s="22"/>
+      <c r="I250" s="24" t="str">
+        <f aca="true">IF(J250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R250" s="25"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="22"/>
+      <c r="C251" s="22"/>
+      <c r="D251" s="22"/>
+      <c r="I251" s="24" t="str">
+        <f aca="true">IF(J251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R251" s="25"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="22"/>
+      <c r="C252" s="22"/>
+      <c r="D252" s="22"/>
+      <c r="I252" s="24" t="str">
+        <f aca="true">IF(J252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R252" s="25"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="22"/>
+      <c r="C253" s="22"/>
+      <c r="D253" s="22"/>
+      <c r="I253" s="24" t="str">
+        <f aca="true">IF(J253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R253" s="25"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="22"/>
+      <c r="C254" s="22"/>
+      <c r="D254" s="22"/>
+      <c r="I254" s="24" t="str">
+        <f aca="true">IF(J254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R254" s="25"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="22"/>
+      <c r="C255" s="22"/>
+      <c r="D255" s="22"/>
+      <c r="I255" s="24" t="str">
+        <f aca="true">IF(J255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R255" s="25"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="22"/>
+      <c r="C256" s="22"/>
+      <c r="D256" s="22"/>
+      <c r="I256" s="24" t="str">
+        <f aca="true">IF(J256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R256" s="25"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="22"/>
+      <c r="C257" s="22"/>
+      <c r="D257" s="22"/>
+      <c r="I257" s="24" t="str">
+        <f aca="true">IF(J257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R257" s="25"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="22"/>
+      <c r="C258" s="22"/>
+      <c r="D258" s="22"/>
+      <c r="I258" s="24" t="str">
+        <f aca="true">IF(J258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R258" s="25"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="22"/>
+      <c r="C259" s="22"/>
+      <c r="D259" s="22"/>
+      <c r="I259" s="24" t="str">
+        <f aca="true">IF(J259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R259" s="25"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="22"/>
+      <c r="C260" s="22"/>
+      <c r="D260" s="22"/>
+      <c r="I260" s="24" t="str">
+        <f aca="true">IF(J260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R260" s="25"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="22"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="I261" s="24" t="str">
+        <f aca="true">IF(J261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R261" s="25"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="22"/>
+      <c r="C262" s="22"/>
+      <c r="D262" s="22"/>
+      <c r="I262" s="24" t="str">
+        <f aca="true">IF(J262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R262" s="25"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="22"/>
+      <c r="C263" s="22"/>
+      <c r="D263" s="22"/>
+      <c r="I263" s="24" t="str">
+        <f aca="true">IF(J263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R263" s="25"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="22"/>
+      <c r="C264" s="22"/>
+      <c r="D264" s="22"/>
+      <c r="I264" s="24" t="str">
+        <f aca="true">IF(J264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R264" s="25"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="22"/>
+      <c r="C265" s="22"/>
+      <c r="D265" s="22"/>
+      <c r="I265" s="24" t="str">
+        <f aca="true">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R265" s="25"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="22"/>
+      <c r="C266" s="22"/>
+      <c r="D266" s="22"/>
+      <c r="I266" s="24" t="str">
+        <f aca="true">IF(J266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R266" s="25"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="22"/>
+      <c r="C267" s="22"/>
+      <c r="D267" s="22"/>
+      <c r="I267" s="24" t="str">
+        <f aca="true">IF(J267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+      <c r="R267" s="25"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="22"/>
+      <c r="C268" s="22"/>
+      <c r="D268" s="22"/>
+      <c r="I268" s="24" t="str">
+        <f aca="true">IF(J268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="22"/>
+      <c r="C269" s="22"/>
+      <c r="D269" s="22"/>
+      <c r="I269" s="24" t="str">
+        <f aca="true">IF(J269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="22"/>
+      <c r="C270" s="22"/>
+      <c r="D270" s="22"/>
+      <c r="I270" s="24" t="str">
+        <f aca="true">IF(J270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="22"/>
+      <c r="C271" s="22"/>
+      <c r="D271" s="22"/>
+      <c r="I271" s="24" t="str">
+        <f aca="true">IF(J271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="22"/>
+      <c r="C272" s="22"/>
+      <c r="D272" s="22"/>
+      <c r="I272" s="24" t="str">
+        <f aca="true">IF(J272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="22"/>
+      <c r="C273" s="22"/>
+      <c r="D273" s="22"/>
+      <c r="I273" s="24" t="str">
+        <f aca="true">IF(J273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B274" s="22"/>
+      <c r="C274" s="22"/>
+      <c r="D274" s="22"/>
+      <c r="I274" s="24" t="str">
+        <f aca="true">IF(J274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B275" s="22"/>
+      <c r="C275" s="22"/>
+      <c r="D275" s="22"/>
+      <c r="I275" s="24" t="str">
+        <f aca="true">IF(J275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B276" s="22"/>
+      <c r="C276" s="22"/>
+      <c r="D276" s="22"/>
+      <c r="I276" s="24" t="str">
+        <f aca="true">IF(J276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="22"/>
+      <c r="C277" s="22"/>
+      <c r="D277" s="22"/>
+      <c r="I277" s="24" t="str">
+        <f aca="true">IF(J277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B278" s="22"/>
+      <c r="C278" s="22"/>
+      <c r="D278" s="22"/>
+      <c r="I278" s="24" t="str">
+        <f aca="true">IF(J278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B279" s="22"/>
+      <c r="C279" s="22"/>
+      <c r="D279" s="22"/>
+      <c r="I279" s="24" t="str">
+        <f aca="true">IF(J279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="22"/>
+      <c r="C280" s="22"/>
+      <c r="D280" s="22"/>
+      <c r="I280" s="24" t="str">
+        <f aca="true">IF(J280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B281" s="22"/>
+      <c r="C281" s="22"/>
+      <c r="D281" s="22"/>
+      <c r="I281" s="24" t="str">
+        <f aca="true">IF(J281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B282" s="22"/>
+      <c r="C282" s="22"/>
+      <c r="D282" s="22"/>
+      <c r="I282" s="24" t="str">
+        <f aca="true">IF(J282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B283" s="22"/>
+      <c r="C283" s="22"/>
+      <c r="D283" s="22"/>
+      <c r="I283" s="24" t="str">
+        <f aca="true">IF(J283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B284" s="22"/>
+      <c r="C284" s="22"/>
+      <c r="D284" s="22"/>
+      <c r="I284" s="24" t="str">
+        <f aca="true">IF(J284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B285" s="22"/>
+      <c r="C285" s="22"/>
+      <c r="D285" s="22"/>
+      <c r="I285" s="24" t="str">
+        <f aca="true">IF(J285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="22"/>
+      <c r="C286" s="22"/>
+      <c r="D286" s="22"/>
+      <c r="I286" s="24" t="str">
+        <f aca="true">IF(J286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B287" s="22"/>
+      <c r="C287" s="22"/>
+      <c r="D287" s="22"/>
+      <c r="I287" s="24" t="str">
+        <f aca="true">IF(J287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B288" s="22"/>
+      <c r="C288" s="22"/>
+      <c r="D288" s="22"/>
+      <c r="I288" s="24" t="str">
+        <f aca="true">IF(J288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="22"/>
+      <c r="C289" s="22"/>
+      <c r="D289" s="22"/>
+      <c r="I289" s="24" t="str">
+        <f aca="true">IF(J289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B290" s="22"/>
+      <c r="C290" s="22"/>
+      <c r="D290" s="22"/>
+      <c r="I290" s="24" t="str">
+        <f aca="true">IF(J290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B291" s="22"/>
+      <c r="C291" s="22"/>
+      <c r="D291" s="22"/>
+      <c r="I291" s="24" t="str">
+        <f aca="true">IF(J291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B292" s="22"/>
+      <c r="C292" s="22"/>
+      <c r="D292" s="22"/>
+      <c r="I292" s="24" t="str">
+        <f aca="true">IF(J292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B293" s="22"/>
+      <c r="C293" s="22"/>
+      <c r="D293" s="22"/>
+      <c r="I293" s="24" t="str">
+        <f aca="true">IF(J293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="22"/>
+      <c r="C294" s="22"/>
+      <c r="D294" s="22"/>
+      <c r="I294" s="24" t="str">
+        <f aca="true">IF(J294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B295" s="22"/>
+      <c r="C295" s="22"/>
+      <c r="D295" s="22"/>
+      <c r="I295" s="24" t="str">
+        <f aca="true">IF(J295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B296" s="22"/>
+      <c r="C296" s="22"/>
+      <c r="D296" s="22"/>
+      <c r="I296" s="24" t="str">
+        <f aca="true">IF(J296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="22"/>
+      <c r="C297" s="22"/>
+      <c r="D297" s="22"/>
+      <c r="I297" s="24" t="str">
+        <f aca="true">IF(J297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B298" s="22"/>
+      <c r="C298" s="22"/>
+      <c r="D298" s="22"/>
+      <c r="I298" s="24" t="str">
+        <f aca="true">IF(J298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B299" s="22"/>
+      <c r="C299" s="22"/>
+      <c r="D299" s="22"/>
+      <c r="I299" s="24" t="str">
+        <f aca="true">IF(J299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B300" s="22"/>
+      <c r="C300" s="22"/>
+      <c r="D300" s="22"/>
+      <c r="I300" s="24" t="str">
+        <f aca="true">IF(J300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B301" s="22"/>
+      <c r="C301" s="22"/>
+      <c r="D301" s="22"/>
+      <c r="I301" s="24" t="str">
+        <f aca="true">IF(J301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="22"/>
+      <c r="C302" s="22"/>
+      <c r="D302" s="22"/>
+      <c r="I302" s="24" t="str">
+        <f aca="true">IF(J302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B303" s="22"/>
+      <c r="C303" s="22"/>
+      <c r="D303" s="22"/>
+      <c r="I303" s="24" t="str">
+        <f aca="true">IF(J303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B304" s="22"/>
+      <c r="C304" s="22"/>
+      <c r="D304" s="22"/>
+      <c r="I304" s="24" t="str">
+        <f aca="true">IF(J304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B305" s="22"/>
+      <c r="C305" s="22"/>
+      <c r="D305" s="22"/>
+      <c r="I305" s="24" t="str">
+        <f aca="true">IF(J305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B306" s="22"/>
+      <c r="C306" s="22"/>
+      <c r="D306" s="22"/>
+      <c r="I306" s="24" t="str">
+        <f aca="true">IF(J306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B307" s="22"/>
+      <c r="C307" s="22"/>
+      <c r="D307" s="22"/>
+      <c r="I307" s="24" t="str">
+        <f aca="true">IF(J307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B308" s="22"/>
+      <c r="C308" s="22"/>
+      <c r="D308" s="22"/>
+      <c r="I308" s="24" t="str">
+        <f aca="true">IF(J308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="22"/>
+      <c r="C309" s="22"/>
+      <c r="D309" s="22"/>
+      <c r="I309" s="24" t="str">
+        <f aca="true">IF(J309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="22"/>
+      <c r="C310" s="22"/>
+      <c r="D310" s="22"/>
+      <c r="I310" s="24" t="str">
+        <f aca="true">IF(J310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="22"/>
+      <c r="C311" s="22"/>
+      <c r="D311" s="22"/>
+      <c r="I311" s="24" t="str">
+        <f aca="true">IF(J311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="22"/>
+      <c r="C312" s="22"/>
+      <c r="D312" s="22"/>
+      <c r="I312" s="24" t="str">
+        <f aca="true">IF(J312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="22"/>
+      <c r="C313" s="22"/>
+      <c r="D313" s="22"/>
+      <c r="I313" s="24" t="str">
+        <f aca="true">IF(J313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B314" s="22"/>
+      <c r="C314" s="22"/>
+      <c r="D314" s="22"/>
+      <c r="I314" s="24" t="str">
+        <f aca="true">IF(J314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B315" s="22"/>
+      <c r="C315" s="22"/>
+      <c r="D315" s="22"/>
+      <c r="I315" s="24" t="str">
+        <f aca="true">IF(J315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B316" s="22"/>
+      <c r="C316" s="22"/>
+      <c r="D316" s="22"/>
+      <c r="I316" s="24" t="str">
+        <f aca="true">IF(J316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I317" s="24" t="str">
+        <f aca="true">IF(J317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I318" s="24" t="str">
+        <f aca="true">IF(J318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I319" s="24" t="str">
+        <f aca="true">IF(J319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I320" s="24" t="str">
+        <f aca="true">IF(J320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I321" s="24" t="str">
+        <f aca="true">IF(J321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I322" s="24" t="str">
+        <f aca="true">IF(J322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I323" s="24" t="str">
+        <f aca="true">IF(J323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I324" s="24" t="str">
+        <f aca="true">IF(J324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I325" s="24" t="str">
+        <f aca="true">IF(J325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I326" s="24" t="str">
+        <f aca="true">IF(J326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4304,8 +8734,9 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B7:B123 B3:B5">
+  <conditionalFormatting sqref="B3:B123">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4327,15 +8758,15 @@
       <formula>IF(I124="",0,G124)  &gt; 0.05* IF(I124="",0,I124)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B6&lt;&gt;#ref!</formula>
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B6&lt;&gt;#ref!</formula>
+      <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4343,34 +8774,34 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I2="",0, G2)  &lt; - 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I2="",0, G2)  &gt;= - 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I2="",0, G2)  &lt;= 0.05* IF(I2="",0,I2), IF(I2="",0, G2) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I2="",0,G2)  &gt; 0.05* IF(I2="",0,I2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B3:B122">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>$B3&lt;&gt;#ref!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4378,7 +8809,7 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4386,7 +8817,7 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4394,7 +8825,7 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4402,7 +8833,7 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="B3:B122">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
@@ -4410,109 +8841,101 @@
       <formula>$B3&lt;&gt;#ref!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$B3&lt;&gt;#ref!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G5:G123">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I5="",0, G5)  &lt; - 0.05* IF(I5="",0,I5)</formula>
     </cfRule>
-    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I5="",0, G5)  &gt;= - 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I5="",0, G5)  &lt;= 0.05* IF(I5="",0,I5), IF(I5="",0, G5) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I5="",0,G5)  &gt; 0.05* IF(I5="",0,I5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G123 G4:G5">
-    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
-    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="34" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="37" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I6="",0, G6)  &lt; - 0.05* IF(I6="",0,I6)</formula>
     </cfRule>
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I6="",0, G6)  &gt;= - 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I6="",0, G6)  &lt;= 0.05* IF(I6="",0,I6), IF(I6="",0, G6) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I6="",0,G6)  &gt; 0.05* IF(I6="",0,I6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I4="",0, G4)  &lt; - 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
-    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I4="",0, G4)  &gt;= - 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="43" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I4="",0, G4)  &lt;= 0.05* IF(I4="",0,I4), IF(I4="",0, G4) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I4="",0,G4)  &gt; 0.05* IF(I4="",0,I4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="47" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="52" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>IF(I3="",0, G3)  &lt; - 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &gt;= - 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="55" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>AND(IF(I3="",0, G3)  &lt;= 0.05* IF(I3="",0,I3), IF(I3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>IF(I3="",0,G3)  &gt; 0.05* IF(I3="",0,I3)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -782,7 +782,7 @@
         <v/>
       </c>
       <c r="K3" s="0" t="n">
-        <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
+        <f aca="true">IF(J3 = "-", -INDIRECT("C" &amp; ROW() - 1)*R3,F3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="0" t="n">
@@ -828,7 +828,7 @@
         <v/>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1),F4)</f>
+        <f aca="true">IF(J4 = "-", -INDIRECT("C" &amp; ROW() - 1)*R4,F4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="0" t="n">
@@ -874,7 +874,7 @@
         <v/>
       </c>
       <c r="K5" s="0" t="n">
-        <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1),F5)</f>
+        <f aca="true">IF(J5 = "-", -INDIRECT("C" &amp; ROW() - 1)*R5,F5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="0" t="n">
@@ -920,7 +920,7 @@
         <v/>
       </c>
       <c r="K6" s="0" t="n">
-        <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1),F6)</f>
+        <f aca="true">IF(J6 = "-", -INDIRECT("C" &amp; ROW() - 1)*R6,F6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
@@ -966,7 +966,7 @@
         <v/>
       </c>
       <c r="K7" s="0" t="n">
-        <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1),F7)</f>
+        <f aca="true">IF(J7 = "-", -INDIRECT("C" &amp; ROW() - 1)*R7,F7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -1012,7 +1012,7 @@
         <v/>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1),F8)</f>
+        <f aca="true">IF(J8 = "-", -INDIRECT("C" &amp; ROW() - 1)*R8,F8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -1058,7 +1058,7 @@
         <v/>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1),F9)</f>
+        <f aca="true">IF(J9 = "-", -INDIRECT("C" &amp; ROW() - 1)*R9,F9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="0" t="n">
@@ -1104,7 +1104,7 @@
         <v/>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1),F10)</f>
+        <f aca="true">IF(J10 = "-", -INDIRECT("C" &amp; ROW() - 1)*R10,F10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="0" t="n">
@@ -1150,7 +1150,7 @@
         <v/>
       </c>
       <c r="K11" s="0" t="n">
-        <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1),F11)</f>
+        <f aca="true">IF(J11 = "-", -INDIRECT("C" &amp; ROW() - 1)*R11,F11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
@@ -1196,7 +1196,7 @@
         <v/>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1),F12)</f>
+        <f aca="true">IF(J12 = "-", -INDIRECT("C" &amp; ROW() - 1)*R12,F12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="0" t="n">
@@ -1242,7 +1242,7 @@
         <v/>
       </c>
       <c r="K13" s="0" t="n">
-        <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1),F13)</f>
+        <f aca="true">IF(J13 = "-", -INDIRECT("C" &amp; ROW() - 1)*R13,F13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="0" t="n">
@@ -1288,7 +1288,7 @@
         <v/>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1),F14)</f>
+        <f aca="true">IF(J14 = "-", -INDIRECT("C" &amp; ROW() - 1)*R14,F14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
@@ -1334,7 +1334,7 @@
         <v/>
       </c>
       <c r="K15" s="0" t="n">
-        <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1),F15)</f>
+        <f aca="true">IF(J15 = "-", -INDIRECT("C" &amp; ROW() - 1)*R15,F15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
@@ -1380,7 +1380,7 @@
         <v/>
       </c>
       <c r="K16" s="0" t="n">
-        <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1),F16)</f>
+        <f aca="true">IF(J16 = "-", -INDIRECT("C" &amp; ROW() - 1)*R16,F16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="0" t="n">
@@ -1426,7 +1426,7 @@
         <v/>
       </c>
       <c r="K17" s="0" t="n">
-        <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1),F17)</f>
+        <f aca="true">IF(J17 = "-", -INDIRECT("C" &amp; ROW() - 1)*R17,F17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
@@ -1472,7 +1472,7 @@
         <v/>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1),F18)</f>
+        <f aca="true">IF(J18 = "-", -INDIRECT("C" &amp; ROW() - 1)*R18,F18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="0" t="n">
@@ -1518,7 +1518,7 @@
         <v/>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1),F19)</f>
+        <f aca="true">IF(J19 = "-", -INDIRECT("C" &amp; ROW() - 1)*R19,F19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="0" t="n">
@@ -1564,7 +1564,7 @@
         <v/>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
+        <f aca="true">IF(J20 = "-", -INDIRECT("C" &amp; ROW() - 1)*R20,F20)</f>
         <v>0</v>
       </c>
       <c r="L20" s="0" t="n">
@@ -1610,7 +1610,7 @@
         <v/>
       </c>
       <c r="K21" s="0" t="n">
-        <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1),F21)</f>
+        <f aca="true">IF(J21 = "-", -INDIRECT("C" &amp; ROW() - 1)*R21,F21)</f>
         <v>0</v>
       </c>
       <c r="L21" s="0" t="n">
@@ -1656,7 +1656,7 @@
         <v/>
       </c>
       <c r="K22" s="0" t="n">
-        <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1),F22)</f>
+        <f aca="true">IF(J22 = "-", -INDIRECT("C" &amp; ROW() - 1)*R22,F22)</f>
         <v>0</v>
       </c>
       <c r="L22" s="0" t="n">
@@ -1702,7 +1702,7 @@
         <v/>
       </c>
       <c r="K23" s="0" t="n">
-        <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1),F23)</f>
+        <f aca="true">IF(J23 = "-", -INDIRECT("C" &amp; ROW() - 1)*R23,F23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="0" t="n">
@@ -1748,7 +1748,7 @@
         <v/>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1),F24)</f>
+        <f aca="true">IF(J24 = "-", -INDIRECT("C" &amp; ROW() - 1)*R24,F24)</f>
         <v>0</v>
       </c>
       <c r="L24" s="0" t="n">
@@ -1794,7 +1794,7 @@
         <v/>
       </c>
       <c r="K25" s="0" t="n">
-        <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1),F25)</f>
+        <f aca="true">IF(J25 = "-", -INDIRECT("C" &amp; ROW() - 1)*R25,F25)</f>
         <v>0</v>
       </c>
       <c r="L25" s="0" t="n">
@@ -1840,7 +1840,7 @@
         <v/>
       </c>
       <c r="K26" s="0" t="n">
-        <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
+        <f aca="true">IF(J26 = "-", -INDIRECT("C" &amp; ROW() - 1)*R26,F26)</f>
         <v>0</v>
       </c>
       <c r="L26" s="0" t="n">
@@ -1886,7 +1886,7 @@
         <v/>
       </c>
       <c r="K27" s="0" t="n">
-        <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1),F27)</f>
+        <f aca="true">IF(J27 = "-", -INDIRECT("C" &amp; ROW() - 1)*R27,F27)</f>
         <v>0</v>
       </c>
       <c r="L27" s="0" t="n">
@@ -1932,7 +1932,7 @@
         <v/>
       </c>
       <c r="K28" s="0" t="n">
-        <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1),F28)</f>
+        <f aca="true">IF(J28 = "-", -INDIRECT("C" &amp; ROW() - 1)*R28,F28)</f>
         <v>0</v>
       </c>
       <c r="L28" s="0" t="n">
@@ -1978,7 +1978,7 @@
         <v/>
       </c>
       <c r="K29" s="0" t="n">
-        <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
+        <f aca="true">IF(J29 = "-", -INDIRECT("C" &amp; ROW() - 1)*R29,F29)</f>
         <v>0</v>
       </c>
       <c r="L29" s="0" t="n">
@@ -2024,7 +2024,7 @@
         <v/>
       </c>
       <c r="K30" s="0" t="n">
-        <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1),F30)</f>
+        <f aca="true">IF(J30 = "-", -INDIRECT("C" &amp; ROW() - 1)*R30,F30)</f>
         <v>0</v>
       </c>
       <c r="L30" s="0" t="n">
@@ -2070,7 +2070,7 @@
         <v/>
       </c>
       <c r="K31" s="0" t="n">
-        <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1),F31)</f>
+        <f aca="true">IF(J31 = "-", -INDIRECT("C" &amp; ROW() - 1)*R31,F31)</f>
         <v>0</v>
       </c>
       <c r="L31" s="0" t="n">
@@ -2116,7 +2116,7 @@
         <v/>
       </c>
       <c r="K32" s="0" t="n">
-        <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1),F32)</f>
+        <f aca="true">IF(J32 = "-", -INDIRECT("C" &amp; ROW() - 1)*R32,F32)</f>
         <v>0</v>
       </c>
       <c r="L32" s="0" t="n">
@@ -2162,7 +2162,7 @@
         <v/>
       </c>
       <c r="K33" s="0" t="n">
-        <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1),F33)</f>
+        <f aca="true">IF(J33 = "-", -INDIRECT("C" &amp; ROW() - 1)*R33,F33)</f>
         <v>0</v>
       </c>
       <c r="L33" s="0" t="n">
@@ -2208,7 +2208,7 @@
         <v/>
       </c>
       <c r="K34" s="0" t="n">
-        <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1),F34)</f>
+        <f aca="true">IF(J34 = "-", -INDIRECT("C" &amp; ROW() - 1)*R34,F34)</f>
         <v>0</v>
       </c>
       <c r="L34" s="0" t="n">
@@ -2254,7 +2254,7 @@
         <v/>
       </c>
       <c r="K35" s="0" t="n">
-        <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
+        <f aca="true">IF(J35 = "-", -INDIRECT("C" &amp; ROW() - 1)*R35,F35)</f>
         <v>0</v>
       </c>
       <c r="L35" s="0" t="n">
@@ -2300,7 +2300,7 @@
         <v/>
       </c>
       <c r="K36" s="0" t="n">
-        <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1),F36)</f>
+        <f aca="true">IF(J36 = "-", -INDIRECT("C" &amp; ROW() - 1)*R36,F36)</f>
         <v>0</v>
       </c>
       <c r="L36" s="0" t="n">
@@ -2346,7 +2346,7 @@
         <v/>
       </c>
       <c r="K37" s="0" t="n">
-        <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1),F37)</f>
+        <f aca="true">IF(J37 = "-", -INDIRECT("C" &amp; ROW() - 1)*R37,F37)</f>
         <v>0</v>
       </c>
       <c r="L37" s="0" t="n">
@@ -2392,7 +2392,7 @@
         <v/>
       </c>
       <c r="K38" s="0" t="n">
-        <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1),F38)</f>
+        <f aca="true">IF(J38 = "-", -INDIRECT("C" &amp; ROW() - 1)*R38,F38)</f>
         <v>0</v>
       </c>
       <c r="L38" s="0" t="n">
@@ -2438,7 +2438,7 @@
         <v/>
       </c>
       <c r="K39" s="0" t="n">
-        <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1),F39)</f>
+        <f aca="true">IF(J39 = "-", -INDIRECT("C" &amp; ROW() - 1)*R39,F39)</f>
         <v>0</v>
       </c>
       <c r="L39" s="0" t="n">
@@ -2484,7 +2484,7 @@
         <v/>
       </c>
       <c r="K40" s="0" t="n">
-        <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1),F40)</f>
+        <f aca="true">IF(J40 = "-", -INDIRECT("C" &amp; ROW() - 1)*R40,F40)</f>
         <v>0</v>
       </c>
       <c r="L40" s="0" t="n">
@@ -2530,7 +2530,7 @@
         <v/>
       </c>
       <c r="K41" s="0" t="n">
-        <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1),F41)</f>
+        <f aca="true">IF(J41 = "-", -INDIRECT("C" &amp; ROW() - 1)*R41,F41)</f>
         <v>0</v>
       </c>
       <c r="L41" s="0" t="n">
@@ -2576,7 +2576,7 @@
         <v/>
       </c>
       <c r="K42" s="0" t="n">
-        <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1),F42)</f>
+        <f aca="true">IF(J42 = "-", -INDIRECT("C" &amp; ROW() - 1)*R42,F42)</f>
         <v>0</v>
       </c>
       <c r="L42" s="0" t="n">
@@ -2622,7 +2622,7 @@
         <v/>
       </c>
       <c r="K43" s="0" t="n">
-        <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1),F43)</f>
+        <f aca="true">IF(J43 = "-", -INDIRECT("C" &amp; ROW() - 1)*R43,F43)</f>
         <v>0</v>
       </c>
       <c r="L43" s="0" t="n">
@@ -2668,7 +2668,7 @@
         <v/>
       </c>
       <c r="K44" s="0" t="n">
-        <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1),F44)</f>
+        <f aca="true">IF(J44 = "-", -INDIRECT("C" &amp; ROW() - 1)*R44,F44)</f>
         <v>0</v>
       </c>
       <c r="L44" s="0" t="n">
@@ -2714,7 +2714,7 @@
         <v/>
       </c>
       <c r="K45" s="0" t="n">
-        <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1),F45)</f>
+        <f aca="true">IF(J45 = "-", -INDIRECT("C" &amp; ROW() - 1)*R45,F45)</f>
         <v>0</v>
       </c>
       <c r="L45" s="0" t="n">
@@ -2760,7 +2760,7 @@
         <v/>
       </c>
       <c r="K46" s="0" t="n">
-        <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1),F46)</f>
+        <f aca="true">IF(J46 = "-", -INDIRECT("C" &amp; ROW() - 1)*R46,F46)</f>
         <v>0</v>
       </c>
       <c r="L46" s="0" t="n">
@@ -2806,7 +2806,7 @@
         <v/>
       </c>
       <c r="K47" s="0" t="n">
-        <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1),F47)</f>
+        <f aca="true">IF(J47 = "-", -INDIRECT("C" &amp; ROW() - 1)*R47,F47)</f>
         <v>0</v>
       </c>
       <c r="L47" s="0" t="n">
@@ -2852,7 +2852,7 @@
         <v/>
       </c>
       <c r="K48" s="0" t="n">
-        <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1),F48)</f>
+        <f aca="true">IF(J48 = "-", -INDIRECT("C" &amp; ROW() - 1)*R48,F48)</f>
         <v>0</v>
       </c>
       <c r="L48" s="0" t="n">
@@ -2898,7 +2898,7 @@
         <v/>
       </c>
       <c r="K49" s="0" t="n">
-        <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1),F49)</f>
+        <f aca="true">IF(J49 = "-", -INDIRECT("C" &amp; ROW() - 1)*R49,F49)</f>
         <v>0</v>
       </c>
       <c r="L49" s="0" t="n">
@@ -2944,7 +2944,7 @@
         <v/>
       </c>
       <c r="K50" s="0" t="n">
-        <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1),F50)</f>
+        <f aca="true">IF(J50 = "-", -INDIRECT("C" &amp; ROW() - 1)*R50,F50)</f>
         <v>0</v>
       </c>
       <c r="L50" s="0" t="n">
@@ -2990,7 +2990,7 @@
         <v/>
       </c>
       <c r="K51" s="0" t="n">
-        <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1),F51)</f>
+        <f aca="true">IF(J51 = "-", -INDIRECT("C" &amp; ROW() - 1)*R51,F51)</f>
         <v>0</v>
       </c>
       <c r="L51" s="0" t="n">
@@ -3036,7 +3036,7 @@
         <v/>
       </c>
       <c r="K52" s="0" t="n">
-        <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1),F52)</f>
+        <f aca="true">IF(J52 = "-", -INDIRECT("C" &amp; ROW() - 1)*R52,F52)</f>
         <v>0</v>
       </c>
       <c r="L52" s="0" t="n">
@@ -3082,7 +3082,7 @@
         <v/>
       </c>
       <c r="K53" s="0" t="n">
-        <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1),F53)</f>
+        <f aca="true">IF(J53 = "-", -INDIRECT("C" &amp; ROW() - 1)*R53,F53)</f>
         <v>0</v>
       </c>
       <c r="L53" s="0" t="n">
@@ -3128,7 +3128,7 @@
         <v/>
       </c>
       <c r="K54" s="0" t="n">
-        <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1),F54)</f>
+        <f aca="true">IF(J54 = "-", -INDIRECT("C" &amp; ROW() - 1)*R54,F54)</f>
         <v>0</v>
       </c>
       <c r="L54" s="0" t="n">
@@ -3174,7 +3174,7 @@
         <v/>
       </c>
       <c r="K55" s="0" t="n">
-        <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1),F55)</f>
+        <f aca="true">IF(J55 = "-", -INDIRECT("C" &amp; ROW() - 1)*R55,F55)</f>
         <v>0</v>
       </c>
       <c r="L55" s="0" t="n">
@@ -3220,7 +3220,7 @@
         <v/>
       </c>
       <c r="K56" s="0" t="n">
-        <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1),F56)</f>
+        <f aca="true">IF(J56 = "-", -INDIRECT("C" &amp; ROW() - 1)*R56,F56)</f>
         <v>0</v>
       </c>
       <c r="L56" s="0" t="n">
@@ -3266,7 +3266,7 @@
         <v/>
       </c>
       <c r="K57" s="0" t="n">
-        <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
+        <f aca="true">IF(J57 = "-", -INDIRECT("C" &amp; ROW() - 1)*R57,F57)</f>
         <v>0</v>
       </c>
       <c r="L57" s="0" t="n">
@@ -3312,7 +3312,7 @@
         <v/>
       </c>
       <c r="K58" s="0" t="n">
-        <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1),F58)</f>
+        <f aca="true">IF(J58 = "-", -INDIRECT("C" &amp; ROW() - 1)*R58,F58)</f>
         <v>0</v>
       </c>
       <c r="L58" s="0" t="n">
@@ -3358,7 +3358,7 @@
         <v/>
       </c>
       <c r="K59" s="0" t="n">
-        <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1),F59)</f>
+        <f aca="true">IF(J59 = "-", -INDIRECT("C" &amp; ROW() - 1)*R59,F59)</f>
         <v>0</v>
       </c>
       <c r="L59" s="0" t="n">
@@ -3404,7 +3404,7 @@
         <v/>
       </c>
       <c r="K60" s="0" t="n">
-        <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1),F60)</f>
+        <f aca="true">IF(J60 = "-", -INDIRECT("C" &amp; ROW() - 1)*R60,F60)</f>
         <v>0</v>
       </c>
       <c r="L60" s="0" t="n">
@@ -3450,7 +3450,7 @@
         <v/>
       </c>
       <c r="K61" s="0" t="n">
-        <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
+        <f aca="true">IF(J61 = "-", -INDIRECT("C" &amp; ROW() - 1)*R61,F61)</f>
         <v>0</v>
       </c>
       <c r="L61" s="0" t="n">
@@ -3496,7 +3496,7 @@
         <v/>
       </c>
       <c r="K62" s="0" t="n">
-        <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1),F62)</f>
+        <f aca="true">IF(J62 = "-", -INDIRECT("C" &amp; ROW() - 1)*R62,F62)</f>
         <v>0</v>
       </c>
       <c r="L62" s="0" t="n">
@@ -3542,7 +3542,7 @@
         <v/>
       </c>
       <c r="K63" s="0" t="n">
-        <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1),F63)</f>
+        <f aca="true">IF(J63 = "-", -INDIRECT("C" &amp; ROW() - 1)*R63,F63)</f>
         <v>0</v>
       </c>
       <c r="L63" s="0" t="n">
@@ -3588,7 +3588,7 @@
         <v/>
       </c>
       <c r="K64" s="0" t="n">
-        <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1),F64)</f>
+        <f aca="true">IF(J64 = "-", -INDIRECT("C" &amp; ROW() - 1)*R64,F64)</f>
         <v>0</v>
       </c>
       <c r="L64" s="0" t="n">
@@ -3634,7 +3634,7 @@
         <v/>
       </c>
       <c r="K65" s="0" t="n">
-        <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1),F65)</f>
+        <f aca="true">IF(J65 = "-", -INDIRECT("C" &amp; ROW() - 1)*R65,F65)</f>
         <v>0</v>
       </c>
       <c r="L65" s="0" t="n">
@@ -3680,7 +3680,7 @@
         <v/>
       </c>
       <c r="K66" s="0" t="n">
-        <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1),F66)</f>
+        <f aca="true">IF(J66 = "-", -INDIRECT("C" &amp; ROW() - 1)*R66,F66)</f>
         <v>0</v>
       </c>
       <c r="L66" s="0" t="n">
@@ -3726,7 +3726,7 @@
         <v/>
       </c>
       <c r="K67" s="0" t="n">
-        <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
+        <f aca="true">IF(J67 = "-", -INDIRECT("C" &amp; ROW() - 1)*R67,F67)</f>
         <v>0</v>
       </c>
       <c r="L67" s="0" t="n">
@@ -3772,7 +3772,7 @@
         <v/>
       </c>
       <c r="K68" s="0" t="n">
-        <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1),F68)</f>
+        <f aca="true">IF(J68 = "-", -INDIRECT("C" &amp; ROW() - 1)*R68,F68)</f>
         <v>0</v>
       </c>
       <c r="L68" s="0" t="n">
@@ -3818,7 +3818,7 @@
         <v/>
       </c>
       <c r="K69" s="0" t="n">
-        <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1),F69)</f>
+        <f aca="true">IF(J69 = "-", -INDIRECT("C" &amp; ROW() - 1)*R69,F69)</f>
         <v>0</v>
       </c>
       <c r="L69" s="0" t="n">
@@ -3864,7 +3864,7 @@
         <v/>
       </c>
       <c r="K70" s="0" t="n">
-        <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1),F70)</f>
+        <f aca="true">IF(J70 = "-", -INDIRECT("C" &amp; ROW() - 1)*R70,F70)</f>
         <v>0</v>
       </c>
       <c r="L70" s="0" t="n">
@@ -3910,7 +3910,7 @@
         <v/>
       </c>
       <c r="K71" s="0" t="n">
-        <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1),F71)</f>
+        <f aca="true">IF(J71 = "-", -INDIRECT("C" &amp; ROW() - 1)*R71,F71)</f>
         <v>0</v>
       </c>
       <c r="L71" s="0" t="n">
@@ -3956,7 +3956,7 @@
         <v/>
       </c>
       <c r="K72" s="0" t="n">
-        <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1),F72)</f>
+        <f aca="true">IF(J72 = "-", -INDIRECT("C" &amp; ROW() - 1)*R72,F72)</f>
         <v>0</v>
       </c>
       <c r="L72" s="0" t="n">
@@ -4002,7 +4002,7 @@
         <v/>
       </c>
       <c r="K73" s="0" t="n">
-        <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1),F73)</f>
+        <f aca="true">IF(J73 = "-", -INDIRECT("C" &amp; ROW() - 1)*R73,F73)</f>
         <v>0</v>
       </c>
       <c r="L73" s="0" t="n">
@@ -4048,7 +4048,7 @@
         <v/>
       </c>
       <c r="K74" s="0" t="n">
-        <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1),F74)</f>
+        <f aca="true">IF(J74 = "-", -INDIRECT("C" &amp; ROW() - 1)*R74,F74)</f>
         <v>0</v>
       </c>
       <c r="L74" s="0" t="n">
@@ -4094,7 +4094,7 @@
         <v/>
       </c>
       <c r="K75" s="0" t="n">
-        <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1),F75)</f>
+        <f aca="true">IF(J75 = "-", -INDIRECT("C" &amp; ROW() - 1)*R75,F75)</f>
         <v>0</v>
       </c>
       <c r="L75" s="0" t="n">
@@ -4140,7 +4140,7 @@
         <v/>
       </c>
       <c r="K76" s="0" t="n">
-        <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1),F76)</f>
+        <f aca="true">IF(J76 = "-", -INDIRECT("C" &amp; ROW() - 1)*R76,F76)</f>
         <v>0</v>
       </c>
       <c r="L76" s="0" t="n">
@@ -4186,7 +4186,7 @@
         <v/>
       </c>
       <c r="K77" s="0" t="n">
-        <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1),F77)</f>
+        <f aca="true">IF(J77 = "-", -INDIRECT("C" &amp; ROW() - 1)*R77,F77)</f>
         <v>0</v>
       </c>
       <c r="L77" s="0" t="n">
@@ -4232,7 +4232,7 @@
         <v/>
       </c>
       <c r="K78" s="0" t="n">
-        <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1),F78)</f>
+        <f aca="true">IF(J78 = "-", -INDIRECT("C" &amp; ROW() - 1)*R78,F78)</f>
         <v>0</v>
       </c>
       <c r="L78" s="0" t="n">
@@ -4278,7 +4278,7 @@
         <v/>
       </c>
       <c r="K79" s="0" t="n">
-        <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1),F79)</f>
+        <f aca="true">IF(J79 = "-", -INDIRECT("C" &amp; ROW() - 1)*R79,F79)</f>
         <v>0</v>
       </c>
       <c r="L79" s="0" t="n">
@@ -4324,7 +4324,7 @@
         <v/>
       </c>
       <c r="K80" s="0" t="n">
-        <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1),F80)</f>
+        <f aca="true">IF(J80 = "-", -INDIRECT("C" &amp; ROW() - 1)*R80,F80)</f>
         <v>0</v>
       </c>
       <c r="L80" s="0" t="n">
@@ -4370,7 +4370,7 @@
         <v/>
       </c>
       <c r="K81" s="0" t="n">
-        <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1),F81)</f>
+        <f aca="true">IF(J81 = "-", -INDIRECT("C" &amp; ROW() - 1)*R81,F81)</f>
         <v>0</v>
       </c>
       <c r="L81" s="0" t="n">
@@ -4416,7 +4416,7 @@
         <v/>
       </c>
       <c r="K82" s="0" t="n">
-        <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1),F82)</f>
+        <f aca="true">IF(J82 = "-", -INDIRECT("C" &amp; ROW() - 1)*R82,F82)</f>
         <v>0</v>
       </c>
       <c r="L82" s="0" t="n">
@@ -4462,7 +4462,7 @@
         <v/>
       </c>
       <c r="K83" s="0" t="n">
-        <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1),F83)</f>
+        <f aca="true">IF(J83 = "-", -INDIRECT("C" &amp; ROW() - 1)*R83,F83)</f>
         <v>0</v>
       </c>
       <c r="L83" s="0" t="n">
@@ -4508,7 +4508,7 @@
         <v/>
       </c>
       <c r="K84" s="0" t="n">
-        <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1),F84)</f>
+        <f aca="true">IF(J84 = "-", -INDIRECT("C" &amp; ROW() - 1)*R84,F84)</f>
         <v>0</v>
       </c>
       <c r="L84" s="0" t="n">
@@ -4554,7 +4554,7 @@
         <v/>
       </c>
       <c r="K85" s="0" t="n">
-        <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1),F85)</f>
+        <f aca="true">IF(J85 = "-", -INDIRECT("C" &amp; ROW() - 1)*R85,F85)</f>
         <v>0</v>
       </c>
       <c r="L85" s="0" t="n">
@@ -4600,7 +4600,7 @@
         <v/>
       </c>
       <c r="K86" s="0" t="n">
-        <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1),F86)</f>
+        <f aca="true">IF(J86 = "-", -INDIRECT("C" &amp; ROW() - 1)*R86,F86)</f>
         <v>0</v>
       </c>
       <c r="L86" s="0" t="n">
@@ -4646,7 +4646,7 @@
         <v/>
       </c>
       <c r="K87" s="0" t="n">
-        <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1),F87)</f>
+        <f aca="true">IF(J87 = "-", -INDIRECT("C" &amp; ROW() - 1)*R87,F87)</f>
         <v>0</v>
       </c>
       <c r="L87" s="0" t="n">
@@ -4692,7 +4692,7 @@
         <v/>
       </c>
       <c r="K88" s="0" t="n">
-        <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1),F88)</f>
+        <f aca="true">IF(J88 = "-", -INDIRECT("C" &amp; ROW() - 1)*R88,F88)</f>
         <v>0</v>
       </c>
       <c r="L88" s="0" t="n">
@@ -4738,7 +4738,7 @@
         <v/>
       </c>
       <c r="K89" s="0" t="n">
-        <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
+        <f aca="true">IF(J89 = "-", -INDIRECT("C" &amp; ROW() - 1)*R89,F89)</f>
         <v>0</v>
       </c>
       <c r="L89" s="0" t="n">
@@ -4784,7 +4784,7 @@
         <v/>
       </c>
       <c r="K90" s="0" t="n">
-        <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1),F90)</f>
+        <f aca="true">IF(J90 = "-", -INDIRECT("C" &amp; ROW() - 1)*R90,F90)</f>
         <v>0</v>
       </c>
       <c r="L90" s="0" t="n">
@@ -4830,7 +4830,7 @@
         <v/>
       </c>
       <c r="K91" s="0" t="n">
-        <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1),F91)</f>
+        <f aca="true">IF(J91 = "-", -INDIRECT("C" &amp; ROW() - 1)*R91,F91)</f>
         <v>0</v>
       </c>
       <c r="L91" s="0" t="n">
@@ -4876,7 +4876,7 @@
         <v/>
       </c>
       <c r="K92" s="0" t="n">
-        <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1),F92)</f>
+        <f aca="true">IF(J92 = "-", -INDIRECT("C" &amp; ROW() - 1)*R92,F92)</f>
         <v>0</v>
       </c>
       <c r="L92" s="0" t="n">
@@ -4922,7 +4922,7 @@
         <v/>
       </c>
       <c r="K93" s="0" t="n">
-        <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
+        <f aca="true">IF(J93 = "-", -INDIRECT("C" &amp; ROW() - 1)*R93,F93)</f>
         <v>0</v>
       </c>
       <c r="L93" s="0" t="n">
@@ -4968,7 +4968,7 @@
         <v/>
       </c>
       <c r="K94" s="0" t="n">
-        <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1),F94)</f>
+        <f aca="true">IF(J94 = "-", -INDIRECT("C" &amp; ROW() - 1)*R94,F94)</f>
         <v>0</v>
       </c>
       <c r="L94" s="0" t="n">
@@ -5014,7 +5014,7 @@
         <v/>
       </c>
       <c r="K95" s="0" t="n">
-        <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1),F95)</f>
+        <f aca="true">IF(J95 = "-", -INDIRECT("C" &amp; ROW() - 1)*R95,F95)</f>
         <v>0</v>
       </c>
       <c r="L95" s="0" t="n">
@@ -5060,7 +5060,7 @@
         <v/>
       </c>
       <c r="K96" s="0" t="n">
-        <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1),F96)</f>
+        <f aca="true">IF(J96 = "-", -INDIRECT("C" &amp; ROW() - 1)*R96,F96)</f>
         <v>0</v>
       </c>
       <c r="L96" s="0" t="n">
@@ -5106,7 +5106,7 @@
         <v/>
       </c>
       <c r="K97" s="0" t="n">
-        <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1),F97)</f>
+        <f aca="true">IF(J97 = "-", -INDIRECT("C" &amp; ROW() - 1)*R97,F97)</f>
         <v>0</v>
       </c>
       <c r="L97" s="0" t="n">
@@ -5152,7 +5152,7 @@
         <v/>
       </c>
       <c r="K98" s="0" t="n">
-        <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1),F98)</f>
+        <f aca="true">IF(J98 = "-", -INDIRECT("C" &amp; ROW() - 1)*R98,F98)</f>
         <v>0</v>
       </c>
       <c r="L98" s="0" t="n">
@@ -5198,7 +5198,7 @@
         <v/>
       </c>
       <c r="K99" s="0" t="n">
-        <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
+        <f aca="true">IF(J99 = "-", -INDIRECT("C" &amp; ROW() - 1)*R99,F99)</f>
         <v>0</v>
       </c>
       <c r="L99" s="0" t="n">
@@ -5244,7 +5244,7 @@
         <v/>
       </c>
       <c r="K100" s="0" t="n">
-        <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1),F100)</f>
+        <f aca="true">IF(J100 = "-", -INDIRECT("C" &amp; ROW() - 1)*R100,F100)</f>
         <v>0</v>
       </c>
       <c r="L100" s="0" t="n">
@@ -5290,7 +5290,7 @@
         <v/>
       </c>
       <c r="K101" s="0" t="n">
-        <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1),F101)</f>
+        <f aca="true">IF(J101 = "-", -INDIRECT("C" &amp; ROW() - 1)*R101,F101)</f>
         <v>0</v>
       </c>
       <c r="L101" s="0" t="n">
@@ -5336,7 +5336,7 @@
         <v/>
       </c>
       <c r="K102" s="0" t="n">
-        <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1),F102)</f>
+        <f aca="true">IF(J102 = "-", -INDIRECT("C" &amp; ROW() - 1)*R102,F102)</f>
         <v>0</v>
       </c>
       <c r="L102" s="0" t="n">
@@ -5382,7 +5382,7 @@
         <v/>
       </c>
       <c r="K103" s="0" t="n">
-        <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1),F103)</f>
+        <f aca="true">IF(J103 = "-", -INDIRECT("C" &amp; ROW() - 1)*R103,F103)</f>
         <v>0</v>
       </c>
       <c r="L103" s="0" t="n">
@@ -5428,7 +5428,7 @@
         <v/>
       </c>
       <c r="K104" s="0" t="n">
-        <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1),F104)</f>
+        <f aca="true">IF(J104 = "-", -INDIRECT("C" &amp; ROW() - 1)*R104,F104)</f>
         <v>0</v>
       </c>
       <c r="L104" s="0" t="n">
@@ -5474,7 +5474,7 @@
         <v/>
       </c>
       <c r="K105" s="0" t="n">
-        <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1),F105)</f>
+        <f aca="true">IF(J105 = "-", -INDIRECT("C" &amp; ROW() - 1)*R105,F105)</f>
         <v>0</v>
       </c>
       <c r="L105" s="0" t="n">
@@ -5520,7 +5520,7 @@
         <v/>
       </c>
       <c r="K106" s="0" t="n">
-        <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1),F106)</f>
+        <f aca="true">IF(J106 = "-", -INDIRECT("C" &amp; ROW() - 1)*R106,F106)</f>
         <v>0</v>
       </c>
       <c r="L106" s="0" t="n">
@@ -5566,7 +5566,7 @@
         <v/>
       </c>
       <c r="K107" s="0" t="n">
-        <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1),F107)</f>
+        <f aca="true">IF(J107 = "-", -INDIRECT("C" &amp; ROW() - 1)*R107,F107)</f>
         <v>0</v>
       </c>
       <c r="L107" s="0" t="n">
@@ -5612,7 +5612,7 @@
         <v/>
       </c>
       <c r="K108" s="0" t="n">
-        <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1),F108)</f>
+        <f aca="true">IF(J108 = "-", -INDIRECT("C" &amp; ROW() - 1)*R108,F108)</f>
         <v>0</v>
       </c>
       <c r="L108" s="0" t="n">
@@ -5658,7 +5658,7 @@
         <v/>
       </c>
       <c r="K109" s="0" t="n">
-        <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1),F109)</f>
+        <f aca="true">IF(J109 = "-", -INDIRECT("C" &amp; ROW() - 1)*R109,F109)</f>
         <v>0</v>
       </c>
       <c r="L109" s="0" t="n">
@@ -5704,7 +5704,7 @@
         <v/>
       </c>
       <c r="K110" s="0" t="n">
-        <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1),F110)</f>
+        <f aca="true">IF(J110 = "-", -INDIRECT("C" &amp; ROW() - 1)*R110,F110)</f>
         <v>0</v>
       </c>
       <c r="L110" s="0" t="n">
@@ -5750,7 +5750,7 @@
         <v/>
       </c>
       <c r="K111" s="0" t="n">
-        <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1),F111)</f>
+        <f aca="true">IF(J111 = "-", -INDIRECT("C" &amp; ROW() - 1)*R111,F111)</f>
         <v>0</v>
       </c>
       <c r="L111" s="0" t="n">
@@ -5796,7 +5796,7 @@
         <v/>
       </c>
       <c r="K112" s="0" t="n">
-        <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1),F112)</f>
+        <f aca="true">IF(J112 = "-", -INDIRECT("C" &amp; ROW() - 1)*R112,F112)</f>
         <v>0</v>
       </c>
       <c r="L112" s="0" t="n">
@@ -5842,7 +5842,7 @@
         <v/>
       </c>
       <c r="K113" s="0" t="n">
-        <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1),F113)</f>
+        <f aca="true">IF(J113 = "-", -INDIRECT("C" &amp; ROW() - 1)*R113,F113)</f>
         <v>0</v>
       </c>
       <c r="L113" s="0" t="n">
@@ -5888,7 +5888,7 @@
         <v/>
       </c>
       <c r="K114" s="0" t="n">
-        <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1),F114)</f>
+        <f aca="true">IF(J114 = "-", -INDIRECT("C" &amp; ROW() - 1)*R114,F114)</f>
         <v>0</v>
       </c>
       <c r="L114" s="0" t="n">
@@ -5934,7 +5934,7 @@
         <v/>
       </c>
       <c r="K115" s="0" t="n">
-        <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1),F115)</f>
+        <f aca="true">IF(J115 = "-", -INDIRECT("C" &amp; ROW() - 1)*R115,F115)</f>
         <v>0</v>
       </c>
       <c r="L115" s="0" t="n">
@@ -5980,7 +5980,7 @@
         <v/>
       </c>
       <c r="K116" s="0" t="n">
-        <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1),F116)</f>
+        <f aca="true">IF(J116 = "-", -INDIRECT("C" &amp; ROW() - 1)*R116,F116)</f>
         <v>0</v>
       </c>
       <c r="L116" s="0" t="n">
@@ -6026,7 +6026,7 @@
         <v/>
       </c>
       <c r="K117" s="0" t="n">
-        <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1),F117)</f>
+        <f aca="true">IF(J117 = "-", -INDIRECT("C" &amp; ROW() - 1)*R117,F117)</f>
         <v>0</v>
       </c>
       <c r="L117" s="0" t="n">
@@ -6072,7 +6072,7 @@
         <v/>
       </c>
       <c r="K118" s="0" t="n">
-        <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1),F118)</f>
+        <f aca="true">IF(J118 = "-", -INDIRECT("C" &amp; ROW() - 1)*R118,F118)</f>
         <v>0</v>
       </c>
       <c r="L118" s="0" t="n">
@@ -6118,7 +6118,7 @@
         <v/>
       </c>
       <c r="K119" s="0" t="n">
-        <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1),F119)</f>
+        <f aca="true">IF(J119 = "-", -INDIRECT("C" &amp; ROW() - 1)*R119,F119)</f>
         <v>0</v>
       </c>
       <c r="L119" s="0" t="n">
@@ -6164,7 +6164,7 @@
         <v/>
       </c>
       <c r="K120" s="0" t="n">
-        <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1),F120)</f>
+        <f aca="true">IF(J120 = "-", -INDIRECT("C" &amp; ROW() - 1)*R120,F120)</f>
         <v>0</v>
       </c>
       <c r="L120" s="0" t="n">
@@ -6210,7 +6210,7 @@
         <v/>
       </c>
       <c r="K121" s="0" t="n">
-        <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1),F121)</f>
+        <f aca="true">IF(J121 = "-", -INDIRECT("C" &amp; ROW() - 1)*R121,F121)</f>
         <v>0</v>
       </c>
       <c r="L121" s="0" t="n">
@@ -6256,7 +6256,7 @@
         <v/>
       </c>
       <c r="K122" s="0" t="n">
-        <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1),F122)</f>
+        <f aca="true">IF(J122 = "-", -INDIRECT("C" &amp; ROW() - 1)*R122,F122)</f>
         <v>0</v>
       </c>
       <c r="L122" s="0" t="n">
@@ -6299,7 +6299,7 @@
         <v/>
       </c>
       <c r="K123" s="0" t="n">
-        <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1),F123)</f>
+        <f aca="true">IF(J123 = "-", -INDIRECT("C" &amp; ROW() - 1)*R123,F123)</f>
         <v>0</v>
       </c>
       <c r="L123" s="0" t="n">

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t xml:space="preserve">Количество варок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер первой ванны</t>
   </si>
   <si>
     <t xml:space="preserve">Общий объем сыворотки, кг</t>
@@ -641,7 +644,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U326"/>
+  <dimension ref="A1:V326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
@@ -667,11 +670,12 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="17.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="22" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="10" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="23" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -712,14 +716,17 @@
       <c r="R1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -733,26 +740,27 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20" t="n">
+      <c r="S2" s="15"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20" t="n">
         <f aca="false">SUMPRODUCT(H3:H122, R3:R122)</f>
         <v>0</v>
       </c>
-      <c r="U2" s="21" t="n">
-        <f aca="false">S2-T2</f>
+      <c r="V2" s="21" t="n">
+        <f aca="false">T2-U2</f>
         <v>0</v>
       </c>
     </row>
@@ -801,6 +809,10 @@
         <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S3" s="25" t="str">
+        <f aca="true">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="22" t="str">
@@ -847,6 +859,10 @@
         <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S4" s="25" t="str">
+        <f aca="true">IF(J4="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="22" t="str">
@@ -893,6 +909,10 @@
         <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S5" s="25" t="str">
+        <f aca="true">IF(J5="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="str">
@@ -939,6 +959,10 @@
         <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S6" s="25" t="str">
+        <f aca="true">IF(J6="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22" t="str">
@@ -985,6 +1009,10 @@
         <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S7" s="25" t="str">
+        <f aca="true">IF(J7="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="str">
@@ -1031,6 +1059,10 @@
         <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S8" s="25" t="str">
+        <f aca="true">IF(J8="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="str">
@@ -1077,6 +1109,10 @@
         <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S9" s="25" t="str">
+        <f aca="true">IF(J9="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="str">
@@ -1123,6 +1159,10 @@
         <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S10" s="25" t="str">
+        <f aca="true">IF(J10="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="str">
@@ -1169,6 +1209,10 @@
         <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S11" s="25" t="str">
+        <f aca="true">IF(J11="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="str">
@@ -1215,6 +1259,10 @@
         <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S12" s="25" t="str">
+        <f aca="true">IF(J12="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="str">
@@ -1261,6 +1309,10 @@
         <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S13" s="25" t="str">
+        <f aca="true">IF(J13="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="str">
@@ -1307,6 +1359,10 @@
         <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S14" s="25" t="str">
+        <f aca="true">IF(J14="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="22" t="str">
@@ -1353,6 +1409,10 @@
         <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S15" s="25" t="str">
+        <f aca="true">IF(J15="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="22" t="str">
@@ -1399,6 +1459,10 @@
         <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S16" s="25" t="str">
+        <f aca="true">IF(J16="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="22" t="str">
@@ -1445,6 +1509,10 @@
         <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S17" s="25" t="str">
+        <f aca="true">IF(J17="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="22" t="str">
@@ -1491,6 +1559,10 @@
         <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S18" s="25" t="str">
+        <f aca="true">IF(J18="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="22" t="str">
@@ -1537,6 +1609,10 @@
         <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S19" s="25" t="str">
+        <f aca="true">IF(J19="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="22" t="str">
@@ -1583,6 +1659,10 @@
         <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S20" s="25" t="str">
+        <f aca="true">IF(J20="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="str">
@@ -1629,6 +1709,10 @@
         <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S21" s="25" t="str">
+        <f aca="true">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="22" t="str">
@@ -1675,6 +1759,10 @@
         <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S22" s="25" t="str">
+        <f aca="true">IF(J22="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="str">
@@ -1721,6 +1809,10 @@
         <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S23" s="25" t="str">
+        <f aca="true">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="str">
@@ -1767,6 +1859,10 @@
         <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S24" s="25" t="str">
+        <f aca="true">IF(J24="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="str">
@@ -1813,6 +1909,10 @@
         <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S25" s="25" t="str">
+        <f aca="true">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="22" t="str">
@@ -1859,6 +1959,10 @@
         <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S26" s="25" t="str">
+        <f aca="true">IF(J26="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="22" t="str">
@@ -1905,6 +2009,10 @@
         <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S27" s="25" t="str">
+        <f aca="true">IF(J27="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="22" t="str">
@@ -1951,6 +2059,10 @@
         <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S28" s="25" t="str">
+        <f aca="true">IF(J28="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="22" t="str">
@@ -1997,6 +2109,10 @@
         <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S29" s="25" t="str">
+        <f aca="true">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="22" t="str">
@@ -2043,6 +2159,10 @@
         <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S30" s="25" t="str">
+        <f aca="true">IF(J30="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="22" t="str">
@@ -2089,6 +2209,10 @@
         <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S31" s="25" t="str">
+        <f aca="true">IF(J31="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="str">
@@ -2135,6 +2259,10 @@
         <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S32" s="25" t="str">
+        <f aca="true">IF(J32="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="22" t="str">
@@ -2181,6 +2309,10 @@
         <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S33" s="25" t="str">
+        <f aca="true">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="str">
@@ -2227,6 +2359,10 @@
         <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S34" s="25" t="str">
+        <f aca="true">IF(J34="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="str">
@@ -2273,6 +2409,10 @@
         <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S35" s="25" t="str">
+        <f aca="true">IF(J35="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="str">
@@ -2319,6 +2459,10 @@
         <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S36" s="25" t="str">
+        <f aca="true">IF(J36="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="str">
@@ -2365,6 +2509,10 @@
         <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S37" s="25" t="str">
+        <f aca="true">IF(J37="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="str">
@@ -2411,6 +2559,10 @@
         <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S38" s="25" t="str">
+        <f aca="true">IF(J38="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="22" t="str">
@@ -2457,6 +2609,10 @@
         <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S39" s="25" t="str">
+        <f aca="true">IF(J39="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="22" t="str">
@@ -2503,6 +2659,10 @@
         <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S40" s="25" t="str">
+        <f aca="true">IF(J40="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="22" t="str">
@@ -2549,6 +2709,10 @@
         <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S41" s="25" t="str">
+        <f aca="true">IF(J41="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="22" t="str">
@@ -2595,6 +2759,10 @@
         <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S42" s="25" t="str">
+        <f aca="true">IF(J42="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="str">
@@ -2641,6 +2809,10 @@
         <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S43" s="25" t="str">
+        <f aca="true">IF(J43="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="22" t="str">
@@ -2687,6 +2859,10 @@
         <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S44" s="25" t="str">
+        <f aca="true">IF(J44="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="str">
@@ -2733,6 +2909,10 @@
         <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S45" s="25" t="str">
+        <f aca="true">IF(J45="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="22" t="str">
@@ -2779,6 +2959,10 @@
         <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S46" s="25" t="str">
+        <f aca="true">IF(J46="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="22" t="str">
@@ -2825,6 +3009,10 @@
         <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S47" s="25" t="str">
+        <f aca="true">IF(J47="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="22" t="str">
@@ -2871,6 +3059,10 @@
         <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S48" s="25" t="str">
+        <f aca="true">IF(J48="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="str">
@@ -2917,6 +3109,10 @@
         <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S49" s="25" t="str">
+        <f aca="true">IF(J49="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="22" t="str">
@@ -2963,6 +3159,10 @@
         <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S50" s="25" t="str">
+        <f aca="true">IF(J50="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="22" t="str">
@@ -3009,6 +3209,10 @@
         <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S51" s="25" t="str">
+        <f aca="true">IF(J51="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="22" t="str">
@@ -3055,6 +3259,10 @@
         <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S52" s="25" t="str">
+        <f aca="true">IF(J52="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="22" t="str">
@@ -3101,6 +3309,10 @@
         <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S53" s="25" t="str">
+        <f aca="true">IF(J53="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="22" t="str">
@@ -3147,6 +3359,10 @@
         <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S54" s="25" t="str">
+        <f aca="true">IF(J54="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="22" t="str">
@@ -3193,6 +3409,10 @@
         <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S55" s="25" t="str">
+        <f aca="true">IF(J55="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="22" t="str">
@@ -3239,6 +3459,10 @@
         <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S56" s="25" t="str">
+        <f aca="true">IF(J56="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="22" t="str">
@@ -3285,6 +3509,10 @@
         <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S57" s="25" t="str">
+        <f aca="true">IF(J57="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="22" t="str">
@@ -3331,6 +3559,10 @@
         <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S58" s="25" t="str">
+        <f aca="true">IF(J58="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="22" t="str">
@@ -3377,6 +3609,10 @@
         <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S59" s="25" t="str">
+        <f aca="true">IF(J59="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="22" t="str">
@@ -3423,6 +3659,10 @@
         <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S60" s="25" t="str">
+        <f aca="true">IF(J60="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="22" t="str">
@@ -3469,6 +3709,10 @@
         <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S61" s="25" t="str">
+        <f aca="true">IF(J61="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="22" t="str">
@@ -3515,6 +3759,10 @@
         <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S62" s="25" t="str">
+        <f aca="true">IF(J62="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="22" t="str">
@@ -3561,6 +3809,10 @@
         <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S63" s="25" t="str">
+        <f aca="true">IF(J63="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="22" t="str">
@@ -3607,6 +3859,10 @@
         <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S64" s="25" t="str">
+        <f aca="true">IF(J64="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="22" t="str">
@@ -3653,6 +3909,10 @@
         <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S65" s="25" t="str">
+        <f aca="true">IF(J65="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="22" t="str">
@@ -3699,6 +3959,10 @@
         <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S66" s="25" t="str">
+        <f aca="true">IF(J66="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="22" t="str">
@@ -3745,6 +4009,10 @@
         <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S67" s="25" t="str">
+        <f aca="true">IF(J67="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="22" t="str">
@@ -3791,6 +4059,10 @@
         <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S68" s="25" t="str">
+        <f aca="true">IF(J68="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="22" t="str">
@@ -3837,6 +4109,10 @@
         <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S69" s="25" t="str">
+        <f aca="true">IF(J69="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="22" t="str">
@@ -3883,6 +4159,10 @@
         <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S70" s="25" t="str">
+        <f aca="true">IF(J70="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="22" t="str">
@@ -3929,6 +4209,10 @@
         <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S71" s="25" t="str">
+        <f aca="true">IF(J71="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="22" t="str">
@@ -3975,6 +4259,10 @@
         <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S72" s="25" t="str">
+        <f aca="true">IF(J72="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="22" t="str">
@@ -4021,6 +4309,10 @@
         <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S73" s="25" t="str">
+        <f aca="true">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="22" t="str">
@@ -4067,6 +4359,10 @@
         <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S74" s="25" t="str">
+        <f aca="true">IF(J74="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="22" t="str">
@@ -4113,6 +4409,10 @@
         <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S75" s="25" t="str">
+        <f aca="true">IF(J75="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="22" t="str">
@@ -4159,6 +4459,10 @@
         <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S76" s="25" t="str">
+        <f aca="true">IF(J76="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="22" t="str">
@@ -4205,6 +4509,10 @@
         <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S77" s="25" t="str">
+        <f aca="true">IF(J77="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="22" t="str">
@@ -4251,6 +4559,10 @@
         <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S78" s="25" t="str">
+        <f aca="true">IF(J78="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="22" t="str">
@@ -4297,6 +4609,10 @@
         <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S79" s="25" t="str">
+        <f aca="true">IF(J79="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="22" t="str">
@@ -4343,6 +4659,10 @@
         <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S80" s="25" t="str">
+        <f aca="true">IF(J80="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="22" t="str">
@@ -4389,6 +4709,10 @@
         <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S81" s="25" t="str">
+        <f aca="true">IF(J81="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="22" t="str">
@@ -4435,6 +4759,10 @@
         <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S82" s="25" t="str">
+        <f aca="true">IF(J82="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="22" t="str">
@@ -4481,6 +4809,10 @@
         <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S83" s="25" t="str">
+        <f aca="true">IF(J83="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="22" t="str">
@@ -4527,6 +4859,10 @@
         <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S84" s="25" t="str">
+        <f aca="true">IF(J84="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="22" t="str">
@@ -4573,6 +4909,10 @@
         <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S85" s="25" t="str">
+        <f aca="true">IF(J85="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="22" t="str">
@@ -4619,6 +4959,10 @@
         <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S86" s="25" t="str">
+        <f aca="true">IF(J86="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="22" t="str">
@@ -4665,6 +5009,10 @@
         <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S87" s="25" t="str">
+        <f aca="true">IF(J87="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="22" t="str">
@@ -4711,6 +5059,10 @@
         <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S88" s="25" t="str">
+        <f aca="true">IF(J88="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="22" t="str">
@@ -4757,6 +5109,10 @@
         <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S89" s="25" t="str">
+        <f aca="true">IF(J89="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="22" t="str">
@@ -4803,6 +5159,10 @@
         <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S90" s="25" t="str">
+        <f aca="true">IF(J90="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="22" t="str">
@@ -4849,6 +5209,10 @@
         <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S91" s="25" t="str">
+        <f aca="true">IF(J91="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="22" t="str">
@@ -4895,6 +5259,10 @@
         <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S92" s="25" t="str">
+        <f aca="true">IF(J92="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="22" t="str">
@@ -4941,6 +5309,10 @@
         <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S93" s="25" t="str">
+        <f aca="true">IF(J93="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="22" t="str">
@@ -4987,6 +5359,10 @@
         <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S94" s="25" t="str">
+        <f aca="true">IF(J94="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="22" t="str">
@@ -5033,6 +5409,10 @@
         <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S95" s="25" t="str">
+        <f aca="true">IF(J95="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="22" t="str">
@@ -5079,6 +5459,10 @@
         <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S96" s="25" t="str">
+        <f aca="true">IF(J96="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="22" t="str">
@@ -5125,6 +5509,10 @@
         <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S97" s="25" t="str">
+        <f aca="true">IF(J97="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="22" t="str">
@@ -5171,6 +5559,10 @@
         <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S98" s="25" t="str">
+        <f aca="true">IF(J98="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="22" t="str">
@@ -5217,6 +5609,10 @@
         <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S99" s="25" t="str">
+        <f aca="true">IF(J99="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="22" t="str">
@@ -5263,6 +5659,10 @@
         <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S100" s="25" t="str">
+        <f aca="true">IF(J100="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="22" t="str">
@@ -5309,6 +5709,10 @@
         <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S101" s="25" t="str">
+        <f aca="true">IF(J101="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="22" t="str">
@@ -5355,6 +5759,10 @@
         <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S102" s="25" t="str">
+        <f aca="true">IF(J102="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="22" t="str">
@@ -5401,6 +5809,10 @@
         <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S103" s="25" t="str">
+        <f aca="true">IF(J103="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="22" t="str">
@@ -5447,6 +5859,10 @@
         <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S104" s="25" t="str">
+        <f aca="true">IF(J104="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="22" t="str">
@@ -5493,6 +5909,10 @@
         <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S105" s="25" t="str">
+        <f aca="true">IF(J105="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="22" t="str">
@@ -5539,6 +5959,10 @@
         <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S106" s="25" t="str">
+        <f aca="true">IF(J106="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="22" t="str">
@@ -5585,6 +6009,10 @@
         <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S107" s="25" t="str">
+        <f aca="true">IF(J107="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="22" t="str">
@@ -5631,6 +6059,10 @@
         <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S108" s="25" t="str">
+        <f aca="true">IF(J108="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="22" t="str">
@@ -5677,6 +6109,10 @@
         <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S109" s="25" t="str">
+        <f aca="true">IF(J109="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="22" t="str">
@@ -5723,6 +6159,10 @@
         <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S110" s="25" t="str">
+        <f aca="true">IF(J110="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="22" t="str">
@@ -5769,6 +6209,10 @@
         <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S111" s="25" t="str">
+        <f aca="true">IF(J111="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="22" t="str">
@@ -5815,6 +6259,10 @@
         <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S112" s="25" t="str">
+        <f aca="true">IF(J112="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="22" t="str">
@@ -5861,6 +6309,10 @@
         <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S113" s="25" t="str">
+        <f aca="true">IF(J113="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="22" t="str">
@@ -5907,6 +6359,10 @@
         <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S114" s="25" t="str">
+        <f aca="true">IF(J114="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="22" t="str">
@@ -5953,6 +6409,10 @@
         <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S115" s="25" t="str">
+        <f aca="true">IF(J115="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="22" t="str">
@@ -5999,6 +6459,10 @@
         <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S116" s="25" t="str">
+        <f aca="true">IF(J116="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="22" t="str">
@@ -6045,6 +6509,10 @@
         <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S117" s="25" t="str">
+        <f aca="true">IF(J117="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="22" t="str">
@@ -6091,6 +6559,10 @@
         <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S118" s="25" t="str">
+        <f aca="true">IF(J118="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="22" t="str">
@@ -6137,6 +6609,10 @@
         <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S119" s="25" t="str">
+        <f aca="true">IF(J119="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="22" t="str">
@@ -6183,6 +6659,10 @@
         <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S120" s="25" t="str">
+        <f aca="true">IF(J120="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="22" t="str">
@@ -6229,6 +6709,10 @@
         <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S121" s="25" t="str">
+        <f aca="true">IF(J121="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="22" t="str">
@@ -6273,6 +6757,10 @@
       </c>
       <c r="R122" s="25" t="str">
         <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+      <c r="S122" s="25" t="str">
+        <f aca="true">IF(J122="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -6318,6 +6806,10 @@
         <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S123" s="25" t="str">
+        <f aca="true">IF(J123="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="22"/>
@@ -6341,6 +6833,10 @@
         <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S124" s="25" t="str">
+        <f aca="true">IF(J124="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="22"/>
@@ -6364,6 +6860,10 @@
         <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S125" s="25" t="str">
+        <f aca="true">IF(J125="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="22"/>
@@ -6387,6 +6887,10 @@
         <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S126" s="25" t="str">
+        <f aca="true">IF(J126="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="22"/>
@@ -6410,6 +6914,10 @@
         <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S127" s="25" t="str">
+        <f aca="true">IF(J127="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="22"/>
@@ -6433,6 +6941,10 @@
         <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S128" s="25" t="str">
+        <f aca="true">IF(J128="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="22"/>
@@ -6456,6 +6968,10 @@
         <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S129" s="25" t="str">
+        <f aca="true">IF(J129="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="22"/>
@@ -6479,6 +6995,10 @@
         <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S130" s="25" t="str">
+        <f aca="true">IF(J130="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="22"/>
@@ -6502,6 +7022,10 @@
         <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S131" s="25" t="str">
+        <f aca="true">IF(J131="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="22"/>
@@ -6525,6 +7049,10 @@
         <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S132" s="25" t="str">
+        <f aca="true">IF(J132="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="22"/>
@@ -6548,6 +7076,10 @@
         <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S133" s="25" t="str">
+        <f aca="true">IF(J133="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="22"/>
@@ -6571,6 +7103,10 @@
         <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S134" s="25" t="str">
+        <f aca="true">IF(J134="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="22"/>
@@ -6591,6 +7127,10 @@
         <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S135" s="25" t="str">
+        <f aca="true">IF(J135="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="22"/>
@@ -6611,6 +7151,10 @@
         <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S136" s="25" t="str">
+        <f aca="true">IF(J136="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="22"/>
@@ -6631,6 +7175,10 @@
         <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S137" s="25" t="str">
+        <f aca="true">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="22"/>
@@ -6651,6 +7199,10 @@
         <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S138" s="25" t="str">
+        <f aca="true">IF(J138="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="22"/>
@@ -6671,6 +7223,10 @@
         <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S139" s="25" t="str">
+        <f aca="true">IF(J139="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="22"/>
@@ -6691,6 +7247,10 @@
         <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S140" s="25" t="str">
+        <f aca="true">IF(J140="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="22"/>
@@ -6711,6 +7271,10 @@
         <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S141" s="25" t="str">
+        <f aca="true">IF(J141="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="22"/>
@@ -6731,6 +7295,10 @@
         <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S142" s="25" t="str">
+        <f aca="true">IF(J142="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="22"/>
@@ -6751,6 +7319,10 @@
         <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S143" s="25" t="str">
+        <f aca="true">IF(J143="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="22"/>
@@ -6771,6 +7343,10 @@
         <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S144" s="25" t="str">
+        <f aca="true">IF(J144="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="22"/>
@@ -6791,6 +7367,10 @@
         <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S145" s="25" t="str">
+        <f aca="true">IF(J145="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="22"/>
@@ -6811,6 +7391,10 @@
         <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S146" s="25" t="str">
+        <f aca="true">IF(J146="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="22"/>
@@ -6831,6 +7415,10 @@
         <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S147" s="25" t="str">
+        <f aca="true">IF(J147="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="22"/>
@@ -6851,6 +7439,10 @@
         <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S148" s="25" t="str">
+        <f aca="true">IF(J148="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="22"/>
@@ -6869,6 +7461,10 @@
       </c>
       <c r="R149" s="25" t="str">
         <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
+        <v/>
+      </c>
+      <c r="S149" s="25" t="str">
+        <f aca="true">IF(J149="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
@@ -6888,6 +7484,10 @@
         <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S150" s="25" t="str">
+        <f aca="true">IF(J150="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="22"/>
@@ -6905,6 +7505,10 @@
         <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S151" s="25" t="str">
+        <f aca="true">IF(J151="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="22"/>
@@ -6922,6 +7526,10 @@
         <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S152" s="25" t="str">
+        <f aca="true">IF(J152="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="22"/>
@@ -6939,6 +7547,10 @@
         <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S153" s="25" t="str">
+        <f aca="true">IF(J153="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="22"/>
@@ -6956,6 +7568,10 @@
         <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S154" s="25" t="str">
+        <f aca="true">IF(J154="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="22"/>
@@ -6973,6 +7589,10 @@
         <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S155" s="25" t="str">
+        <f aca="true">IF(J155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="22"/>
@@ -6990,6 +7610,10 @@
         <f aca="true">IF(Q156 = "", "", Q156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S156" s="25" t="str">
+        <f aca="true">IF(J156="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="22"/>
@@ -7007,6 +7631,10 @@
         <f aca="true">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S157" s="25" t="str">
+        <f aca="true">IF(J157="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="22"/>
@@ -7024,6 +7652,10 @@
         <f aca="true">IF(Q158 = "", "", Q158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S158" s="25" t="str">
+        <f aca="true">IF(J158="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="22"/>
@@ -7041,6 +7673,10 @@
         <f aca="true">IF(Q159 = "", "", Q159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S159" s="25" t="str">
+        <f aca="true">IF(J159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="22"/>
@@ -7058,6 +7694,10 @@
         <f aca="true">IF(Q160 = "", "", Q160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S160" s="25" t="str">
+        <f aca="true">IF(J160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="22"/>
@@ -7075,6 +7715,10 @@
         <f aca="true">IF(Q161 = "", "", Q161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S161" s="25" t="str">
+        <f aca="true">IF(J161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="22"/>
@@ -7092,6 +7736,10 @@
         <f aca="true">IF(Q162 = "", "", Q162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S162" s="25" t="str">
+        <f aca="true">IF(J162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="22"/>
@@ -7109,6 +7757,10 @@
         <f aca="true">IF(Q163 = "", "", Q163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S163" s="25" t="str">
+        <f aca="true">IF(J163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="22"/>
@@ -7126,6 +7778,10 @@
         <f aca="true">IF(Q164 = "", "", Q164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S164" s="25" t="str">
+        <f aca="true">IF(J164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="22"/>
@@ -7143,6 +7799,10 @@
         <f aca="true">IF(Q165 = "", "", Q165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S165" s="25" t="str">
+        <f aca="true">IF(J165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="22"/>
@@ -7156,6 +7816,10 @@
         <f aca="true">IF(Q166 = "", "", Q166 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S166" s="25" t="str">
+        <f aca="true">IF(J166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="22"/>
@@ -7169,6 +7833,10 @@
         <f aca="true">IF(Q167 = "", "", Q167 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S167" s="25" t="str">
+        <f aca="true">IF(J167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="22"/>
@@ -7182,6 +7850,10 @@
         <f aca="true">IF(Q168 = "", "", Q168 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S168" s="25" t="str">
+        <f aca="true">IF(J168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="22"/>
@@ -7195,6 +7867,10 @@
         <f aca="true">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S169" s="25" t="str">
+        <f aca="true">IF(J169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="22"/>
@@ -7208,6 +7884,10 @@
         <f aca="true">IF(Q170 = "", "", Q170 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S170" s="25" t="str">
+        <f aca="true">IF(J170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="22"/>
@@ -7221,6 +7901,10 @@
         <f aca="true">IF(Q171 = "", "", Q171 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S171" s="25" t="str">
+        <f aca="true">IF(J171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="22"/>
@@ -7234,6 +7918,10 @@
         <f aca="true">IF(Q172 = "", "", Q172 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S172" s="25" t="str">
+        <f aca="true">IF(J172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="22"/>
@@ -7247,6 +7935,10 @@
         <f aca="true">IF(Q173 = "", "", Q173 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S173" s="25" t="str">
+        <f aca="true">IF(J173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="22"/>
@@ -7260,6 +7952,10 @@
         <f aca="true">IF(Q174 = "", "", Q174 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S174" s="25" t="str">
+        <f aca="true">IF(J174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="22"/>
@@ -7273,6 +7969,10 @@
         <f aca="true">IF(Q175 = "", "", Q175 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S175" s="25" t="str">
+        <f aca="true">IF(J175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="22"/>
@@ -7286,6 +7986,10 @@
         <f aca="true">IF(Q176 = "", "", Q176 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S176" s="25" t="str">
+        <f aca="true">IF(J176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="22"/>
@@ -7299,6 +8003,10 @@
         <f aca="true">IF(Q177 = "", "", Q177 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S177" s="25" t="str">
+        <f aca="true">IF(J177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="22"/>
@@ -7312,6 +8020,10 @@
         <f aca="true">IF(Q178 = "", "", Q178 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S178" s="25" t="str">
+        <f aca="true">IF(J178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="22"/>
@@ -7325,6 +8037,10 @@
         <f aca="true">IF(Q179 = "", "", Q179 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S179" s="25" t="str">
+        <f aca="true">IF(J179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="22"/>
@@ -7338,6 +8054,10 @@
         <f aca="true">IF(Q180 = "", "", Q180 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S180" s="25" t="str">
+        <f aca="true">IF(J180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="22"/>
@@ -7351,6 +8071,10 @@
         <f aca="true">IF(Q181 = "", "", Q181 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S181" s="25" t="str">
+        <f aca="true">IF(J181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="22"/>
@@ -7364,6 +8088,10 @@
         <f aca="true">IF(Q182 = "", "", Q182 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S182" s="25" t="str">
+        <f aca="true">IF(J182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="22"/>
@@ -7377,6 +8105,10 @@
         <f aca="true">IF(Q183 = "", "", Q183 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S183" s="25" t="str">
+        <f aca="true">IF(J183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="22"/>
@@ -7390,6 +8122,10 @@
         <f aca="true">IF(Q184 = "", "", Q184 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
+      <c r="S184" s="25" t="str">
+        <f aca="true">IF(J184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="22"/>
@@ -7400,6 +8136,10 @@
         <v/>
       </c>
       <c r="R185" s="25"/>
+      <c r="S185" s="25" t="str">
+        <f aca="true">IF(J185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="22"/>
@@ -7410,6 +8150,10 @@
         <v/>
       </c>
       <c r="R186" s="25"/>
+      <c r="S186" s="25" t="str">
+        <f aca="true">IF(J186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="22"/>
@@ -7420,6 +8164,10 @@
         <v/>
       </c>
       <c r="R187" s="25"/>
+      <c r="S187" s="25" t="str">
+        <f aca="true">IF(J187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="22"/>
@@ -7430,6 +8178,10 @@
         <v/>
       </c>
       <c r="R188" s="25"/>
+      <c r="S188" s="25" t="str">
+        <f aca="true">IF(J188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="22"/>
@@ -7440,6 +8192,10 @@
         <v/>
       </c>
       <c r="R189" s="25"/>
+      <c r="S189" s="25" t="str">
+        <f aca="true">IF(J189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="22"/>
@@ -7450,6 +8206,10 @@
         <v/>
       </c>
       <c r="R190" s="25"/>
+      <c r="S190" s="25" t="str">
+        <f aca="true">IF(J190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="22"/>
@@ -7460,6 +8220,10 @@
         <v/>
       </c>
       <c r="R191" s="25"/>
+      <c r="S191" s="25" t="str">
+        <f aca="true">IF(J191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="22"/>
@@ -7470,6 +8234,10 @@
         <v/>
       </c>
       <c r="R192" s="25"/>
+      <c r="S192" s="25" t="str">
+        <f aca="true">IF(J192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="22"/>
@@ -7480,6 +8248,10 @@
         <v/>
       </c>
       <c r="R193" s="25"/>
+      <c r="S193" s="25" t="str">
+        <f aca="true">IF(J193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="22"/>
@@ -7490,6 +8262,10 @@
         <v/>
       </c>
       <c r="R194" s="25"/>
+      <c r="S194" s="25" t="str">
+        <f aca="true">IF(J194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="22"/>
@@ -7500,6 +8276,10 @@
         <v/>
       </c>
       <c r="R195" s="25"/>
+      <c r="S195" s="25" t="str">
+        <f aca="true">IF(J195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="22"/>
@@ -7510,6 +8290,10 @@
         <v/>
       </c>
       <c r="R196" s="25"/>
+      <c r="S196" s="25" t="str">
+        <f aca="true">IF(J196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="22"/>
@@ -7520,6 +8304,10 @@
         <v/>
       </c>
       <c r="R197" s="25"/>
+      <c r="S197" s="25" t="str">
+        <f aca="true">IF(J197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="22"/>
@@ -7530,6 +8318,10 @@
         <v/>
       </c>
       <c r="R198" s="25"/>
+      <c r="S198" s="25" t="str">
+        <f aca="true">IF(J198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="22"/>
@@ -7540,6 +8332,10 @@
         <v/>
       </c>
       <c r="R199" s="25"/>
+      <c r="S199" s="25" t="str">
+        <f aca="true">IF(J199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="22"/>
@@ -7550,6 +8346,10 @@
         <v/>
       </c>
       <c r="R200" s="25"/>
+      <c r="S200" s="25" t="str">
+        <f aca="true">IF(J200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="22"/>
@@ -7560,6 +8360,10 @@
         <v/>
       </c>
       <c r="R201" s="25"/>
+      <c r="S201" s="25" t="str">
+        <f aca="true">IF(J201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="22"/>
@@ -7570,6 +8374,10 @@
         <v/>
       </c>
       <c r="R202" s="25"/>
+      <c r="S202" s="25" t="str">
+        <f aca="true">IF(J202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="22"/>
@@ -7580,6 +8388,10 @@
         <v/>
       </c>
       <c r="R203" s="25"/>
+      <c r="S203" s="25" t="str">
+        <f aca="true">IF(J203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="22"/>
@@ -7590,6 +8402,10 @@
         <v/>
       </c>
       <c r="R204" s="25"/>
+      <c r="S204" s="25" t="str">
+        <f aca="true">IF(J204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="22"/>
@@ -7600,6 +8416,10 @@
         <v/>
       </c>
       <c r="R205" s="25"/>
+      <c r="S205" s="25" t="str">
+        <f aca="true">IF(J205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="22"/>
@@ -7610,6 +8430,10 @@
         <v/>
       </c>
       <c r="R206" s="25"/>
+      <c r="S206" s="25" t="str">
+        <f aca="true">IF(J206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="22"/>
@@ -7620,6 +8444,10 @@
         <v/>
       </c>
       <c r="R207" s="25"/>
+      <c r="S207" s="25" t="str">
+        <f aca="true">IF(J207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="22"/>
@@ -7630,6 +8458,10 @@
         <v/>
       </c>
       <c r="R208" s="25"/>
+      <c r="S208" s="25" t="str">
+        <f aca="true">IF(J208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="22"/>
@@ -7640,6 +8472,10 @@
         <v/>
       </c>
       <c r="R209" s="25"/>
+      <c r="S209" s="25" t="str">
+        <f aca="true">IF(J209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="22"/>
@@ -7650,6 +8486,10 @@
         <v/>
       </c>
       <c r="R210" s="25"/>
+      <c r="S210" s="25" t="str">
+        <f aca="true">IF(J210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="22"/>
@@ -7660,6 +8500,10 @@
         <v/>
       </c>
       <c r="R211" s="25"/>
+      <c r="S211" s="25" t="str">
+        <f aca="true">IF(J211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="22"/>
@@ -7670,6 +8514,10 @@
         <v/>
       </c>
       <c r="R212" s="25"/>
+      <c r="S212" s="25" t="str">
+        <f aca="true">IF(J212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="22"/>
@@ -7680,6 +8528,10 @@
         <v/>
       </c>
       <c r="R213" s="25"/>
+      <c r="S213" s="25" t="str">
+        <f aca="true">IF(J213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="22"/>
@@ -7690,6 +8542,10 @@
         <v/>
       </c>
       <c r="R214" s="25"/>
+      <c r="S214" s="25" t="str">
+        <f aca="true">IF(J214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="22"/>
@@ -7700,6 +8556,10 @@
         <v/>
       </c>
       <c r="R215" s="25"/>
+      <c r="S215" s="25" t="str">
+        <f aca="true">IF(J215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="22"/>
@@ -7710,6 +8570,10 @@
         <v/>
       </c>
       <c r="R216" s="25"/>
+      <c r="S216" s="25" t="str">
+        <f aca="true">IF(J216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="22"/>
@@ -7720,6 +8584,10 @@
         <v/>
       </c>
       <c r="R217" s="25"/>
+      <c r="S217" s="25" t="str">
+        <f aca="true">IF(J217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="22"/>
@@ -7730,6 +8598,10 @@
         <v/>
       </c>
       <c r="R218" s="25"/>
+      <c r="S218" s="25" t="str">
+        <f aca="true">IF(J218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="22"/>
@@ -7740,6 +8612,10 @@
         <v/>
       </c>
       <c r="R219" s="25"/>
+      <c r="S219" s="25" t="str">
+        <f aca="true">IF(J219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="22"/>
@@ -7750,6 +8626,10 @@
         <v/>
       </c>
       <c r="R220" s="25"/>
+      <c r="S220" s="25" t="str">
+        <f aca="true">IF(J220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="22"/>
@@ -7760,6 +8640,10 @@
         <v/>
       </c>
       <c r="R221" s="25"/>
+      <c r="S221" s="25" t="str">
+        <f aca="true">IF(J221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="22"/>
@@ -7770,6 +8654,10 @@
         <v/>
       </c>
       <c r="R222" s="25"/>
+      <c r="S222" s="25" t="str">
+        <f aca="true">IF(J222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="22"/>
@@ -7780,6 +8668,10 @@
         <v/>
       </c>
       <c r="R223" s="25"/>
+      <c r="S223" s="25" t="str">
+        <f aca="true">IF(J223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="22"/>
@@ -7790,6 +8682,10 @@
         <v/>
       </c>
       <c r="R224" s="25"/>
+      <c r="S224" s="25" t="str">
+        <f aca="true">IF(J224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="22"/>
@@ -7800,6 +8696,10 @@
         <v/>
       </c>
       <c r="R225" s="25"/>
+      <c r="S225" s="25" t="str">
+        <f aca="true">IF(J225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="22"/>
@@ -7810,6 +8710,10 @@
         <v/>
       </c>
       <c r="R226" s="25"/>
+      <c r="S226" s="25" t="str">
+        <f aca="true">IF(J226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="22"/>
@@ -7820,6 +8724,10 @@
         <v/>
       </c>
       <c r="R227" s="25"/>
+      <c r="S227" s="25" t="str">
+        <f aca="true">IF(J227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="22"/>
@@ -7830,6 +8738,10 @@
         <v/>
       </c>
       <c r="R228" s="25"/>
+      <c r="S228" s="25" t="str">
+        <f aca="true">IF(J228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="22"/>
@@ -7840,6 +8752,10 @@
         <v/>
       </c>
       <c r="R229" s="25"/>
+      <c r="S229" s="25" t="str">
+        <f aca="true">IF(J229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
+        <v/>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="22"/>
@@ -7850,6 +8766,7 @@
         <v/>
       </c>
       <c r="R230" s="25"/>
+      <c r="S230" s="25"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="22"/>
@@ -7860,6 +8777,7 @@
         <v/>
       </c>
       <c r="R231" s="25"/>
+      <c r="S231" s="25"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="22"/>
@@ -7870,6 +8788,7 @@
         <v/>
       </c>
       <c r="R232" s="25"/>
+      <c r="S232" s="25"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="22"/>
@@ -7880,6 +8799,7 @@
         <v/>
       </c>
       <c r="R233" s="25"/>
+      <c r="S233" s="25"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="22"/>
@@ -7890,6 +8810,7 @@
         <v/>
       </c>
       <c r="R234" s="25"/>
+      <c r="S234" s="25"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="22"/>
@@ -7900,6 +8821,7 @@
         <v/>
       </c>
       <c r="R235" s="25"/>
+      <c r="S235" s="25"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="22"/>
@@ -7910,6 +8832,7 @@
         <v/>
       </c>
       <c r="R236" s="25"/>
+      <c r="S236" s="25"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="22"/>
@@ -7920,6 +8843,7 @@
         <v/>
       </c>
       <c r="R237" s="25"/>
+      <c r="S237" s="25"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="22"/>
@@ -7930,6 +8854,7 @@
         <v/>
       </c>
       <c r="R238" s="25"/>
+      <c r="S238" s="25"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="22"/>
@@ -7940,6 +8865,7 @@
         <v/>
       </c>
       <c r="R239" s="25"/>
+      <c r="S239" s="25"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="22"/>
@@ -7950,6 +8876,7 @@
         <v/>
       </c>
       <c r="R240" s="25"/>
+      <c r="S240" s="25"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="22"/>
@@ -7960,6 +8887,7 @@
         <v/>
       </c>
       <c r="R241" s="25"/>
+      <c r="S241" s="25"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="22"/>
@@ -7970,6 +8898,7 @@
         <v/>
       </c>
       <c r="R242" s="25"/>
+      <c r="S242" s="25"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="22"/>
@@ -7980,6 +8909,7 @@
         <v/>
       </c>
       <c r="R243" s="25"/>
+      <c r="S243" s="25"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="22"/>
@@ -7990,6 +8920,7 @@
         <v/>
       </c>
       <c r="R244" s="25"/>
+      <c r="S244" s="25"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="22"/>
@@ -8000,6 +8931,7 @@
         <v/>
       </c>
       <c r="R245" s="25"/>
+      <c r="S245" s="25"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="22"/>
@@ -8010,6 +8942,7 @@
         <v/>
       </c>
       <c r="R246" s="25"/>
+      <c r="S246" s="25"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="22"/>
@@ -8020,6 +8953,7 @@
         <v/>
       </c>
       <c r="R247" s="25"/>
+      <c r="S247" s="25"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="22"/>
@@ -8030,6 +8964,7 @@
         <v/>
       </c>
       <c r="R248" s="25"/>
+      <c r="S248" s="25"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="22"/>
@@ -8040,6 +8975,7 @@
         <v/>
       </c>
       <c r="R249" s="25"/>
+      <c r="S249" s="25"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="22"/>
@@ -8050,6 +8986,7 @@
         <v/>
       </c>
       <c r="R250" s="25"/>
+      <c r="S250" s="25"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="22"/>
@@ -8060,6 +8997,7 @@
         <v/>
       </c>
       <c r="R251" s="25"/>
+      <c r="S251" s="25"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="22"/>
@@ -8070,6 +9008,7 @@
         <v/>
       </c>
       <c r="R252" s="25"/>
+      <c r="S252" s="25"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="22"/>
@@ -8080,6 +9019,7 @@
         <v/>
       </c>
       <c r="R253" s="25"/>
+      <c r="S253" s="25"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="22"/>
@@ -8090,6 +9030,7 @@
         <v/>
       </c>
       <c r="R254" s="25"/>
+      <c r="S254" s="25"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="22"/>
@@ -8100,6 +9041,7 @@
         <v/>
       </c>
       <c r="R255" s="25"/>
+      <c r="S255" s="25"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="22"/>
@@ -8110,6 +9052,7 @@
         <v/>
       </c>
       <c r="R256" s="25"/>
+      <c r="S256" s="25"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="22"/>
@@ -8120,6 +9063,7 @@
         <v/>
       </c>
       <c r="R257" s="25"/>
+      <c r="S257" s="25"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="22"/>
@@ -8130,6 +9074,7 @@
         <v/>
       </c>
       <c r="R258" s="25"/>
+      <c r="S258" s="25"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="22"/>
@@ -8140,6 +9085,7 @@
         <v/>
       </c>
       <c r="R259" s="25"/>
+      <c r="S259" s="25"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="22"/>
@@ -8150,6 +9096,7 @@
         <v/>
       </c>
       <c r="R260" s="25"/>
+      <c r="S260" s="25"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="22"/>
@@ -8160,6 +9107,7 @@
         <v/>
       </c>
       <c r="R261" s="25"/>
+      <c r="S261" s="25"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="22"/>
@@ -8170,6 +9118,7 @@
         <v/>
       </c>
       <c r="R262" s="25"/>
+      <c r="S262" s="25"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="22"/>
@@ -8180,6 +9129,7 @@
         <v/>
       </c>
       <c r="R263" s="25"/>
+      <c r="S263" s="25"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="22"/>
@@ -8190,6 +9140,7 @@
         <v/>
       </c>
       <c r="R264" s="25"/>
+      <c r="S264" s="25"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="22"/>
@@ -8200,6 +9151,7 @@
         <v/>
       </c>
       <c r="R265" s="25"/>
+      <c r="S265" s="25"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="22"/>
@@ -8210,6 +9162,7 @@
         <v/>
       </c>
       <c r="R266" s="25"/>
+      <c r="S266" s="25"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="22"/>
@@ -8220,6 +9173,7 @@
         <v/>
       </c>
       <c r="R267" s="25"/>
+      <c r="S267" s="25"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="22"/>
@@ -8723,7 +9677,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -8735,6 +9689,7 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B123">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/app/data/templates/constructor_ricotta.xlsx
+++ b/app/data/templates/constructor_ricotta.xlsx
@@ -126,10 +126,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -271,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,8 +309,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -324,6 +333,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -333,6 +346,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,12 +381,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -649,7 +670,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="Q3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="Q28" activeCellId="0" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,9 +680,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="9" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="10" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="4"/>
@@ -669,8 +690,8 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.27"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="15" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="10" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="11" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17.02"/>
@@ -679,113 +700,113 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="Q1" s="15" t="s">
+      <c r="J1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="Q1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20" t="n">
+      <c r="N2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24" t="n">
         <f aca="false">SUMPRODUCT(H3:H122, R3:R122)</f>
         <v>0</v>
       </c>
-      <c r="V2" s="21" t="n">
+      <c r="V2" s="25" t="n">
         <f aca="false">T2-U2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="26" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C3" s="22" t="str">
+      <c r="C3" s="26" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D3" s="22" t="str">
+      <c r="D3" s="26" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="27" t="str">
         <f aca="false">IF(H3="", IF(J3="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N3)),IF(J3="", "", INDIRECT("N" &amp; ROW() - 1) - N3))</f>
         <v/>
       </c>
-      <c r="H3" s="24" t="str">
+      <c r="H3" s="28" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I3" s="24" t="str">
+      <c r="I3" s="28" t="str">
         <f aca="true">IF(J3 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -805,37 +826,37 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="25" t="str">
+      <c r="R3" s="29" t="str">
         <f aca="true">IF(Q3 = "", "", Q3 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S3" s="25" t="str">
+      <c r="S3" s="30" t="str">
         <f aca="true">IF(J3="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="26" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C4" s="22" t="str">
+      <c r="C4" s="26" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D4" s="22" t="str">
+      <c r="D4" s="26" t="str">
         <f aca="false">IF(E4="","",VLOOKUP(E4,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G4" s="23" t="str">
+      <c r="G4" s="27" t="str">
         <f aca="false">IF(H4="", IF(J4="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N4)),IF(J4="", "", INDIRECT("N" &amp; ROW() - 1) - N4))</f>
         <v/>
       </c>
-      <c r="H4" s="24" t="str">
+      <c r="H4" s="28" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I4" s="24" t="str">
+      <c r="I4" s="28" t="str">
         <f aca="true">IF(J4 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -855,37 +876,37 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="25" t="str">
+      <c r="R4" s="29" t="str">
         <f aca="true">IF(Q4 = "", "", Q4 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S4" s="25" t="str">
+      <c r="S4" s="30" t="str">
         <f aca="true">IF(J4="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="26" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C5" s="22" t="str">
+      <c r="C5" s="26" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D5" s="22" t="str">
+      <c r="D5" s="26" t="str">
         <f aca="false">IF(E5="","",VLOOKUP(E5,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G5" s="23" t="str">
+      <c r="G5" s="27" t="str">
         <f aca="false">IF(H5="", IF(J5="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N5)),IF(J5="", "", INDIRECT("N" &amp; ROW() - 1) - N5))</f>
         <v/>
       </c>
-      <c r="H5" s="24" t="str">
+      <c r="H5" s="28" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I5" s="24" t="str">
+      <c r="I5" s="28" t="str">
         <f aca="true">IF(J5 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -905,37 +926,37 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="25" t="str">
+      <c r="R5" s="29" t="str">
         <f aca="true">IF(Q5 = "", "", Q5 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S5" s="25" t="str">
+      <c r="S5" s="30" t="str">
         <f aca="true">IF(J5="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="26" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C6" s="22" t="str">
+      <c r="C6" s="26" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D6" s="22" t="str">
+      <c r="D6" s="26" t="str">
         <f aca="false">IF(E6="","",VLOOKUP(E6,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G6" s="23" t="str">
+      <c r="G6" s="27" t="str">
         <f aca="false">IF(H6="", IF(J6="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N6)),IF(J6="", "", INDIRECT("N" &amp; ROW() - 1) - N6))</f>
         <v/>
       </c>
-      <c r="H6" s="24" t="str">
+      <c r="H6" s="28" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I6" s="24" t="str">
+      <c r="I6" s="28" t="str">
         <f aca="true">IF(J6 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -955,37 +976,37 @@
         <f aca="true">IF(L6 = 0, INDIRECT("N" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="25" t="str">
+      <c r="R6" s="29" t="str">
         <f aca="true">IF(Q6 = "", "", Q6 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S6" s="25" t="str">
+      <c r="S6" s="30" t="str">
         <f aca="true">IF(J6="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="26" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C7" s="22" t="str">
+      <c r="C7" s="26" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="26" t="str">
         <f aca="false">IF(E7="","",VLOOKUP(E7,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G7" s="23" t="str">
+      <c r="G7" s="27" t="str">
         <f aca="false">IF(H7="", IF(J7="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N7)),IF(J7="", "", INDIRECT("N" &amp; ROW() - 1) - N7))</f>
         <v/>
       </c>
-      <c r="H7" s="24" t="str">
+      <c r="H7" s="28" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I7" s="24" t="str">
+      <c r="I7" s="28" t="str">
         <f aca="true">IF(J7 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1005,37 +1026,37 @@
         <f aca="true">IF(L7 = 0, INDIRECT("N" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="25" t="str">
+      <c r="R7" s="29" t="str">
         <f aca="true">IF(Q7 = "", "", Q7 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S7" s="25" t="str">
+      <c r="S7" s="30" t="str">
         <f aca="true">IF(J7="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="26" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C8" s="22" t="str">
+      <c r="C8" s="26" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="26" t="str">
         <f aca="false">IF(E8="","",VLOOKUP(E8,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="27" t="str">
         <f aca="false">IF(H8="", IF(J8="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N8)),IF(J8="", "", INDIRECT("N" &amp; ROW() - 1) - N8))</f>
         <v/>
       </c>
-      <c r="H8" s="24" t="str">
+      <c r="H8" s="28" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I8" s="24" t="str">
+      <c r="I8" s="28" t="str">
         <f aca="true">IF(J8 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1055,37 +1076,37 @@
         <f aca="true">IF(L8 = 0, INDIRECT("N" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="25" t="str">
+      <c r="R8" s="29" t="str">
         <f aca="true">IF(Q8 = "", "", Q8 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S8" s="25" t="str">
+      <c r="S8" s="30" t="str">
         <f aca="true">IF(J8="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="26" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="26" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="26" t="str">
         <f aca="false">IF(E9="","",VLOOKUP(E9,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="G9" s="27" t="str">
         <f aca="false">IF(H9="", IF(J9="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N9)),IF(J9="", "", INDIRECT("N" &amp; ROW() - 1) - N9))</f>
         <v/>
       </c>
-      <c r="H9" s="24" t="str">
+      <c r="H9" s="28" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I9" s="24" t="str">
+      <c r="I9" s="28" t="str">
         <f aca="true">IF(J9 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1105,37 +1126,37 @@
         <f aca="true">IF(L9 = 0, INDIRECT("N" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="25" t="str">
+      <c r="R9" s="29" t="str">
         <f aca="true">IF(Q9 = "", "", Q9 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S9" s="25" t="str">
+      <c r="S9" s="30" t="str">
         <f aca="true">IF(J9="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="22" t="str">
+      <c r="B10" s="26" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C10" s="22" t="str">
+      <c r="C10" s="26" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D10" s="22" t="str">
+      <c r="D10" s="26" t="str">
         <f aca="false">IF(E10="","",VLOOKUP(E10,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G10" s="23" t="str">
+      <c r="G10" s="27" t="str">
         <f aca="false">IF(H10="", IF(J10="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N10)),IF(J10="", "", INDIRECT("N" &amp; ROW() - 1) - N10))</f>
         <v/>
       </c>
-      <c r="H10" s="24" t="str">
+      <c r="H10" s="28" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I10" s="24" t="str">
+      <c r="I10" s="28" t="str">
         <f aca="true">IF(J10 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1155,37 +1176,37 @@
         <f aca="true">IF(L10 = 0, INDIRECT("N" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="25" t="str">
+      <c r="R10" s="29" t="str">
         <f aca="true">IF(Q10 = "", "", Q10 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S10" s="25" t="str">
+      <c r="S10" s="30" t="str">
         <f aca="true">IF(J10="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="22" t="str">
+      <c r="B11" s="26" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="26" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D11" s="22" t="str">
+      <c r="D11" s="26" t="str">
         <f aca="false">IF(E11="","",VLOOKUP(E11,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="G11" s="27" t="str">
         <f aca="false">IF(H11="", IF(J11="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N11)),IF(J11="", "", INDIRECT("N" &amp; ROW() - 1) - N11))</f>
         <v/>
       </c>
-      <c r="H11" s="24" t="str">
+      <c r="H11" s="28" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I11" s="24" t="str">
+      <c r="I11" s="28" t="str">
         <f aca="true">IF(J11 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1205,37 +1226,37 @@
         <f aca="true">IF(L11 = 0, INDIRECT("N" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="25" t="str">
+      <c r="R11" s="29" t="str">
         <f aca="true">IF(Q11 = "", "", Q11 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="S11" s="30" t="str">
         <f aca="true">IF(J11="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="22" t="str">
+      <c r="B12" s="26" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="26" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="26" t="str">
         <f aca="false">IF(E12="","",VLOOKUP(E12,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="27" t="str">
         <f aca="false">IF(H12="", IF(J12="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N12)),IF(J12="", "", INDIRECT("N" &amp; ROW() - 1) - N12))</f>
         <v/>
       </c>
-      <c r="H12" s="24" t="str">
+      <c r="H12" s="28" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I12" s="24" t="str">
+      <c r="I12" s="28" t="str">
         <f aca="true">IF(J12 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1255,37 +1276,37 @@
         <f aca="true">IF(L12 = 0, INDIRECT("N" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="25" t="str">
+      <c r="R12" s="29" t="str">
         <f aca="true">IF(Q12 = "", "", Q12 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="S12" s="30" t="str">
         <f aca="true">IF(J12="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="26" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="26" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="26" t="str">
         <f aca="false">IF(E13="","",VLOOKUP(E13,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="27" t="str">
         <f aca="false">IF(H13="", IF(J13="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N13)),IF(J13="", "", INDIRECT("N" &amp; ROW() - 1) - N13))</f>
         <v/>
       </c>
-      <c r="H13" s="24" t="str">
+      <c r="H13" s="28" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I13" s="24" t="str">
+      <c r="I13" s="28" t="str">
         <f aca="true">IF(J13 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1305,37 +1326,37 @@
         <f aca="true">IF(L13 = 0, INDIRECT("N" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="25" t="str">
+      <c r="R13" s="29" t="str">
         <f aca="true">IF(Q13 = "", "", Q13 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="S13" s="30" t="str">
         <f aca="true">IF(J13="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="26" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="26" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="26" t="str">
         <f aca="false">IF(E14="","",VLOOKUP(E14,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="27" t="str">
         <f aca="false">IF(H14="", IF(J14="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N14)),IF(J14="", "", INDIRECT("N" &amp; ROW() - 1) - N14))</f>
         <v/>
       </c>
-      <c r="H14" s="24" t="str">
+      <c r="H14" s="28" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I14" s="24" t="str">
+      <c r="I14" s="28" t="str">
         <f aca="true">IF(J14 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1355,37 +1376,37 @@
         <f aca="true">IF(L14 = 0, INDIRECT("N" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="25" t="str">
+      <c r="R14" s="29" t="str">
         <f aca="true">IF(Q14 = "", "", Q14 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S14" s="25" t="str">
+      <c r="S14" s="30" t="str">
         <f aca="true">IF(J14="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="22" t="str">
+      <c r="B15" s="26" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="26" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D15" s="22" t="str">
+      <c r="D15" s="26" t="str">
         <f aca="false">IF(E15="","",VLOOKUP(E15,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="27" t="str">
         <f aca="false">IF(H15="", IF(J15="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N15)),IF(J15="", "", INDIRECT("N" &amp; ROW() - 1) - N15))</f>
         <v/>
       </c>
-      <c r="H15" s="24" t="str">
+      <c r="H15" s="28" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I15" s="24" t="str">
+      <c r="I15" s="28" t="str">
         <f aca="true">IF(J15 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1405,37 +1426,37 @@
         <f aca="true">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="25" t="str">
+      <c r="R15" s="29" t="str">
         <f aca="true">IF(Q15 = "", "", Q15 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S15" s="25" t="str">
+      <c r="S15" s="30" t="str">
         <f aca="true">IF(J15="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="26" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C16" s="22" t="str">
+      <c r="C16" s="26" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D16" s="22" t="str">
+      <c r="D16" s="26" t="str">
         <f aca="false">IF(E16="","",VLOOKUP(E16,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G16" s="23" t="str">
+      <c r="G16" s="27" t="str">
         <f aca="false">IF(H16="", IF(J16="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N16)),IF(J16="", "", INDIRECT("N" &amp; ROW() - 1) - N16))</f>
         <v/>
       </c>
-      <c r="H16" s="24" t="str">
+      <c r="H16" s="28" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I16" s="24" t="str">
+      <c r="I16" s="28" t="str">
         <f aca="true">IF(J16 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1455,37 +1476,37 @@
         <f aca="true">IF(L16 = 0, INDIRECT("N" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="25" t="str">
+      <c r="R16" s="29" t="str">
         <f aca="true">IF(Q16 = "", "", Q16 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S16" s="25" t="str">
+      <c r="S16" s="30" t="str">
         <f aca="true">IF(J16="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="26" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="26" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="26" t="str">
         <f aca="false">IF(E17="","",VLOOKUP(E17,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G17" s="23" t="str">
+      <c r="G17" s="27" t="str">
         <f aca="false">IF(H17="", IF(J17="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N17)),IF(J17="", "", INDIRECT("N" &amp; ROW() - 1) - N17))</f>
         <v/>
       </c>
-      <c r="H17" s="24" t="str">
+      <c r="H17" s="28" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I17" s="24" t="str">
+      <c r="I17" s="28" t="str">
         <f aca="true">IF(J17 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1505,37 +1526,37 @@
         <f aca="true">IF(L17 = 0, INDIRECT("N" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="25" t="str">
+      <c r="R17" s="29" t="str">
         <f aca="true">IF(Q17 = "", "", Q17 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S17" s="25" t="str">
+      <c r="S17" s="30" t="str">
         <f aca="true">IF(J17="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="26" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="26" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="26" t="str">
         <f aca="false">IF(E18="","",VLOOKUP(E18,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G18" s="23" t="str">
+      <c r="G18" s="27" t="str">
         <f aca="false">IF(H18="", IF(J18="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N18)),IF(J18="", "", INDIRECT("N" &amp; ROW() - 1) - N18))</f>
         <v/>
       </c>
-      <c r="H18" s="24" t="str">
+      <c r="H18" s="28" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I18" s="24" t="str">
+      <c r="I18" s="28" t="str">
         <f aca="true">IF(J18 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1555,37 +1576,37 @@
         <f aca="true">IF(L18 = 0, INDIRECT("N" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="25" t="str">
+      <c r="R18" s="29" t="str">
         <f aca="true">IF(Q18 = "", "", Q18 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S18" s="25" t="str">
+      <c r="S18" s="30" t="str">
         <f aca="true">IF(J18="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="26" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="26" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D19" s="22" t="str">
+      <c r="D19" s="26" t="str">
         <f aca="false">IF(E19="","",VLOOKUP(E19,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G19" s="23" t="str">
+      <c r="G19" s="27" t="str">
         <f aca="false">IF(H19="", IF(J19="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N19)),IF(J19="", "", INDIRECT("N" &amp; ROW() - 1) - N19))</f>
         <v/>
       </c>
-      <c r="H19" s="24" t="str">
+      <c r="H19" s="28" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I19" s="24" t="str">
+      <c r="I19" s="28" t="str">
         <f aca="true">IF(J19 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1605,37 +1626,37 @@
         <f aca="true">IF(L19 = 0, INDIRECT("N" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="25" t="str">
+      <c r="R19" s="29" t="str">
         <f aca="true">IF(Q19 = "", "", Q19 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S19" s="25" t="str">
+      <c r="S19" s="30" t="str">
         <f aca="true">IF(J19="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="26" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C20" s="22" t="str">
+      <c r="C20" s="26" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D20" s="22" t="str">
+      <c r="D20" s="26" t="str">
         <f aca="false">IF(E20="","",VLOOKUP(E20,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G20" s="23" t="str">
+      <c r="G20" s="27" t="str">
         <f aca="false">IF(H20="", IF(J20="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N20)),IF(J20="", "", INDIRECT("N" &amp; ROW() - 1) - N20))</f>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
+      <c r="H20" s="28" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I20" s="24" t="str">
+      <c r="I20" s="28" t="str">
         <f aca="true">IF(J20 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1655,37 +1676,37 @@
         <f aca="true">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
-      <c r="R20" s="25" t="str">
+      <c r="R20" s="29" t="str">
         <f aca="true">IF(Q20 = "", "", Q20 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S20" s="25" t="str">
+      <c r="S20" s="30" t="str">
         <f aca="true">IF(J20="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="26" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C21" s="22" t="str">
+      <c r="C21" s="26" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D21" s="22" t="str">
+      <c r="D21" s="26" t="str">
         <f aca="false">IF(E21="","",VLOOKUP(E21,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G21" s="23" t="str">
+      <c r="G21" s="27" t="str">
         <f aca="false">IF(H21="", IF(J21="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N21)),IF(J21="", "", INDIRECT("N" &amp; ROW() - 1) - N21))</f>
         <v/>
       </c>
-      <c r="H21" s="24" t="str">
+      <c r="H21" s="28" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I21" s="24" t="str">
+      <c r="I21" s="28" t="str">
         <f aca="true">IF(J21 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1705,37 +1726,37 @@
         <f aca="true">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="25" t="str">
+      <c r="R21" s="29" t="str">
         <f aca="true">IF(Q21 = "", "", Q21 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S21" s="25" t="str">
+      <c r="S21" s="30" t="str">
         <f aca="true">IF(J21="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="26" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="26" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D22" s="22" t="str">
+      <c r="D22" s="26" t="str">
         <f aca="false">IF(E22="","",VLOOKUP(E22,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G22" s="23" t="str">
+      <c r="G22" s="27" t="str">
         <f aca="false">IF(H22="", IF(J22="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N22)),IF(J22="", "", INDIRECT("N" &amp; ROW() - 1) - N22))</f>
         <v/>
       </c>
-      <c r="H22" s="24" t="str">
+      <c r="H22" s="28" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I22" s="24" t="str">
+      <c r="I22" s="28" t="str">
         <f aca="true">IF(J22 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1755,37 +1776,37 @@
         <f aca="true">IF(L22 = 0, INDIRECT("N" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="25" t="str">
+      <c r="R22" s="29" t="str">
         <f aca="true">IF(Q22 = "", "", Q22 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S22" s="25" t="str">
+      <c r="S22" s="30" t="str">
         <f aca="true">IF(J22="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="26" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C23" s="22" t="str">
+      <c r="C23" s="26" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D23" s="22" t="str">
+      <c r="D23" s="26" t="str">
         <f aca="false">IF(E23="","",VLOOKUP(E23,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G23" s="23" t="str">
+      <c r="G23" s="27" t="str">
         <f aca="false">IF(H23="", IF(J23="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N23)),IF(J23="", "", INDIRECT("N" &amp; ROW() - 1) - N23))</f>
         <v/>
       </c>
-      <c r="H23" s="24" t="str">
+      <c r="H23" s="28" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I23" s="24" t="str">
+      <c r="I23" s="28" t="str">
         <f aca="true">IF(J23 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1805,37 +1826,37 @@
         <f aca="true">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="25" t="str">
+      <c r="R23" s="29" t="str">
         <f aca="true">IF(Q23 = "", "", Q23 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S23" s="25" t="str">
+      <c r="S23" s="30" t="str">
         <f aca="true">IF(J23="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="26" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="26" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="26" t="str">
         <f aca="false">IF(E24="","",VLOOKUP(E24,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G24" s="23" t="str">
+      <c r="G24" s="27" t="str">
         <f aca="false">IF(H24="", IF(J24="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N24)),IF(J24="", "", INDIRECT("N" &amp; ROW() - 1) - N24))</f>
         <v/>
       </c>
-      <c r="H24" s="24" t="str">
+      <c r="H24" s="28" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I24" s="24" t="str">
+      <c r="I24" s="28" t="str">
         <f aca="true">IF(J24 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1855,37 +1876,37 @@
         <f aca="true">IF(L24 = 0, INDIRECT("N" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="25" t="str">
+      <c r="R24" s="29" t="str">
         <f aca="true">IF(Q24 = "", "", Q24 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S24" s="25" t="str">
+      <c r="S24" s="30" t="str">
         <f aca="true">IF(J24="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="26" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C25" s="22" t="str">
+      <c r="C25" s="26" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D25" s="22" t="str">
+      <c r="D25" s="26" t="str">
         <f aca="false">IF(E25="","",VLOOKUP(E25,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G25" s="23" t="str">
+      <c r="G25" s="27" t="str">
         <f aca="false">IF(H25="", IF(J25="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N25)),IF(J25="", "", INDIRECT("N" &amp; ROW() - 1) - N25))</f>
         <v/>
       </c>
-      <c r="H25" s="24" t="str">
+      <c r="H25" s="28" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I25" s="24" t="str">
+      <c r="I25" s="28" t="str">
         <f aca="true">IF(J25 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1905,37 +1926,37 @@
         <f aca="true">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="25" t="str">
+      <c r="R25" s="29" t="str">
         <f aca="true">IF(Q25 = "", "", Q25 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S25" s="25" t="str">
+      <c r="S25" s="30" t="str">
         <f aca="true">IF(J25="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="26" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C26" s="22" t="str">
+      <c r="C26" s="26" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D26" s="22" t="str">
+      <c r="D26" s="26" t="str">
         <f aca="false">IF(E26="","",VLOOKUP(E26,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G26" s="23" t="str">
+      <c r="G26" s="27" t="str">
         <f aca="false">IF(H26="", IF(J26="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N26)),IF(J26="", "", INDIRECT("N" &amp; ROW() - 1) - N26))</f>
         <v/>
       </c>
-      <c r="H26" s="24" t="str">
+      <c r="H26" s="28" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I26" s="24" t="str">
+      <c r="I26" s="28" t="str">
         <f aca="true">IF(J26 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -1955,37 +1976,37 @@
         <f aca="true">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="25" t="str">
+      <c r="R26" s="29" t="str">
         <f aca="true">IF(Q26 = "", "", Q26 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S26" s="25" t="str">
+      <c r="S26" s="30" t="str">
         <f aca="true">IF(J26="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="26" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C27" s="22" t="str">
+      <c r="C27" s="26" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D27" s="22" t="str">
+      <c r="D27" s="26" t="str">
         <f aca="false">IF(E27="","",VLOOKUP(E27,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G27" s="23" t="str">
+      <c r="G27" s="27" t="str">
         <f aca="false">IF(H27="", IF(J27="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N27)),IF(J27="", "", INDIRECT("N" &amp; ROW() - 1) - N27))</f>
         <v/>
       </c>
-      <c r="H27" s="24" t="str">
+      <c r="H27" s="28" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I27" s="24" t="str">
+      <c r="I27" s="28" t="str">
         <f aca="true">IF(J27 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2005,37 +2026,37 @@
         <f aca="true">IF(L27 = 0, INDIRECT("N" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="25" t="str">
+      <c r="R27" s="29" t="str">
         <f aca="true">IF(Q27 = "", "", Q27 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S27" s="25" t="str">
+      <c r="S27" s="30" t="str">
         <f aca="true">IF(J27="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="26" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C28" s="22" t="str">
+      <c r="C28" s="26" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D28" s="22" t="str">
+      <c r="D28" s="26" t="str">
         <f aca="false">IF(E28="","",VLOOKUP(E28,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G28" s="23" t="str">
+      <c r="G28" s="27" t="str">
         <f aca="false">IF(H28="", IF(J28="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N28)),IF(J28="", "", INDIRECT("N" &amp; ROW() - 1) - N28))</f>
         <v/>
       </c>
-      <c r="H28" s="24" t="str">
+      <c r="H28" s="28" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I28" s="24" t="str">
+      <c r="I28" s="28" t="str">
         <f aca="true">IF(J28 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2055,37 +2076,37 @@
         <f aca="true">IF(L28 = 0, INDIRECT("N" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
-      <c r="R28" s="25" t="str">
+      <c r="R28" s="29" t="str">
         <f aca="true">IF(Q28 = "", "", Q28 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S28" s="25" t="str">
+      <c r="S28" s="30" t="str">
         <f aca="true">IF(J28="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="26" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C29" s="22" t="str">
+      <c r="C29" s="26" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D29" s="22" t="str">
+      <c r="D29" s="26" t="str">
         <f aca="false">IF(E29="","",VLOOKUP(E29,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G29" s="23" t="str">
+      <c r="G29" s="27" t="str">
         <f aca="false">IF(H29="", IF(J29="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N29)),IF(J29="", "", INDIRECT("N" &amp; ROW() - 1) - N29))</f>
         <v/>
       </c>
-      <c r="H29" s="24" t="str">
+      <c r="H29" s="28" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I29" s="24" t="str">
+      <c r="I29" s="28" t="str">
         <f aca="true">IF(J29 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2105,37 +2126,37 @@
         <f aca="true">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="25" t="str">
+      <c r="R29" s="29" t="str">
         <f aca="true">IF(Q29 = "", "", Q29 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S29" s="25" t="str">
+      <c r="S29" s="30" t="str">
         <f aca="true">IF(J29="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="26" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="26" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D30" s="22" t="str">
+      <c r="D30" s="26" t="str">
         <f aca="false">IF(E30="","",VLOOKUP(E30,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G30" s="23" t="str">
+      <c r="G30" s="27" t="str">
         <f aca="false">IF(H30="", IF(J30="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N30)),IF(J30="", "", INDIRECT("N" &amp; ROW() - 1) - N30))</f>
         <v/>
       </c>
-      <c r="H30" s="24" t="str">
+      <c r="H30" s="28" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I30" s="24" t="str">
+      <c r="I30" s="28" t="str">
         <f aca="true">IF(J30 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2155,37 +2176,37 @@
         <f aca="true">IF(L30 = 0, INDIRECT("N" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
-      <c r="R30" s="25" t="str">
+      <c r="R30" s="29" t="str">
         <f aca="true">IF(Q30 = "", "", Q30 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S30" s="25" t="str">
+      <c r="S30" s="30" t="str">
         <f aca="true">IF(J30="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="22" t="str">
+      <c r="B31" s="26" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C31" s="22" t="str">
+      <c r="C31" s="26" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D31" s="22" t="str">
+      <c r="D31" s="26" t="str">
         <f aca="false">IF(E31="","",VLOOKUP(E31,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="str">
+      <c r="G31" s="27" t="str">
         <f aca="false">IF(H31="", IF(J31="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N31)),IF(J31="", "", INDIRECT("N" &amp; ROW() - 1) - N31))</f>
         <v/>
       </c>
-      <c r="H31" s="24" t="str">
+      <c r="H31" s="28" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I31" s="24" t="str">
+      <c r="I31" s="28" t="str">
         <f aca="true">IF(J31 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2205,37 +2226,37 @@
         <f aca="true">IF(L31 = 0, INDIRECT("N" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="25" t="str">
+      <c r="R31" s="29" t="str">
         <f aca="true">IF(Q31 = "", "", Q31 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S31" s="25" t="str">
+      <c r="S31" s="30" t="str">
         <f aca="true">IF(J31="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="str">
+      <c r="B32" s="26" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C32" s="22" t="str">
+      <c r="C32" s="26" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D32" s="22" t="str">
+      <c r="D32" s="26" t="str">
         <f aca="false">IF(E32="","",VLOOKUP(E32,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G32" s="23" t="str">
+      <c r="G32" s="27" t="str">
         <f aca="false">IF(H32="", IF(J32="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N32)),IF(J32="", "", INDIRECT("N" &amp; ROW() - 1) - N32))</f>
         <v/>
       </c>
-      <c r="H32" s="24" t="str">
+      <c r="H32" s="28" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I32" s="24" t="str">
+      <c r="I32" s="28" t="str">
         <f aca="true">IF(J32 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2255,37 +2276,37 @@
         <f aca="true">IF(L32 = 0, INDIRECT("N" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
-      <c r="R32" s="25" t="str">
+      <c r="R32" s="29" t="str">
         <f aca="true">IF(Q32 = "", "", Q32 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S32" s="25" t="str">
+      <c r="S32" s="30" t="str">
         <f aca="true">IF(J32="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="str">
+      <c r="B33" s="26" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C33" s="22" t="str">
+      <c r="C33" s="26" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D33" s="22" t="str">
+      <c r="D33" s="26" t="str">
         <f aca="false">IF(E33="","",VLOOKUP(E33,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G33" s="23" t="str">
+      <c r="G33" s="27" t="str">
         <f aca="false">IF(H33="", IF(J33="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N33)),IF(J33="", "", INDIRECT("N" &amp; ROW() - 1) - N33))</f>
         <v/>
       </c>
-      <c r="H33" s="24" t="str">
+      <c r="H33" s="28" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I33" s="24" t="str">
+      <c r="I33" s="28" t="str">
         <f aca="true">IF(J33 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2305,37 +2326,37 @@
         <f aca="true">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="25" t="str">
+      <c r="R33" s="29" t="str">
         <f aca="true">IF(Q33 = "", "", Q33 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S33" s="25" t="str">
+      <c r="S33" s="30" t="str">
         <f aca="true">IF(J33="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="22" t="str">
+      <c r="B34" s="26" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C34" s="22" t="str">
+      <c r="C34" s="26" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D34" s="22" t="str">
+      <c r="D34" s="26" t="str">
         <f aca="false">IF(E34="","",VLOOKUP(E34,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G34" s="23" t="str">
+      <c r="G34" s="27" t="str">
         <f aca="false">IF(H34="", IF(J34="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N34)),IF(J34="", "", INDIRECT("N" &amp; ROW() - 1) - N34))</f>
         <v/>
       </c>
-      <c r="H34" s="24" t="str">
+      <c r="H34" s="28" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I34" s="24" t="str">
+      <c r="I34" s="28" t="str">
         <f aca="true">IF(J34 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2355,37 +2376,37 @@
         <f aca="true">IF(L34 = 0, INDIRECT("N" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="25" t="str">
+      <c r="R34" s="29" t="str">
         <f aca="true">IF(Q34 = "", "", Q34 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S34" s="25" t="str">
+      <c r="S34" s="30" t="str">
         <f aca="true">IF(J34="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="22" t="str">
+      <c r="B35" s="26" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C35" s="22" t="str">
+      <c r="C35" s="26" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D35" s="22" t="str">
+      <c r="D35" s="26" t="str">
         <f aca="false">IF(E35="","",VLOOKUP(E35,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G35" s="23" t="str">
+      <c r="G35" s="27" t="str">
         <f aca="false">IF(H35="", IF(J35="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N35)),IF(J35="", "", INDIRECT("N" &amp; ROW() - 1) - N35))</f>
         <v/>
       </c>
-      <c r="H35" s="24" t="str">
+      <c r="H35" s="28" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I35" s="24" t="str">
+      <c r="I35" s="28" t="str">
         <f aca="true">IF(J35 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2405,37 +2426,37 @@
         <f aca="true">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
-      <c r="R35" s="25" t="str">
+      <c r="R35" s="29" t="str">
         <f aca="true">IF(Q35 = "", "", Q35 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S35" s="25" t="str">
+      <c r="S35" s="30" t="str">
         <f aca="true">IF(J35="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="22" t="str">
+      <c r="B36" s="26" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C36" s="22" t="str">
+      <c r="C36" s="26" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D36" s="22" t="str">
+      <c r="D36" s="26" t="str">
         <f aca="false">IF(E36="","",VLOOKUP(E36,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G36" s="23" t="str">
+      <c r="G36" s="27" t="str">
         <f aca="false">IF(H36="", IF(J36="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N36)),IF(J36="", "", INDIRECT("N" &amp; ROW() - 1) - N36))</f>
         <v/>
       </c>
-      <c r="H36" s="24" t="str">
+      <c r="H36" s="28" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I36" s="24" t="str">
+      <c r="I36" s="28" t="str">
         <f aca="true">IF(J36 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2455,37 +2476,37 @@
         <f aca="true">IF(L36 = 0, INDIRECT("N" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="25" t="str">
+      <c r="R36" s="29" t="str">
         <f aca="true">IF(Q36 = "", "", Q36 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S36" s="25" t="str">
+      <c r="S36" s="30" t="str">
         <f aca="true">IF(J36="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="22" t="str">
+      <c r="B37" s="26" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C37" s="22" t="str">
+      <c r="C37" s="26" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D37" s="22" t="str">
+      <c r="D37" s="26" t="str">
         <f aca="false">IF(E37="","",VLOOKUP(E37,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G37" s="23" t="str">
+      <c r="G37" s="27" t="str">
         <f aca="false">IF(H37="", IF(J37="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N37)),IF(J37="", "", INDIRECT("N" &amp; ROW() - 1) - N37))</f>
         <v/>
       </c>
-      <c r="H37" s="24" t="str">
+      <c r="H37" s="28" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I37" s="24" t="str">
+      <c r="I37" s="28" t="str">
         <f aca="true">IF(J37 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2505,37 +2526,37 @@
         <f aca="true">IF(L37 = 0, INDIRECT("N" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="25" t="str">
+      <c r="R37" s="29" t="str">
         <f aca="true">IF(Q37 = "", "", Q37 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S37" s="25" t="str">
+      <c r="S37" s="30" t="str">
         <f aca="true">IF(J37="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="22" t="str">
+      <c r="B38" s="26" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C38" s="22" t="str">
+      <c r="C38" s="26" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D38" s="22" t="str">
+      <c r="D38" s="26" t="str">
         <f aca="false">IF(E38="","",VLOOKUP(E38,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G38" s="23" t="str">
+      <c r="G38" s="27" t="str">
         <f aca="false">IF(H38="", IF(J38="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N38)),IF(J38="", "", INDIRECT("N" &amp; ROW() - 1) - N38))</f>
         <v/>
       </c>
-      <c r="H38" s="24" t="str">
+      <c r="H38" s="28" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I38" s="24" t="str">
+      <c r="I38" s="28" t="str">
         <f aca="true">IF(J38 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2555,37 +2576,37 @@
         <f aca="true">IF(L38 = 0, INDIRECT("N" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="25" t="str">
+      <c r="R38" s="29" t="str">
         <f aca="true">IF(Q38 = "", "", Q38 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S38" s="25" t="str">
+      <c r="S38" s="30" t="str">
         <f aca="true">IF(J38="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="26" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C39" s="22" t="str">
+      <c r="C39" s="26" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D39" s="22" t="str">
+      <c r="D39" s="26" t="str">
         <f aca="false">IF(E39="","",VLOOKUP(E39,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G39" s="23" t="str">
+      <c r="G39" s="27" t="str">
         <f aca="false">IF(H39="", IF(J39="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N39)),IF(J39="", "", INDIRECT("N" &amp; ROW() - 1) - N39))</f>
         <v/>
       </c>
-      <c r="H39" s="24" t="str">
+      <c r="H39" s="28" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I39" s="24" t="str">
+      <c r="I39" s="28" t="str">
         <f aca="true">IF(J39 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2605,37 +2626,37 @@
         <f aca="true">IF(L39 = 0, INDIRECT("N" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="25" t="str">
+      <c r="R39" s="29" t="str">
         <f aca="true">IF(Q39 = "", "", Q39 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S39" s="25" t="str">
+      <c r="S39" s="30" t="str">
         <f aca="true">IF(J39="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="22" t="str">
+      <c r="B40" s="26" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C40" s="22" t="str">
+      <c r="C40" s="26" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D40" s="22" t="str">
+      <c r="D40" s="26" t="str">
         <f aca="false">IF(E40="","",VLOOKUP(E40,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G40" s="23" t="str">
+      <c r="G40" s="27" t="str">
         <f aca="false">IF(H40="", IF(J40="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N40)),IF(J40="", "", INDIRECT("N" &amp; ROW() - 1) - N40))</f>
         <v/>
       </c>
-      <c r="H40" s="24" t="str">
+      <c r="H40" s="28" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I40" s="24" t="str">
+      <c r="I40" s="28" t="str">
         <f aca="true">IF(J40 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2655,37 +2676,37 @@
         <f aca="true">IF(L40 = 0, INDIRECT("N" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="25" t="str">
+      <c r="R40" s="29" t="str">
         <f aca="true">IF(Q40 = "", "", Q40 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S40" s="25" t="str">
+      <c r="S40" s="30" t="str">
         <f aca="true">IF(J40="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="22" t="str">
+      <c r="B41" s="26" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C41" s="22" t="str">
+      <c r="C41" s="26" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D41" s="22" t="str">
+      <c r="D41" s="26" t="str">
         <f aca="false">IF(E41="","",VLOOKUP(E41,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G41" s="23" t="str">
+      <c r="G41" s="27" t="str">
         <f aca="false">IF(H41="", IF(J41="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N41)),IF(J41="", "", INDIRECT("N" &amp; ROW() - 1) - N41))</f>
         <v/>
       </c>
-      <c r="H41" s="24" t="str">
+      <c r="H41" s="28" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I41" s="24" t="str">
+      <c r="I41" s="28" t="str">
         <f aca="true">IF(J41 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2705,37 +2726,37 @@
         <f aca="true">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
-      <c r="R41" s="25" t="str">
+      <c r="R41" s="29" t="str">
         <f aca="true">IF(Q41 = "", "", Q41 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S41" s="25" t="str">
+      <c r="S41" s="30" t="str">
         <f aca="true">IF(J41="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="22" t="str">
+      <c r="B42" s="26" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C42" s="22" t="str">
+      <c r="C42" s="26" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D42" s="22" t="str">
+      <c r="D42" s="26" t="str">
         <f aca="false">IF(E42="","",VLOOKUP(E42,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G42" s="23" t="str">
+      <c r="G42" s="27" t="str">
         <f aca="false">IF(H42="", IF(J42="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N42)),IF(J42="", "", INDIRECT("N" &amp; ROW() - 1) - N42))</f>
         <v/>
       </c>
-      <c r="H42" s="24" t="str">
+      <c r="H42" s="28" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I42" s="24" t="str">
+      <c r="I42" s="28" t="str">
         <f aca="true">IF(J42 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2755,37 +2776,37 @@
         <f aca="true">IF(L42 = 0, INDIRECT("N" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
-      <c r="R42" s="25" t="str">
+      <c r="R42" s="29" t="str">
         <f aca="true">IF(Q42 = "", "", Q42 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S42" s="25" t="str">
+      <c r="S42" s="30" t="str">
         <f aca="true">IF(J42="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="22" t="str">
+      <c r="B43" s="26" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C43" s="22" t="str">
+      <c r="C43" s="26" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D43" s="22" t="str">
+      <c r="D43" s="26" t="str">
         <f aca="false">IF(E43="","",VLOOKUP(E43,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G43" s="23" t="str">
+      <c r="G43" s="27" t="str">
         <f aca="false">IF(H43="", IF(J43="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N43)),IF(J43="", "", INDIRECT("N" &amp; ROW() - 1) - N43))</f>
         <v/>
       </c>
-      <c r="H43" s="24" t="str">
+      <c r="H43" s="28" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I43" s="24" t="str">
+      <c r="I43" s="28" t="str">
         <f aca="true">IF(J43 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2805,37 +2826,37 @@
         <f aca="true">IF(L43 = 0, INDIRECT("N" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="25" t="str">
+      <c r="R43" s="29" t="str">
         <f aca="true">IF(Q43 = "", "", Q43 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S43" s="25" t="str">
+      <c r="S43" s="30" t="str">
         <f aca="true">IF(J43="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="22" t="str">
+      <c r="B44" s="26" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C44" s="22" t="str">
+      <c r="C44" s="26" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D44" s="22" t="str">
+      <c r="D44" s="26" t="str">
         <f aca="false">IF(E44="","",VLOOKUP(E44,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G44" s="23" t="str">
+      <c r="G44" s="27" t="str">
         <f aca="false">IF(H44="", IF(J44="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N44)),IF(J44="", "", INDIRECT("N" &amp; ROW() - 1) - N44))</f>
         <v/>
       </c>
-      <c r="H44" s="24" t="str">
+      <c r="H44" s="28" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I44" s="24" t="str">
+      <c r="I44" s="28" t="str">
         <f aca="true">IF(J44 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2855,37 +2876,37 @@
         <f aca="true">IF(L44 = 0, INDIRECT("N" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="25" t="str">
+      <c r="R44" s="29" t="str">
         <f aca="true">IF(Q44 = "", "", Q44 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S44" s="25" t="str">
+      <c r="S44" s="30" t="str">
         <f aca="true">IF(J44="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="22" t="str">
+      <c r="B45" s="26" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C45" s="22" t="str">
+      <c r="C45" s="26" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D45" s="22" t="str">
+      <c r="D45" s="26" t="str">
         <f aca="false">IF(E45="","",VLOOKUP(E45,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G45" s="23" t="str">
+      <c r="G45" s="27" t="str">
         <f aca="false">IF(H45="", IF(J45="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N45)),IF(J45="", "", INDIRECT("N" &amp; ROW() - 1) - N45))</f>
         <v/>
       </c>
-      <c r="H45" s="24" t="str">
+      <c r="H45" s="28" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I45" s="24" t="str">
+      <c r="I45" s="28" t="str">
         <f aca="true">IF(J45 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2905,37 +2926,37 @@
         <f aca="true">IF(L45 = 0, INDIRECT("N" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
-      <c r="R45" s="25" t="str">
+      <c r="R45" s="29" t="str">
         <f aca="true">IF(Q45 = "", "", Q45 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S45" s="25" t="str">
+      <c r="S45" s="30" t="str">
         <f aca="true">IF(J45="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="22" t="str">
+      <c r="B46" s="26" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C46" s="22" t="str">
+      <c r="C46" s="26" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D46" s="22" t="str">
+      <c r="D46" s="26" t="str">
         <f aca="false">IF(E46="","",VLOOKUP(E46,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G46" s="23" t="str">
+      <c r="G46" s="27" t="str">
         <f aca="false">IF(H46="", IF(J46="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N46)),IF(J46="", "", INDIRECT("N" &amp; ROW() - 1) - N46))</f>
         <v/>
       </c>
-      <c r="H46" s="24" t="str">
+      <c r="H46" s="28" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I46" s="24" t="str">
+      <c r="I46" s="28" t="str">
         <f aca="true">IF(J46 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -2955,37 +2976,37 @@
         <f aca="true">IF(L46 = 0, INDIRECT("N" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
-      <c r="R46" s="25" t="str">
+      <c r="R46" s="29" t="str">
         <f aca="true">IF(Q46 = "", "", Q46 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S46" s="25" t="str">
+      <c r="S46" s="30" t="str">
         <f aca="true">IF(J46="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="22" t="str">
+      <c r="B47" s="26" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C47" s="22" t="str">
+      <c r="C47" s="26" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D47" s="22" t="str">
+      <c r="D47" s="26" t="str">
         <f aca="false">IF(E47="","",VLOOKUP(E47,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G47" s="23" t="str">
+      <c r="G47" s="27" t="str">
         <f aca="false">IF(H47="", IF(J47="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N47)),IF(J47="", "", INDIRECT("N" &amp; ROW() - 1) - N47))</f>
         <v/>
       </c>
-      <c r="H47" s="24" t="str">
+      <c r="H47" s="28" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I47" s="24" t="str">
+      <c r="I47" s="28" t="str">
         <f aca="true">IF(J47 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3005,37 +3026,37 @@
         <f aca="true">IF(L47 = 0, INDIRECT("N" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="25" t="str">
+      <c r="R47" s="29" t="str">
         <f aca="true">IF(Q47 = "", "", Q47 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S47" s="25" t="str">
+      <c r="S47" s="30" t="str">
         <f aca="true">IF(J47="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="22" t="str">
+      <c r="B48" s="26" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C48" s="22" t="str">
+      <c r="C48" s="26" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D48" s="22" t="str">
+      <c r="D48" s="26" t="str">
         <f aca="false">IF(E48="","",VLOOKUP(E48,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G48" s="23" t="str">
+      <c r="G48" s="27" t="str">
         <f aca="false">IF(H48="", IF(J48="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N48)),IF(J48="", "", INDIRECT("N" &amp; ROW() - 1) - N48))</f>
         <v/>
       </c>
-      <c r="H48" s="24" t="str">
+      <c r="H48" s="28" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I48" s="24" t="str">
+      <c r="I48" s="28" t="str">
         <f aca="true">IF(J48 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3055,37 +3076,37 @@
         <f aca="true">IF(L48 = 0, INDIRECT("N" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="25" t="str">
+      <c r="R48" s="29" t="str">
         <f aca="true">IF(Q48 = "", "", Q48 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S48" s="25" t="str">
+      <c r="S48" s="30" t="str">
         <f aca="true">IF(J48="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="22" t="str">
+      <c r="B49" s="26" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C49" s="22" t="str">
+      <c r="C49" s="26" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D49" s="22" t="str">
+      <c r="D49" s="26" t="str">
         <f aca="false">IF(E49="","",VLOOKUP(E49,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G49" s="23" t="str">
+      <c r="G49" s="27" t="str">
         <f aca="false">IF(H49="", IF(J49="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N49)),IF(J49="", "", INDIRECT("N" &amp; ROW() - 1) - N49))</f>
         <v/>
       </c>
-      <c r="H49" s="24" t="str">
+      <c r="H49" s="28" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I49" s="24" t="str">
+      <c r="I49" s="28" t="str">
         <f aca="true">IF(J49 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3105,37 +3126,37 @@
         <f aca="true">IF(L49 = 0, INDIRECT("N" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="25" t="str">
+      <c r="R49" s="29" t="str">
         <f aca="true">IF(Q49 = "", "", Q49 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S49" s="25" t="str">
+      <c r="S49" s="30" t="str">
         <f aca="true">IF(J49="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="22" t="str">
+      <c r="B50" s="26" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C50" s="22" t="str">
+      <c r="C50" s="26" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D50" s="22" t="str">
+      <c r="D50" s="26" t="str">
         <f aca="false">IF(E50="","",VLOOKUP(E50,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G50" s="23" t="str">
+      <c r="G50" s="27" t="str">
         <f aca="false">IF(H50="", IF(J50="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N50)),IF(J50="", "", INDIRECT("N" &amp; ROW() - 1) - N50))</f>
         <v/>
       </c>
-      <c r="H50" s="24" t="str">
+      <c r="H50" s="28" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I50" s="24" t="str">
+      <c r="I50" s="28" t="str">
         <f aca="true">IF(J50 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3155,37 +3176,37 @@
         <f aca="true">IF(L50 = 0, INDIRECT("N" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="25" t="str">
+      <c r="R50" s="29" t="str">
         <f aca="true">IF(Q50 = "", "", Q50 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S50" s="25" t="str">
+      <c r="S50" s="30" t="str">
         <f aca="true">IF(J50="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="22" t="str">
+      <c r="B51" s="26" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C51" s="22" t="str">
+      <c r="C51" s="26" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D51" s="22" t="str">
+      <c r="D51" s="26" t="str">
         <f aca="false">IF(E51="","",VLOOKUP(E51,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G51" s="23" t="str">
+      <c r="G51" s="27" t="str">
         <f aca="false">IF(H51="", IF(J51="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N51)),IF(J51="", "", INDIRECT("N" &amp; ROW() - 1) - N51))</f>
         <v/>
       </c>
-      <c r="H51" s="24" t="str">
+      <c r="H51" s="28" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I51" s="24" t="str">
+      <c r="I51" s="28" t="str">
         <f aca="true">IF(J51 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3205,37 +3226,37 @@
         <f aca="true">IF(L51 = 0, INDIRECT("N" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="25" t="str">
+      <c r="R51" s="29" t="str">
         <f aca="true">IF(Q51 = "", "", Q51 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S51" s="25" t="str">
+      <c r="S51" s="30" t="str">
         <f aca="true">IF(J51="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="22" t="str">
+      <c r="B52" s="26" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C52" s="22" t="str">
+      <c r="C52" s="26" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D52" s="22" t="str">
+      <c r="D52" s="26" t="str">
         <f aca="false">IF(E52="","",VLOOKUP(E52,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G52" s="23" t="str">
+      <c r="G52" s="27" t="str">
         <f aca="false">IF(H52="", IF(J52="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N52)),IF(J52="", "", INDIRECT("N" &amp; ROW() - 1) - N52))</f>
         <v/>
       </c>
-      <c r="H52" s="24" t="str">
+      <c r="H52" s="28" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I52" s="24" t="str">
+      <c r="I52" s="28" t="str">
         <f aca="true">IF(J52 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3255,37 +3276,37 @@
         <f aca="true">IF(L52 = 0, INDIRECT("N" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
-      <c r="R52" s="25" t="str">
+      <c r="R52" s="29" t="str">
         <f aca="true">IF(Q52 = "", "", Q52 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S52" s="25" t="str">
+      <c r="S52" s="30" t="str">
         <f aca="true">IF(J52="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="22" t="str">
+      <c r="B53" s="26" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C53" s="22" t="str">
+      <c r="C53" s="26" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D53" s="22" t="str">
+      <c r="D53" s="26" t="str">
         <f aca="false">IF(E53="","",VLOOKUP(E53,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G53" s="23" t="str">
+      <c r="G53" s="27" t="str">
         <f aca="false">IF(H53="", IF(J53="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N53)),IF(J53="", "", INDIRECT("N" &amp; ROW() - 1) - N53))</f>
         <v/>
       </c>
-      <c r="H53" s="24" t="str">
+      <c r="H53" s="28" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I53" s="24" t="str">
+      <c r="I53" s="28" t="str">
         <f aca="true">IF(J53 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3305,37 +3326,37 @@
         <f aca="true">IF(L53 = 0, INDIRECT("N" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
-      <c r="R53" s="25" t="str">
+      <c r="R53" s="29" t="str">
         <f aca="true">IF(Q53 = "", "", Q53 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S53" s="25" t="str">
+      <c r="S53" s="30" t="str">
         <f aca="true">IF(J53="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="22" t="str">
+      <c r="B54" s="26" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C54" s="22" t="str">
+      <c r="C54" s="26" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D54" s="22" t="str">
+      <c r="D54" s="26" t="str">
         <f aca="false">IF(E54="","",VLOOKUP(E54,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G54" s="23" t="str">
+      <c r="G54" s="27" t="str">
         <f aca="false">IF(H54="", IF(J54="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N54)),IF(J54="", "", INDIRECT("N" &amp; ROW() - 1) - N54))</f>
         <v/>
       </c>
-      <c r="H54" s="24" t="str">
+      <c r="H54" s="28" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I54" s="24" t="str">
+      <c r="I54" s="28" t="str">
         <f aca="true">IF(J54 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3355,37 +3376,37 @@
         <f aca="true">IF(L54 = 0, INDIRECT("N" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
-      <c r="R54" s="25" t="str">
+      <c r="R54" s="29" t="str">
         <f aca="true">IF(Q54 = "", "", Q54 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S54" s="25" t="str">
+      <c r="S54" s="30" t="str">
         <f aca="true">IF(J54="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="22" t="str">
+      <c r="B55" s="26" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C55" s="22" t="str">
+      <c r="C55" s="26" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D55" s="22" t="str">
+      <c r="D55" s="26" t="str">
         <f aca="false">IF(E55="","",VLOOKUP(E55,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G55" s="23" t="str">
+      <c r="G55" s="27" t="str">
         <f aca="false">IF(H55="", IF(J55="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N55)),IF(J55="", "", INDIRECT("N" &amp; ROW() - 1) - N55))</f>
         <v/>
       </c>
-      <c r="H55" s="24" t="str">
+      <c r="H55" s="28" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I55" s="24" t="str">
+      <c r="I55" s="28" t="str">
         <f aca="true">IF(J55 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3405,37 +3426,37 @@
         <f aca="true">IF(L55 = 0, INDIRECT("N" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="25" t="str">
+      <c r="R55" s="29" t="str">
         <f aca="true">IF(Q55 = "", "", Q55 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S55" s="25" t="str">
+      <c r="S55" s="30" t="str">
         <f aca="true">IF(J55="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="22" t="str">
+      <c r="B56" s="26" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C56" s="22" t="str">
+      <c r="C56" s="26" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D56" s="22" t="str">
+      <c r="D56" s="26" t="str">
         <f aca="false">IF(E56="","",VLOOKUP(E56,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G56" s="23" t="str">
+      <c r="G56" s="27" t="str">
         <f aca="false">IF(H56="", IF(J56="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N56)),IF(J56="", "", INDIRECT("N" &amp; ROW() - 1) - N56))</f>
         <v/>
       </c>
-      <c r="H56" s="24" t="str">
+      <c r="H56" s="28" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I56" s="24" t="str">
+      <c r="I56" s="28" t="str">
         <f aca="true">IF(J56 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3455,37 +3476,37 @@
         <f aca="true">IF(L56 = 0, INDIRECT("N" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
-      <c r="R56" s="25" t="str">
+      <c r="R56" s="29" t="str">
         <f aca="true">IF(Q56 = "", "", Q56 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S56" s="25" t="str">
+      <c r="S56" s="30" t="str">
         <f aca="true">IF(J56="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="22" t="str">
+      <c r="B57" s="26" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C57" s="22" t="str">
+      <c r="C57" s="26" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D57" s="22" t="str">
+      <c r="D57" s="26" t="str">
         <f aca="false">IF(E57="","",VLOOKUP(E57,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G57" s="23" t="str">
+      <c r="G57" s="27" t="str">
         <f aca="false">IF(H57="", IF(J57="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N57)),IF(J57="", "", INDIRECT("N" &amp; ROW() - 1) - N57))</f>
         <v/>
       </c>
-      <c r="H57" s="24" t="str">
+      <c r="H57" s="28" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I57" s="24" t="str">
+      <c r="I57" s="28" t="str">
         <f aca="true">IF(J57 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3505,37 +3526,37 @@
         <f aca="true">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
-      <c r="R57" s="25" t="str">
+      <c r="R57" s="29" t="str">
         <f aca="true">IF(Q57 = "", "", Q57 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S57" s="25" t="str">
+      <c r="S57" s="30" t="str">
         <f aca="true">IF(J57="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="22" t="str">
+      <c r="B58" s="26" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C58" s="22" t="str">
+      <c r="C58" s="26" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D58" s="22" t="str">
+      <c r="D58" s="26" t="str">
         <f aca="false">IF(E58="","",VLOOKUP(E58,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G58" s="23" t="str">
+      <c r="G58" s="27" t="str">
         <f aca="false">IF(H58="", IF(J58="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N58)),IF(J58="", "", INDIRECT("N" &amp; ROW() - 1) - N58))</f>
         <v/>
       </c>
-      <c r="H58" s="24" t="str">
+      <c r="H58" s="28" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I58" s="24" t="str">
+      <c r="I58" s="28" t="str">
         <f aca="true">IF(J58 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3555,37 +3576,37 @@
         <f aca="true">IF(L58 = 0, INDIRECT("N" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
-      <c r="R58" s="25" t="str">
+      <c r="R58" s="29" t="str">
         <f aca="true">IF(Q58 = "", "", Q58 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S58" s="25" t="str">
+      <c r="S58" s="30" t="str">
         <f aca="true">IF(J58="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="22" t="str">
+      <c r="B59" s="26" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C59" s="22" t="str">
+      <c r="C59" s="26" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D59" s="22" t="str">
+      <c r="D59" s="26" t="str">
         <f aca="false">IF(E59="","",VLOOKUP(E59,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G59" s="23" t="str">
+      <c r="G59" s="27" t="str">
         <f aca="false">IF(H59="", IF(J59="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N59)),IF(J59="", "", INDIRECT("N" &amp; ROW() - 1) - N59))</f>
         <v/>
       </c>
-      <c r="H59" s="24" t="str">
+      <c r="H59" s="28" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I59" s="24" t="str">
+      <c r="I59" s="28" t="str">
         <f aca="true">IF(J59 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3605,37 +3626,37 @@
         <f aca="true">IF(L59 = 0, INDIRECT("N" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
-      <c r="R59" s="25" t="str">
+      <c r="R59" s="29" t="str">
         <f aca="true">IF(Q59 = "", "", Q59 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S59" s="25" t="str">
+      <c r="S59" s="30" t="str">
         <f aca="true">IF(J59="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="22" t="str">
+      <c r="B60" s="26" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C60" s="22" t="str">
+      <c r="C60" s="26" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D60" s="22" t="str">
+      <c r="D60" s="26" t="str">
         <f aca="false">IF(E60="","",VLOOKUP(E60,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G60" s="23" t="str">
+      <c r="G60" s="27" t="str">
         <f aca="false">IF(H60="", IF(J60="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N60)),IF(J60="", "", INDIRECT("N" &amp; ROW() - 1) - N60))</f>
         <v/>
       </c>
-      <c r="H60" s="24" t="str">
+      <c r="H60" s="28" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I60" s="24" t="str">
+      <c r="I60" s="28" t="str">
         <f aca="true">IF(J60 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3655,37 +3676,37 @@
         <f aca="true">IF(L60 = 0, INDIRECT("N" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="25" t="str">
+      <c r="R60" s="29" t="str">
         <f aca="true">IF(Q60 = "", "", Q60 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S60" s="25" t="str">
+      <c r="S60" s="30" t="str">
         <f aca="true">IF(J60="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="22" t="str">
+      <c r="B61" s="26" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C61" s="22" t="str">
+      <c r="C61" s="26" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D61" s="22" t="str">
+      <c r="D61" s="26" t="str">
         <f aca="false">IF(E61="","",VLOOKUP(E61,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G61" s="23" t="str">
+      <c r="G61" s="27" t="str">
         <f aca="false">IF(H61="", IF(J61="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N61)),IF(J61="", "", INDIRECT("N" &amp; ROW() - 1) - N61))</f>
         <v/>
       </c>
-      <c r="H61" s="24" t="str">
+      <c r="H61" s="28" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I61" s="24" t="str">
+      <c r="I61" s="28" t="str">
         <f aca="true">IF(J61 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3705,37 +3726,37 @@
         <f aca="true">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
-      <c r="R61" s="25" t="str">
+      <c r="R61" s="29" t="str">
         <f aca="true">IF(Q61 = "", "", Q61 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S61" s="25" t="str">
+      <c r="S61" s="30" t="str">
         <f aca="true">IF(J61="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="22" t="str">
+      <c r="B62" s="26" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C62" s="22" t="str">
+      <c r="C62" s="26" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D62" s="22" t="str">
+      <c r="D62" s="26" t="str">
         <f aca="false">IF(E62="","",VLOOKUP(E62,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G62" s="23" t="str">
+      <c r="G62" s="27" t="str">
         <f aca="false">IF(H62="", IF(J62="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N62)),IF(J62="", "", INDIRECT("N" &amp; ROW() - 1) - N62))</f>
         <v/>
       </c>
-      <c r="H62" s="24" t="str">
+      <c r="H62" s="28" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I62" s="24" t="str">
+      <c r="I62" s="28" t="str">
         <f aca="true">IF(J62 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3755,37 +3776,37 @@
         <f aca="true">IF(L62 = 0, INDIRECT("N" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
-      <c r="R62" s="25" t="str">
+      <c r="R62" s="29" t="str">
         <f aca="true">IF(Q62 = "", "", Q62 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S62" s="25" t="str">
+      <c r="S62" s="30" t="str">
         <f aca="true">IF(J62="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="22" t="str">
+      <c r="B63" s="26" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C63" s="22" t="str">
+      <c r="C63" s="26" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D63" s="22" t="str">
+      <c r="D63" s="26" t="str">
         <f aca="false">IF(E63="","",VLOOKUP(E63,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G63" s="23" t="str">
+      <c r="G63" s="27" t="str">
         <f aca="false">IF(H63="", IF(J63="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N63)),IF(J63="", "", INDIRECT("N" &amp; ROW() - 1) - N63))</f>
         <v/>
       </c>
-      <c r="H63" s="24" t="str">
+      <c r="H63" s="28" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I63" s="24" t="str">
+      <c r="I63" s="28" t="str">
         <f aca="true">IF(J63 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3805,37 +3826,37 @@
         <f aca="true">IF(L63 = 0, INDIRECT("N" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="25" t="str">
+      <c r="R63" s="29" t="str">
         <f aca="true">IF(Q63 = "", "", Q63 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S63" s="25" t="str">
+      <c r="S63" s="30" t="str">
         <f aca="true">IF(J63="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="22" t="str">
+      <c r="B64" s="26" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C64" s="22" t="str">
+      <c r="C64" s="26" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D64" s="22" t="str">
+      <c r="D64" s="26" t="str">
         <f aca="false">IF(E64="","",VLOOKUP(E64,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G64" s="23" t="str">
+      <c r="G64" s="27" t="str">
         <f aca="false">IF(H64="", IF(J64="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N64)),IF(J64="", "", INDIRECT("N" &amp; ROW() - 1) - N64))</f>
         <v/>
       </c>
-      <c r="H64" s="24" t="str">
+      <c r="H64" s="28" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I64" s="24" t="str">
+      <c r="I64" s="28" t="str">
         <f aca="true">IF(J64 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3855,37 +3876,37 @@
         <f aca="true">IF(L64 = 0, INDIRECT("N" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
-      <c r="R64" s="25" t="str">
+      <c r="R64" s="29" t="str">
         <f aca="true">IF(Q64 = "", "", Q64 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S64" s="25" t="str">
+      <c r="S64" s="30" t="str">
         <f aca="true">IF(J64="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="22" t="str">
+      <c r="B65" s="26" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C65" s="22" t="str">
+      <c r="C65" s="26" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D65" s="22" t="str">
+      <c r="D65" s="26" t="str">
         <f aca="false">IF(E65="","",VLOOKUP(E65,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G65" s="23" t="str">
+      <c r="G65" s="27" t="str">
         <f aca="false">IF(H65="", IF(J65="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N65)),IF(J65="", "", INDIRECT("N" &amp; ROW() - 1) - N65))</f>
         <v/>
       </c>
-      <c r="H65" s="24" t="str">
+      <c r="H65" s="28" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I65" s="24" t="str">
+      <c r="I65" s="28" t="str">
         <f aca="true">IF(J65 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3905,37 +3926,37 @@
         <f aca="true">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
-      <c r="R65" s="25" t="str">
+      <c r="R65" s="29" t="str">
         <f aca="true">IF(Q65 = "", "", Q65 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S65" s="25" t="str">
+      <c r="S65" s="30" t="str">
         <f aca="true">IF(J65="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="22" t="str">
+      <c r="B66" s="26" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C66" s="22" t="str">
+      <c r="C66" s="26" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D66" s="22" t="str">
+      <c r="D66" s="26" t="str">
         <f aca="false">IF(E66="","",VLOOKUP(E66,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G66" s="23" t="str">
+      <c r="G66" s="27" t="str">
         <f aca="false">IF(H66="", IF(J66="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N66)),IF(J66="", "", INDIRECT("N" &amp; ROW() - 1) - N66))</f>
         <v/>
       </c>
-      <c r="H66" s="24" t="str">
+      <c r="H66" s="28" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I66" s="24" t="str">
+      <c r="I66" s="28" t="str">
         <f aca="true">IF(J66 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -3955,37 +3976,37 @@
         <f aca="true">IF(L66 = 0, INDIRECT("N" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
-      <c r="R66" s="25" t="str">
+      <c r="R66" s="29" t="str">
         <f aca="true">IF(Q66 = "", "", Q66 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S66" s="25" t="str">
+      <c r="S66" s="30" t="str">
         <f aca="true">IF(J66="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="22" t="str">
+      <c r="B67" s="26" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C67" s="22" t="str">
+      <c r="C67" s="26" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D67" s="22" t="str">
+      <c r="D67" s="26" t="str">
         <f aca="false">IF(E67="","",VLOOKUP(E67,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G67" s="23" t="str">
+      <c r="G67" s="27" t="str">
         <f aca="false">IF(H67="", IF(J67="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N67)),IF(J67="", "", INDIRECT("N" &amp; ROW() - 1) - N67))</f>
         <v/>
       </c>
-      <c r="H67" s="24" t="str">
+      <c r="H67" s="28" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I67" s="24" t="str">
+      <c r="I67" s="28" t="str">
         <f aca="true">IF(J67 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4005,37 +4026,37 @@
         <f aca="true">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
-      <c r="R67" s="25" t="str">
+      <c r="R67" s="29" t="str">
         <f aca="true">IF(Q67 = "", "", Q67 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S67" s="25" t="str">
+      <c r="S67" s="30" t="str">
         <f aca="true">IF(J67="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="22" t="str">
+      <c r="B68" s="26" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C68" s="22" t="str">
+      <c r="C68" s="26" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D68" s="22" t="str">
+      <c r="D68" s="26" t="str">
         <f aca="false">IF(E68="","",VLOOKUP(E68,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G68" s="23" t="str">
+      <c r="G68" s="27" t="str">
         <f aca="false">IF(H68="", IF(J68="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N68)),IF(J68="", "", INDIRECT("N" &amp; ROW() - 1) - N68))</f>
         <v/>
       </c>
-      <c r="H68" s="24" t="str">
+      <c r="H68" s="28" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I68" s="24" t="str">
+      <c r="I68" s="28" t="str">
         <f aca="true">IF(J68 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4055,37 +4076,37 @@
         <f aca="true">IF(L68 = 0, INDIRECT("N" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
-      <c r="R68" s="25" t="str">
+      <c r="R68" s="29" t="str">
         <f aca="true">IF(Q68 = "", "", Q68 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S68" s="25" t="str">
+      <c r="S68" s="30" t="str">
         <f aca="true">IF(J68="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="22" t="str">
+      <c r="B69" s="26" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C69" s="22" t="str">
+      <c r="C69" s="26" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D69" s="22" t="str">
+      <c r="D69" s="26" t="str">
         <f aca="false">IF(E69="","",VLOOKUP(E69,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G69" s="23" t="str">
+      <c r="G69" s="27" t="str">
         <f aca="false">IF(H69="", IF(J69="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N69)),IF(J69="", "", INDIRECT("N" &amp; ROW() - 1) - N69))</f>
         <v/>
       </c>
-      <c r="H69" s="24" t="str">
+      <c r="H69" s="28" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I69" s="24" t="str">
+      <c r="I69" s="28" t="str">
         <f aca="true">IF(J69 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4105,37 +4126,37 @@
         <f aca="true">IF(L69 = 0, INDIRECT("N" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
-      <c r="R69" s="25" t="str">
+      <c r="R69" s="29" t="str">
         <f aca="true">IF(Q69 = "", "", Q69 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S69" s="25" t="str">
+      <c r="S69" s="30" t="str">
         <f aca="true">IF(J69="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="22" t="str">
+      <c r="B70" s="26" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C70" s="22" t="str">
+      <c r="C70" s="26" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D70" s="22" t="str">
+      <c r="D70" s="26" t="str">
         <f aca="false">IF(E70="","",VLOOKUP(E70,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G70" s="23" t="str">
+      <c r="G70" s="27" t="str">
         <f aca="false">IF(H70="", IF(J70="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N70)),IF(J70="", "", INDIRECT("N" &amp; ROW() - 1) - N70))</f>
         <v/>
       </c>
-      <c r="H70" s="24" t="str">
+      <c r="H70" s="28" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I70" s="24" t="str">
+      <c r="I70" s="28" t="str">
         <f aca="true">IF(J70 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4155,37 +4176,37 @@
         <f aca="true">IF(L70 = 0, INDIRECT("N" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
-      <c r="R70" s="25" t="str">
+      <c r="R70" s="29" t="str">
         <f aca="true">IF(Q70 = "", "", Q70 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S70" s="25" t="str">
+      <c r="S70" s="30" t="str">
         <f aca="true">IF(J70="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="22" t="str">
+      <c r="B71" s="26" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C71" s="22" t="str">
+      <c r="C71" s="26" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D71" s="22" t="str">
+      <c r="D71" s="26" t="str">
         <f aca="false">IF(E71="","",VLOOKUP(E71,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G71" s="23" t="str">
+      <c r="G71" s="27" t="str">
         <f aca="false">IF(H71="", IF(J71="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N71)),IF(J71="", "", INDIRECT("N" &amp; ROW() - 1) - N71))</f>
         <v/>
       </c>
-      <c r="H71" s="24" t="str">
+      <c r="H71" s="28" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I71" s="24" t="str">
+      <c r="I71" s="28" t="str">
         <f aca="true">IF(J71 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4205,37 +4226,37 @@
         <f aca="true">IF(L71 = 0, INDIRECT("N" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="25" t="str">
+      <c r="R71" s="29" t="str">
         <f aca="true">IF(Q71 = "", "", Q71 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S71" s="25" t="str">
+      <c r="S71" s="30" t="str">
         <f aca="true">IF(J71="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="22" t="str">
+      <c r="B72" s="26" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C72" s="22" t="str">
+      <c r="C72" s="26" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D72" s="22" t="str">
+      <c r="D72" s="26" t="str">
         <f aca="false">IF(E72="","",VLOOKUP(E72,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G72" s="23" t="str">
+      <c r="G72" s="27" t="str">
         <f aca="false">IF(H72="", IF(J72="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N72)),IF(J72="", "", INDIRECT("N" &amp; ROW() - 1) - N72))</f>
         <v/>
       </c>
-      <c r="H72" s="24" t="str">
+      <c r="H72" s="28" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I72" s="24" t="str">
+      <c r="I72" s="28" t="str">
         <f aca="true">IF(J72 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4255,37 +4276,37 @@
         <f aca="true">IF(L72 = 0, INDIRECT("N" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
-      <c r="R72" s="25" t="str">
+      <c r="R72" s="29" t="str">
         <f aca="true">IF(Q72 = "", "", Q72 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S72" s="25" t="str">
+      <c r="S72" s="30" t="str">
         <f aca="true">IF(J72="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="22" t="str">
+      <c r="B73" s="26" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C73" s="22" t="str">
+      <c r="C73" s="26" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D73" s="22" t="str">
+      <c r="D73" s="26" t="str">
         <f aca="false">IF(E73="","",VLOOKUP(E73,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G73" s="23" t="str">
+      <c r="G73" s="27" t="str">
         <f aca="false">IF(H73="", IF(J73="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N73)),IF(J73="", "", INDIRECT("N" &amp; ROW() - 1) - N73))</f>
         <v/>
       </c>
-      <c r="H73" s="24" t="str">
+      <c r="H73" s="28" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I73" s="24" t="str">
+      <c r="I73" s="28" t="str">
         <f aca="true">IF(J73 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4305,37 +4326,37 @@
         <f aca="true">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
-      <c r="R73" s="25" t="str">
+      <c r="R73" s="29" t="str">
         <f aca="true">IF(Q73 = "", "", Q73 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S73" s="25" t="str">
+      <c r="S73" s="30" t="str">
         <f aca="true">IF(J73="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="22" t="str">
+      <c r="B74" s="26" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C74" s="22" t="str">
+      <c r="C74" s="26" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D74" s="22" t="str">
+      <c r="D74" s="26" t="str">
         <f aca="false">IF(E74="","",VLOOKUP(E74,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G74" s="23" t="str">
+      <c r="G74" s="27" t="str">
         <f aca="false">IF(H74="", IF(J74="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N74)),IF(J74="", "", INDIRECT("N" &amp; ROW() - 1) - N74))</f>
         <v/>
       </c>
-      <c r="H74" s="24" t="str">
+      <c r="H74" s="28" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I74" s="24" t="str">
+      <c r="I74" s="28" t="str">
         <f aca="true">IF(J74 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4355,37 +4376,37 @@
         <f aca="true">IF(L74 = 0, INDIRECT("N" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
-      <c r="R74" s="25" t="str">
+      <c r="R74" s="29" t="str">
         <f aca="true">IF(Q74 = "", "", Q74 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S74" s="25" t="str">
+      <c r="S74" s="30" t="str">
         <f aca="true">IF(J74="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="22" t="str">
+      <c r="B75" s="26" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C75" s="22" t="str">
+      <c r="C75" s="26" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D75" s="22" t="str">
+      <c r="D75" s="26" t="str">
         <f aca="false">IF(E75="","",VLOOKUP(E75,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G75" s="23" t="str">
+      <c r="G75" s="27" t="str">
         <f aca="false">IF(H75="", IF(J75="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N75)),IF(J75="", "", INDIRECT("N" &amp; ROW() - 1) - N75))</f>
         <v/>
       </c>
-      <c r="H75" s="24" t="str">
+      <c r="H75" s="28" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I75" s="24" t="str">
+      <c r="I75" s="28" t="str">
         <f aca="true">IF(J75 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4405,37 +4426,37 @@
         <f aca="true">IF(L75 = 0, INDIRECT("N" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
-      <c r="R75" s="25" t="str">
+      <c r="R75" s="29" t="str">
         <f aca="true">IF(Q75 = "", "", Q75 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S75" s="25" t="str">
+      <c r="S75" s="30" t="str">
         <f aca="true">IF(J75="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="22" t="str">
+      <c r="B76" s="26" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C76" s="22" t="str">
+      <c r="C76" s="26" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D76" s="22" t="str">
+      <c r="D76" s="26" t="str">
         <f aca="false">IF(E76="","",VLOOKUP(E76,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G76" s="23" t="str">
+      <c r="G76" s="27" t="str">
         <f aca="false">IF(H76="", IF(J76="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N76)),IF(J76="", "", INDIRECT("N" &amp; ROW() - 1) - N76))</f>
         <v/>
       </c>
-      <c r="H76" s="24" t="str">
+      <c r="H76" s="28" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I76" s="24" t="str">
+      <c r="I76" s="28" t="str">
         <f aca="true">IF(J76 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4455,37 +4476,37 @@
         <f aca="true">IF(L76 = 0, INDIRECT("N" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
-      <c r="R76" s="25" t="str">
+      <c r="R76" s="29" t="str">
         <f aca="true">IF(Q76 = "", "", Q76 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S76" s="25" t="str">
+      <c r="S76" s="30" t="str">
         <f aca="true">IF(J76="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="22" t="str">
+      <c r="B77" s="26" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C77" s="22" t="str">
+      <c r="C77" s="26" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D77" s="22" t="str">
+      <c r="D77" s="26" t="str">
         <f aca="false">IF(E77="","",VLOOKUP(E77,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G77" s="23" t="str">
+      <c r="G77" s="27" t="str">
         <f aca="false">IF(H77="", IF(J77="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N77)),IF(J77="", "", INDIRECT("N" &amp; ROW() - 1) - N77))</f>
         <v/>
       </c>
-      <c r="H77" s="24" t="str">
+      <c r="H77" s="28" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I77" s="24" t="str">
+      <c r="I77" s="28" t="str">
         <f aca="true">IF(J77 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4505,37 +4526,37 @@
         <f aca="true">IF(L77 = 0, INDIRECT("N" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
-      <c r="R77" s="25" t="str">
+      <c r="R77" s="29" t="str">
         <f aca="true">IF(Q77 = "", "", Q77 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S77" s="25" t="str">
+      <c r="S77" s="30" t="str">
         <f aca="true">IF(J77="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="22" t="str">
+      <c r="B78" s="26" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C78" s="22" t="str">
+      <c r="C78" s="26" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D78" s="22" t="str">
+      <c r="D78" s="26" t="str">
         <f aca="false">IF(E78="","",VLOOKUP(E78,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G78" s="23" t="str">
+      <c r="G78" s="27" t="str">
         <f aca="false">IF(H78="", IF(J78="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N78)),IF(J78="", "", INDIRECT("N" &amp; ROW() - 1) - N78))</f>
         <v/>
       </c>
-      <c r="H78" s="24" t="str">
+      <c r="H78" s="28" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I78" s="24" t="str">
+      <c r="I78" s="28" t="str">
         <f aca="true">IF(J78 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4555,37 +4576,37 @@
         <f aca="true">IF(L78 = 0, INDIRECT("N" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
-      <c r="R78" s="25" t="str">
+      <c r="R78" s="29" t="str">
         <f aca="true">IF(Q78 = "", "", Q78 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S78" s="25" t="str">
+      <c r="S78" s="30" t="str">
         <f aca="true">IF(J78="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="22" t="str">
+      <c r="B79" s="26" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C79" s="22" t="str">
+      <c r="C79" s="26" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D79" s="22" t="str">
+      <c r="D79" s="26" t="str">
         <f aca="false">IF(E79="","",VLOOKUP(E79,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G79" s="23" t="str">
+      <c r="G79" s="27" t="str">
         <f aca="false">IF(H79="", IF(J79="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N79)),IF(J79="", "", INDIRECT("N" &amp; ROW() - 1) - N79))</f>
         <v/>
       </c>
-      <c r="H79" s="24" t="str">
+      <c r="H79" s="28" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I79" s="24" t="str">
+      <c r="I79" s="28" t="str">
         <f aca="true">IF(J79 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4605,37 +4626,37 @@
         <f aca="true">IF(L79 = 0, INDIRECT("N" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
-      <c r="R79" s="25" t="str">
+      <c r="R79" s="29" t="str">
         <f aca="true">IF(Q79 = "", "", Q79 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S79" s="25" t="str">
+      <c r="S79" s="30" t="str">
         <f aca="true">IF(J79="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="22" t="str">
+      <c r="B80" s="26" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C80" s="22" t="str">
+      <c r="C80" s="26" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D80" s="22" t="str">
+      <c r="D80" s="26" t="str">
         <f aca="false">IF(E80="","",VLOOKUP(E80,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G80" s="23" t="str">
+      <c r="G80" s="27" t="str">
         <f aca="false">IF(H80="", IF(J80="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N80)),IF(J80="", "", INDIRECT("N" &amp; ROW() - 1) - N80))</f>
         <v/>
       </c>
-      <c r="H80" s="24" t="str">
+      <c r="H80" s="28" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I80" s="24" t="str">
+      <c r="I80" s="28" t="str">
         <f aca="true">IF(J80 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4655,37 +4676,37 @@
         <f aca="true">IF(L80 = 0, INDIRECT("N" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
-      <c r="R80" s="25" t="str">
+      <c r="R80" s="29" t="str">
         <f aca="true">IF(Q80 = "", "", Q80 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S80" s="25" t="str">
+      <c r="S80" s="30" t="str">
         <f aca="true">IF(J80="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="22" t="str">
+      <c r="B81" s="26" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C81" s="22" t="str">
+      <c r="C81" s="26" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D81" s="22" t="str">
+      <c r="D81" s="26" t="str">
         <f aca="false">IF(E81="","",VLOOKUP(E81,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G81" s="23" t="str">
+      <c r="G81" s="27" t="str">
         <f aca="false">IF(H81="", IF(J81="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N81)),IF(J81="", "", INDIRECT("N" &amp; ROW() - 1) - N81))</f>
         <v/>
       </c>
-      <c r="H81" s="24" t="str">
+      <c r="H81" s="28" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I81" s="24" t="str">
+      <c r="I81" s="28" t="str">
         <f aca="true">IF(J81 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4705,37 +4726,37 @@
         <f aca="true">IF(L81 = 0, INDIRECT("N" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
-      <c r="R81" s="25" t="str">
+      <c r="R81" s="29" t="str">
         <f aca="true">IF(Q81 = "", "", Q81 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S81" s="25" t="str">
+      <c r="S81" s="30" t="str">
         <f aca="true">IF(J81="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="22" t="str">
+      <c r="B82" s="26" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C82" s="22" t="str">
+      <c r="C82" s="26" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D82" s="22" t="str">
+      <c r="D82" s="26" t="str">
         <f aca="false">IF(E82="","",VLOOKUP(E82,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G82" s="23" t="str">
+      <c r="G82" s="27" t="str">
         <f aca="false">IF(H82="", IF(J82="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N82)),IF(J82="", "", INDIRECT("N" &amp; ROW() - 1) - N82))</f>
         <v/>
       </c>
-      <c r="H82" s="24" t="str">
+      <c r="H82" s="28" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I82" s="24" t="str">
+      <c r="I82" s="28" t="str">
         <f aca="true">IF(J82 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4755,37 +4776,37 @@
         <f aca="true">IF(L82 = 0, INDIRECT("N" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
-      <c r="R82" s="25" t="str">
+      <c r="R82" s="29" t="str">
         <f aca="true">IF(Q82 = "", "", Q82 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S82" s="25" t="str">
+      <c r="S82" s="30" t="str">
         <f aca="true">IF(J82="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="22" t="str">
+      <c r="B83" s="26" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C83" s="22" t="str">
+      <c r="C83" s="26" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D83" s="22" t="str">
+      <c r="D83" s="26" t="str">
         <f aca="false">IF(E83="","",VLOOKUP(E83,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G83" s="23" t="str">
+      <c r="G83" s="27" t="str">
         <f aca="false">IF(H83="", IF(J83="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N83)),IF(J83="", "", INDIRECT("N" &amp; ROW() - 1) - N83))</f>
         <v/>
       </c>
-      <c r="H83" s="24" t="str">
+      <c r="H83" s="28" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I83" s="24" t="str">
+      <c r="I83" s="28" t="str">
         <f aca="true">IF(J83 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4805,37 +4826,37 @@
         <f aca="true">IF(L83 = 0, INDIRECT("N" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
-      <c r="R83" s="25" t="str">
+      <c r="R83" s="29" t="str">
         <f aca="true">IF(Q83 = "", "", Q83 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S83" s="25" t="str">
+      <c r="S83" s="30" t="str">
         <f aca="true">IF(J83="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="22" t="str">
+      <c r="B84" s="26" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C84" s="22" t="str">
+      <c r="C84" s="26" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D84" s="22" t="str">
+      <c r="D84" s="26" t="str">
         <f aca="false">IF(E84="","",VLOOKUP(E84,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G84" s="23" t="str">
+      <c r="G84" s="27" t="str">
         <f aca="false">IF(H84="", IF(J84="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N84)),IF(J84="", "", INDIRECT("N" &amp; ROW() - 1) - N84))</f>
         <v/>
       </c>
-      <c r="H84" s="24" t="str">
+      <c r="H84" s="28" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I84" s="24" t="str">
+      <c r="I84" s="28" t="str">
         <f aca="true">IF(J84 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4855,37 +4876,37 @@
         <f aca="true">IF(L84 = 0, INDIRECT("N" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
-      <c r="R84" s="25" t="str">
+      <c r="R84" s="29" t="str">
         <f aca="true">IF(Q84 = "", "", Q84 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S84" s="25" t="str">
+      <c r="S84" s="30" t="str">
         <f aca="true">IF(J84="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="22" t="str">
+      <c r="B85" s="26" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C85" s="22" t="str">
+      <c r="C85" s="26" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D85" s="22" t="str">
+      <c r="D85" s="26" t="str">
         <f aca="false">IF(E85="","",VLOOKUP(E85,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G85" s="23" t="str">
+      <c r="G85" s="27" t="str">
         <f aca="false">IF(H85="", IF(J85="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N85)),IF(J85="", "", INDIRECT("N" &amp; ROW() - 1) - N85))</f>
         <v/>
       </c>
-      <c r="H85" s="24" t="str">
+      <c r="H85" s="28" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I85" s="24" t="str">
+      <c r="I85" s="28" t="str">
         <f aca="true">IF(J85 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4905,37 +4926,37 @@
         <f aca="true">IF(L85 = 0, INDIRECT("N" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
-      <c r="R85" s="25" t="str">
+      <c r="R85" s="29" t="str">
         <f aca="true">IF(Q85 = "", "", Q85 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S85" s="25" t="str">
+      <c r="S85" s="30" t="str">
         <f aca="true">IF(J85="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="22" t="str">
+      <c r="B86" s="26" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C86" s="22" t="str">
+      <c r="C86" s="26" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D86" s="22" t="str">
+      <c r="D86" s="26" t="str">
         <f aca="false">IF(E86="","",VLOOKUP(E86,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G86" s="23" t="str">
+      <c r="G86" s="27" t="str">
         <f aca="false">IF(H86="", IF(J86="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N86)),IF(J86="", "", INDIRECT("N" &amp; ROW() - 1) - N86))</f>
         <v/>
       </c>
-      <c r="H86" s="24" t="str">
+      <c r="H86" s="28" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I86" s="24" t="str">
+      <c r="I86" s="28" t="str">
         <f aca="true">IF(J86 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -4955,37 +4976,37 @@
         <f aca="true">IF(L86 = 0, INDIRECT("N" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
-      <c r="R86" s="25" t="str">
+      <c r="R86" s="29" t="str">
         <f aca="true">IF(Q86 = "", "", Q86 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S86" s="25" t="str">
+      <c r="S86" s="30" t="str">
         <f aca="true">IF(J86="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="22" t="str">
+      <c r="B87" s="26" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C87" s="22" t="str">
+      <c r="C87" s="26" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D87" s="22" t="str">
+      <c r="D87" s="26" t="str">
         <f aca="false">IF(E87="","",VLOOKUP(E87,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G87" s="23" t="str">
+      <c r="G87" s="27" t="str">
         <f aca="false">IF(H87="", IF(J87="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N87)),IF(J87="", "", INDIRECT("N" &amp; ROW() - 1) - N87))</f>
         <v/>
       </c>
-      <c r="H87" s="24" t="str">
+      <c r="H87" s="28" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I87" s="24" t="str">
+      <c r="I87" s="28" t="str">
         <f aca="true">IF(J87 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5005,37 +5026,37 @@
         <f aca="true">IF(L87 = 0, INDIRECT("N" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
-      <c r="R87" s="25" t="str">
+      <c r="R87" s="29" t="str">
         <f aca="true">IF(Q87 = "", "", Q87 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S87" s="25" t="str">
+      <c r="S87" s="30" t="str">
         <f aca="true">IF(J87="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="22" t="str">
+      <c r="B88" s="26" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C88" s="22" t="str">
+      <c r="C88" s="26" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D88" s="22" t="str">
+      <c r="D88" s="26" t="str">
         <f aca="false">IF(E88="","",VLOOKUP(E88,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G88" s="23" t="str">
+      <c r="G88" s="27" t="str">
         <f aca="false">IF(H88="", IF(J88="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N88)),IF(J88="", "", INDIRECT("N" &amp; ROW() - 1) - N88))</f>
         <v/>
       </c>
-      <c r="H88" s="24" t="str">
+      <c r="H88" s="28" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I88" s="24" t="str">
+      <c r="I88" s="28" t="str">
         <f aca="true">IF(J88 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5055,37 +5076,37 @@
         <f aca="true">IF(L88 = 0, INDIRECT("N" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
-      <c r="R88" s="25" t="str">
+      <c r="R88" s="29" t="str">
         <f aca="true">IF(Q88 = "", "", Q88 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S88" s="25" t="str">
+      <c r="S88" s="30" t="str">
         <f aca="true">IF(J88="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="22" t="str">
+      <c r="B89" s="26" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C89" s="22" t="str">
+      <c r="C89" s="26" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D89" s="22" t="str">
+      <c r="D89" s="26" t="str">
         <f aca="false">IF(E89="","",VLOOKUP(E89,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G89" s="23" t="str">
+      <c r="G89" s="27" t="str">
         <f aca="false">IF(H89="", IF(J89="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N89)),IF(J89="", "", INDIRECT("N" &amp; ROW() - 1) - N89))</f>
         <v/>
       </c>
-      <c r="H89" s="24" t="str">
+      <c r="H89" s="28" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I89" s="24" t="str">
+      <c r="I89" s="28" t="str">
         <f aca="true">IF(J89 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5105,37 +5126,37 @@
         <f aca="true">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
-      <c r="R89" s="25" t="str">
+      <c r="R89" s="29" t="str">
         <f aca="true">IF(Q89 = "", "", Q89 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S89" s="25" t="str">
+      <c r="S89" s="30" t="str">
         <f aca="true">IF(J89="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="22" t="str">
+      <c r="B90" s="26" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C90" s="22" t="str">
+      <c r="C90" s="26" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D90" s="22" t="str">
+      <c r="D90" s="26" t="str">
         <f aca="false">IF(E90="","",VLOOKUP(E90,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G90" s="23" t="str">
+      <c r="G90" s="27" t="str">
         <f aca="false">IF(H90="", IF(J90="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N90)),IF(J90="", "", INDIRECT("N" &amp; ROW() - 1) - N90))</f>
         <v/>
       </c>
-      <c r="H90" s="24" t="str">
+      <c r="H90" s="28" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I90" s="24" t="str">
+      <c r="I90" s="28" t="str">
         <f aca="true">IF(J90 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5155,37 +5176,37 @@
         <f aca="true">IF(L90 = 0, INDIRECT("N" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
-      <c r="R90" s="25" t="str">
+      <c r="R90" s="29" t="str">
         <f aca="true">IF(Q90 = "", "", Q90 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S90" s="25" t="str">
+      <c r="S90" s="30" t="str">
         <f aca="true">IF(J90="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="22" t="str">
+      <c r="B91" s="26" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C91" s="22" t="str">
+      <c r="C91" s="26" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D91" s="22" t="str">
+      <c r="D91" s="26" t="str">
         <f aca="false">IF(E91="","",VLOOKUP(E91,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G91" s="23" t="str">
+      <c r="G91" s="27" t="str">
         <f aca="false">IF(H91="", IF(J91="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N91)),IF(J91="", "", INDIRECT("N" &amp; ROW() - 1) - N91))</f>
         <v/>
       </c>
-      <c r="H91" s="24" t="str">
+      <c r="H91" s="28" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I91" s="24" t="str">
+      <c r="I91" s="28" t="str">
         <f aca="true">IF(J91 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5205,37 +5226,37 @@
         <f aca="true">IF(L91 = 0, INDIRECT("N" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
-      <c r="R91" s="25" t="str">
+      <c r="R91" s="29" t="str">
         <f aca="true">IF(Q91 = "", "", Q91 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S91" s="25" t="str">
+      <c r="S91" s="30" t="str">
         <f aca="true">IF(J91="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="22" t="str">
+      <c r="B92" s="26" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C92" s="22" t="str">
+      <c r="C92" s="26" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D92" s="22" t="str">
+      <c r="D92" s="26" t="str">
         <f aca="false">IF(E92="","",VLOOKUP(E92,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G92" s="23" t="str">
+      <c r="G92" s="27" t="str">
         <f aca="false">IF(H92="", IF(J92="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N92)),IF(J92="", "", INDIRECT("N" &amp; ROW() - 1) - N92))</f>
         <v/>
       </c>
-      <c r="H92" s="24" t="str">
+      <c r="H92" s="28" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I92" s="24" t="str">
+      <c r="I92" s="28" t="str">
         <f aca="true">IF(J92 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5255,37 +5276,37 @@
         <f aca="true">IF(L92 = 0, INDIRECT("N" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
-      <c r="R92" s="25" t="str">
+      <c r="R92" s="29" t="str">
         <f aca="true">IF(Q92 = "", "", Q92 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S92" s="25" t="str">
+      <c r="S92" s="30" t="str">
         <f aca="true">IF(J92="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="22" t="str">
+      <c r="B93" s="26" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C93" s="22" t="str">
+      <c r="C93" s="26" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D93" s="22" t="str">
+      <c r="D93" s="26" t="str">
         <f aca="false">IF(E93="","",VLOOKUP(E93,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G93" s="23" t="str">
+      <c r="G93" s="27" t="str">
         <f aca="false">IF(H93="", IF(J93="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N93)),IF(J93="", "", INDIRECT("N" &amp; ROW() - 1) - N93))</f>
         <v/>
       </c>
-      <c r="H93" s="24" t="str">
+      <c r="H93" s="28" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I93" s="24" t="str">
+      <c r="I93" s="28" t="str">
         <f aca="true">IF(J93 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5305,37 +5326,37 @@
         <f aca="true">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
-      <c r="R93" s="25" t="str">
+      <c r="R93" s="29" t="str">
         <f aca="true">IF(Q93 = "", "", Q93 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S93" s="25" t="str">
+      <c r="S93" s="30" t="str">
         <f aca="true">IF(J93="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="22" t="str">
+      <c r="B94" s="26" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C94" s="22" t="str">
+      <c r="C94" s="26" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D94" s="22" t="str">
+      <c r="D94" s="26" t="str">
         <f aca="false">IF(E94="","",VLOOKUP(E94,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G94" s="23" t="str">
+      <c r="G94" s="27" t="str">
         <f aca="false">IF(H94="", IF(J94="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N94)),IF(J94="", "", INDIRECT("N" &amp; ROW() - 1) - N94))</f>
         <v/>
       </c>
-      <c r="H94" s="24" t="str">
+      <c r="H94" s="28" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I94" s="24" t="str">
+      <c r="I94" s="28" t="str">
         <f aca="true">IF(J94 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5355,37 +5376,37 @@
         <f aca="true">IF(L94 = 0, INDIRECT("N" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
-      <c r="R94" s="25" t="str">
+      <c r="R94" s="29" t="str">
         <f aca="true">IF(Q94 = "", "", Q94 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S94" s="25" t="str">
+      <c r="S94" s="30" t="str">
         <f aca="true">IF(J94="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="22" t="str">
+      <c r="B95" s="26" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C95" s="22" t="str">
+      <c r="C95" s="26" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D95" s="22" t="str">
+      <c r="D95" s="26" t="str">
         <f aca="false">IF(E95="","",VLOOKUP(E95,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G95" s="23" t="str">
+      <c r="G95" s="27" t="str">
         <f aca="false">IF(H95="", IF(J95="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N95)),IF(J95="", "", INDIRECT("N" &amp; ROW() - 1) - N95))</f>
         <v/>
       </c>
-      <c r="H95" s="24" t="str">
+      <c r="H95" s="28" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I95" s="24" t="str">
+      <c r="I95" s="28" t="str">
         <f aca="true">IF(J95 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5405,37 +5426,37 @@
         <f aca="true">IF(L95 = 0, INDIRECT("N" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
-      <c r="R95" s="25" t="str">
+      <c r="R95" s="29" t="str">
         <f aca="true">IF(Q95 = "", "", Q95 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S95" s="25" t="str">
+      <c r="S95" s="30" t="str">
         <f aca="true">IF(J95="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="22" t="str">
+      <c r="B96" s="26" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C96" s="22" t="str">
+      <c r="C96" s="26" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D96" s="22" t="str">
+      <c r="D96" s="26" t="str">
         <f aca="false">IF(E96="","",VLOOKUP(E96,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G96" s="23" t="str">
+      <c r="G96" s="27" t="str">
         <f aca="false">IF(H96="", IF(J96="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N96)),IF(J96="", "", INDIRECT("N" &amp; ROW() - 1) - N96))</f>
         <v/>
       </c>
-      <c r="H96" s="24" t="str">
+      <c r="H96" s="28" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I96" s="24" t="str">
+      <c r="I96" s="28" t="str">
         <f aca="true">IF(J96 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5455,37 +5476,37 @@
         <f aca="true">IF(L96 = 0, INDIRECT("N" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
-      <c r="R96" s="25" t="str">
+      <c r="R96" s="29" t="str">
         <f aca="true">IF(Q96 = "", "", Q96 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S96" s="25" t="str">
+      <c r="S96" s="30" t="str">
         <f aca="true">IF(J96="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="22" t="str">
+      <c r="B97" s="26" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C97" s="22" t="str">
+      <c r="C97" s="26" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D97" s="22" t="str">
+      <c r="D97" s="26" t="str">
         <f aca="false">IF(E97="","",VLOOKUP(E97,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G97" s="23" t="str">
+      <c r="G97" s="27" t="str">
         <f aca="false">IF(H97="", IF(J97="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N97)),IF(J97="", "", INDIRECT("N" &amp; ROW() - 1) - N97))</f>
         <v/>
       </c>
-      <c r="H97" s="24" t="str">
+      <c r="H97" s="28" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I97" s="24" t="str">
+      <c r="I97" s="28" t="str">
         <f aca="true">IF(J97 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5505,37 +5526,37 @@
         <f aca="true">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
-      <c r="R97" s="25" t="str">
+      <c r="R97" s="29" t="str">
         <f aca="true">IF(Q97 = "", "", Q97 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S97" s="25" t="str">
+      <c r="S97" s="30" t="str">
         <f aca="true">IF(J97="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="22" t="str">
+      <c r="B98" s="26" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C98" s="22" t="str">
+      <c r="C98" s="26" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D98" s="22" t="str">
+      <c r="D98" s="26" t="str">
         <f aca="false">IF(E98="","",VLOOKUP(E98,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G98" s="23" t="str">
+      <c r="G98" s="27" t="str">
         <f aca="false">IF(H98="", IF(J98="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N98)),IF(J98="", "", INDIRECT("N" &amp; ROW() - 1) - N98))</f>
         <v/>
       </c>
-      <c r="H98" s="24" t="str">
+      <c r="H98" s="28" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I98" s="24" t="str">
+      <c r="I98" s="28" t="str">
         <f aca="true">IF(J98 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5555,37 +5576,37 @@
         <f aca="true">IF(L98 = 0, INDIRECT("N" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
-      <c r="R98" s="25" t="str">
+      <c r="R98" s="29" t="str">
         <f aca="true">IF(Q98 = "", "", Q98 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S98" s="25" t="str">
+      <c r="S98" s="30" t="str">
         <f aca="true">IF(J98="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="22" t="str">
+      <c r="B99" s="26" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C99" s="22" t="str">
+      <c r="C99" s="26" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D99" s="22" t="str">
+      <c r="D99" s="26" t="str">
         <f aca="false">IF(E99="","",VLOOKUP(E99,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G99" s="23" t="str">
+      <c r="G99" s="27" t="str">
         <f aca="false">IF(H99="", IF(J99="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N99)),IF(J99="", "", INDIRECT("N" &amp; ROW() - 1) - N99))</f>
         <v/>
       </c>
-      <c r="H99" s="24" t="str">
+      <c r="H99" s="28" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I99" s="24" t="str">
+      <c r="I99" s="28" t="str">
         <f aca="true">IF(J99 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5605,37 +5626,37 @@
         <f aca="true">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
-      <c r="R99" s="25" t="str">
+      <c r="R99" s="29" t="str">
         <f aca="true">IF(Q99 = "", "", Q99 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S99" s="25" t="str">
+      <c r="S99" s="30" t="str">
         <f aca="true">IF(J99="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="22" t="str">
+      <c r="B100" s="26" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C100" s="22" t="str">
+      <c r="C100" s="26" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D100" s="22" t="str">
+      <c r="D100" s="26" t="str">
         <f aca="false">IF(E100="","",VLOOKUP(E100,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G100" s="23" t="str">
+      <c r="G100" s="27" t="str">
         <f aca="false">IF(H100="", IF(J100="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N100)),IF(J100="", "", INDIRECT("N" &amp; ROW() - 1) - N100))</f>
         <v/>
       </c>
-      <c r="H100" s="24" t="str">
+      <c r="H100" s="28" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I100" s="24" t="str">
+      <c r="I100" s="28" t="str">
         <f aca="true">IF(J100 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5655,37 +5676,37 @@
         <f aca="true">IF(L100 = 0, INDIRECT("N" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
-      <c r="R100" s="25" t="str">
+      <c r="R100" s="29" t="str">
         <f aca="true">IF(Q100 = "", "", Q100 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S100" s="25" t="str">
+      <c r="S100" s="30" t="str">
         <f aca="true">IF(J100="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="22" t="str">
+      <c r="B101" s="26" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C101" s="22" t="str">
+      <c r="C101" s="26" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D101" s="22" t="str">
+      <c r="D101" s="26" t="str">
         <f aca="false">IF(E101="","",VLOOKUP(E101,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G101" s="23" t="str">
+      <c r="G101" s="27" t="str">
         <f aca="false">IF(H101="", IF(J101="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N101)),IF(J101="", "", INDIRECT("N" &amp; ROW() - 1) - N101))</f>
         <v/>
       </c>
-      <c r="H101" s="24" t="str">
+      <c r="H101" s="28" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I101" s="24" t="str">
+      <c r="I101" s="28" t="str">
         <f aca="true">IF(J101 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5705,37 +5726,37 @@
         <f aca="true">IF(L101 = 0, INDIRECT("N" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
-      <c r="R101" s="25" t="str">
+      <c r="R101" s="29" t="str">
         <f aca="true">IF(Q101 = "", "", Q101 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S101" s="25" t="str">
+      <c r="S101" s="30" t="str">
         <f aca="true">IF(J101="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="22" t="str">
+      <c r="B102" s="26" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C102" s="22" t="str">
+      <c r="C102" s="26" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D102" s="22" t="str">
+      <c r="D102" s="26" t="str">
         <f aca="false">IF(E102="","",VLOOKUP(E102,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G102" s="23" t="str">
+      <c r="G102" s="27" t="str">
         <f aca="false">IF(H102="", IF(J102="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N102)),IF(J102="", "", INDIRECT("N" &amp; ROW() - 1) - N102))</f>
         <v/>
       </c>
-      <c r="H102" s="24" t="str">
+      <c r="H102" s="28" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I102" s="24" t="str">
+      <c r="I102" s="28" t="str">
         <f aca="true">IF(J102 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5755,37 +5776,37 @@
         <f aca="true">IF(L102 = 0, INDIRECT("N" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
-      <c r="R102" s="25" t="str">
+      <c r="R102" s="29" t="str">
         <f aca="true">IF(Q102 = "", "", Q102 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S102" s="25" t="str">
+      <c r="S102" s="30" t="str">
         <f aca="true">IF(J102="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="22" t="str">
+      <c r="B103" s="26" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C103" s="22" t="str">
+      <c r="C103" s="26" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D103" s="22" t="str">
+      <c r="D103" s="26" t="str">
         <f aca="false">IF(E103="","",VLOOKUP(E103,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G103" s="23" t="str">
+      <c r="G103" s="27" t="str">
         <f aca="false">IF(H103="", IF(J103="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N103)),IF(J103="", "", INDIRECT("N" &amp; ROW() - 1) - N103))</f>
         <v/>
       </c>
-      <c r="H103" s="24" t="str">
+      <c r="H103" s="28" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I103" s="24" t="str">
+      <c r="I103" s="28" t="str">
         <f aca="true">IF(J103 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5805,37 +5826,37 @@
         <f aca="true">IF(L103 = 0, INDIRECT("N" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
-      <c r="R103" s="25" t="str">
+      <c r="R103" s="29" t="str">
         <f aca="true">IF(Q103 = "", "", Q103 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S103" s="25" t="str">
+      <c r="S103" s="30" t="str">
         <f aca="true">IF(J103="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="22" t="str">
+      <c r="B104" s="26" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C104" s="22" t="str">
+      <c r="C104" s="26" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D104" s="22" t="str">
+      <c r="D104" s="26" t="str">
         <f aca="false">IF(E104="","",VLOOKUP(E104,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G104" s="23" t="str">
+      <c r="G104" s="27" t="str">
         <f aca="false">IF(H104="", IF(J104="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N104)),IF(J104="", "", INDIRECT("N" &amp; ROW() - 1) - N104))</f>
         <v/>
       </c>
-      <c r="H104" s="24" t="str">
+      <c r="H104" s="28" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I104" s="24" t="str">
+      <c r="I104" s="28" t="str">
         <f aca="true">IF(J104 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5855,37 +5876,37 @@
         <f aca="true">IF(L104 = 0, INDIRECT("N" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
-      <c r="R104" s="25" t="str">
+      <c r="R104" s="29" t="str">
         <f aca="true">IF(Q104 = "", "", Q104 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S104" s="25" t="str">
+      <c r="S104" s="30" t="str">
         <f aca="true">IF(J104="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="22" t="str">
+      <c r="B105" s="26" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C105" s="22" t="str">
+      <c r="C105" s="26" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D105" s="22" t="str">
+      <c r="D105" s="26" t="str">
         <f aca="false">IF(E105="","",VLOOKUP(E105,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G105" s="23" t="str">
+      <c r="G105" s="27" t="str">
         <f aca="false">IF(H105="", IF(J105="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N105)),IF(J105="", "", INDIRECT("N" &amp; ROW() - 1) - N105))</f>
         <v/>
       </c>
-      <c r="H105" s="24" t="str">
+      <c r="H105" s="28" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I105" s="24" t="str">
+      <c r="I105" s="28" t="str">
         <f aca="true">IF(J105 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5905,37 +5926,37 @@
         <f aca="true">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
-      <c r="R105" s="25" t="str">
+      <c r="R105" s="29" t="str">
         <f aca="true">IF(Q105 = "", "", Q105 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S105" s="25" t="str">
+      <c r="S105" s="30" t="str">
         <f aca="true">IF(J105="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="22" t="str">
+      <c r="B106" s="26" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C106" s="22" t="str">
+      <c r="C106" s="26" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D106" s="22" t="str">
+      <c r="D106" s="26" t="str">
         <f aca="false">IF(E106="","",VLOOKUP(E106,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G106" s="23" t="str">
+      <c r="G106" s="27" t="str">
         <f aca="false">IF(H106="", IF(J106="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N106)),IF(J106="", "", INDIRECT("N" &amp; ROW() - 1) - N106))</f>
         <v/>
       </c>
-      <c r="H106" s="24" t="str">
+      <c r="H106" s="28" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I106" s="24" t="str">
+      <c r="I106" s="28" t="str">
         <f aca="true">IF(J106 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -5955,37 +5976,37 @@
         <f aca="true">IF(L106 = 0, INDIRECT("N" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
-      <c r="R106" s="25" t="str">
+      <c r="R106" s="29" t="str">
         <f aca="true">IF(Q106 = "", "", Q106 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S106" s="25" t="str">
+      <c r="S106" s="30" t="str">
         <f aca="true">IF(J106="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="22" t="str">
+      <c r="B107" s="26" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C107" s="22" t="str">
+      <c r="C107" s="26" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D107" s="22" t="str">
+      <c r="D107" s="26" t="str">
         <f aca="false">IF(E107="","",VLOOKUP(E107,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G107" s="23" t="str">
+      <c r="G107" s="27" t="str">
         <f aca="false">IF(H107="", IF(J107="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N107)),IF(J107="", "", INDIRECT("N" &amp; ROW() - 1) - N107))</f>
         <v/>
       </c>
-      <c r="H107" s="24" t="str">
+      <c r="H107" s="28" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I107" s="24" t="str">
+      <c r="I107" s="28" t="str">
         <f aca="true">IF(J107 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6005,37 +6026,37 @@
         <f aca="true">IF(L107 = 0, INDIRECT("N" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
-      <c r="R107" s="25" t="str">
+      <c r="R107" s="29" t="str">
         <f aca="true">IF(Q107 = "", "", Q107 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S107" s="25" t="str">
+      <c r="S107" s="30" t="str">
         <f aca="true">IF(J107="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="22" t="str">
+      <c r="B108" s="26" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C108" s="22" t="str">
+      <c r="C108" s="26" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D108" s="22" t="str">
+      <c r="D108" s="26" t="str">
         <f aca="false">IF(E108="","",VLOOKUP(E108,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G108" s="23" t="str">
+      <c r="G108" s="27" t="str">
         <f aca="false">IF(H108="", IF(J108="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N108)),IF(J108="", "", INDIRECT("N" &amp; ROW() - 1) - N108))</f>
         <v/>
       </c>
-      <c r="H108" s="24" t="str">
+      <c r="H108" s="28" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I108" s="24" t="str">
+      <c r="I108" s="28" t="str">
         <f aca="true">IF(J108 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6055,37 +6076,37 @@
         <f aca="true">IF(L108 = 0, INDIRECT("N" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
-      <c r="R108" s="25" t="str">
+      <c r="R108" s="29" t="str">
         <f aca="true">IF(Q108 = "", "", Q108 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S108" s="25" t="str">
+      <c r="S108" s="30" t="str">
         <f aca="true">IF(J108="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="22" t="str">
+      <c r="B109" s="26" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C109" s="22" t="str">
+      <c r="C109" s="26" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D109" s="22" t="str">
+      <c r="D109" s="26" t="str">
         <f aca="false">IF(E109="","",VLOOKUP(E109,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G109" s="23" t="str">
+      <c r="G109" s="27" t="str">
         <f aca="false">IF(H109="", IF(J109="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N109)),IF(J109="", "", INDIRECT("N" &amp; ROW() - 1) - N109))</f>
         <v/>
       </c>
-      <c r="H109" s="24" t="str">
+      <c r="H109" s="28" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I109" s="24" t="str">
+      <c r="I109" s="28" t="str">
         <f aca="true">IF(J109 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6105,37 +6126,37 @@
         <f aca="true">IF(L109 = 0, INDIRECT("N" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
-      <c r="R109" s="25" t="str">
+      <c r="R109" s="29" t="str">
         <f aca="true">IF(Q109 = "", "", Q109 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S109" s="25" t="str">
+      <c r="S109" s="30" t="str">
         <f aca="true">IF(J109="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="22" t="str">
+      <c r="B110" s="26" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C110" s="22" t="str">
+      <c r="C110" s="26" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D110" s="22" t="str">
+      <c r="D110" s="26" t="str">
         <f aca="false">IF(E110="","",VLOOKUP(E110,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G110" s="23" t="str">
+      <c r="G110" s="27" t="str">
         <f aca="false">IF(H110="", IF(J110="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N110)),IF(J110="", "", INDIRECT("N" &amp; ROW() - 1) - N110))</f>
         <v/>
       </c>
-      <c r="H110" s="24" t="str">
+      <c r="H110" s="28" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I110" s="24" t="str">
+      <c r="I110" s="28" t="str">
         <f aca="true">IF(J110 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6155,37 +6176,37 @@
         <f aca="true">IF(L110 = 0, INDIRECT("N" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
-      <c r="R110" s="25" t="str">
+      <c r="R110" s="29" t="str">
         <f aca="true">IF(Q110 = "", "", Q110 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S110" s="25" t="str">
+      <c r="S110" s="30" t="str">
         <f aca="true">IF(J110="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="22" t="str">
+      <c r="B111" s="26" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C111" s="22" t="str">
+      <c r="C111" s="26" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D111" s="22" t="str">
+      <c r="D111" s="26" t="str">
         <f aca="false">IF(E111="","",VLOOKUP(E111,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G111" s="23" t="str">
+      <c r="G111" s="27" t="str">
         <f aca="false">IF(H111="", IF(J111="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N111)),IF(J111="", "", INDIRECT("N" &amp; ROW() - 1) - N111))</f>
         <v/>
       </c>
-      <c r="H111" s="24" t="str">
+      <c r="H111" s="28" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I111" s="24" t="str">
+      <c r="I111" s="28" t="str">
         <f aca="true">IF(J111 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6205,37 +6226,37 @@
         <f aca="true">IF(L111 = 0, INDIRECT("N" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
-      <c r="R111" s="25" t="str">
+      <c r="R111" s="29" t="str">
         <f aca="true">IF(Q111 = "", "", Q111 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S111" s="25" t="str">
+      <c r="S111" s="30" t="str">
         <f aca="true">IF(J111="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="22" t="str">
+      <c r="B112" s="26" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C112" s="22" t="str">
+      <c r="C112" s="26" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D112" s="22" t="str">
+      <c r="D112" s="26" t="str">
         <f aca="false">IF(E112="","",VLOOKUP(E112,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G112" s="23" t="str">
+      <c r="G112" s="27" t="str">
         <f aca="false">IF(H112="", IF(J112="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N112)),IF(J112="", "", INDIRECT("N" &amp; ROW() - 1) - N112))</f>
         <v/>
       </c>
-      <c r="H112" s="24" t="str">
+      <c r="H112" s="28" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I112" s="24" t="str">
+      <c r="I112" s="28" t="str">
         <f aca="true">IF(J112 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6255,37 +6276,37 @@
         <f aca="true">IF(L112 = 0, INDIRECT("N" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
-      <c r="R112" s="25" t="str">
+      <c r="R112" s="29" t="str">
         <f aca="true">IF(Q112 = "", "", Q112 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S112" s="25" t="str">
+      <c r="S112" s="30" t="str">
         <f aca="true">IF(J112="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="22" t="str">
+      <c r="B113" s="26" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C113" s="22" t="str">
+      <c r="C113" s="26" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D113" s="22" t="str">
+      <c r="D113" s="26" t="str">
         <f aca="false">IF(E113="","",VLOOKUP(E113,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G113" s="23" t="str">
+      <c r="G113" s="27" t="str">
         <f aca="false">IF(H113="", IF(J113="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N113)),IF(J113="", "", INDIRECT("N" &amp; ROW() - 1) - N113))</f>
         <v/>
       </c>
-      <c r="H113" s="24" t="str">
+      <c r="H113" s="28" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I113" s="24" t="str">
+      <c r="I113" s="28" t="str">
         <f aca="true">IF(J113 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6305,37 +6326,37 @@
         <f aca="true">IF(L113 = 0, INDIRECT("N" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
-      <c r="R113" s="25" t="str">
+      <c r="R113" s="29" t="str">
         <f aca="true">IF(Q113 = "", "", Q113 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S113" s="25" t="str">
+      <c r="S113" s="30" t="str">
         <f aca="true">IF(J113="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="22" t="str">
+      <c r="B114" s="26" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C114" s="22" t="str">
+      <c r="C114" s="26" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D114" s="22" t="str">
+      <c r="D114" s="26" t="str">
         <f aca="false">IF(E114="","",VLOOKUP(E114,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G114" s="23" t="str">
+      <c r="G114" s="27" t="str">
         <f aca="false">IF(H114="", IF(J114="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N114)),IF(J114="", "", INDIRECT("N" &amp; ROW() - 1) - N114))</f>
         <v/>
       </c>
-      <c r="H114" s="24" t="str">
+      <c r="H114" s="28" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I114" s="24" t="str">
+      <c r="I114" s="28" t="str">
         <f aca="true">IF(J114 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6355,37 +6376,37 @@
         <f aca="true">IF(L114 = 0, INDIRECT("N" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
-      <c r="R114" s="25" t="str">
+      <c r="R114" s="29" t="str">
         <f aca="true">IF(Q114 = "", "", Q114 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S114" s="25" t="str">
+      <c r="S114" s="30" t="str">
         <f aca="true">IF(J114="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="22" t="str">
+      <c r="B115" s="26" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C115" s="22" t="str">
+      <c r="C115" s="26" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D115" s="22" t="str">
+      <c r="D115" s="26" t="str">
         <f aca="false">IF(E115="","",VLOOKUP(E115,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G115" s="23" t="str">
+      <c r="G115" s="27" t="str">
         <f aca="false">IF(H115="", IF(J115="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N115)),IF(J115="", "", INDIRECT("N" &amp; ROW() - 1) - N115))</f>
         <v/>
       </c>
-      <c r="H115" s="24" t="str">
+      <c r="H115" s="28" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I115" s="24" t="str">
+      <c r="I115" s="28" t="str">
         <f aca="true">IF(J115 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6405,37 +6426,37 @@
         <f aca="true">IF(L115 = 0, INDIRECT("N" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
-      <c r="R115" s="25" t="str">
+      <c r="R115" s="29" t="str">
         <f aca="true">IF(Q115 = "", "", Q115 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S115" s="25" t="str">
+      <c r="S115" s="30" t="str">
         <f aca="true">IF(J115="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="22" t="str">
+      <c r="B116" s="26" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C116" s="22" t="str">
+      <c r="C116" s="26" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D116" s="22" t="str">
+      <c r="D116" s="26" t="str">
         <f aca="false">IF(E116="","",VLOOKUP(E116,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G116" s="23" t="str">
+      <c r="G116" s="27" t="str">
         <f aca="false">IF(H116="", IF(J116="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N116)),IF(J116="", "", INDIRECT("N" &amp; ROW() - 1) - N116))</f>
         <v/>
       </c>
-      <c r="H116" s="24" t="str">
+      <c r="H116" s="28" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I116" s="24" t="str">
+      <c r="I116" s="28" t="str">
         <f aca="true">IF(J116 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6455,37 +6476,37 @@
         <f aca="true">IF(L116 = 0, INDIRECT("N" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
-      <c r="R116" s="25" t="str">
+      <c r="R116" s="29" t="str">
         <f aca="true">IF(Q116 = "", "", Q116 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S116" s="25" t="str">
+      <c r="S116" s="30" t="str">
         <f aca="true">IF(J116="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="22" t="str">
+      <c r="B117" s="26" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C117" s="22" t="str">
+      <c r="C117" s="26" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D117" s="22" t="str">
+      <c r="D117" s="26" t="str">
         <f aca="false">IF(E117="","",VLOOKUP(E117,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G117" s="23" t="str">
+      <c r="G117" s="27" t="str">
         <f aca="false">IF(H117="", IF(J117="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N117)),IF(J117="", "", INDIRECT("N" &amp; ROW() - 1) - N117))</f>
         <v/>
       </c>
-      <c r="H117" s="24" t="str">
+      <c r="H117" s="28" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I117" s="24" t="str">
+      <c r="I117" s="28" t="str">
         <f aca="true">IF(J117 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6505,37 +6526,37 @@
         <f aca="true">IF(L117 = 0, INDIRECT("N" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
-      <c r="R117" s="25" t="str">
+      <c r="R117" s="29" t="str">
         <f aca="true">IF(Q117 = "", "", Q117 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S117" s="25" t="str">
+      <c r="S117" s="30" t="str">
         <f aca="true">IF(J117="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="22" t="str">
+      <c r="B118" s="26" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C118" s="22" t="str">
+      <c r="C118" s="26" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D118" s="22" t="str">
+      <c r="D118" s="26" t="str">
         <f aca="false">IF(E118="","",VLOOKUP(E118,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G118" s="23" t="str">
+      <c r="G118" s="27" t="str">
         <f aca="false">IF(H118="", IF(J118="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N118)),IF(J118="", "", INDIRECT("N" &amp; ROW() - 1) - N118))</f>
         <v/>
       </c>
-      <c r="H118" s="24" t="str">
+      <c r="H118" s="28" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I118" s="24" t="str">
+      <c r="I118" s="28" t="str">
         <f aca="true">IF(J118 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6555,37 +6576,37 @@
         <f aca="true">IF(L118 = 0, INDIRECT("N" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
-      <c r="R118" s="25" t="str">
+      <c r="R118" s="29" t="str">
         <f aca="true">IF(Q118 = "", "", Q118 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S118" s="25" t="str">
+      <c r="S118" s="30" t="str">
         <f aca="true">IF(J118="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="22" t="str">
+      <c r="B119" s="26" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C119" s="22" t="str">
+      <c r="C119" s="26" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D119" s="22" t="str">
+      <c r="D119" s="26" t="str">
         <f aca="false">IF(E119="","",VLOOKUP(E119,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G119" s="23" t="str">
+      <c r="G119" s="27" t="str">
         <f aca="false">IF(H119="", IF(J119="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N119)),IF(J119="", "", INDIRECT("N" &amp; ROW() - 1) - N119))</f>
         <v/>
       </c>
-      <c r="H119" s="24" t="str">
+      <c r="H119" s="28" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I119" s="24" t="str">
+      <c r="I119" s="28" t="str">
         <f aca="true">IF(J119 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6605,37 +6626,37 @@
         <f aca="true">IF(L119 = 0, INDIRECT("N" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
-      <c r="R119" s="25" t="str">
+      <c r="R119" s="29" t="str">
         <f aca="true">IF(Q119 = "", "", Q119 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S119" s="25" t="str">
+      <c r="S119" s="30" t="str">
         <f aca="true">IF(J119="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="22" t="str">
+      <c r="B120" s="26" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C120" s="22" t="str">
+      <c r="C120" s="26" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D120" s="22" t="str">
+      <c r="D120" s="26" t="str">
         <f aca="false">IF(E120="","",VLOOKUP(E120,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G120" s="23" t="str">
+      <c r="G120" s="27" t="str">
         <f aca="false">IF(H120="", IF(J120="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N120)),IF(J120="", "", INDIRECT("N" &amp; ROW() - 1) - N120))</f>
         <v/>
       </c>
-      <c r="H120" s="24" t="str">
+      <c r="H120" s="28" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I120" s="24" t="str">
+      <c r="I120" s="28" t="str">
         <f aca="true">IF(J120 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6655,37 +6676,37 @@
         <f aca="true">IF(L120 = 0, INDIRECT("N" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
-      <c r="R120" s="25" t="str">
+      <c r="R120" s="29" t="str">
         <f aca="true">IF(Q120 = "", "", Q120 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S120" s="25" t="str">
+      <c r="S120" s="30" t="str">
         <f aca="true">IF(J120="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="22" t="str">
+      <c r="B121" s="26" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C121" s="22" t="str">
+      <c r="C121" s="26" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D121" s="22" t="str">
+      <c r="D121" s="26" t="str">
         <f aca="false">IF(E121="","",VLOOKUP(E121,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G121" s="23" t="str">
+      <c r="G121" s="27" t="str">
         <f aca="false">IF(H121="", IF(J121="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N121)),IF(J121="", "", INDIRECT("N" &amp; ROW() - 1) - N121))</f>
         <v/>
       </c>
-      <c r="H121" s="24" t="str">
+      <c r="H121" s="28" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I121" s="24" t="str">
+      <c r="I121" s="28" t="str">
         <f aca="true">IF(J121 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6705,37 +6726,37 @@
         <f aca="true">IF(L121 = 0, INDIRECT("N" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
-      <c r="R121" s="25" t="str">
+      <c r="R121" s="29" t="str">
         <f aca="true">IF(Q121 = "", "", Q121 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S121" s="25" t="str">
+      <c r="S121" s="30" t="str">
         <f aca="true">IF(J121="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="22" t="str">
+      <c r="B122" s="26" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$B$150,2,0))</f>
         <v/>
       </c>
-      <c r="C122" s="22" t="str">
+      <c r="C122" s="26" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D122" s="22" t="str">
+      <c r="D122" s="26" t="str">
         <f aca="false">IF(E122="","",VLOOKUP(E122,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G122" s="23" t="str">
+      <c r="G122" s="27" t="str">
         <f aca="false">IF(H122="", IF(J122="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N122)),IF(J122="", "", INDIRECT("N" &amp; ROW() - 1) - N122))</f>
         <v/>
       </c>
-      <c r="H122" s="24" t="str">
+      <c r="H122" s="28" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I122" s="24" t="str">
+      <c r="I122" s="28" t="str">
         <f aca="true">IF(J122 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6755,34 +6776,34 @@
         <f aca="true">IF(L122 = 0, INDIRECT("N" &amp; ROW() - 1), L122)</f>
         <v>0</v>
       </c>
-      <c r="R122" s="25" t="str">
+      <c r="R122" s="29" t="str">
         <f aca="true">IF(Q122 = "", "", Q122 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S122" s="25" t="str">
+      <c r="S122" s="30" t="str">
         <f aca="true">IF(J122="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="22"/>
-      <c r="C123" s="22" t="str">
+      <c r="B123" s="26"/>
+      <c r="C123" s="26" t="str">
         <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D123" s="22" t="str">
+      <c r="D123" s="26" t="str">
         <f aca="false">IF(E123="","",VLOOKUP(E123,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="G123" s="23" t="str">
+      <c r="G123" s="27" t="str">
         <f aca="false">IF(H123="", IF(J123="","",#REF!+(INDIRECT("N" &amp; ROW() - 1) - N123)),IF(J123="", "", INDIRECT("N" &amp; ROW() - 1) - N123))</f>
         <v/>
       </c>
-      <c r="H123" s="24" t="str">
+      <c r="H123" s="28" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I123" s="24" t="str">
+      <c r="I123" s="28" t="str">
         <f aca="true">IF(J123 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
@@ -6802,2876 +6823,2876 @@
         <f aca="true">IF(L123 = 0, INDIRECT("N" &amp; ROW() - 1), L123)</f>
         <v>0</v>
       </c>
-      <c r="R123" s="25" t="str">
+      <c r="R123" s="29" t="str">
         <f aca="true">IF(Q123 = "", "", Q123 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S123" s="25" t="str">
+      <c r="S123" s="30" t="str">
         <f aca="true">IF(J123="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="22"/>
-      <c r="C124" s="22" t="str">
+      <c r="B124" s="26"/>
+      <c r="C124" s="26" t="str">
         <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D124" s="22" t="str">
+      <c r="D124" s="26" t="str">
         <f aca="false">IF(E124="","",VLOOKUP(E124,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H124" s="24" t="str">
+      <c r="H124" s="28" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I124" s="24" t="str">
+      <c r="I124" s="28" t="str">
         <f aca="true">IF(J124 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R124" s="25" t="str">
+      <c r="R124" s="29" t="str">
         <f aca="true">IF(Q124 = "", "", Q124 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S124" s="25" t="str">
+      <c r="S124" s="30" t="str">
         <f aca="true">IF(J124="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="22"/>
-      <c r="C125" s="22" t="str">
+      <c r="B125" s="26"/>
+      <c r="C125" s="26" t="str">
         <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D125" s="22" t="str">
+      <c r="D125" s="26" t="str">
         <f aca="false">IF(E125="","",VLOOKUP(E125,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H125" s="24" t="str">
+      <c r="H125" s="28" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I125" s="24" t="str">
+      <c r="I125" s="28" t="str">
         <f aca="true">IF(J125 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R125" s="25" t="str">
+      <c r="R125" s="29" t="str">
         <f aca="true">IF(Q125 = "", "", Q125 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S125" s="25" t="str">
+      <c r="S125" s="30" t="str">
         <f aca="true">IF(J125="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="22"/>
-      <c r="C126" s="22" t="str">
+      <c r="B126" s="26"/>
+      <c r="C126" s="26" t="str">
         <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D126" s="22" t="str">
+      <c r="D126" s="26" t="str">
         <f aca="false">IF(E126="","",VLOOKUP(E126,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H126" s="24" t="str">
+      <c r="H126" s="28" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I126" s="24" t="str">
+      <c r="I126" s="28" t="str">
         <f aca="true">IF(J126 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R126" s="25" t="str">
+      <c r="R126" s="29" t="str">
         <f aca="true">IF(Q126 = "", "", Q126 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S126" s="25" t="str">
+      <c r="S126" s="30" t="str">
         <f aca="true">IF(J126="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="22"/>
-      <c r="C127" s="22" t="str">
+      <c r="B127" s="26"/>
+      <c r="C127" s="26" t="str">
         <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D127" s="22" t="str">
+      <c r="D127" s="26" t="str">
         <f aca="false">IF(E127="","",VLOOKUP(E127,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H127" s="24" t="str">
+      <c r="H127" s="28" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I127" s="24" t="str">
+      <c r="I127" s="28" t="str">
         <f aca="true">IF(J127 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R127" s="25" t="str">
+      <c r="R127" s="29" t="str">
         <f aca="true">IF(Q127 = "", "", Q127 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S127" s="25" t="str">
+      <c r="S127" s="30" t="str">
         <f aca="true">IF(J127="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="22"/>
-      <c r="C128" s="22" t="str">
+      <c r="B128" s="26"/>
+      <c r="C128" s="26" t="str">
         <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D128" s="22" t="str">
+      <c r="D128" s="26" t="str">
         <f aca="false">IF(E128="","",VLOOKUP(E128,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H128" s="24" t="str">
+      <c r="H128" s="28" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I128" s="24" t="str">
+      <c r="I128" s="28" t="str">
         <f aca="true">IF(J128 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R128" s="25" t="str">
+      <c r="R128" s="29" t="str">
         <f aca="true">IF(Q128 = "", "", Q128 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S128" s="25" t="str">
+      <c r="S128" s="30" t="str">
         <f aca="true">IF(J128="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="22"/>
-      <c r="C129" s="22" t="str">
+      <c r="B129" s="26"/>
+      <c r="C129" s="26" t="str">
         <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D129" s="22" t="str">
+      <c r="D129" s="26" t="str">
         <f aca="false">IF(E129="","",VLOOKUP(E129,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H129" s="24" t="str">
+      <c r="H129" s="28" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I129" s="24" t="str">
+      <c r="I129" s="28" t="str">
         <f aca="true">IF(J129 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R129" s="25" t="str">
+      <c r="R129" s="29" t="str">
         <f aca="true">IF(Q129 = "", "", Q129 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S129" s="25" t="str">
+      <c r="S129" s="30" t="str">
         <f aca="true">IF(J129="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="22"/>
-      <c r="C130" s="22" t="str">
+      <c r="B130" s="26"/>
+      <c r="C130" s="26" t="str">
         <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D130" s="22" t="str">
+      <c r="D130" s="26" t="str">
         <f aca="false">IF(E130="","",VLOOKUP(E130,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H130" s="24" t="str">
+      <c r="H130" s="28" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I130" s="24" t="str">
+      <c r="I130" s="28" t="str">
         <f aca="true">IF(J130 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R130" s="25" t="str">
+      <c r="R130" s="29" t="str">
         <f aca="true">IF(Q130 = "", "", Q130 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S130" s="25" t="str">
+      <c r="S130" s="30" t="str">
         <f aca="true">IF(J130="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="22"/>
-      <c r="C131" s="22" t="str">
+      <c r="B131" s="26"/>
+      <c r="C131" s="26" t="str">
         <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D131" s="22" t="str">
+      <c r="D131" s="26" t="str">
         <f aca="false">IF(E131="","",VLOOKUP(E131,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H131" s="24" t="str">
+      <c r="H131" s="28" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I131" s="24" t="str">
+      <c r="I131" s="28" t="str">
         <f aca="true">IF(J131 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R131" s="25" t="str">
+      <c r="R131" s="29" t="str">
         <f aca="true">IF(Q131 = "", "", Q131 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S131" s="25" t="str">
+      <c r="S131" s="30" t="str">
         <f aca="true">IF(J131="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="22"/>
-      <c r="C132" s="22" t="str">
+      <c r="B132" s="26"/>
+      <c r="C132" s="26" t="str">
         <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D132" s="22" t="str">
+      <c r="D132" s="26" t="str">
         <f aca="false">IF(E132="","",VLOOKUP(E132,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H132" s="24" t="str">
+      <c r="H132" s="28" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I132" s="24" t="str">
+      <c r="I132" s="28" t="str">
         <f aca="true">IF(J132 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R132" s="25" t="str">
+      <c r="R132" s="29" t="str">
         <f aca="true">IF(Q132 = "", "", Q132 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S132" s="25" t="str">
+      <c r="S132" s="30" t="str">
         <f aca="true">IF(J132="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="22"/>
-      <c r="C133" s="22" t="str">
+      <c r="B133" s="26"/>
+      <c r="C133" s="26" t="str">
         <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D133" s="22" t="str">
+      <c r="D133" s="26" t="str">
         <f aca="false">IF(E133="","",VLOOKUP(E133,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H133" s="24" t="str">
+      <c r="H133" s="28" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I133" s="24" t="str">
+      <c r="I133" s="28" t="str">
         <f aca="true">IF(J133 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R133" s="25" t="str">
+      <c r="R133" s="29" t="str">
         <f aca="true">IF(Q133 = "", "", Q133 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S133" s="25" t="str">
+      <c r="S133" s="30" t="str">
         <f aca="true">IF(J133="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="22"/>
-      <c r="C134" s="22" t="str">
+      <c r="B134" s="26"/>
+      <c r="C134" s="26" t="str">
         <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D134" s="22" t="str">
+      <c r="D134" s="26" t="str">
         <f aca="false">IF(E134="","",VLOOKUP(E134,SKU!$A$1:$D$150,4,0))</f>
         <v/>
       </c>
-      <c r="H134" s="24" t="str">
+      <c r="H134" s="28" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I134" s="24" t="str">
+      <c r="I134" s="28" t="str">
         <f aca="true">IF(J134 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R134" s="25" t="str">
+      <c r="R134" s="29" t="str">
         <f aca="true">IF(Q134 = "", "", Q134 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S134" s="25" t="str">
+      <c r="S134" s="30" t="str">
         <f aca="true">IF(J134="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="22"/>
-      <c r="C135" s="22" t="str">
+      <c r="B135" s="26"/>
+      <c r="C135" s="26" t="str">
         <f aca="false">IF(E135="","",VLOOKUP(E135,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D135" s="22"/>
-      <c r="H135" s="24" t="str">
+      <c r="D135" s="26"/>
+      <c r="H135" s="28" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I135" s="24" t="str">
+      <c r="I135" s="28" t="str">
         <f aca="true">IF(J135 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R135" s="25" t="str">
+      <c r="R135" s="29" t="str">
         <f aca="true">IF(Q135 = "", "", Q135 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S135" s="25" t="str">
+      <c r="S135" s="30" t="str">
         <f aca="true">IF(J135="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="22"/>
-      <c r="C136" s="22" t="str">
+      <c r="B136" s="26"/>
+      <c r="C136" s="26" t="str">
         <f aca="false">IF(E136="","",VLOOKUP(E136,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D136" s="22"/>
-      <c r="H136" s="24" t="str">
+      <c r="D136" s="26"/>
+      <c r="H136" s="28" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I136" s="24" t="str">
+      <c r="I136" s="28" t="str">
         <f aca="true">IF(J136 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R136" s="25" t="str">
+      <c r="R136" s="29" t="str">
         <f aca="true">IF(Q136 = "", "", Q136 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S136" s="25" t="str">
+      <c r="S136" s="30" t="str">
         <f aca="true">IF(J136="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="22"/>
-      <c r="C137" s="22" t="str">
+      <c r="B137" s="26"/>
+      <c r="C137" s="26" t="str">
         <f aca="false">IF(E137="","",VLOOKUP(E137,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D137" s="22"/>
-      <c r="H137" s="24" t="str">
+      <c r="D137" s="26"/>
+      <c r="H137" s="28" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I137" s="24" t="str">
+      <c r="I137" s="28" t="str">
         <f aca="true">IF(J137 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R137" s="25" t="str">
+      <c r="R137" s="29" t="str">
         <f aca="true">IF(Q137 = "", "", Q137 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S137" s="25" t="str">
+      <c r="S137" s="30" t="str">
         <f aca="true">IF(J137="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="22"/>
-      <c r="C138" s="22" t="str">
+      <c r="B138" s="26"/>
+      <c r="C138" s="26" t="str">
         <f aca="false">IF(E138="","",VLOOKUP(E138,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D138" s="22"/>
-      <c r="H138" s="24" t="str">
+      <c r="D138" s="26"/>
+      <c r="H138" s="28" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I138" s="24" t="str">
+      <c r="I138" s="28" t="str">
         <f aca="true">IF(J138 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R138" s="25" t="str">
+      <c r="R138" s="29" t="str">
         <f aca="true">IF(Q138 = "", "", Q138 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S138" s="25" t="str">
+      <c r="S138" s="30" t="str">
         <f aca="true">IF(J138="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="22"/>
-      <c r="C139" s="22" t="str">
+      <c r="B139" s="26"/>
+      <c r="C139" s="26" t="str">
         <f aca="false">IF(E139="","",VLOOKUP(E139,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D139" s="22"/>
-      <c r="H139" s="24" t="str">
+      <c r="D139" s="26"/>
+      <c r="H139" s="28" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I139" s="24" t="str">
+      <c r="I139" s="28" t="str">
         <f aca="true">IF(J139 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R139" s="25" t="str">
+      <c r="R139" s="29" t="str">
         <f aca="true">IF(Q139 = "", "", Q139 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S139" s="25" t="str">
+      <c r="S139" s="30" t="str">
         <f aca="true">IF(J139="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="22"/>
-      <c r="C140" s="22" t="str">
+      <c r="B140" s="26"/>
+      <c r="C140" s="26" t="str">
         <f aca="false">IF(E140="","",VLOOKUP(E140,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D140" s="22"/>
-      <c r="H140" s="24" t="str">
+      <c r="D140" s="26"/>
+      <c r="H140" s="28" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I140" s="24" t="str">
+      <c r="I140" s="28" t="str">
         <f aca="true">IF(J140 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R140" s="25" t="str">
+      <c r="R140" s="29" t="str">
         <f aca="true">IF(Q140 = "", "", Q140 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S140" s="25" t="str">
+      <c r="S140" s="30" t="str">
         <f aca="true">IF(J140="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="22"/>
-      <c r="C141" s="22" t="str">
+      <c r="B141" s="26"/>
+      <c r="C141" s="26" t="str">
         <f aca="false">IF(E141="","",VLOOKUP(E141,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D141" s="22"/>
-      <c r="H141" s="24" t="str">
+      <c r="D141" s="26"/>
+      <c r="H141" s="28" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I141" s="24" t="str">
+      <c r="I141" s="28" t="str">
         <f aca="true">IF(J141 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R141" s="25" t="str">
+      <c r="R141" s="29" t="str">
         <f aca="true">IF(Q141 = "", "", Q141 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S141" s="25" t="str">
+      <c r="S141" s="30" t="str">
         <f aca="true">IF(J141="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="22"/>
-      <c r="C142" s="22" t="str">
+      <c r="B142" s="26"/>
+      <c r="C142" s="26" t="str">
         <f aca="false">IF(E142="","",VLOOKUP(E142,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D142" s="22"/>
-      <c r="H142" s="24" t="str">
+      <c r="D142" s="26"/>
+      <c r="H142" s="28" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I142" s="24" t="str">
+      <c r="I142" s="28" t="str">
         <f aca="true">IF(J142 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R142" s="25" t="str">
+      <c r="R142" s="29" t="str">
         <f aca="true">IF(Q142 = "", "", Q142 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S142" s="25" t="str">
+      <c r="S142" s="30" t="str">
         <f aca="true">IF(J142="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="22"/>
-      <c r="C143" s="22" t="str">
+      <c r="B143" s="26"/>
+      <c r="C143" s="26" t="str">
         <f aca="false">IF(E143="","",VLOOKUP(E143,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D143" s="22"/>
-      <c r="H143" s="24" t="str">
+      <c r="D143" s="26"/>
+      <c r="H143" s="28" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I143" s="24" t="str">
+      <c r="I143" s="28" t="str">
         <f aca="true">IF(J143 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R143" s="25" t="str">
+      <c r="R143" s="29" t="str">
         <f aca="true">IF(Q143 = "", "", Q143 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S143" s="25" t="str">
+      <c r="S143" s="30" t="str">
         <f aca="true">IF(J143="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="22"/>
-      <c r="C144" s="22" t="str">
+      <c r="B144" s="26"/>
+      <c r="C144" s="26" t="str">
         <f aca="false">IF(E144="","",VLOOKUP(E144,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D144" s="22"/>
-      <c r="H144" s="24" t="str">
+      <c r="D144" s="26"/>
+      <c r="H144" s="28" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I144" s="24" t="str">
+      <c r="I144" s="28" t="str">
         <f aca="true">IF(J144 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R144" s="25" t="str">
+      <c r="R144" s="29" t="str">
         <f aca="true">IF(Q144 = "", "", Q144 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S144" s="25" t="str">
+      <c r="S144" s="30" t="str">
         <f aca="true">IF(J144="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="22"/>
-      <c r="C145" s="22" t="str">
+      <c r="B145" s="26"/>
+      <c r="C145" s="26" t="str">
         <f aca="false">IF(E145="","",VLOOKUP(E145,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D145" s="22"/>
-      <c r="H145" s="24" t="str">
+      <c r="D145" s="26"/>
+      <c r="H145" s="28" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I145" s="24" t="str">
+      <c r="I145" s="28" t="str">
         <f aca="true">IF(J145 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R145" s="25" t="str">
+      <c r="R145" s="29" t="str">
         <f aca="true">IF(Q145 = "", "", Q145 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S145" s="25" t="str">
+      <c r="S145" s="30" t="str">
         <f aca="true">IF(J145="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="22"/>
-      <c r="C146" s="22" t="str">
+      <c r="B146" s="26"/>
+      <c r="C146" s="26" t="str">
         <f aca="false">IF(E146="","",VLOOKUP(E146,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D146" s="22"/>
-      <c r="H146" s="24" t="str">
+      <c r="D146" s="26"/>
+      <c r="H146" s="28" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I146" s="24" t="str">
+      <c r="I146" s="28" t="str">
         <f aca="true">IF(J146 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R146" s="25" t="str">
+      <c r="R146" s="29" t="str">
         <f aca="true">IF(Q146 = "", "", Q146 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S146" s="25" t="str">
+      <c r="S146" s="30" t="str">
         <f aca="true">IF(J146="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="22"/>
-      <c r="C147" s="22" t="str">
+      <c r="B147" s="26"/>
+      <c r="C147" s="26" t="str">
         <f aca="false">IF(E147="","",VLOOKUP(E147,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D147" s="22"/>
-      <c r="H147" s="24" t="str">
+      <c r="D147" s="26"/>
+      <c r="H147" s="28" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I147" s="24" t="str">
+      <c r="I147" s="28" t="str">
         <f aca="true">IF(J147 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R147" s="25" t="str">
+      <c r="R147" s="29" t="str">
         <f aca="true">IF(Q147 = "", "", Q147 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S147" s="25" t="str">
+      <c r="S147" s="30" t="str">
         <f aca="true">IF(J147="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="22"/>
-      <c r="C148" s="22" t="str">
+      <c r="B148" s="26"/>
+      <c r="C148" s="26" t="str">
         <f aca="false">IF(E148="","",VLOOKUP(E148,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D148" s="22"/>
-      <c r="H148" s="24" t="str">
+      <c r="D148" s="26"/>
+      <c r="H148" s="28" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I148" s="24" t="str">
+      <c r="I148" s="28" t="str">
         <f aca="true">IF(J148 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R148" s="25" t="str">
+      <c r="R148" s="29" t="str">
         <f aca="true">IF(Q148 = "", "", Q148 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S148" s="25" t="str">
+      <c r="S148" s="30" t="str">
         <f aca="true">IF(J148="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="22"/>
-      <c r="C149" s="22" t="str">
+      <c r="B149" s="26"/>
+      <c r="C149" s="26" t="str">
         <f aca="false">IF(E149="","",VLOOKUP(E149,SKU!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="D149" s="22"/>
-      <c r="H149" s="24" t="str">
+      <c r="D149" s="26"/>
+      <c r="H149" s="28" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I149" s="24" t="str">
+      <c r="I149" s="28" t="str">
         <f aca="true">IF(J149 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R149" s="25" t="str">
+      <c r="R149" s="29" t="str">
         <f aca="true">IF(Q149 = "", "", Q149 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S149" s="25" t="str">
+      <c r="S149" s="30" t="str">
         <f aca="true">IF(J149="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="22"/>
-      <c r="C150" s="22"/>
-      <c r="D150" s="22"/>
-      <c r="H150" s="24" t="str">
+      <c r="B150" s="26"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="H150" s="28" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I150" s="24" t="str">
+      <c r="I150" s="28" t="str">
         <f aca="true">IF(J150 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R150" s="25" t="str">
+      <c r="R150" s="29" t="str">
         <f aca="true">IF(Q150 = "", "", Q150 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S150" s="25" t="str">
+      <c r="S150" s="30" t="str">
         <f aca="true">IF(J150="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="22"/>
-      <c r="C151" s="22"/>
-      <c r="D151" s="22"/>
-      <c r="H151" s="24" t="str">
+      <c r="B151" s="26"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="H151" s="28" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I151" s="24" t="str">
+      <c r="I151" s="28" t="str">
         <f aca="true">IF(J151 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R151" s="25" t="str">
+      <c r="R151" s="29" t="str">
         <f aca="true">IF(Q151 = "", "", Q151 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S151" s="25" t="str">
+      <c r="S151" s="30" t="str">
         <f aca="true">IF(J151="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="22"/>
-      <c r="C152" s="22"/>
-      <c r="D152" s="22"/>
-      <c r="H152" s="24" t="str">
+      <c r="B152" s="26"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="H152" s="28" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I152" s="24" t="str">
+      <c r="I152" s="28" t="str">
         <f aca="true">IF(J152 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R152" s="25" t="str">
+      <c r="R152" s="29" t="str">
         <f aca="true">IF(Q152 = "", "", Q152 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S152" s="25" t="str">
+      <c r="S152" s="30" t="str">
         <f aca="true">IF(J152="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="22"/>
-      <c r="C153" s="22"/>
-      <c r="D153" s="22"/>
-      <c r="H153" s="24" t="str">
+      <c r="B153" s="26"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="H153" s="28" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I153" s="24" t="str">
+      <c r="I153" s="28" t="str">
         <f aca="true">IF(J153 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R153" s="25" t="str">
+      <c r="R153" s="29" t="str">
         <f aca="true">IF(Q153 = "", "", Q153 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S153" s="25" t="str">
+      <c r="S153" s="30" t="str">
         <f aca="true">IF(J153="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="22"/>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
-      <c r="H154" s="24" t="str">
+      <c r="B154" s="26"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="H154" s="28" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I154" s="24" t="str">
+      <c r="I154" s="28" t="str">
         <f aca="true">IF(J154 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R154" s="25" t="str">
+      <c r="R154" s="29" t="str">
         <f aca="true">IF(Q154 = "", "", Q154 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S154" s="25" t="str">
+      <c r="S154" s="30" t="str">
         <f aca="true">IF(J154="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="22"/>
-      <c r="C155" s="22"/>
-      <c r="D155" s="22"/>
-      <c r="H155" s="24" t="str">
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="H155" s="28" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I155" s="24" t="str">
+      <c r="I155" s="28" t="str">
         <f aca="true">IF(J155 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R155" s="25" t="str">
+      <c r="R155" s="29" t="str">
         <f aca="true">IF(Q155 = "", "", Q155 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S155" s="25" t="str">
+      <c r="S155" s="30" t="str">
         <f aca="true">IF(J155="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="22"/>
-      <c r="C156" s="22"/>
-      <c r="D156" s="22"/>
-      <c r="H156" s="24" t="str">
+      <c r="B156" s="26"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="H156" s="28" t="str">
         <f aca="true">IF(J156 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I156" s="24" t="str">
+      <c r="I156" s="28" t="str">
         <f aca="true">IF(J156 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R156" s="25" t="str">
+      <c r="R156" s="29" t="str">
         <f aca="true">IF(Q156 = "", "", Q156 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S156" s="25" t="str">
+      <c r="S156" s="30" t="str">
         <f aca="true">IF(J156="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="22"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="H157" s="24" t="str">
+      <c r="B157" s="26"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="H157" s="28" t="str">
         <f aca="true">IF(J157 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I157" s="24" t="str">
+      <c r="I157" s="28" t="str">
         <f aca="true">IF(J157 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R157" s="25" t="str">
+      <c r="R157" s="29" t="str">
         <f aca="true">IF(Q157 = "", "", Q157 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S157" s="25" t="str">
+      <c r="S157" s="30" t="str">
         <f aca="true">IF(J157="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="22"/>
-      <c r="C158" s="22"/>
-      <c r="D158" s="22"/>
-      <c r="H158" s="24" t="str">
+      <c r="B158" s="26"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="H158" s="28" t="str">
         <f aca="true">IF(J158 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I158" s="24" t="str">
+      <c r="I158" s="28" t="str">
         <f aca="true">IF(J158 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R158" s="25" t="str">
+      <c r="R158" s="29" t="str">
         <f aca="true">IF(Q158 = "", "", Q158 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S158" s="25" t="str">
+      <c r="S158" s="30" t="str">
         <f aca="true">IF(J158="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="H159" s="24" t="str">
+      <c r="B159" s="26"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="H159" s="28" t="str">
         <f aca="true">IF(J159 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I159" s="24" t="str">
+      <c r="I159" s="28" t="str">
         <f aca="true">IF(J159 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R159" s="25" t="str">
+      <c r="R159" s="29" t="str">
         <f aca="true">IF(Q159 = "", "", Q159 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S159" s="25" t="str">
+      <c r="S159" s="30" t="str">
         <f aca="true">IF(J159="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="22"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-      <c r="H160" s="24" t="str">
+      <c r="B160" s="26"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="H160" s="28" t="str">
         <f aca="true">IF(J160 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I160" s="24" t="str">
+      <c r="I160" s="28" t="str">
         <f aca="true">IF(J160 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R160" s="25" t="str">
+      <c r="R160" s="29" t="str">
         <f aca="true">IF(Q160 = "", "", Q160 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S160" s="25" t="str">
+      <c r="S160" s="30" t="str">
         <f aca="true">IF(J160="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="22"/>
-      <c r="C161" s="22"/>
-      <c r="D161" s="22"/>
-      <c r="H161" s="24" t="str">
+      <c r="B161" s="26"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="H161" s="28" t="str">
         <f aca="true">IF(J161 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I161" s="24" t="str">
+      <c r="I161" s="28" t="str">
         <f aca="true">IF(J161 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R161" s="25" t="str">
+      <c r="R161" s="29" t="str">
         <f aca="true">IF(Q161 = "", "", Q161 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S161" s="25" t="str">
+      <c r="S161" s="30" t="str">
         <f aca="true">IF(J161="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="22"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="H162" s="24" t="str">
+      <c r="B162" s="26"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="H162" s="28" t="str">
         <f aca="true">IF(J162 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I162" s="24" t="str">
+      <c r="I162" s="28" t="str">
         <f aca="true">IF(J162 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R162" s="25" t="str">
+      <c r="R162" s="29" t="str">
         <f aca="true">IF(Q162 = "", "", Q162 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S162" s="25" t="str">
+      <c r="S162" s="30" t="str">
         <f aca="true">IF(J162="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="22"/>
-      <c r="C163" s="22"/>
-      <c r="D163" s="22"/>
-      <c r="H163" s="24" t="str">
+      <c r="B163" s="26"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="H163" s="28" t="str">
         <f aca="true">IF(J163 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I163" s="24" t="str">
+      <c r="I163" s="28" t="str">
         <f aca="true">IF(J163 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R163" s="25" t="str">
+      <c r="R163" s="29" t="str">
         <f aca="true">IF(Q163 = "", "", Q163 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S163" s="25" t="str">
+      <c r="S163" s="30" t="str">
         <f aca="true">IF(J163="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="22"/>
-      <c r="C164" s="22"/>
-      <c r="D164" s="22"/>
-      <c r="H164" s="24" t="str">
+      <c r="B164" s="26"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="H164" s="28" t="str">
         <f aca="true">IF(J164 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I164" s="24" t="str">
+      <c r="I164" s="28" t="str">
         <f aca="true">IF(J164 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R164" s="25" t="str">
+      <c r="R164" s="29" t="str">
         <f aca="true">IF(Q164 = "", "", Q164 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S164" s="25" t="str">
+      <c r="S164" s="30" t="str">
         <f aca="true">IF(J164="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="22"/>
-      <c r="C165" s="22"/>
-      <c r="D165" s="22"/>
-      <c r="H165" s="24" t="str">
+      <c r="B165" s="26"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="H165" s="28" t="str">
         <f aca="true">IF(J165 = "-", INDIRECT("D" &amp; ROW() - 1) * 1890,"")</f>
         <v/>
       </c>
-      <c r="I165" s="24" t="str">
+      <c r="I165" s="28" t="str">
         <f aca="true">IF(J165 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R165" s="25" t="str">
+      <c r="R165" s="29" t="str">
         <f aca="true">IF(Q165 = "", "", Q165 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S165" s="25" t="str">
+      <c r="S165" s="30" t="str">
         <f aca="true">IF(J165="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="22"/>
-      <c r="C166" s="22"/>
-      <c r="D166" s="22"/>
-      <c r="I166" s="24" t="str">
+      <c r="B166" s="26"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="I166" s="28" t="str">
         <f aca="true">IF(J166 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R166" s="25" t="str">
+      <c r="R166" s="29" t="str">
         <f aca="true">IF(Q166 = "", "", Q166 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S166" s="25" t="str">
+      <c r="S166" s="30" t="str">
         <f aca="true">IF(J166="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="22"/>
-      <c r="C167" s="22"/>
-      <c r="D167" s="22"/>
-      <c r="I167" s="24" t="str">
+      <c r="B167" s="26"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="I167" s="28" t="str">
         <f aca="true">IF(J167 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R167" s="25" t="str">
+      <c r="R167" s="29" t="str">
         <f aca="true">IF(Q167 = "", "", Q167 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S167" s="25" t="str">
+      <c r="S167" s="30" t="str">
         <f aca="true">IF(J167="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="22"/>
-      <c r="C168" s="22"/>
-      <c r="D168" s="22"/>
-      <c r="I168" s="24" t="str">
+      <c r="B168" s="26"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="I168" s="28" t="str">
         <f aca="true">IF(J168 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R168" s="25" t="str">
+      <c r="R168" s="29" t="str">
         <f aca="true">IF(Q168 = "", "", Q168 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S168" s="25" t="str">
+      <c r="S168" s="30" t="str">
         <f aca="true">IF(J168="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="22"/>
-      <c r="C169" s="22"/>
-      <c r="D169" s="22"/>
-      <c r="I169" s="24" t="str">
+      <c r="B169" s="26"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="I169" s="28" t="str">
         <f aca="true">IF(J169 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R169" s="25" t="str">
+      <c r="R169" s="29" t="str">
         <f aca="true">IF(Q169 = "", "", Q169 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S169" s="25" t="str">
+      <c r="S169" s="30" t="str">
         <f aca="true">IF(J169="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="22"/>
-      <c r="C170" s="22"/>
-      <c r="D170" s="22"/>
-      <c r="I170" s="24" t="str">
+      <c r="B170" s="26"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="I170" s="28" t="str">
         <f aca="true">IF(J170 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R170" s="25" t="str">
+      <c r="R170" s="29" t="str">
         <f aca="true">IF(Q170 = "", "", Q170 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S170" s="25" t="str">
+      <c r="S170" s="30" t="str">
         <f aca="true">IF(J170="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
-      <c r="I171" s="24" t="str">
+      <c r="B171" s="26"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="I171" s="28" t="str">
         <f aca="true">IF(J171 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R171" s="25" t="str">
+      <c r="R171" s="29" t="str">
         <f aca="true">IF(Q171 = "", "", Q171 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S171" s="25" t="str">
+      <c r="S171" s="30" t="str">
         <f aca="true">IF(J171="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="22"/>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="I172" s="24" t="str">
+      <c r="B172" s="26"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="I172" s="28" t="str">
         <f aca="true">IF(J172 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R172" s="25" t="str">
+      <c r="R172" s="29" t="str">
         <f aca="true">IF(Q172 = "", "", Q172 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S172" s="25" t="str">
+      <c r="S172" s="30" t="str">
         <f aca="true">IF(J172="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="22"/>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="I173" s="24" t="str">
+      <c r="B173" s="26"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="I173" s="28" t="str">
         <f aca="true">IF(J173 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R173" s="25" t="str">
+      <c r="R173" s="29" t="str">
         <f aca="true">IF(Q173 = "", "", Q173 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S173" s="25" t="str">
+      <c r="S173" s="30" t="str">
         <f aca="true">IF(J173="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="22"/>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="I174" s="24" t="str">
+      <c r="B174" s="26"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="I174" s="28" t="str">
         <f aca="true">IF(J174 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R174" s="25" t="str">
+      <c r="R174" s="29" t="str">
         <f aca="true">IF(Q174 = "", "", Q174 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S174" s="25" t="str">
+      <c r="S174" s="30" t="str">
         <f aca="true">IF(J174="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="22"/>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="I175" s="24" t="str">
+      <c r="B175" s="26"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="I175" s="28" t="str">
         <f aca="true">IF(J175 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R175" s="25" t="str">
+      <c r="R175" s="29" t="str">
         <f aca="true">IF(Q175 = "", "", Q175 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S175" s="25" t="str">
+      <c r="S175" s="30" t="str">
         <f aca="true">IF(J175="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="22"/>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="I176" s="24" t="str">
+      <c r="B176" s="26"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="I176" s="28" t="str">
         <f aca="true">IF(J176 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R176" s="25" t="str">
+      <c r="R176" s="29" t="str">
         <f aca="true">IF(Q176 = "", "", Q176 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S176" s="25" t="str">
+      <c r="S176" s="30" t="str">
         <f aca="true">IF(J176="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="22"/>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="I177" s="24" t="str">
+      <c r="B177" s="26"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="I177" s="28" t="str">
         <f aca="true">IF(J177 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R177" s="25" t="str">
+      <c r="R177" s="29" t="str">
         <f aca="true">IF(Q177 = "", "", Q177 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S177" s="25" t="str">
+      <c r="S177" s="30" t="str">
         <f aca="true">IF(J177="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="22"/>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="I178" s="24" t="str">
+      <c r="B178" s="26"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="I178" s="28" t="str">
         <f aca="true">IF(J178 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R178" s="25" t="str">
+      <c r="R178" s="29" t="str">
         <f aca="true">IF(Q178 = "", "", Q178 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S178" s="25" t="str">
+      <c r="S178" s="30" t="str">
         <f aca="true">IF(J178="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="22"/>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="I179" s="24" t="str">
+      <c r="B179" s="26"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="I179" s="28" t="str">
         <f aca="true">IF(J179 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R179" s="25" t="str">
+      <c r="R179" s="29" t="str">
         <f aca="true">IF(Q179 = "", "", Q179 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S179" s="25" t="str">
+      <c r="S179" s="30" t="str">
         <f aca="true">IF(J179="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="22"/>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="I180" s="24" t="str">
+      <c r="B180" s="26"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="I180" s="28" t="str">
         <f aca="true">IF(J180 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R180" s="25" t="str">
+      <c r="R180" s="29" t="str">
         <f aca="true">IF(Q180 = "", "", Q180 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S180" s="25" t="str">
+      <c r="S180" s="30" t="str">
         <f aca="true">IF(J180="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="22"/>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="I181" s="24" t="str">
+      <c r="B181" s="26"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="I181" s="28" t="str">
         <f aca="true">IF(J181 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R181" s="25" t="str">
+      <c r="R181" s="29" t="str">
         <f aca="true">IF(Q181 = "", "", Q181 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S181" s="25" t="str">
+      <c r="S181" s="30" t="str">
         <f aca="true">IF(J181="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="22"/>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
-      <c r="I182" s="24" t="str">
+      <c r="B182" s="26"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="I182" s="28" t="str">
         <f aca="true">IF(J182 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R182" s="25" t="str">
+      <c r="R182" s="29" t="str">
         <f aca="true">IF(Q182 = "", "", Q182 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S182" s="25" t="str">
+      <c r="S182" s="30" t="str">
         <f aca="true">IF(J182="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="22"/>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="I183" s="24" t="str">
+      <c r="B183" s="26"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="I183" s="28" t="str">
         <f aca="true">IF(J183 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R183" s="25" t="str">
+      <c r="R183" s="29" t="str">
         <f aca="true">IF(Q183 = "", "", Q183 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S183" s="25" t="str">
+      <c r="S183" s="30" t="str">
         <f aca="true">IF(J183="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="22"/>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="I184" s="24" t="str">
+      <c r="B184" s="26"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="I184" s="28" t="str">
         <f aca="true">IF(J184 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R184" s="25" t="str">
+      <c r="R184" s="29" t="str">
         <f aca="true">IF(Q184 = "", "", Q184 / INDIRECT("D" &amp; ROW() - 1) )</f>
         <v/>
       </c>
-      <c r="S184" s="25" t="str">
+      <c r="S184" s="30" t="str">
         <f aca="true">IF(J184="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="22"/>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="I185" s="24" t="str">
+      <c r="B185" s="26"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="I185" s="28" t="str">
         <f aca="true">IF(J185 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R185" s="25"/>
-      <c r="S185" s="25" t="str">
+      <c r="R185" s="29"/>
+      <c r="S185" s="30" t="str">
         <f aca="true">IF(J185="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="22"/>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="I186" s="24" t="str">
+      <c r="B186" s="26"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="I186" s="28" t="str">
         <f aca="true">IF(J186 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R186" s="25"/>
-      <c r="S186" s="25" t="str">
+      <c r="R186" s="29"/>
+      <c r="S186" s="30" t="str">
         <f aca="true">IF(J186="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="22"/>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="I187" s="24" t="str">
+      <c r="B187" s="26"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="I187" s="28" t="str">
         <f aca="true">IF(J187 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R187" s="25"/>
-      <c r="S187" s="25" t="str">
+      <c r="R187" s="29"/>
+      <c r="S187" s="30" t="str">
         <f aca="true">IF(J187="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="22"/>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="I188" s="24" t="str">
+      <c r="B188" s="26"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="I188" s="28" t="str">
         <f aca="true">IF(J188 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R188" s="25"/>
-      <c r="S188" s="25" t="str">
+      <c r="R188" s="29"/>
+      <c r="S188" s="30" t="str">
         <f aca="true">IF(J188="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="22"/>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="I189" s="24" t="str">
+      <c r="B189" s="26"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
+      <c r="I189" s="28" t="str">
         <f aca="true">IF(J189 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R189" s="25"/>
-      <c r="S189" s="25" t="str">
+      <c r="R189" s="29"/>
+      <c r="S189" s="30" t="str">
         <f aca="true">IF(J189="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="22"/>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
-      <c r="I190" s="24" t="str">
+      <c r="B190" s="26"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="I190" s="28" t="str">
         <f aca="true">IF(J190 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R190" s="25"/>
-      <c r="S190" s="25" t="str">
+      <c r="R190" s="29"/>
+      <c r="S190" s="30" t="str">
         <f aca="true">IF(J190="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="22"/>
-      <c r="C191" s="22"/>
-      <c r="D191" s="22"/>
-      <c r="I191" s="24" t="str">
+      <c r="B191" s="26"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="I191" s="28" t="str">
         <f aca="true">IF(J191 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R191" s="25"/>
-      <c r="S191" s="25" t="str">
+      <c r="R191" s="29"/>
+      <c r="S191" s="30" t="str">
         <f aca="true">IF(J191="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="22"/>
-      <c r="C192" s="22"/>
-      <c r="D192" s="22"/>
-      <c r="I192" s="24" t="str">
+      <c r="B192" s="26"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="I192" s="28" t="str">
         <f aca="true">IF(J192 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R192" s="25"/>
-      <c r="S192" s="25" t="str">
+      <c r="R192" s="29"/>
+      <c r="S192" s="30" t="str">
         <f aca="true">IF(J192="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="22"/>
-      <c r="C193" s="22"/>
-      <c r="D193" s="22"/>
-      <c r="I193" s="24" t="str">
+      <c r="B193" s="26"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="I193" s="28" t="str">
         <f aca="true">IF(J193 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R193" s="25"/>
-      <c r="S193" s="25" t="str">
+      <c r="R193" s="29"/>
+      <c r="S193" s="30" t="str">
         <f aca="true">IF(J193="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="22"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="22"/>
-      <c r="I194" s="24" t="str">
+      <c r="B194" s="26"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="I194" s="28" t="str">
         <f aca="true">IF(J194 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R194" s="25"/>
-      <c r="S194" s="25" t="str">
+      <c r="R194" s="29"/>
+      <c r="S194" s="30" t="str">
         <f aca="true">IF(J194="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="22"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="22"/>
-      <c r="I195" s="24" t="str">
+      <c r="B195" s="26"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="I195" s="28" t="str">
         <f aca="true">IF(J195 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R195" s="25"/>
-      <c r="S195" s="25" t="str">
+      <c r="R195" s="29"/>
+      <c r="S195" s="30" t="str">
         <f aca="true">IF(J195="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="22"/>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="I196" s="24" t="str">
+      <c r="B196" s="26"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="I196" s="28" t="str">
         <f aca="true">IF(J196 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R196" s="25"/>
-      <c r="S196" s="25" t="str">
+      <c r="R196" s="29"/>
+      <c r="S196" s="30" t="str">
         <f aca="true">IF(J196="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="22"/>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="I197" s="24" t="str">
+      <c r="B197" s="26"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26"/>
+      <c r="I197" s="28" t="str">
         <f aca="true">IF(J197 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R197" s="25"/>
-      <c r="S197" s="25" t="str">
+      <c r="R197" s="29"/>
+      <c r="S197" s="30" t="str">
         <f aca="true">IF(J197="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="22"/>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="I198" s="24" t="str">
+      <c r="B198" s="26"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="I198" s="28" t="str">
         <f aca="true">IF(J198 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R198" s="25"/>
-      <c r="S198" s="25" t="str">
+      <c r="R198" s="29"/>
+      <c r="S198" s="30" t="str">
         <f aca="true">IF(J198="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="22"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="I199" s="24" t="str">
+      <c r="B199" s="26"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="I199" s="28" t="str">
         <f aca="true">IF(J199 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R199" s="25"/>
-      <c r="S199" s="25" t="str">
+      <c r="R199" s="29"/>
+      <c r="S199" s="30" t="str">
         <f aca="true">IF(J199="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="22"/>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="I200" s="24" t="str">
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="I200" s="28" t="str">
         <f aca="true">IF(J200 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R200" s="25"/>
-      <c r="S200" s="25" t="str">
+      <c r="R200" s="29"/>
+      <c r="S200" s="30" t="str">
         <f aca="true">IF(J200="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="22"/>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="I201" s="24" t="str">
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="I201" s="28" t="str">
         <f aca="true">IF(J201 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R201" s="25"/>
-      <c r="S201" s="25" t="str">
+      <c r="R201" s="29"/>
+      <c r="S201" s="30" t="str">
         <f aca="true">IF(J201="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="22"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
-      <c r="I202" s="24" t="str">
+      <c r="B202" s="26"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="I202" s="28" t="str">
         <f aca="true">IF(J202 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R202" s="25"/>
-      <c r="S202" s="25" t="str">
+      <c r="R202" s="29"/>
+      <c r="S202" s="30" t="str">
         <f aca="true">IF(J202="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="22"/>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="I203" s="24" t="str">
+      <c r="B203" s="26"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="I203" s="28" t="str">
         <f aca="true">IF(J203 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R203" s="25"/>
-      <c r="S203" s="25" t="str">
+      <c r="R203" s="29"/>
+      <c r="S203" s="30" t="str">
         <f aca="true">IF(J203="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="22"/>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="I204" s="24" t="str">
+      <c r="B204" s="26"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="I204" s="28" t="str">
         <f aca="true">IF(J204 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R204" s="25"/>
-      <c r="S204" s="25" t="str">
+      <c r="R204" s="29"/>
+      <c r="S204" s="30" t="str">
         <f aca="true">IF(J204="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="22"/>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="I205" s="24" t="str">
+      <c r="B205" s="26"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="I205" s="28" t="str">
         <f aca="true">IF(J205 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R205" s="25"/>
-      <c r="S205" s="25" t="str">
+      <c r="R205" s="29"/>
+      <c r="S205" s="30" t="str">
         <f aca="true">IF(J205="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="22"/>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="I206" s="24" t="str">
+      <c r="B206" s="26"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="I206" s="28" t="str">
         <f aca="true">IF(J206 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R206" s="25"/>
-      <c r="S206" s="25" t="str">
+      <c r="R206" s="29"/>
+      <c r="S206" s="30" t="str">
         <f aca="true">IF(J206="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="22"/>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
-      <c r="I207" s="24" t="str">
+      <c r="B207" s="26"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
+      <c r="I207" s="28" t="str">
         <f aca="true">IF(J207 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R207" s="25"/>
-      <c r="S207" s="25" t="str">
+      <c r="R207" s="29"/>
+      <c r="S207" s="30" t="str">
         <f aca="true">IF(J207="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="22"/>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="I208" s="24" t="str">
+      <c r="B208" s="26"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="I208" s="28" t="str">
         <f aca="true">IF(J208 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R208" s="25"/>
-      <c r="S208" s="25" t="str">
+      <c r="R208" s="29"/>
+      <c r="S208" s="30" t="str">
         <f aca="true">IF(J208="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="22"/>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
-      <c r="I209" s="24" t="str">
+      <c r="B209" s="26"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="I209" s="28" t="str">
         <f aca="true">IF(J209 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R209" s="25"/>
-      <c r="S209" s="25" t="str">
+      <c r="R209" s="29"/>
+      <c r="S209" s="30" t="str">
         <f aca="true">IF(J209="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="22"/>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="I210" s="24" t="str">
+      <c r="B210" s="26"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="I210" s="28" t="str">
         <f aca="true">IF(J210 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R210" s="25"/>
-      <c r="S210" s="25" t="str">
+      <c r="R210" s="29"/>
+      <c r="S210" s="30" t="str">
         <f aca="true">IF(J210="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="22"/>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="I211" s="24" t="str">
+      <c r="B211" s="26"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="I211" s="28" t="str">
         <f aca="true">IF(J211 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R211" s="25"/>
-      <c r="S211" s="25" t="str">
+      <c r="R211" s="29"/>
+      <c r="S211" s="30" t="str">
         <f aca="true">IF(J211="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="22"/>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="I212" s="24" t="str">
+      <c r="B212" s="26"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="I212" s="28" t="str">
         <f aca="true">IF(J212 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R212" s="25"/>
-      <c r="S212" s="25" t="str">
+      <c r="R212" s="29"/>
+      <c r="S212" s="30" t="str">
         <f aca="true">IF(J212="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="22"/>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="I213" s="24" t="str">
+      <c r="B213" s="26"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="I213" s="28" t="str">
         <f aca="true">IF(J213 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R213" s="25"/>
-      <c r="S213" s="25" t="str">
+      <c r="R213" s="29"/>
+      <c r="S213" s="30" t="str">
         <f aca="true">IF(J213="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="22"/>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="I214" s="24" t="str">
+      <c r="B214" s="26"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="I214" s="28" t="str">
         <f aca="true">IF(J214 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R214" s="25"/>
-      <c r="S214" s="25" t="str">
+      <c r="R214" s="29"/>
+      <c r="S214" s="30" t="str">
         <f aca="true">IF(J214="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="22"/>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="I215" s="24" t="str">
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="I215" s="28" t="str">
         <f aca="true">IF(J215 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R215" s="25"/>
-      <c r="S215" s="25" t="str">
+      <c r="R215" s="29"/>
+      <c r="S215" s="30" t="str">
         <f aca="true">IF(J215="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="22"/>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="I216" s="24" t="str">
+      <c r="B216" s="26"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="I216" s="28" t="str">
         <f aca="true">IF(J216 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R216" s="25"/>
-      <c r="S216" s="25" t="str">
+      <c r="R216" s="29"/>
+      <c r="S216" s="30" t="str">
         <f aca="true">IF(J216="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="22"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="I217" s="24" t="str">
+      <c r="B217" s="26"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="I217" s="28" t="str">
         <f aca="true">IF(J217 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R217" s="25"/>
-      <c r="S217" s="25" t="str">
+      <c r="R217" s="29"/>
+      <c r="S217" s="30" t="str">
         <f aca="true">IF(J217="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="22"/>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="I218" s="24" t="str">
+      <c r="B218" s="26"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="I218" s="28" t="str">
         <f aca="true">IF(J218 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R218" s="25"/>
-      <c r="S218" s="25" t="str">
+      <c r="R218" s="29"/>
+      <c r="S218" s="30" t="str">
         <f aca="true">IF(J218="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="22"/>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="I219" s="24" t="str">
+      <c r="B219" s="26"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="I219" s="28" t="str">
         <f aca="true">IF(J219 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R219" s="25"/>
-      <c r="S219" s="25" t="str">
+      <c r="R219" s="29"/>
+      <c r="S219" s="30" t="str">
         <f aca="true">IF(J219="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="22"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="I220" s="24" t="str">
+      <c r="B220" s="26"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="26"/>
+      <c r="I220" s="28" t="str">
         <f aca="true">IF(J220 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R220" s="25"/>
-      <c r="S220" s="25" t="str">
+      <c r="R220" s="29"/>
+      <c r="S220" s="30" t="str">
         <f aca="true">IF(J220="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="22"/>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="I221" s="24" t="str">
+      <c r="B221" s="26"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="I221" s="28" t="str">
         <f aca="true">IF(J221 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R221" s="25"/>
-      <c r="S221" s="25" t="str">
+      <c r="R221" s="29"/>
+      <c r="S221" s="30" t="str">
         <f aca="true">IF(J221="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="22"/>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="I222" s="24" t="str">
+      <c r="B222" s="26"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="I222" s="28" t="str">
         <f aca="true">IF(J222 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R222" s="25"/>
-      <c r="S222" s="25" t="str">
+      <c r="R222" s="29"/>
+      <c r="S222" s="30" t="str">
         <f aca="true">IF(J222="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="22"/>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="I223" s="24" t="str">
+      <c r="B223" s="26"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="26"/>
+      <c r="I223" s="28" t="str">
         <f aca="true">IF(J223 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R223" s="25"/>
-      <c r="S223" s="25" t="str">
+      <c r="R223" s="29"/>
+      <c r="S223" s="30" t="str">
         <f aca="true">IF(J223="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="22"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="I224" s="24" t="str">
+      <c r="B224" s="26"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
+      <c r="I224" s="28" t="str">
         <f aca="true">IF(J224 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R224" s="25"/>
-      <c r="S224" s="25" t="str">
+      <c r="R224" s="29"/>
+      <c r="S224" s="30" t="str">
         <f aca="true">IF(J224="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B225" s="22"/>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="I225" s="24" t="str">
+      <c r="B225" s="26"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+      <c r="I225" s="28" t="str">
         <f aca="true">IF(J225 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R225" s="25"/>
-      <c r="S225" s="25" t="str">
+      <c r="R225" s="29"/>
+      <c r="S225" s="30" t="str">
         <f aca="true">IF(J225="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="22"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="I226" s="24" t="str">
+      <c r="B226" s="26"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="I226" s="28" t="str">
         <f aca="true">IF(J226 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R226" s="25"/>
-      <c r="S226" s="25" t="str">
+      <c r="R226" s="29"/>
+      <c r="S226" s="30" t="str">
         <f aca="true">IF(J226="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B227" s="22"/>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="I227" s="24" t="str">
+      <c r="B227" s="26"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="I227" s="28" t="str">
         <f aca="true">IF(J227 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R227" s="25"/>
-      <c r="S227" s="25" t="str">
+      <c r="R227" s="29"/>
+      <c r="S227" s="30" t="str">
         <f aca="true">IF(J227="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="22"/>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="I228" s="24" t="str">
+      <c r="B228" s="26"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="I228" s="28" t="str">
         <f aca="true">IF(J228 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R228" s="25"/>
-      <c r="S228" s="25" t="str">
+      <c r="R228" s="29"/>
+      <c r="S228" s="30" t="str">
         <f aca="true">IF(J228="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="22"/>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
-      <c r="I229" s="24" t="str">
+      <c r="B229" s="26"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="I229" s="28" t="str">
         <f aca="true">IF(J229 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R229" s="25"/>
-      <c r="S229" s="25" t="str">
+      <c r="R229" s="29"/>
+      <c r="S229" s="30" t="str">
         <f aca="true">IF(J229="-",IF(ISNUMBER(SEARCH(",", INDIRECT("B" &amp; ROW() - 1) )),1,""), "")</f>
         <v/>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B230" s="22"/>
-      <c r="C230" s="22"/>
-      <c r="D230" s="22"/>
-      <c r="I230" s="24" t="str">
+      <c r="B230" s="26"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="I230" s="28" t="str">
         <f aca="true">IF(J230 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R230" s="25"/>
-      <c r="S230" s="25"/>
+      <c r="R230" s="29"/>
+      <c r="S230" s="30"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B231" s="22"/>
-      <c r="C231" s="22"/>
-      <c r="D231" s="22"/>
-      <c r="I231" s="24" t="str">
+      <c r="B231" s="26"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="I231" s="28" t="str">
         <f aca="true">IF(J231 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R231" s="25"/>
-      <c r="S231" s="25"/>
+      <c r="R231" s="29"/>
+      <c r="S231" s="30"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B232" s="22"/>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="I232" s="24" t="str">
+      <c r="B232" s="26"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="I232" s="28" t="str">
         <f aca="true">IF(J232 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R232" s="25"/>
-      <c r="S232" s="25"/>
+      <c r="R232" s="29"/>
+      <c r="S232" s="30"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B233" s="22"/>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
-      <c r="I233" s="24" t="str">
+      <c r="B233" s="26"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="I233" s="28" t="str">
         <f aca="true">IF(J233 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R233" s="25"/>
-      <c r="S233" s="25"/>
+      <c r="R233" s="29"/>
+      <c r="S233" s="30"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="22"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
-      <c r="I234" s="24" t="str">
+      <c r="B234" s="26"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="I234" s="28" t="str">
         <f aca="true">IF(J234 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R234" s="25"/>
-      <c r="S234" s="25"/>
+      <c r="R234" s="29"/>
+      <c r="S234" s="30"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="22"/>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="I235" s="24" t="str">
+      <c r="B235" s="26"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="I235" s="28" t="str">
         <f aca="true">IF(J235 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R235" s="25"/>
-      <c r="S235" s="25"/>
+      <c r="R235" s="29"/>
+      <c r="S235" s="30"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B236" s="22"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="I236" s="24" t="str">
+      <c r="B236" s="26"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="I236" s="28" t="str">
         <f aca="true">IF(J236 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R236" s="25"/>
-      <c r="S236" s="25"/>
+      <c r="R236" s="29"/>
+      <c r="S236" s="30"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B237" s="22"/>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="I237" s="24" t="str">
+      <c r="B237" s="26"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="I237" s="28" t="str">
         <f aca="true">IF(J237 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R237" s="25"/>
-      <c r="S237" s="25"/>
+      <c r="R237" s="29"/>
+      <c r="S237" s="30"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B238" s="22"/>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
-      <c r="I238" s="24" t="str">
+      <c r="B238" s="26"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="I238" s="28" t="str">
         <f aca="true">IF(J238 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R238" s="25"/>
-      <c r="S238" s="25"/>
+      <c r="R238" s="29"/>
+      <c r="S238" s="30"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="22"/>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
-      <c r="I239" s="24" t="str">
+      <c r="B239" s="26"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="I239" s="28" t="str">
         <f aca="true">IF(J239 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R239" s="25"/>
-      <c r="S239" s="25"/>
+      <c r="R239" s="29"/>
+      <c r="S239" s="30"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="22"/>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
-      <c r="I240" s="24" t="str">
+      <c r="B240" s="26"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="I240" s="28" t="str">
         <f aca="true">IF(J240 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R240" s="25"/>
-      <c r="S240" s="25"/>
+      <c r="R240" s="29"/>
+      <c r="S240" s="30"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="22"/>
-      <c r="C241" s="22"/>
-      <c r="D241" s="22"/>
-      <c r="I241" s="24" t="str">
+      <c r="B241" s="26"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="I241" s="28" t="str">
         <f aca="true">IF(J241 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R241" s="25"/>
-      <c r="S241" s="25"/>
+      <c r="R241" s="29"/>
+      <c r="S241" s="30"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B242" s="22"/>
-      <c r="C242" s="22"/>
-      <c r="D242" s="22"/>
-      <c r="I242" s="24" t="str">
+      <c r="B242" s="26"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="I242" s="28" t="str">
         <f aca="true">IF(J242 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R242" s="25"/>
-      <c r="S242" s="25"/>
+      <c r="R242" s="29"/>
+      <c r="S242" s="30"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B243" s="22"/>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
-      <c r="I243" s="24" t="str">
+      <c r="B243" s="26"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="I243" s="28" t="str">
         <f aca="true">IF(J243 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R243" s="25"/>
-      <c r="S243" s="25"/>
+      <c r="R243" s="29"/>
+      <c r="S243" s="30"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B244" s="22"/>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
-      <c r="I244" s="24" t="str">
+      <c r="B244" s="26"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="I244" s="28" t="str">
         <f aca="true">IF(J244 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R244" s="25"/>
-      <c r="S244" s="25"/>
+      <c r="R244" s="29"/>
+      <c r="S244" s="30"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="22"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
-      <c r="I245" s="24" t="str">
+      <c r="B245" s="26"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="I245" s="28" t="str">
         <f aca="true">IF(J245 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R245" s="25"/>
-      <c r="S245" s="25"/>
+      <c r="R245" s="29"/>
+      <c r="S245" s="30"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="22"/>
-      <c r="C246" s="22"/>
-      <c r="D246" s="22"/>
-      <c r="I246" s="24" t="str">
+      <c r="B246" s="26"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="I246" s="28" t="str">
         <f aca="true">IF(J246 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R246" s="25"/>
-      <c r="S246" s="25"/>
+      <c r="R246" s="29"/>
+      <c r="S246" s="30"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="22"/>
-      <c r="C247" s="22"/>
-      <c r="D247" s="22"/>
-      <c r="I247" s="24" t="str">
+      <c r="B247" s="26"/>
+      <c r="C247" s="26"/>
+      <c r="D247" s="26"/>
+      <c r="I247" s="28" t="str">
         <f aca="true">IF(J247 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R247" s="25"/>
-      <c r="S247" s="25"/>
+      <c r="R247" s="29"/>
+      <c r="S247" s="30"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="22"/>
-      <c r="C248" s="22"/>
-      <c r="D248" s="22"/>
-      <c r="I248" s="24" t="str">
+      <c r="B248" s="26"/>
+      <c r="C248" s="26"/>
+      <c r="D248" s="26"/>
+      <c r="I248" s="28" t="str">
         <f aca="true">IF(J248 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R248" s="25"/>
-      <c r="S248" s="25"/>
+      <c r="R248" s="29"/>
+      <c r="S248" s="30"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B249" s="22"/>
-      <c r="C249" s="22"/>
-      <c r="D249" s="22"/>
-      <c r="I249" s="24" t="str">
+      <c r="B249" s="26"/>
+      <c r="C249" s="26"/>
+      <c r="D249" s="26"/>
+      <c r="I249" s="28" t="str">
         <f aca="true">IF(J249 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R249" s="25"/>
-      <c r="S249" s="25"/>
+      <c r="R249" s="29"/>
+      <c r="S249" s="30"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="22"/>
-      <c r="C250" s="22"/>
-      <c r="D250" s="22"/>
-      <c r="I250" s="24" t="str">
+      <c r="B250" s="26"/>
+      <c r="C250" s="26"/>
+      <c r="D250" s="26"/>
+      <c r="I250" s="28" t="str">
         <f aca="true">IF(J250 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R250" s="25"/>
-      <c r="S250" s="25"/>
+      <c r="R250" s="29"/>
+      <c r="S250" s="30"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="22"/>
-      <c r="C251" s="22"/>
-      <c r="D251" s="22"/>
-      <c r="I251" s="24" t="str">
+      <c r="B251" s="26"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="26"/>
+      <c r="I251" s="28" t="str">
         <f aca="true">IF(J251 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R251" s="25"/>
-      <c r="S251" s="25"/>
+      <c r="R251" s="29"/>
+      <c r="S251" s="30"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="22"/>
-      <c r="C252" s="22"/>
-      <c r="D252" s="22"/>
-      <c r="I252" s="24" t="str">
+      <c r="B252" s="26"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="26"/>
+      <c r="I252" s="28" t="str">
         <f aca="true">IF(J252 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R252" s="25"/>
-      <c r="S252" s="25"/>
+      <c r="R252" s="29"/>
+      <c r="S252" s="30"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="22"/>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
-      <c r="I253" s="24" t="str">
+      <c r="B253" s="26"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="26"/>
+      <c r="I253" s="28" t="str">
         <f aca="true">IF(J253 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R253" s="25"/>
-      <c r="S253" s="25"/>
+      <c r="R253" s="29"/>
+      <c r="S253" s="30"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="22"/>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
-      <c r="I254" s="24" t="str">
+      <c r="B254" s="26"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="26"/>
+      <c r="I254" s="28" t="str">
         <f aca="true">IF(J254 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R254" s="25"/>
-      <c r="S254" s="25"/>
+      <c r="R254" s="29"/>
+      <c r="S254" s="30"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="22"/>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
-      <c r="I255" s="24" t="str">
+      <c r="B255" s="26"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="26"/>
+      <c r="I255" s="28" t="str">
         <f aca="true">IF(J255 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R255" s="25"/>
-      <c r="S255" s="25"/>
+      <c r="R255" s="29"/>
+      <c r="S255" s="30"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="22"/>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="I256" s="24" t="str">
+      <c r="B256" s="26"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="26"/>
+      <c r="I256" s="28" t="str">
         <f aca="true">IF(J256 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R256" s="25"/>
-      <c r="S256" s="25"/>
+      <c r="R256" s="29"/>
+      <c r="S256" s="30"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="22"/>
-      <c r="C257" s="22"/>
-      <c r="D257" s="22"/>
-      <c r="I257" s="24" t="str">
+      <c r="B257" s="26"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="26"/>
+      <c r="I257" s="28" t="str">
         <f aca="true">IF(J257 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R257" s="25"/>
-      <c r="S257" s="25"/>
+      <c r="R257" s="29"/>
+      <c r="S257" s="30"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="22"/>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
-      <c r="I258" s="24" t="str">
+      <c r="B258" s="26"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="26"/>
+      <c r="I258" s="28" t="str">
         <f aca="true">IF(J258 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R258" s="25"/>
-      <c r="S258" s="25"/>
+      <c r="R258" s="29"/>
+      <c r="S258" s="30"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="22"/>
-      <c r="C259" s="22"/>
-      <c r="D259" s="22"/>
-      <c r="I259" s="24" t="str">
+      <c r="B259" s="26"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="26"/>
+      <c r="I259" s="28" t="str">
         <f aca="true">IF(J259 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R259" s="25"/>
-      <c r="S259" s="25"/>
+      <c r="R259" s="29"/>
+      <c r="S259" s="30"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="22"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="22"/>
-      <c r="I260" s="24" t="str">
+      <c r="B260" s="26"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="26"/>
+      <c r="I260" s="28" t="str">
         <f aca="true">IF(J260 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R260" s="25"/>
-      <c r="S260" s="25"/>
+      <c r="R260" s="29"/>
+      <c r="S260" s="30"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="22"/>
-      <c r="C261" s="22"/>
-      <c r="D261" s="22"/>
-      <c r="I261" s="24" t="str">
+      <c r="B261" s="26"/>
+      <c r="C261" s="26"/>
+      <c r="D261" s="26"/>
+      <c r="I261" s="28" t="str">
         <f aca="true">IF(J261 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R261" s="25"/>
-      <c r="S261" s="25"/>
+      <c r="R261" s="29"/>
+      <c r="S261" s="30"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="22"/>
-      <c r="C262" s="22"/>
-      <c r="D262" s="22"/>
-      <c r="I262" s="24" t="str">
+      <c r="B262" s="26"/>
+      <c r="C262" s="26"/>
+      <c r="D262" s="26"/>
+      <c r="I262" s="28" t="str">
         <f aca="true">IF(J262 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R262" s="25"/>
-      <c r="S262" s="25"/>
+      <c r="R262" s="29"/>
+      <c r="S262" s="30"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="22"/>
-      <c r="C263" s="22"/>
-      <c r="D263" s="22"/>
-      <c r="I263" s="24" t="str">
+      <c r="B263" s="26"/>
+      <c r="C263" s="26"/>
+      <c r="D263" s="26"/>
+      <c r="I263" s="28" t="str">
         <f aca="true">IF(J263 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R263" s="25"/>
-      <c r="S263" s="25"/>
+      <c r="R263" s="29"/>
+      <c r="S263" s="30"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="22"/>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
-      <c r="I264" s="24" t="str">
+      <c r="B264" s="26"/>
+      <c r="C264" s="26"/>
+      <c r="D264" s="26"/>
+      <c r="I264" s="28" t="str">
         <f aca="true">IF(J264 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R264" s="25"/>
-      <c r="S264" s="25"/>
+      <c r="R264" s="29"/>
+      <c r="S264" s="30"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="22"/>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
-      <c r="I265" s="24" t="str">
+      <c r="B265" s="26"/>
+      <c r="C265" s="26"/>
+      <c r="D265" s="26"/>
+      <c r="I265" s="28" t="str">
         <f aca="true">IF(J265 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R265" s="25"/>
-      <c r="S265" s="25"/>
+      <c r="R265" s="29"/>
+      <c r="S265" s="30"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="22"/>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
-      <c r="I266" s="24" t="str">
+      <c r="B266" s="26"/>
+      <c r="C266" s="26"/>
+      <c r="D266" s="26"/>
+      <c r="I266" s="28" t="str">
         <f aca="true">IF(J266 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R266" s="25"/>
-      <c r="S266" s="25"/>
+      <c r="R266" s="29"/>
+      <c r="S266" s="30"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="22"/>
-      <c r="C267" s="22"/>
-      <c r="D267" s="22"/>
-      <c r="I267" s="24" t="str">
+      <c r="B267" s="26"/>
+      <c r="C267" s="26"/>
+      <c r="D267" s="26"/>
+      <c r="I267" s="28" t="str">
         <f aca="true">IF(J267 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
-      <c r="R267" s="25"/>
-      <c r="S267" s="25"/>
+      <c r="R267" s="29"/>
+      <c r="S267" s="30"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B268" s="22"/>
-      <c r="C268" s="22"/>
-      <c r="D268" s="22"/>
-      <c r="I268" s="24" t="str">
+      <c r="B268" s="26"/>
+      <c r="C268" s="26"/>
+      <c r="D268" s="26"/>
+      <c r="I268" s="28" t="str">
         <f aca="true">IF(J268 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B269" s="22"/>
-      <c r="C269" s="22"/>
-      <c r="D269" s="22"/>
-      <c r="I269" s="24" t="str">
+      <c r="B269" s="26"/>
+      <c r="C269" s="26"/>
+      <c r="D269" s="26"/>
+      <c r="I269" s="28" t="str">
         <f aca="true">IF(J269 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="22"/>
-      <c r="C270" s="22"/>
-      <c r="D270" s="22"/>
-      <c r="I270" s="24" t="str">
+      <c r="B270" s="26"/>
+      <c r="C270" s="26"/>
+      <c r="D270" s="26"/>
+      <c r="I270" s="28" t="str">
         <f aca="true">IF(J270 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="22"/>
-      <c r="C271" s="22"/>
-      <c r="D271" s="22"/>
-      <c r="I271" s="24" t="str">
+      <c r="B271" s="26"/>
+      <c r="C271" s="26"/>
+      <c r="D271" s="26"/>
+      <c r="I271" s="28" t="str">
         <f aca="true">IF(J271 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="22"/>
-      <c r="C272" s="22"/>
-      <c r="D272" s="22"/>
-      <c r="I272" s="24" t="str">
+      <c r="B272" s="26"/>
+      <c r="C272" s="26"/>
+      <c r="D272" s="26"/>
+      <c r="I272" s="28" t="str">
         <f aca="true">IF(J272 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="22"/>
-      <c r="C273" s="22"/>
-      <c r="D273" s="22"/>
-      <c r="I273" s="24" t="str">
+      <c r="B273" s="26"/>
+      <c r="C273" s="26"/>
+      <c r="D273" s="26"/>
+      <c r="I273" s="28" t="str">
         <f aca="true">IF(J273 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="22"/>
-      <c r="C274" s="22"/>
-      <c r="D274" s="22"/>
-      <c r="I274" s="24" t="str">
+      <c r="B274" s="26"/>
+      <c r="C274" s="26"/>
+      <c r="D274" s="26"/>
+      <c r="I274" s="28" t="str">
         <f aca="true">IF(J274 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="22"/>
-      <c r="C275" s="22"/>
-      <c r="D275" s="22"/>
-      <c r="I275" s="24" t="str">
+      <c r="B275" s="26"/>
+      <c r="C275" s="26"/>
+      <c r="D275" s="26"/>
+      <c r="I275" s="28" t="str">
         <f aca="true">IF(J275 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="22"/>
-      <c r="C276" s="22"/>
-      <c r="D276" s="22"/>
-      <c r="I276" s="24" t="str">
+      <c r="B276" s="26"/>
+      <c r="C276" s="26"/>
+      <c r="D276" s="26"/>
+      <c r="I276" s="28" t="str">
         <f aca="true">IF(J276 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="22"/>
-      <c r="C277" s="22"/>
-      <c r="D277" s="22"/>
-      <c r="I277" s="24" t="str">
+      <c r="B277" s="26"/>
+      <c r="C277" s="26"/>
+      <c r="D277" s="26"/>
+      <c r="I277" s="28" t="str">
         <f aca="true">IF(J277 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="22"/>
-      <c r="C278" s="22"/>
-      <c r="D278" s="22"/>
-      <c r="I278" s="24" t="str">
+      <c r="B278" s="26"/>
+      <c r="C278" s="26"/>
+      <c r="D278" s="26"/>
+      <c r="I278" s="28" t="str">
         <f aca="true">IF(J278 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="22"/>
-      <c r="C279" s="22"/>
-      <c r="D279" s="22"/>
-      <c r="I279" s="24" t="str">
+      <c r="B279" s="26"/>
+      <c r="C279" s="26"/>
+      <c r="D279" s="26"/>
+      <c r="I279" s="28" t="str">
         <f aca="true">IF(J279 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="22"/>
-      <c r="C280" s="22"/>
-      <c r="D280" s="22"/>
-      <c r="I280" s="24" t="str">
+      <c r="B280" s="26"/>
+      <c r="C280" s="26"/>
+      <c r="D280" s="26"/>
+      <c r="I280" s="28" t="str">
         <f aca="true">IF(J280 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="22"/>
-      <c r="C281" s="22"/>
-      <c r="D281" s="22"/>
-      <c r="I281" s="24" t="str">
+      <c r="B281" s="26"/>
+      <c r="C281" s="26"/>
+      <c r="D281" s="26"/>
+      <c r="I281" s="28" t="str">
         <f aca="true">IF(J281 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="22"/>
-      <c r="C282" s="22"/>
-      <c r="D282" s="22"/>
-      <c r="I282" s="24" t="str">
+      <c r="B282" s="26"/>
+      <c r="C282" s="26"/>
+      <c r="D282" s="26"/>
+      <c r="I282" s="28" t="str">
         <f aca="true">IF(J282 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B283" s="22"/>
-      <c r="C283" s="22"/>
-      <c r="D283" s="22"/>
-      <c r="I283" s="24" t="str">
+      <c r="B283" s="26"/>
+      <c r="C283" s="26"/>
+      <c r="D283" s="26"/>
+      <c r="I283" s="28" t="str">
         <f aca="true">IF(J283 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="22"/>
-      <c r="C284" s="22"/>
-      <c r="D284" s="22"/>
-      <c r="I284" s="24" t="str">
+      <c r="B284" s="26"/>
+      <c r="C284" s="26"/>
+      <c r="D284" s="26"/>
+      <c r="I284" s="28" t="str">
         <f aca="true">IF(J284 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="22"/>
-      <c r="C285" s="22"/>
-      <c r="D285" s="22"/>
-      <c r="I285" s="24" t="str">
+      <c r="B285" s="26"/>
+      <c r="C285" s="26"/>
+      <c r="D285" s="26"/>
+      <c r="I285" s="28" t="str">
         <f aca="true">IF(J285 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B286" s="22"/>
-      <c r="C286" s="22"/>
-      <c r="D286" s="22"/>
-      <c r="I286" s="24" t="str">
+      <c r="B286" s="26"/>
+      <c r="C286" s="26"/>
+      <c r="D286" s="26"/>
+      <c r="I286" s="28" t="str">
         <f aca="true">IF(J286 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B287" s="22"/>
-      <c r="C287" s="22"/>
-      <c r="D287" s="22"/>
-      <c r="I287" s="24" t="str">
+      <c r="B287" s="26"/>
+      <c r="C287" s="26"/>
+      <c r="D287" s="26"/>
+      <c r="I287" s="28" t="str">
         <f aca="true">IF(J287 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="22"/>
-      <c r="C288" s="22"/>
-      <c r="D288" s="22"/>
-      <c r="I288" s="24" t="str">
+      <c r="B288" s="26"/>
+      <c r="C288" s="26"/>
+      <c r="D288" s="26"/>
+      <c r="I288" s="28" t="str">
         <f aca="true">IF(J288 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B289" s="22"/>
-      <c r="C289" s="22"/>
-      <c r="D289" s="22"/>
-      <c r="I289" s="24" t="str">
+      <c r="B289" s="26"/>
+      <c r="C289" s="26"/>
+      <c r="D289" s="26"/>
+      <c r="I289" s="28" t="str">
         <f aca="true">IF(J289 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B290" s="22"/>
-      <c r="C290" s="22"/>
-      <c r="D290" s="22"/>
-      <c r="I290" s="24" t="str">
+      <c r="B290" s="26"/>
+      <c r="C290" s="26"/>
+      <c r="D290" s="26"/>
+      <c r="I290" s="28" t="str">
         <f aca="true">IF(J290 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B291" s="22"/>
-      <c r="C291" s="22"/>
-      <c r="D291" s="22"/>
-      <c r="I291" s="24" t="str">
+      <c r="B291" s="26"/>
+      <c r="C291" s="26"/>
+      <c r="D291" s="26"/>
+      <c r="I291" s="28" t="str">
         <f aca="true">IF(J291 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="22"/>
-      <c r="C292" s="22"/>
-      <c r="D292" s="22"/>
-      <c r="I292" s="24" t="str">
+      <c r="B292" s="26"/>
+      <c r="C292" s="26"/>
+      <c r="D292" s="26"/>
+      <c r="I292" s="28" t="str">
         <f aca="true">IF(J292 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="22"/>
-      <c r="C293" s="22"/>
-      <c r="D293" s="22"/>
-      <c r="I293" s="24" t="str">
+      <c r="B293" s="26"/>
+      <c r="C293" s="26"/>
+      <c r="D293" s="26"/>
+      <c r="I293" s="28" t="str">
         <f aca="true">IF(J293 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="22"/>
-      <c r="C294" s="22"/>
-      <c r="D294" s="22"/>
-      <c r="I294" s="24" t="str">
+      <c r="B294" s="26"/>
+      <c r="C294" s="26"/>
+      <c r="D294" s="26"/>
+      <c r="I294" s="28" t="str">
         <f aca="true">IF(J294 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="22"/>
-      <c r="C295" s="22"/>
-      <c r="D295" s="22"/>
-      <c r="I295" s="24" t="str">
+      <c r="B295" s="26"/>
+      <c r="C295" s="26"/>
+      <c r="D295" s="26"/>
+      <c r="I295" s="28" t="str">
         <f aca="true">IF(J295 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="22"/>
-      <c r="C296" s="22"/>
-      <c r="D296" s="22"/>
-      <c r="I296" s="24" t="str">
+      <c r="B296" s="26"/>
+      <c r="C296" s="26"/>
+      <c r="D296" s="26"/>
+      <c r="I296" s="28" t="str">
         <f aca="true">IF(J296 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B297" s="22"/>
-      <c r="C297" s="22"/>
-      <c r="D297" s="22"/>
-      <c r="I297" s="24" t="str">
+      <c r="B297" s="26"/>
+      <c r="C297" s="26"/>
+      <c r="D297" s="26"/>
+      <c r="I297" s="28" t="str">
         <f aca="true">IF(J297 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B298" s="22"/>
-      <c r="C298" s="22"/>
-      <c r="D298" s="22"/>
-      <c r="I298" s="24" t="str">
+      <c r="B298" s="26"/>
+      <c r="C298" s="26"/>
+      <c r="D298" s="26"/>
+      <c r="I298" s="28" t="str">
         <f aca="true">IF(J298 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B299" s="22"/>
-      <c r="C299" s="22"/>
-      <c r="D299" s="22"/>
-      <c r="I299" s="24" t="str">
+      <c r="B299" s="26"/>
+      <c r="C299" s="26"/>
+      <c r="D299" s="26"/>
+      <c r="I299" s="28" t="str">
         <f aca="true">IF(J299 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B300" s="22"/>
-      <c r="C300" s="22"/>
-      <c r="D300" s="22"/>
-      <c r="I300" s="24" t="str">
+      <c r="B300" s="26"/>
+      <c r="C300" s="26"/>
+      <c r="D300" s="26"/>
+      <c r="I300" s="28" t="str">
         <f aca="true">IF(J300 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B301" s="22"/>
-      <c r="C301" s="22"/>
-      <c r="D301" s="22"/>
-      <c r="I301" s="24" t="str">
+      <c r="B301" s="26"/>
+      <c r="C301" s="26"/>
+      <c r="D301" s="26"/>
+      <c r="I301" s="28" t="str">
         <f aca="true">IF(J301 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B302" s="22"/>
-      <c r="C302" s="22"/>
-      <c r="D302" s="22"/>
-      <c r="I302" s="24" t="str">
+      <c r="B302" s="26"/>
+      <c r="C302" s="26"/>
+      <c r="D302" s="26"/>
+      <c r="I302" s="28" t="str">
         <f aca="true">IF(J302 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B303" s="22"/>
-      <c r="C303" s="22"/>
-      <c r="D303" s="22"/>
-      <c r="I303" s="24" t="str">
+      <c r="B303" s="26"/>
+      <c r="C303" s="26"/>
+      <c r="D303" s="26"/>
+      <c r="I303" s="28" t="str">
         <f aca="true">IF(J303 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="22"/>
-      <c r="C304" s="22"/>
-      <c r="D304" s="22"/>
-      <c r="I304" s="24" t="str">
+      <c r="B304" s="26"/>
+      <c r="C304" s="26"/>
+      <c r="D304" s="26"/>
+      <c r="I304" s="28" t="str">
         <f aca="true">IF(J304 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B305" s="22"/>
-      <c r="C305" s="22"/>
-      <c r="D305" s="22"/>
-      <c r="I305" s="24" t="str">
+      <c r="B305" s="26"/>
+      <c r="C305" s="26"/>
+      <c r="D305" s="26"/>
+      <c r="I305" s="28" t="str">
         <f aca="true">IF(J305 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="22"/>
-      <c r="C306" s="22"/>
-      <c r="D306" s="22"/>
-      <c r="I306" s="24" t="str">
+      <c r="B306" s="26"/>
+      <c r="C306" s="26"/>
+      <c r="D306" s="26"/>
+      <c r="I306" s="28" t="str">
         <f aca="true">IF(J306 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="22"/>
-      <c r="C307" s="22"/>
-      <c r="D307" s="22"/>
-      <c r="I307" s="24" t="str">
+      <c r="B307" s="26"/>
+      <c r="C307" s="26"/>
+      <c r="D307" s="26"/>
+      <c r="I307" s="28" t="str">
         <f aca="true">IF(J307 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="22"/>
-      <c r="C308" s="22"/>
-      <c r="D308" s="22"/>
-      <c r="I308" s="24" t="str">
+      <c r="B308" s="26"/>
+      <c r="C308" s="26"/>
+      <c r="D308" s="26"/>
+      <c r="I308" s="28" t="str">
         <f aca="true">IF(J308 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="22"/>
-      <c r="C309" s="22"/>
-      <c r="D309" s="22"/>
-      <c r="I309" s="24" t="str">
+      <c r="B309" s="26"/>
+      <c r="C309" s="26"/>
+      <c r="D309" s="26"/>
+      <c r="I309" s="28" t="str">
         <f aca="true">IF(J309 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="22"/>
-      <c r="C310" s="22"/>
-      <c r="D310" s="22"/>
-      <c r="I310" s="24" t="str">
+      <c r="B310" s="26"/>
+      <c r="C310" s="26"/>
+      <c r="D310" s="26"/>
+      <c r="I310" s="28" t="str">
         <f aca="true">IF(J310 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="22"/>
-      <c r="C311" s="22"/>
-      <c r="D311" s="22"/>
-      <c r="I311" s="24" t="str">
+      <c r="B311" s="26"/>
+      <c r="C311" s="26"/>
+      <c r="D311" s="26"/>
+      <c r="I311" s="28" t="str">
         <f aca="true">IF(J311 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="22"/>
-      <c r="C312" s="22"/>
-      <c r="D312" s="22"/>
-      <c r="I312" s="24" t="str">
+      <c r="B312" s="26"/>
+      <c r="C312" s="26"/>
+      <c r="D312" s="26"/>
+      <c r="I312" s="28" t="str">
         <f aca="true">IF(J312 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="22"/>
-      <c r="C313" s="22"/>
-      <c r="D313" s="22"/>
-      <c r="I313" s="24" t="str">
+      <c r="B313" s="26"/>
+      <c r="C313" s="26"/>
+      <c r="D313" s="26"/>
+      <c r="I313" s="28" t="str">
         <f aca="true">IF(J313 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="22"/>
-      <c r="C314" s="22"/>
-      <c r="D314" s="22"/>
-      <c r="I314" s="24" t="str">
+      <c r="B314" s="26"/>
+      <c r="C314" s="26"/>
+      <c r="D314" s="26"/>
+      <c r="I314" s="28" t="str">
         <f aca="true">IF(J314 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="22"/>
-      <c r="C315" s="22"/>
-      <c r="D315" s="22"/>
-      <c r="I315" s="24" t="str">
+      <c r="B315" s="26"/>
+      <c r="C315" s="26"/>
+      <c r="D315" s="26"/>
+      <c r="I315" s="28" t="str">
         <f aca="true">IF(J315 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="22"/>
-      <c r="C316" s="22"/>
-      <c r="D316" s="22"/>
-      <c r="I316" s="24" t="str">
+      <c r="B316" s="26"/>
+      <c r="C316" s="26"/>
+      <c r="D316" s="26"/>
+      <c r="I316" s="28" t="str">
         <f aca="true">IF(J316 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="24" t="str">
+      <c r="I317" s="28" t="str">
         <f aca="true">IF(J317 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="24" t="str">
+      <c r="I318" s="28" t="str">
         <f aca="true">IF(J318 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="24" t="str">
+      <c r="I319" s="28" t="str">
         <f aca="true">IF(J319 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="24" t="str">
+      <c r="I320" s="28" t="str">
         <f aca="true">IF(J320 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="24" t="str">
+      <c r="I321" s="28" t="str">
         <f aca="true">IF(J321 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="24" t="str">
+      <c r="I322" s="28" t="str">
         <f aca="true">IF(J322 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="24" t="str">
+      <c r="I323" s="28" t="str">
         <f aca="true">IF(J323 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="24" t="str">
+      <c r="I324" s="28" t="str">
         <f aca="true">IF(J324 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="24" t="str">
+      <c r="I325" s="28" t="str">
         <f aca="true">IF(J325 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="24" t="str">
+      <c r="I326" s="28" t="str">
         <f aca="true">IF(J326 = "-", INDIRECT("C" &amp; ROW() - 1) ,"")</f>
         <v/>
       </c>
